--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpp/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="720" windowWidth="34840" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="33600" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="862">
   <si>
     <t>key</t>
   </si>
@@ -2662,6 +2662,15 @@
  1000000000000000: um quatrilião[, &gt;&gt;];
  2000000000000000: &lt;&lt; quatriliões[, &gt;&gt;];
  1000000000000000000: =#,##0=;</t>
+  </si>
+  <si>
+    <t>payed_without_retention_n_documents</t>
+  </si>
+  <si>
+    <t>Recebemos nesta data {0}  a quantia de {1} ({2}) para a liquidação dos seguintes documentos:</t>
+  </si>
+  <si>
+    <t>Received on {0} the amount of {1} ({2}) for the settlement of the following documents:</t>
   </si>
 </sst>
 </file>
@@ -2748,8 +2757,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G382" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G382"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G383" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G383"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3026,10 +3035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="I320" sqref="I320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5849,89 +5858,89 @@
         <v>679</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>680</v>
+        <v>859</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>682</v>
+        <v>861</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>700</v>
@@ -5939,494 +5948,494 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>688</v>
+        <v>726</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>759</v>
+        <v>697</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>857</v>
+        <v>815</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>830</v>
@@ -6434,78 +6443,89 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>622</v>
+        <v>837</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>623</v>
+        <v>838</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>841</v>
+        <v>622</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>842</v>
+        <v>623</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>851</v>
       </c>
     </row>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="869">
   <si>
     <t>key</t>
   </si>
@@ -2052,9 +2052,6 @@
   </si>
   <si>
     <t>payment_mechanism_print_PF</t>
-  </si>
-  <si>
-    <t>by payment supplier</t>
   </si>
   <si>
     <t>with_retention</t>
@@ -2671,6 +2668,30 @@
   </si>
   <si>
     <t>Received on {0} the amount of {1} ({2}) for the settlement of the following documents:</t>
+  </si>
+  <si>
+    <t>payment_mechanism_print_PCO</t>
+  </si>
+  <si>
+    <t>pago por fornecedor</t>
+  </si>
+  <si>
+    <t>pago por colaborador</t>
+  </si>
+  <si>
+    <t>pago por cliente</t>
+  </si>
+  <si>
+    <t>paid by customer</t>
+  </si>
+  <si>
+    <t>paid by supplier</t>
+  </si>
+  <si>
+    <t>paid by employee</t>
+  </si>
+  <si>
+    <t>payment_mechanism_print_PC</t>
   </si>
 </sst>
 </file>
@@ -2757,8 +2778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G383" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G383"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G385" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G385"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3035,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="I320" sqref="I320"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5143,7 +5164,7 @@
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -5819,714 +5840,736 @@
         <v>674</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>569</v>
+        <v>862</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
+      <c r="B322" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="C320" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
+      <c r="C323" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="C321" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
+      <c r="C324" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
+    </row>
+    <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C325" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>734</v>
+        <v>687</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>697</v>
+        <v>751</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>759</v>
+        <v>699</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>762</v>
+        <v>696</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>857</v>
+        <v>811</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>823</v>
+        <v>856</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>622</v>
+        <v>833</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>623</v>
+        <v>834</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>844</v>
+        <v>622</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>845</v>
+        <v>623</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="C385" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpp/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoramos/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="33600" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="1680" windowWidth="36800" windowHeight="20740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2698,13 +2698,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2727,7 +2732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2736,6 +2741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3059,7 +3065,7 @@
   <dimension ref="A1:G385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5846,8 +5852,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
+    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A320" s="4" t="s">
         <v>861</v>
       </c>
       <c r="B320" s="1" t="s">

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -2698,18 +2698,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2732,7 +2727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2741,7 +2736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3065,7 +3059,7 @@
   <dimension ref="A1:G385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+      <selection activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5852,8 +5846,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A320" s="4" t="s">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B320" s="1" t="s">

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoramos/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpp/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1680" windowWidth="36800" windowHeight="20740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="872">
   <si>
     <t>key</t>
   </si>
@@ -2692,6 +2692,15 @@
   </si>
   <si>
     <t>payment_mechanism_print_PC</t>
+  </si>
+  <si>
+    <t>purchases_mission_map_receipt</t>
+  </si>
+  <si>
+    <t>{0}: Mapa de deslocações de {1} de {2}</t>
+  </si>
+  <si>
+    <t>{0}: Misson map Month: {1} Year: {2}</t>
   </si>
 </sst>
 </file>
@@ -2778,8 +2787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G385" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G385"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G386" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G386"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3056,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G385"/>
+  <dimension ref="A1:G386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A322" sqref="A322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5868,133 +5877,133 @@
         <v>865</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
+    <row r="324" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="C324" s="1" t="s">
         <v>854</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>860</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>699</v>
@@ -6002,494 +6011,494 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>687</v>
+        <v>725</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>730</v>
+        <v>687</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>758</v>
+        <v>696</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>829</v>
@@ -6497,78 +6506,89 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>622</v>
+        <v>836</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>623</v>
+        <v>837</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>840</v>
+        <v>622</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>841</v>
+        <v>623</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C386" s="1" t="s">
         <v>850</v>
       </c>
     </row>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="881">
   <si>
     <t>key</t>
   </si>
@@ -2701,6 +2701,33 @@
   </si>
   <si>
     <t>{0}: Misson map Month: {1} Year: {2}</t>
+  </si>
+  <si>
+    <t>received_with_retention</t>
+  </si>
+  <si>
+    <t>received_without_retention</t>
+  </si>
+  <si>
+    <t>received_without_retention_n_documents</t>
+  </si>
+  <si>
+    <t>Pagamos nesta data {0} a quantia de {1} para a liquidação do documento {2} de {3}. O valor do recebido já é líquido de retenção na fonte à taxa de {4} no montante de {5}. {6}</t>
+  </si>
+  <si>
+    <t>Payed on this date the amount of {0} for the settlement of the document {1} of {2}. The value received is already net of withholding tax at the rate {3} in the amount of {4}.</t>
+  </si>
+  <si>
+    <t>Pagamos nesta data {0}  a quantia de {1} ({2}) para a liquidação do documento {3} de {4}. {5}</t>
+  </si>
+  <si>
+    <t>Payed on {0} the amount of {1} ({2}) for the settlement of the document {3} of {4}.</t>
+  </si>
+  <si>
+    <t>Pagamos nesta data {0}  a quantia de {1} ({2}) para a liquidação dos seguintes documentos:</t>
+  </si>
+  <si>
+    <t>Payed on {0} the amount of {1} ({2}) for the settlement of the following documents:</t>
   </si>
 </sst>
 </file>
@@ -2787,8 +2814,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G386" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G386"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G389" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G389"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3065,10 +3092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G386"/>
+  <dimension ref="A1:G389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="A322" sqref="A322"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5904,10 +5931,10 @@
         <v>676</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -5915,10 +5942,10 @@
         <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>678</v>
+        <v>878</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -5926,669 +5953,702 @@
         <v>858</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="C329" s="1" t="s">
         <v>860</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>699</v>
+        <v>745</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>761</v>
+        <v>699</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>856</v>
+        <v>808</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>622</v>
+        <v>831</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>623</v>
+        <v>829</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>846</v>
+        <v>622</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>847</v>
+        <v>623</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B389" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>850</v>
       </c>
     </row>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpp/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoramos/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2691,9 +2691,6 @@
     <t>paid by employee</t>
   </si>
   <si>
-    <t>payment_mechanism_print_PC</t>
-  </si>
-  <si>
     <t>purchases_mission_map_receipt</t>
   </si>
   <si>
@@ -2728,6 +2725,9 @@
   </si>
   <si>
     <t>Payed on {0} the amount of {1} ({2}) for the settlement of the following documents:</t>
+  </si>
+  <si>
+    <t>payment_mechanism_print_PCL</t>
   </si>
 </sst>
 </file>
@@ -3095,7 +3095,7 @@
   <dimension ref="A1:G389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+      <selection activeCell="A322" sqref="A322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>864</v>
@@ -5906,13 +5906,13 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -5931,10 +5931,10 @@
         <v>676</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -5942,10 +5942,10 @@
         <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -5953,15 +5953,15 @@
         <v>858</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>853</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>855</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>859</v>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoramos/work/sp-duh/config/i18n/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2316,9 +2311,6 @@
   </si>
   <si>
     <t>document_type_DSP</t>
-  </si>
-  <si>
-    <t>Despesas de colaborador</t>
   </si>
   <si>
     <t>Employee expense</t>
@@ -2728,6 +2720,9 @@
   </si>
   <si>
     <t>payment_mechanism_print_PCL</t>
+  </si>
+  <si>
+    <t>Fatura de despesa</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2907,7 +2902,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3084,7 +3079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3094,18 +3089,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A322" sqref="A322"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3144,7 +3139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3152,7 +3147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3176,7 +3171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3184,7 +3179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3192,7 +3187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -3200,7 +3195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -3208,7 +3203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -3216,7 +3211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3224,7 +3219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3232,7 +3227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -3240,7 +3235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +3243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -3256,7 +3251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -3264,7 +3259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3272,7 +3267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -3280,7 +3275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -3288,7 +3283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3296,7 +3291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -3304,7 +3299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3312,7 +3307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -3320,7 +3315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -3328,7 +3323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -3336,7 +3331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -3352,7 +3347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -3360,7 +3355,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -3368,7 +3363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -3376,7 +3371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -3384,7 +3379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -3400,7 +3395,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -3408,7 +3403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -3416,7 +3411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -3424,7 +3419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -3432,7 +3427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -3440,7 +3435,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -3448,7 +3443,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -3456,7 +3451,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3464,7 +3459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -3472,7 +3467,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -3480,7 +3475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -3488,7 +3483,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -3496,7 +3491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -3504,7 +3499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -3512,7 +3507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -3520,7 +3515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -3528,7 +3523,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -3536,7 +3531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -3544,7 +3539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -3552,7 +3547,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -3560,7 +3555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -3568,7 +3563,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -3576,7 +3571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -3584,7 +3579,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -3592,7 +3587,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -3600,7 +3595,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -3608,7 +3603,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -3616,7 +3611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -3624,7 +3619,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -3632,7 +3627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -3640,7 +3635,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -3648,7 +3643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -3656,7 +3651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -3664,7 +3659,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -3672,7 +3667,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -3680,7 +3675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -3688,7 +3683,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -3696,7 +3691,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -3712,7 +3707,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -3720,7 +3715,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -3728,7 +3723,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -3736,7 +3731,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -3744,7 +3739,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -3752,7 +3747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -3760,7 +3755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -3768,7 +3763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -3776,7 +3771,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -3784,7 +3779,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -3792,7 +3787,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -3800,7 +3795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -3808,7 +3803,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -3816,7 +3811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -3824,7 +3819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -3832,7 +3827,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -3840,7 +3835,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -3848,7 +3843,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -3856,7 +3851,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -3864,7 +3859,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -3872,7 +3867,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -3880,7 +3875,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -3888,7 +3883,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -3896,7 +3891,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -3904,7 +3899,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -3912,7 +3907,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -3920,7 +3915,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -3928,7 +3923,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -3936,7 +3931,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -3944,7 +3939,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -3952,7 +3947,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -3960,7 +3955,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -3968,7 +3963,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -3976,7 +3971,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -3984,7 +3979,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -3992,7 +3987,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -4000,7 +3995,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -4008,7 +4003,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -4016,7 +4011,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -4024,7 +4019,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -4032,7 +4027,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -4048,7 +4043,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -4056,7 +4051,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -4064,7 +4059,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -4072,7 +4067,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -4080,7 +4075,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -4088,7 +4083,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -4096,7 +4091,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -4104,7 +4099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -4112,7 +4107,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -4120,7 +4115,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -4128,7 +4123,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -4136,7 +4131,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -4144,7 +4139,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -4152,7 +4147,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -4160,7 +4155,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -4168,7 +4163,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -4176,7 +4171,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -4184,7 +4179,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -4192,7 +4187,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -4200,7 +4195,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -4208,7 +4203,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -4216,7 +4211,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -4224,7 +4219,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -4232,7 +4227,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -4248,7 +4243,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -4256,7 +4251,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -4264,7 +4259,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -4272,7 +4267,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -4280,7 +4275,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -4288,7 +4283,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -4296,7 +4291,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -4304,7 +4299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -4312,7 +4307,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -4320,7 +4315,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -4328,7 +4323,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -4336,7 +4331,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -4344,7 +4339,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -4352,7 +4347,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -4360,7 +4355,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -4368,7 +4363,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -4376,7 +4371,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -4384,7 +4379,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -4400,7 +4395,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -4408,7 +4403,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -4416,7 +4411,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -4424,7 +4419,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -4432,7 +4427,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -4448,7 +4443,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -4456,7 +4451,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -4464,7 +4459,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -4472,7 +4467,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -4480,7 +4475,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -4488,7 +4483,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -4496,7 +4491,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -4504,7 +4499,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -4512,7 +4507,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -4520,7 +4515,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -4536,7 +4531,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -4544,7 +4539,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -4552,7 +4547,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -4560,7 +4555,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -4568,7 +4563,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -4576,7 +4571,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -4584,7 +4579,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -4592,7 +4587,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -4600,7 +4595,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -4608,7 +4603,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -4616,7 +4611,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -4624,7 +4619,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -4632,7 +4627,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -4640,7 +4635,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -4648,7 +4643,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -4656,7 +4651,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -4664,7 +4659,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -4672,7 +4667,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -4680,7 +4675,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -4688,7 +4683,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -4696,7 +4691,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -4704,7 +4699,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -4712,7 +4707,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -4720,7 +4715,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -4728,7 +4723,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -4736,7 +4731,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -4744,7 +4739,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -4752,7 +4747,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -4760,7 +4755,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -4768,7 +4763,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -4776,7 +4771,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -4784,7 +4779,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -4792,7 +4787,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -4800,7 +4795,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -4808,7 +4803,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -4816,7 +4811,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -4824,7 +4819,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -4832,7 +4827,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -4840,7 +4835,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -4848,7 +4843,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -4856,7 +4851,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -4864,7 +4859,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -4872,7 +4867,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -4880,7 +4875,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -4888,7 +4883,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -4896,7 +4891,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -4904,7 +4899,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -4912,7 +4907,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -4920,7 +4915,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -4928,7 +4923,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -4936,7 +4931,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -4944,7 +4939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -4952,7 +4947,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -4960,7 +4955,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -4968,7 +4963,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -4976,7 +4971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -4984,7 +4979,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -4992,7 +4987,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -5000,7 +4995,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -5016,7 +5011,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -5024,7 +5019,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -5032,7 +5027,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -5040,7 +5035,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -5056,7 +5051,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -5064,7 +5059,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -5072,7 +5067,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -5080,7 +5075,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -5088,7 +5083,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -5096,7 +5091,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -5107,7 +5102,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -5118,7 +5113,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -5129,7 +5124,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -5151,7 +5146,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -5162,7 +5157,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -5173,7 +5168,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -5184,7 +5179,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="32">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -5195,15 +5190,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="409">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>522</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
@@ -5222,7 +5217,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>526</v>
       </c>
@@ -5233,7 +5228,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>529</v>
       </c>
@@ -5244,7 +5239,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>532</v>
       </c>
@@ -5255,7 +5250,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>535</v>
       </c>
@@ -5266,7 +5261,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>538</v>
       </c>
@@ -5277,7 +5272,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>541</v>
       </c>
@@ -5288,7 +5283,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>544</v>
       </c>
@@ -5299,7 +5294,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>547</v>
       </c>
@@ -5310,7 +5305,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>550</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>553</v>
       </c>
@@ -5332,7 +5327,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>556</v>
       </c>
@@ -5343,7 +5338,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>559</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>562</v>
       </c>
@@ -5365,7 +5360,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>565</v>
       </c>
@@ -5376,7 +5371,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -5387,7 +5382,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>571</v>
       </c>
@@ -5398,7 +5393,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>574</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>577</v>
       </c>
@@ -5420,7 +5415,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>580</v>
       </c>
@@ -5431,7 +5426,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>583</v>
       </c>
@@ -5442,7 +5437,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>586</v>
       </c>
@@ -5453,7 +5448,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>589</v>
       </c>
@@ -5464,7 +5459,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>592</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -5486,7 +5481,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="48">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -5497,7 +5492,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>601</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="32">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -5519,7 +5514,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="32">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -5530,7 +5525,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>610</v>
       </c>
@@ -5541,7 +5536,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>612</v>
       </c>
@@ -5552,7 +5547,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>615</v>
       </c>
@@ -5563,7 +5558,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>618</v>
       </c>
@@ -5574,7 +5569,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>621</v>
       </c>
@@ -5585,7 +5580,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>624</v>
       </c>
@@ -5596,7 +5591,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>627</v>
       </c>
@@ -5607,7 +5602,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>630</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>633</v>
       </c>
@@ -5629,7 +5624,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>636</v>
       </c>
@@ -5640,7 +5635,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>639</v>
       </c>
@@ -5651,7 +5646,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>642</v>
       </c>
@@ -5662,7 +5657,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>645</v>
       </c>
@@ -5673,7 +5668,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>648</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>651</v>
       </c>
@@ -5695,7 +5690,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>657</v>
       </c>
@@ -5717,7 +5712,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>660</v>
       </c>
@@ -5728,7 +5723,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>661</v>
       </c>
@@ -5739,7 +5734,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -5750,7 +5745,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>663</v>
       </c>
@@ -5761,7 +5756,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>664</v>
       </c>
@@ -5772,7 +5767,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>665</v>
       </c>
@@ -5783,7 +5778,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>666</v>
       </c>
@@ -5794,7 +5789,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>667</v>
       </c>
@@ -5805,7 +5800,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>668</v>
       </c>
@@ -5816,7 +5811,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>669</v>
       </c>
@@ -5827,7 +5822,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>670</v>
       </c>
@@ -5838,7 +5833,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>671</v>
       </c>
@@ -5849,7 +5844,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>672</v>
       </c>
@@ -5860,7 +5855,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>673</v>
       </c>
@@ -5871,128 +5866,128 @@
         <v>567</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B320" s="1" t="s">
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C321" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:3" ht="48">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:3" ht="64">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:3" ht="32">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C325" s="1" t="s">
+    </row>
+    <row r="326" spans="1:3" ht="32">
+      <c r="A326" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:3" ht="64">
       <c r="A327" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="32">
+      <c r="A328" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="C327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>854</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A328" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="32">
       <c r="A329" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>679</v>
       </c>
@@ -6003,7 +5998,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>682</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>685</v>
       </c>
@@ -6025,7 +6020,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>688</v>
       </c>
@@ -6036,7 +6031,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>691</v>
       </c>
@@ -6047,7 +6042,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>694</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>697</v>
       </c>
@@ -6069,7 +6064,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>700</v>
       </c>
@@ -6080,7 +6075,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>702</v>
       </c>
@@ -6091,7 +6086,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>705</v>
       </c>
@@ -6102,7 +6097,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>708</v>
       </c>
@@ -6113,7 +6108,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>711</v>
       </c>
@@ -6124,7 +6119,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>714</v>
       </c>
@@ -6135,7 +6130,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>717</v>
       </c>
@@ -6146,7 +6141,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>720</v>
       </c>
@@ -6157,7 +6152,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>723</v>
       </c>
@@ -6168,7 +6163,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>726</v>
       </c>
@@ -6179,7 +6174,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>728</v>
       </c>
@@ -6190,7 +6185,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>731</v>
       </c>
@@ -6201,7 +6196,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>734</v>
       </c>
@@ -6212,7 +6207,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>737</v>
       </c>
@@ -6223,7 +6218,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>740</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>743</v>
       </c>
@@ -6245,7 +6240,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>746</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>749</v>
       </c>
@@ -6267,7 +6262,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>752</v>
       </c>
@@ -6278,7 +6273,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>754</v>
       </c>
@@ -6289,7 +6284,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>756</v>
       </c>
@@ -6300,7 +6295,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>759</v>
       </c>
@@ -6311,295 +6306,295 @@
         <v>761</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C359" s="1" t="s">
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C360" s="1" t="s">
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C361" s="1" t="s">
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="C362" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C362" s="1" t="s">
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C363" s="1" t="s">
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="1" t="s">
+      <c r="B364" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C364" s="1" t="s">
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C365" s="1" t="s">
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C366" s="1" t="s">
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C367" s="1" t="s">
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="1" t="s">
+      <c r="B368" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C368" s="1" t="s">
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="1" t="s">
+      <c r="B369" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C369" s="1" t="s">
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C370" s="1" t="s">
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C371" s="1" t="s">
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C372" s="1" t="s">
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C373" s="1" t="s">
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="1" t="s">
+      <c r="B374" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="C374" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C374" s="1" t="s">
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="C375" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C375" s="1" t="s">
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="1" t="s">
+      <c r="B376" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="C376" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C376" s="1" t="s">
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="1" t="s">
+      <c r="B377" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C377" s="1" t="s">
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C378" s="1" t="s">
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="1" t="s">
+      <c r="B379" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C379" s="1" t="s">
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="1" t="s">
+      <c r="B380" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="C380" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C380" s="1" t="s">
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C381" s="1" t="s">
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
+      <c r="B382" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="C382" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C382" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C383" s="1" t="s">
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="1" t="s">
+      <c r="B384" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="C384" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C384" s="1" t="s">
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
         <v>837</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>622</v>
@@ -6608,48 +6603,48 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="C386" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C386" s="1" t="s">
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="1" t="s">
+      <c r="B388" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="C388" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C388" s="1" t="s">
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" s="1" t="s">
+      <c r="B389" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -6657,5 +6652,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29540" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="882">
   <si>
     <t>key</t>
   </si>
@@ -2724,15 +2724,34 @@
   <si>
     <t>Fatura de despesa</t>
   </si>
+  <si>
+    <t>entity_supplier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2755,10 +2774,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2767,8 +2788,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -2809,8 +2835,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G389" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G389"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G390" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G390"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3079,7 +3105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3087,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5179,7 +5205,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="32">
+    <row r="256" spans="1:3" ht="30">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -5470,7 +5496,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" ht="30">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -5481,7 +5507,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="48">
+    <row r="284" spans="1:3" ht="45">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -5503,7 +5529,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="32">
+    <row r="286" spans="1:3" ht="30">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -5514,7 +5540,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="32">
+    <row r="287" spans="1:3" ht="30">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -5910,7 +5936,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="48">
+    <row r="323" spans="1:3" ht="45">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
@@ -5921,7 +5947,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="64">
+    <row r="324" spans="1:3" ht="60">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
@@ -5932,7 +5958,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="32">
+    <row r="325" spans="1:3" ht="30">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
@@ -5943,7 +5969,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="32">
+    <row r="326" spans="1:3" ht="30">
       <c r="A326" s="1" t="s">
         <v>857</v>
       </c>
@@ -5954,7 +5980,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="64">
+    <row r="327" spans="1:3" ht="60">
       <c r="A327" s="1" t="s">
         <v>870</v>
       </c>
@@ -5965,7 +5991,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="32">
+    <row r="328" spans="1:3" ht="30">
       <c r="A328" s="1" t="s">
         <v>871</v>
       </c>
@@ -5976,7 +6002,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="32">
+    <row r="329" spans="1:3" ht="30">
       <c r="A329" s="1" t="s">
         <v>872</v>
       </c>
@@ -6592,7 +6618,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
         <v>837</v>
       </c>
@@ -6603,7 +6629,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
         <v>838</v>
       </c>
@@ -6614,7 +6640,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
         <v>841</v>
       </c>
@@ -6625,7 +6651,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
         <v>844</v>
       </c>
@@ -6636,7 +6662,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
         <v>847</v>
       </c>
@@ -6647,8 +6673,24 @@
         <v>849</v>
       </c>
     </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D390" s="4"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29540" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="520" windowWidth="29540" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="886">
   <si>
     <t>key</t>
   </si>
@@ -2727,6 +2727,18 @@
   <si>
     <t>entity_supplier</t>
   </si>
+  <si>
+    <t>unknown_pt_supplier</t>
+  </si>
+  <si>
+    <t>unknown_supplier</t>
+  </si>
+  <si>
+    <t>Fornecedor Indiferenciado</t>
+  </si>
+  <si>
+    <t>Unknown Supplier</t>
+  </si>
 </sst>
 </file>
 
@@ -2774,8 +2786,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2792,9 +2808,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -2835,8 +2855,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G390" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G390"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G392" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G392"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3105,7 +3125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3113,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G390"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A390" sqref="A390"/>
+      <selection activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6687,6 +6707,32 @@
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="520" windowWidth="29540" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="892">
   <si>
     <t>key</t>
   </si>
@@ -2738,6 +2743,24 @@
   </si>
   <si>
     <t>Unknown Supplier</t>
+  </si>
+  <si>
+    <t>against_nature</t>
+  </si>
+  <si>
+    <t>Existem contas com saldo contra natura, que não permitem o correto preenchimento do Balanço. Verifique a(s) conta(s): {0}</t>
+  </si>
+  <si>
+    <t>not_expected_balance</t>
+  </si>
+  <si>
+    <t>Existem contas com saldo não esperado que não permitem o correto preenchimento do Balanço. Verifique a(s) conta(s): {0}</t>
+  </si>
+  <si>
+    <t>There are accounts with unnatural balance, which do not allow the correct completion of the Balance Sheet. Check the account (s): {0}</t>
+  </si>
+  <si>
+    <t>There are accounts with an unexpected balance that do not allow the correct completion of the Balance Sheet. Check the account (s): {0}</t>
   </si>
 </sst>
 </file>
@@ -2855,8 +2878,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G392" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G392"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G394" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G394"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3125,7 +3148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3133,20 +3156,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3177,7 +3200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3185,7 +3208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3193,7 +3216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3201,7 +3224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3209,7 +3232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3217,7 +3240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3225,7 +3248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -3241,7 +3264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -3249,7 +3272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -3257,7 +3280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3265,7 +3288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3273,7 +3296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -3281,7 +3304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3289,7 +3312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -3297,7 +3320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -3305,7 +3328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3313,7 +3336,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -3321,7 +3344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -3329,7 +3352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3337,7 +3360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -3345,7 +3368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3353,7 +3376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -3361,7 +3384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -3369,7 +3392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -3377,7 +3400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -3385,7 +3408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -3393,7 +3416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -3401,7 +3424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -3409,7 +3432,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -3417,7 +3440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -3425,7 +3448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -3433,7 +3456,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -3441,7 +3464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -3449,7 +3472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,7 +3480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -3465,7 +3488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -3473,7 +3496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -3481,7 +3504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -3489,7 +3512,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -3497,7 +3520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3505,7 +3528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -3513,7 +3536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -3521,7 +3544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -3529,7 +3552,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -3537,7 +3560,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -3545,7 +3568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -3553,7 +3576,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -3561,7 +3584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -3569,7 +3592,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -3577,7 +3600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -3585,7 +3608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -3593,7 +3616,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -3601,7 +3624,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -3609,7 +3632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -3617,7 +3640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -3625,7 +3648,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -3633,7 +3656,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -3641,7 +3664,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -3649,7 +3672,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -3657,7 +3680,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -3665,7 +3688,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -3673,7 +3696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -3681,7 +3704,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -3689,7 +3712,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -3697,7 +3720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -3705,7 +3728,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -3713,7 +3736,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -3721,7 +3744,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -3729,7 +3752,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -3737,7 +3760,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -3745,7 +3768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -3753,7 +3776,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -3761,7 +3784,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -3769,7 +3792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -3777,7 +3800,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -3785,7 +3808,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -3793,7 +3816,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -3801,7 +3824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -3809,7 +3832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -3817,7 +3840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -3825,7 +3848,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -3833,7 +3856,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -3841,7 +3864,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -3849,7 +3872,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -3857,7 +3880,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -3865,7 +3888,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -3873,7 +3896,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -3881,7 +3904,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -3889,7 +3912,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -3897,7 +3920,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -3905,7 +3928,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -3913,7 +3936,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -3921,7 +3944,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -3929,7 +3952,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -3937,7 +3960,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -3945,7 +3968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -3953,7 +3976,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -3961,7 +3984,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -3969,7 +3992,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -3977,7 +4000,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -3985,7 +4008,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -3993,7 +4016,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -4001,7 +4024,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -4009,7 +4032,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -4017,7 +4040,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -4025,7 +4048,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -4033,7 +4056,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -4041,7 +4064,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -4049,7 +4072,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -4057,7 +4080,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -4065,7 +4088,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -4073,7 +4096,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -4081,7 +4104,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -4089,7 +4112,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -4097,7 +4120,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -4105,7 +4128,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -4113,7 +4136,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -4121,7 +4144,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -4129,7 +4152,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -4137,7 +4160,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -4145,7 +4168,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -4153,7 +4176,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -4161,7 +4184,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -4169,7 +4192,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -4177,7 +4200,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -4185,7 +4208,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -4193,7 +4216,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -4201,7 +4224,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -4209,7 +4232,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -4217,7 +4240,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -4225,7 +4248,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -4233,7 +4256,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -4241,7 +4264,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -4249,7 +4272,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -4257,7 +4280,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -4265,7 +4288,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -4273,7 +4296,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -4281,7 +4304,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -4289,7 +4312,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -4305,7 +4328,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -4313,7 +4336,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -4321,7 +4344,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -4329,7 +4352,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -4337,7 +4360,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -4345,7 +4368,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -4353,7 +4376,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -4361,7 +4384,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -4369,7 +4392,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -4377,7 +4400,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -4385,7 +4408,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -4393,7 +4416,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -4401,7 +4424,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -4409,7 +4432,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -4417,7 +4440,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -4425,7 +4448,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -4433,7 +4456,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -4441,7 +4464,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -4449,7 +4472,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -4457,7 +4480,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -4465,7 +4488,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -4473,7 +4496,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -4481,7 +4504,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -4489,7 +4512,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -4497,7 +4520,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -4505,7 +4528,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -4513,7 +4536,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -4521,7 +4544,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -4529,7 +4552,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -4537,7 +4560,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -4545,7 +4568,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -4553,7 +4576,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -4561,7 +4584,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -4569,7 +4592,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -4577,7 +4600,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -4585,7 +4608,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -4593,7 +4616,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -4601,7 +4624,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -4609,7 +4632,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -4617,7 +4640,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -4625,7 +4648,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -4633,7 +4656,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -4641,7 +4664,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -4649,7 +4672,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -4657,7 +4680,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -4665,7 +4688,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -4673,7 +4696,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -4681,7 +4704,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -4689,7 +4712,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -4697,7 +4720,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -4705,7 +4728,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -4713,7 +4736,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -4721,7 +4744,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -4729,7 +4752,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -4737,7 +4760,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -4745,7 +4768,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -4753,7 +4776,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -4761,7 +4784,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -4769,7 +4792,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -4777,7 +4800,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -4785,7 +4808,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -4793,7 +4816,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -4801,7 +4824,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -4809,7 +4832,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -4817,7 +4840,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -4825,7 +4848,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -4833,7 +4856,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -4841,7 +4864,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -4849,7 +4872,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -4857,7 +4880,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -4865,7 +4888,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -4873,7 +4896,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -4881,7 +4904,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -4889,7 +4912,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -4897,7 +4920,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -4905,7 +4928,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -4913,7 +4936,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -4921,7 +4944,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -4929,7 +4952,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -4937,7 +4960,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -4945,7 +4968,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -4953,7 +4976,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -4961,7 +4984,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -4969,7 +4992,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -4977,7 +5000,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -4985,7 +5008,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -4993,7 +5016,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -5001,7 +5024,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -5009,7 +5032,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -5017,7 +5040,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -5025,7 +5048,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -5033,7 +5056,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -5041,7 +5064,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -5049,7 +5072,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -5057,7 +5080,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -5065,7 +5088,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -5073,7 +5096,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -5081,7 +5104,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -5089,7 +5112,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -5097,7 +5120,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -5105,7 +5128,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -5113,7 +5136,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -5121,7 +5144,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -5129,7 +5152,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -5137,7 +5160,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -5148,7 +5171,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -5159,7 +5182,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -5170,7 +5193,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -5181,7 +5204,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -5192,7 +5215,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -5203,7 +5226,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -5214,7 +5237,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -5225,7 +5248,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30">
+    <row r="256" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -5236,7 +5259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409">
+    <row r="257" spans="1:3" ht="409" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
@@ -5244,7 +5267,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>522</v>
       </c>
@@ -5255,7 +5278,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
@@ -5263,7 +5286,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>526</v>
       </c>
@@ -5274,7 +5297,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>529</v>
       </c>
@@ -5285,7 +5308,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>532</v>
       </c>
@@ -5296,7 +5319,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>535</v>
       </c>
@@ -5307,7 +5330,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>538</v>
       </c>
@@ -5318,7 +5341,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>541</v>
       </c>
@@ -5329,7 +5352,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>544</v>
       </c>
@@ -5340,7 +5363,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>547</v>
       </c>
@@ -5351,7 +5374,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>550</v>
       </c>
@@ -5362,7 +5385,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>553</v>
       </c>
@@ -5373,7 +5396,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>556</v>
       </c>
@@ -5384,7 +5407,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>559</v>
       </c>
@@ -5395,7 +5418,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>562</v>
       </c>
@@ -5406,7 +5429,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>565</v>
       </c>
@@ -5417,7 +5440,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -5428,7 +5451,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>571</v>
       </c>
@@ -5439,7 +5462,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>574</v>
       </c>
@@ -5450,7 +5473,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>577</v>
       </c>
@@ -5461,7 +5484,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>580</v>
       </c>
@@ -5472,7 +5495,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>583</v>
       </c>
@@ -5483,7 +5506,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>586</v>
       </c>
@@ -5494,7 +5517,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>589</v>
       </c>
@@ -5505,7 +5528,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>592</v>
       </c>
@@ -5516,7 +5539,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="30">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -5527,7 +5550,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="45">
+    <row r="284" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -5538,7 +5561,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>601</v>
       </c>
@@ -5549,7 +5572,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="30">
+    <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -5560,7 +5583,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="30">
+    <row r="287" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -5571,7 +5594,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>610</v>
       </c>
@@ -5582,7 +5605,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>612</v>
       </c>
@@ -5593,7 +5616,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>615</v>
       </c>
@@ -5604,7 +5627,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>618</v>
       </c>
@@ -5615,7 +5638,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>621</v>
       </c>
@@ -5626,7 +5649,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>624</v>
       </c>
@@ -5637,7 +5660,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>627</v>
       </c>
@@ -5648,7 +5671,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>630</v>
       </c>
@@ -5659,7 +5682,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>633</v>
       </c>
@@ -5670,7 +5693,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>636</v>
       </c>
@@ -5681,7 +5704,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>639</v>
       </c>
@@ -5692,7 +5715,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>642</v>
       </c>
@@ -5703,7 +5726,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>645</v>
       </c>
@@ -5714,7 +5737,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>648</v>
       </c>
@@ -5725,7 +5748,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>651</v>
       </c>
@@ -5736,7 +5759,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -5747,7 +5770,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>657</v>
       </c>
@@ -5758,7 +5781,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>660</v>
       </c>
@@ -5769,7 +5792,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>661</v>
       </c>
@@ -5780,7 +5803,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -5791,7 +5814,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>663</v>
       </c>
@@ -5802,7 +5825,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>664</v>
       </c>
@@ -5813,7 +5836,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>665</v>
       </c>
@@ -5824,7 +5847,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>666</v>
       </c>
@@ -5835,7 +5858,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>667</v>
       </c>
@@ -5846,7 +5869,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>668</v>
       </c>
@@ -5857,7 +5880,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>669</v>
       </c>
@@ -5868,7 +5891,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>670</v>
       </c>
@@ -5879,7 +5902,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>671</v>
       </c>
@@ -5890,7 +5913,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>672</v>
       </c>
@@ -5901,7 +5924,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>673</v>
       </c>
@@ -5912,7 +5935,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>674</v>
       </c>
@@ -5923,7 +5946,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>860</v>
       </c>
@@ -5934,7 +5957,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>879</v>
       </c>
@@ -5945,7 +5968,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>867</v>
       </c>
@@ -5956,7 +5979,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="45">
+    <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
@@ -5967,7 +5990,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="60">
+    <row r="324" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
@@ -5978,7 +6001,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="30">
+    <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
@@ -5989,7 +6012,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="30">
+    <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>857</v>
       </c>
@@ -6000,7 +6023,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="60">
+    <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>870</v>
       </c>
@@ -6011,7 +6034,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="30">
+    <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>871</v>
       </c>
@@ -6022,7 +6045,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="30">
+    <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>872</v>
       </c>
@@ -6033,7 +6056,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>679</v>
       </c>
@@ -6044,7 +6067,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>682</v>
       </c>
@@ -6055,7 +6078,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>685</v>
       </c>
@@ -6066,7 +6089,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>688</v>
       </c>
@@ -6077,7 +6100,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>691</v>
       </c>
@@ -6088,7 +6111,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>694</v>
       </c>
@@ -6099,7 +6122,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>697</v>
       </c>
@@ -6110,7 +6133,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>700</v>
       </c>
@@ -6121,7 +6144,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>702</v>
       </c>
@@ -6132,7 +6155,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>705</v>
       </c>
@@ -6143,7 +6166,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>708</v>
       </c>
@@ -6154,7 +6177,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>711</v>
       </c>
@@ -6165,7 +6188,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>714</v>
       </c>
@@ -6176,7 +6199,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>717</v>
       </c>
@@ -6187,7 +6210,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>720</v>
       </c>
@@ -6198,7 +6221,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>723</v>
       </c>
@@ -6209,7 +6232,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>726</v>
       </c>
@@ -6220,7 +6243,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>728</v>
       </c>
@@ -6231,7 +6254,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>731</v>
       </c>
@@ -6242,7 +6265,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>734</v>
       </c>
@@ -6253,7 +6276,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>737</v>
       </c>
@@ -6264,7 +6287,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>740</v>
       </c>
@@ -6275,7 +6298,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>743</v>
       </c>
@@ -6286,7 +6309,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>746</v>
       </c>
@@ -6297,7 +6320,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>749</v>
       </c>
@@ -6308,7 +6331,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>752</v>
       </c>
@@ -6319,7 +6342,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>754</v>
       </c>
@@ -6330,7 +6353,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>756</v>
       </c>
@@ -6341,7 +6364,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>759</v>
       </c>
@@ -6352,7 +6375,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>762</v>
       </c>
@@ -6363,7 +6386,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>764</v>
       </c>
@@ -6374,7 +6397,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>767</v>
       </c>
@@ -6385,7 +6408,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>770</v>
       </c>
@@ -6396,7 +6419,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>773</v>
       </c>
@@ -6407,7 +6430,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>776</v>
       </c>
@@ -6418,7 +6441,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>779</v>
       </c>
@@ -6429,7 +6452,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>782</v>
       </c>
@@ -6440,7 +6463,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>785</v>
       </c>
@@ -6451,7 +6474,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>788</v>
       </c>
@@ -6462,7 +6485,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>791</v>
       </c>
@@ -6473,7 +6496,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>794</v>
       </c>
@@ -6484,7 +6507,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>797</v>
       </c>
@@ -6495,7 +6518,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>800</v>
       </c>
@@ -6506,7 +6529,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>803</v>
       </c>
@@ -6517,7 +6540,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>806</v>
       </c>
@@ -6528,7 +6551,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>809</v>
       </c>
@@ -6539,7 +6562,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>812</v>
       </c>
@@ -6550,7 +6573,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>815</v>
       </c>
@@ -6561,7 +6584,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>817</v>
       </c>
@@ -6572,7 +6595,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>820</v>
       </c>
@@ -6583,7 +6606,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>823</v>
       </c>
@@ -6594,7 +6617,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>826</v>
       </c>
@@ -6605,7 +6628,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>829</v>
       </c>
@@ -6616,7 +6639,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>831</v>
       </c>
@@ -6627,7 +6650,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>834</v>
       </c>
@@ -6638,7 +6661,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>837</v>
       </c>
@@ -6649,7 +6672,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>838</v>
       </c>
@@ -6660,7 +6683,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>841</v>
       </c>
@@ -6671,7 +6694,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>844</v>
       </c>
@@ -6682,7 +6705,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>847</v>
       </c>
@@ -6693,7 +6716,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>881</v>
       </c>
@@ -6708,7 +6731,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>882</v>
       </c>
@@ -6719,7 +6742,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>883</v>
       </c>
@@ -6733,6 +6756,36 @@
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
+    </row>
+    <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6740,10 +6793,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-1980" yWindow="-19600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="946">
   <si>
     <t>key</t>
   </si>
@@ -2745,15 +2745,9 @@
     <t>Unknown Supplier</t>
   </si>
   <si>
-    <t>against_nature</t>
-  </si>
-  <si>
     <t>Existem contas com saldo contra natura, que não permitem o correto preenchimento do Balanço. Verifique a(s) conta(s): {0}</t>
   </si>
   <si>
-    <t>not_expected_balance</t>
-  </si>
-  <si>
     <t>Existem contas com saldo não esperado que não permitem o correto preenchimento do Balanço. Verifique a(s) conta(s): {0}</t>
   </si>
   <si>
@@ -2761,6 +2755,174 @@
   </si>
   <si>
     <t>There are accounts with an unexpected balance that do not allow the correct completion of the Balance Sheet. Check the account (s): {0}</t>
+  </si>
+  <si>
+    <t>Existem contas com categoria no balanço por configurar: {0}</t>
+  </si>
+  <si>
+    <t>A conta {0} tem categorias no balanço por configurar.</t>
+  </si>
+  <si>
+    <t>Verifique as seguintes rubricas do Balanço uma vez que apresentam saldos contra natura: {0}</t>
+  </si>
+  <si>
+    <t>balance_against_nature</t>
+  </si>
+  <si>
+    <t>O RL apresentado foi obtido de forma aritmética, não sendo coincidente com o apresentado na conta 818 ({0}). Verifique por favor o lançamento de apuramento de resultados.</t>
+  </si>
+  <si>
+    <t>no_match_account_818</t>
+  </si>
+  <si>
+    <t>Account {0} has categories in the balance to be set up.</t>
+  </si>
+  <si>
+    <t>There are accounts with category in the balance to configure: {0}</t>
+  </si>
+  <si>
+    <t>The presented RL was obtained in arithmetic form, not coinciding with that presented in the account 818 ({0}). Please check the results.</t>
+  </si>
+  <si>
+    <t>Check the following balance sheet items as they show balances against nature: {0}</t>
+  </si>
+  <si>
+    <t>bs_categories_no_config</t>
+  </si>
+  <si>
+    <t>bs_account_no_config</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Não foram encontradas quaisquer diferenças</t>
+  </si>
+  <si>
+    <t>The balance nature of all accounts and their concordance with the expected nature were verified. No differences found</t>
+  </si>
+  <si>
+    <t>rep_against_nature_ok</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: #Conta - Saldo (d) ou (c )</t>
+  </si>
+  <si>
+    <t>rep_against_nature_nok</t>
+  </si>
+  <si>
+    <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements: # Account - Balance (d) or (c)</t>
+  </si>
+  <si>
+    <t>rep_not_expected_balance_ok</t>
+  </si>
+  <si>
+    <t>rep_not_expected_balance_nok</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. Não foram encontradas quaisquer diferenças</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: Rubrica balanço: - Saldo (d) ou (c )</t>
+  </si>
+  <si>
+    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: Balance sheet item: Balance (d) or (c)</t>
+  </si>
+  <si>
+    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. No differences found</t>
+  </si>
+  <si>
+    <t>bs_not_expected_balance_nok</t>
+  </si>
+  <si>
+    <t>bs_against_nature_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 219 - "Clientes - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta é igual ou  inferior à soma algébrica dos saldos das contas 211 a 217. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>account_219_ok</t>
+  </si>
+  <si>
+    <t>account_219_nok</t>
+  </si>
+  <si>
+    <t>account_229_ok</t>
+  </si>
+  <si>
+    <t>account_229_nok</t>
+  </si>
+  <si>
+    <t>account_239_nok</t>
+  </si>
+  <si>
+    <t>account_239_ok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 229 - "Fornecedores - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta é inferior ou igual ao existente na conta 228 - "Fornecedores - Adiantamentos a fornecedores". Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas" e verificado que esta conta, apresenta um saldo inferior ou igual à soma algébrica dos saldos das contas 232 e 238. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>taxonomy_65_ok</t>
+  </si>
+  <si>
+    <t>taxonomy_65_nok</t>
+  </si>
+  <si>
+    <t>taxonomy_66_ok</t>
+  </si>
+  <si>
+    <t>taxonomy_66_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Aos órgãos sociais" (taxonomia 65) e verificado que esta conta, apresenta um saldo inferior ao saldo da conta 2321- "Pessoal - Adiantamentos - Aos órgãos sociais" (taxonomia 55)</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal" (taxonomia 66) e verificado que esta conta, apresenta um saldo inferior ao saldo da conta 2322- "Pessoal - Adiantamentos - Ao pessoal" (taxonomia 56)</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 219 - "Clientes - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta é superior à soma algébrica dos saldos das contas 211 a 217. Esta situação deve ser regularizada para uma correta submissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 229 - "Fornecedores - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta é superior ao registado na conta 228 - "Fornecedores - Adiantamentos a fornecedores". Esta situação deve ser regularizada para uma correta submissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta é superior à soma algébrica dos saldos das contas 232 e 238. Esta situação deve ser regularizada para uma correta submissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Aos órgãos sociais" (taxonomia 65) e verificado que esta conta, apresenta um saldo superior ao saldo da conta 2321- "Pessoal - Adiantamentos - Aos órgãos sociais" (taxonomia 55). Esta situação deve ser regularizada para uma correta submissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal" (taxonomia 66) e verificado que esta conta, apresenta um saldo superior ao saldo da conta 2322- "Pessoal - Adiantamentos - Ao pessoal" (taxonomia 56). Esta situação deve ser regularizada para uma correta submissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>A test was performed on account 219 - "Clientes - Perdas por imparidade acumuladas" and verified that the credit balance of this account is equal to or less than the algebraic sum of the balances of accounts 211 to 217. Test performed successfully.</t>
+  </si>
+  <si>
+    <t>A test was performed on account 219 - "Clientes - Perdas por imparidade acumuladas" and verified that the credit balance of this account is greater than the algebraic sum of the balances of accounts 211 to 217. This situation must be regularized for a correct submission of the file SAF-T.</t>
+  </si>
+  <si>
+    <t>A test was performed on account 229 - "Fornecedores - Perdas por imparidade acumuladas" and verified that the credit balance of this account is less than or equal to that in account 228 - "Suppliers - Advances to suppliers". Test performed successfully.</t>
+  </si>
+  <si>
+    <t>A test was performed on account 229 - "Fornecedores - Perdas por imparidade acumuladas" and verified that the credit balance of this account is greater than that recorded in account 228 - "Fornecedores - Adiantamentos a fornecedores". This situation must be regularized for a correct submission of the file SAF-T.</t>
+  </si>
+  <si>
+    <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas" and verified that this account has a balance less than or equal to the algebraic sum of the balances of accounts 232 and 238. Test performed successfully.</t>
+  </si>
+  <si>
+    <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas" and verified that the credit balance of this account is greater than the algebraic sum of the balances of accounts 232 and 238. This situation must be regularized for a correct submission of the file SAF-T.</t>
+  </si>
+  <si>
+    <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Aos órgãos sociais" (taxonomy 65) and verified that this account, has a balance lower than the balance of the account 2321 - "Pessoal - Adiantamentos - Aos órgãos sociais "(taxonomy 55)</t>
+  </si>
+  <si>
+    <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Aos órgãos sociais" (taxonomy 65) and verified that this account, has a balance higher than the balance of account 2321 - "Pessoal - Adiantamentos - Aos órgãos sociais"(taxonomy 55). This situation must be regularized for a correct submission of the file SAF-T.</t>
+  </si>
+  <si>
+    <t>A test was carried out on account 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal" (taxonomy 66) and verified that this account has a balance lower than the balance of account 2322 - "Pessoal - Adiantamentos - Ao pessoal" (taxonomy 56)</t>
+  </si>
+  <si>
+    <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal" (taxonomy 66) and verified that this account has a balance higher than the balance of account 2322 - "Pessoal - Adiantamentos - Ao pessoal" (taxonomy 56). This situation must be regularized for a correct submission of the file SAF-T.</t>
   </si>
 </sst>
 </file>
@@ -2878,8 +3040,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G394" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G394"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G412" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G412"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3156,10 +3318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A396" sqref="A396"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6759,13 +6921,13 @@
     </row>
     <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>887</v>
-      </c>
       <c r="C393" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -6774,18 +6936,288 @@
     </row>
     <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
+    </row>
+    <row r="395" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+    </row>
+    <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
+    </row>
+    <row r="397" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
+    </row>
+    <row r="398" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
+    </row>
+    <row r="399" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
+    </row>
+    <row r="400" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="402" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
+    </row>
+    <row r="403" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
+    </row>
+    <row r="404" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
+    </row>
+    <row r="405" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D405" s="4"/>
+      <c r="E405" s="4"/>
+      <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
+    </row>
+    <row r="406" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D406" s="4"/>
+      <c r="E406" s="4"/>
+      <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
+    </row>
+    <row r="407" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
+    </row>
+    <row r="408" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D408" s="4"/>
+      <c r="E408" s="4"/>
+      <c r="F408" s="4"/>
+      <c r="G408" s="4"/>
+    </row>
+    <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D409" s="4"/>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
+    </row>
+    <row r="410" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D410" s="4"/>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
+      <c r="G410" s="4"/>
+    </row>
+    <row r="411" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D411" s="4"/>
+      <c r="E411" s="4"/>
+      <c r="F411" s="4"/>
+      <c r="G411" s="4"/>
+    </row>
+    <row r="412" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D412" s="4"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
+      <c r="G412" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1980" yWindow="-19600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-5080" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2799,33 +2799,9 @@
     <t>The balance nature of all accounts and their concordance with the expected nature were verified. No differences found</t>
   </si>
   <si>
-    <t>rep_against_nature_ok</t>
-  </si>
-  <si>
-    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: #Conta - Saldo (d) ou (c )</t>
-  </si>
-  <si>
-    <t>rep_against_nature_nok</t>
-  </si>
-  <si>
-    <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements: # Account - Balance (d) or (c)</t>
-  </si>
-  <si>
-    <t>rep_not_expected_balance_ok</t>
-  </si>
-  <si>
-    <t>rep_not_expected_balance_nok</t>
-  </si>
-  <si>
     <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. Não foram encontradas quaisquer diferenças</t>
   </si>
   <si>
-    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: Rubrica balanço: - Saldo (d) ou (c )</t>
-  </si>
-  <si>
-    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: Balance sheet item: Balance (d) or (c)</t>
-  </si>
-  <si>
     <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. No differences found</t>
   </si>
   <si>
@@ -2923,6 +2899,30 @@
   </si>
   <si>
     <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal" (taxonomy 66) and verified that this account has a balance higher than the balance of account 2322 - "Pessoal - Adiantamentos - Ao pessoal" (taxonomy 56). This situation must be regularized for a correct submission of the file SAF-T.</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: {0}</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: {0}</t>
+  </si>
+  <si>
+    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: {0}</t>
+  </si>
+  <si>
+    <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements: {0}</t>
+  </si>
+  <si>
+    <t>rep_bs_against_nature_nok</t>
+  </si>
+  <si>
+    <t>rep_bs_against_nature_ok</t>
+  </si>
+  <si>
+    <t>do_not_allow_negatives_ok</t>
+  </si>
+  <si>
+    <t>do_not_allow_negatives_nok</t>
   </si>
 </sst>
 </file>
@@ -3320,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A412" sqref="A412"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>886</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>904</v>
+        <v>943</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>902</v>
@@ -6949,15 +6949,15 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>905</v>
+        <v>938</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>887</v>
@@ -6981,13 +6981,13 @@
     </row>
     <row r="397" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>908</v>
+        <v>944</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -6996,13 +6996,13 @@
     </row>
     <row r="398" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -7071,13 +7071,13 @@
     </row>
     <row r="403" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -7086,13 +7086,13 @@
     </row>
     <row r="404" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -7101,13 +7101,13 @@
     </row>
     <row r="405" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -7116,13 +7116,13 @@
     </row>
     <row r="406" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="407" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -7146,13 +7146,13 @@
     </row>
     <row r="408" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -7161,13 +7161,13 @@
     </row>
     <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -7176,13 +7176,13 @@
     </row>
     <row r="410" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B410" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>934</v>
-      </c>
       <c r="C410" s="1" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -7191,13 +7191,13 @@
     </row>
     <row r="411" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -7206,13 +7206,13 @@
     </row>
     <row r="412" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5080" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-1980" yWindow="-19600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2799,9 +2799,33 @@
     <t>The balance nature of all accounts and their concordance with the expected nature were verified. No differences found</t>
   </si>
   <si>
+    <t>rep_against_nature_ok</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: #Conta - Saldo (d) ou (c )</t>
+  </si>
+  <si>
+    <t>rep_against_nature_nok</t>
+  </si>
+  <si>
+    <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements: # Account - Balance (d) or (c)</t>
+  </si>
+  <si>
+    <t>rep_not_expected_balance_ok</t>
+  </si>
+  <si>
+    <t>rep_not_expected_balance_nok</t>
+  </si>
+  <si>
     <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. Não foram encontradas quaisquer diferenças</t>
   </si>
   <si>
+    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: Rubrica balanço: - Saldo (d) ou (c )</t>
+  </si>
+  <si>
+    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: Balance sheet item: Balance (d) or (c)</t>
+  </si>
+  <si>
     <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. No differences found</t>
   </si>
   <si>
@@ -2899,30 +2923,6 @@
   </si>
   <si>
     <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal" (taxonomy 66) and verified that this account has a balance higher than the balance of account 2322 - "Pessoal - Adiantamentos - Ao pessoal" (taxonomy 56). This situation must be regularized for a correct submission of the file SAF-T.</t>
-  </si>
-  <si>
-    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: {0}</t>
-  </si>
-  <si>
-    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: {0}</t>
-  </si>
-  <si>
-    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: {0}</t>
-  </si>
-  <si>
-    <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements: {0}</t>
-  </si>
-  <si>
-    <t>rep_bs_against_nature_nok</t>
-  </si>
-  <si>
-    <t>rep_bs_against_nature_ok</t>
-  </si>
-  <si>
-    <t>do_not_allow_negatives_ok</t>
-  </si>
-  <si>
-    <t>do_not_allow_negatives_nok</t>
   </si>
 </sst>
 </file>
@@ -3320,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A397" sqref="A397"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>886</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>943</v>
+        <v>904</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>902</v>
@@ -6949,15 +6949,15 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>942</v>
+        <v>906</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>938</v>
+        <v>905</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>887</v>
@@ -6981,13 +6981,13 @@
     </row>
     <row r="397" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>944</v>
+        <v>908</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -6996,13 +6996,13 @@
     </row>
     <row r="398" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>945</v>
+        <v>909</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -7071,13 +7071,13 @@
     </row>
     <row r="403" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -7086,13 +7086,13 @@
     </row>
     <row r="404" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -7101,13 +7101,13 @@
     </row>
     <row r="405" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -7116,13 +7116,13 @@
     </row>
     <row r="406" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="407" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -7146,13 +7146,13 @@
     </row>
     <row r="408" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -7161,13 +7161,13 @@
     </row>
     <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -7176,13 +7176,13 @@
     </row>
     <row r="410" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -7191,13 +7191,13 @@
     </row>
     <row r="411" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -7206,13 +7206,13 @@
     </row>
     <row r="412" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1980" yWindow="-19600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-5080" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2799,33 +2799,15 @@
     <t>The balance nature of all accounts and their concordance with the expected nature were verified. No differences found</t>
   </si>
   <si>
-    <t>rep_against_nature_ok</t>
-  </si>
-  <si>
     <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: #Conta - Saldo (d) ou (c )</t>
   </si>
   <si>
-    <t>rep_against_nature_nok</t>
-  </si>
-  <si>
     <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements: # Account - Balance (d) or (c)</t>
   </si>
   <si>
-    <t>rep_not_expected_balance_ok</t>
-  </si>
-  <si>
-    <t>rep_not_expected_balance_nok</t>
-  </si>
-  <si>
     <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. Não foram encontradas quaisquer diferenças</t>
   </si>
   <si>
-    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: Rubrica balanço: - Saldo (d) ou (c )</t>
-  </si>
-  <si>
-    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: Balance sheet item: Balance (d) or (c)</t>
-  </si>
-  <si>
     <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. No differences found</t>
   </si>
   <si>
@@ -2923,6 +2905,24 @@
   </si>
   <si>
     <t>A test was performed on account 239 - "Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal" (taxonomy 66) and verified that this account has a balance higher than the balance of account 2322 - "Pessoal - Adiantamentos - Ao pessoal" (taxonomy 56). This situation must be regularized for a correct submission of the file SAF-T.</t>
+  </si>
+  <si>
+    <t>rep_bs_against_nature_ok</t>
+  </si>
+  <si>
+    <t>rep_bs_against_nature_nok</t>
+  </si>
+  <si>
+    <t>do_not_allow_negatives_ok</t>
+  </si>
+  <si>
+    <t>do_not_allow_negatives_nok</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: {0}</t>
+  </si>
+  <si>
+    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: {0}</t>
   </si>
 </sst>
 </file>
@@ -3320,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A412" sqref="A412"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>886</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>904</v>
+        <v>940</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>902</v>
@@ -6951,13 +6951,13 @@
     </row>
     <row r="395" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>887</v>
@@ -6981,13 +6981,13 @@
     </row>
     <row r="397" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>908</v>
+        <v>942</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -6996,13 +6996,13 @@
     </row>
     <row r="398" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>911</v>
+        <v>944</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>912</v>
+        <v>945</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -7071,13 +7071,13 @@
     </row>
     <row r="403" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -7086,13 +7086,13 @@
     </row>
     <row r="404" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -7101,13 +7101,13 @@
     </row>
     <row r="405" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -7116,13 +7116,13 @@
     </row>
     <row r="406" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="407" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -7146,13 +7146,13 @@
     </row>
     <row r="408" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -7161,13 +7161,13 @@
     </row>
     <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -7176,13 +7176,13 @@
     </row>
     <row r="410" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -7191,13 +7191,13 @@
     </row>
     <row r="411" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -7206,13 +7206,13 @@
     </row>
     <row r="412" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="955">
   <si>
     <t>key</t>
   </si>
@@ -2799,12 +2799,6 @@
     <t>The balance nature of all accounts and their concordance with the expected nature were verified. No differences found</t>
   </si>
   <si>
-    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: #Conta - Saldo (d) ou (c )</t>
-  </si>
-  <si>
-    <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements: # Account - Balance (d) or (c)</t>
-  </si>
-  <si>
     <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. Não foram encontradas quaisquer diferenças</t>
   </si>
   <si>
@@ -2919,10 +2913,43 @@
     <t>do_not_allow_negatives_nok</t>
   </si>
   <si>
-    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras: {0}</t>
-  </si>
-  <si>
-    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements: {0}</t>
+    <t>Foi verificada a natureza do saldo de todas as contas e a sua concordância com a natureza esperada. Identificaram-se as seguintes contas que apresentam um saldo contranatura e que deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras.</t>
+  </si>
+  <si>
+    <t>The balance nature of all accounts and their concordance with the expected nature were verified. The following accounts that present a counter balance have been identified and should be corrected for a correct submission of the SAF-T file and construction of the Financial Statements.</t>
+  </si>
+  <si>
+    <t>Foi verificada a natureza do saldo a apresentar em cada rubrica do balanço e a sua concordância com a natureza esperada. As seguintes rubricas do Balanço apresentam um saldo não esperado e deverão ser corrigidas para uma correta submissão do ficheiro SAF-T e construção das Demonstrações Financeiras.</t>
+  </si>
+  <si>
+    <t>The nature of the balance was verified in each balance sheet item and its agreement with the expected nature. The following balance sheet items present an unexpired balance and should be corrected for a right submission of the SAF-T file and construction of the Financial Statements.</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>warn</t>
+  </si>
+  <si>
+    <t>Informação</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Aviso</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Warning</t>
   </si>
 </sst>
 </file>
@@ -3040,8 +3067,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G412" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G412"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G415" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G415"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3318,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G412"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6921,7 +6948,7 @@
     </row>
     <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>886</v>
@@ -6936,7 +6963,7 @@
     </row>
     <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>902</v>
@@ -6949,15 +6976,15 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>904</v>
+        <v>942</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>905</v>
+        <v>943</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -6966,7 +6993,7 @@
     </row>
     <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>887</v>
@@ -6981,22 +7008,22 @@
     </row>
     <row r="397" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>944</v>
@@ -7071,13 +7098,13 @@
     </row>
     <row r="403" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -7086,13 +7113,13 @@
     </row>
     <row r="404" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -7101,13 +7128,13 @@
     </row>
     <row r="405" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -7116,13 +7143,13 @@
     </row>
     <row r="406" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -7131,13 +7158,13 @@
     </row>
     <row r="407" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>918</v>
-      </c>
       <c r="C407" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -7146,13 +7173,13 @@
     </row>
     <row r="408" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -7161,13 +7188,13 @@
     </row>
     <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -7176,13 +7203,13 @@
     </row>
     <row r="410" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -7191,13 +7218,13 @@
     </row>
     <row r="411" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -7206,18 +7233,63 @@
     </row>
     <row r="412" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
+      <c r="G413" s="4"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
+      <c r="G414" s="4"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
+      <c r="G415" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="976">
   <si>
     <t>key</t>
   </si>
@@ -2951,6 +2951,69 @@
   <si>
     <t>Warning</t>
   </si>
+  <si>
+    <t>against_nature</t>
+  </si>
+  <si>
+    <t>do_not_allow_negatives</t>
+  </si>
+  <si>
+    <t>account_219</t>
+  </si>
+  <si>
+    <t>account_229</t>
+  </si>
+  <si>
+    <t>account_239</t>
+  </si>
+  <si>
+    <t>taxonomy_65</t>
+  </si>
+  <si>
+    <t>taxonomy_66</t>
+  </si>
+  <si>
+    <t>Contas com saldo contra natura</t>
+  </si>
+  <si>
+    <t>Quando uma rubrica do balanço dá negativo e allow_negatives é falso</t>
+  </si>
+  <si>
+    <t>Conta 229 - "Fornecedores - Perdas por imparidade acumuladas"</t>
+  </si>
+  <si>
+    <t>Conta 219 - "Clientes - Perdas por imparidade acumuladas"</t>
+  </si>
+  <si>
+    <t>Conta 239 - "Pessoal - Perdas por imparidade acumuladas"</t>
+  </si>
+  <si>
+    <t>Conta 239 - "Pessoal - Perdas por imparidade acumuladas" - Taxonomia 65</t>
+  </si>
+  <si>
+    <t>Conta 239 - "Pessoal - Perdas por imparidade acumuladas" - Taxonomia 66</t>
+  </si>
+  <si>
+    <t>Accounts with unnatural balance</t>
+  </si>
+  <si>
+    <t>When a balance sheet item is negative and allow_negatives is false</t>
+  </si>
+  <si>
+    <t>Account 219</t>
+  </si>
+  <si>
+    <t>Account 229</t>
+  </si>
+  <si>
+    <t>Account 239</t>
+  </si>
+  <si>
+    <t>Account 239 - Taxonomy 65</t>
+  </si>
+  <si>
+    <t>Account 239 - Taxonomy 66</t>
+  </si>
 </sst>
 </file>
 
@@ -2998,8 +3061,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3020,13 +3085,15 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -3067,8 +3134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G415" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G415"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G422" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G422"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3345,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7291,6 +7358,111 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
+      <c r="G416" s="4"/>
+    </row>
+    <row r="417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
+    </row>
+    <row r="418" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D418" s="4"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
+    </row>
+    <row r="419" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D419" s="4"/>
+      <c r="E419" s="4"/>
+      <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D420" s="4"/>
+      <c r="E420" s="4"/>
+      <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4"/>
+      <c r="F421" s="4"/>
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D422" s="4"/>
+      <c r="E422" s="4"/>
+      <c r="F422" s="4"/>
+      <c r="G422" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -2973,46 +2973,46 @@
     <t>taxonomy_66</t>
   </si>
   <si>
-    <t>Contas com saldo contra natura</t>
-  </si>
-  <si>
-    <t>Quando uma rubrica do balanço dá negativo e allow_negatives é falso</t>
-  </si>
-  <si>
-    <t>Conta 229 - "Fornecedores - Perdas por imparidade acumuladas"</t>
-  </si>
-  <si>
-    <t>Conta 219 - "Clientes - Perdas por imparidade acumuladas"</t>
-  </si>
-  <si>
-    <t>Conta 239 - "Pessoal - Perdas por imparidade acumuladas"</t>
-  </si>
-  <si>
-    <t>Conta 239 - "Pessoal - Perdas por imparidade acumuladas" - Taxonomia 65</t>
-  </si>
-  <si>
-    <t>Conta 239 - "Pessoal - Perdas por imparidade acumuladas" - Taxonomia 66</t>
-  </si>
-  <si>
-    <t>Accounts with unnatural balance</t>
-  </si>
-  <si>
-    <t>When a balance sheet item is negative and allow_negatives is false</t>
-  </si>
-  <si>
-    <t>Account 219</t>
-  </si>
-  <si>
-    <t>Account 229</t>
-  </si>
-  <si>
-    <t>Account 239</t>
-  </si>
-  <si>
-    <t>Account 239 - Taxonomy 65</t>
-  </si>
-  <si>
-    <t>Account 239 - Taxonomy 66</t>
+    <t>Teste à natureza do saldo das contas</t>
+  </si>
+  <si>
+    <t>Teste à natureza do saldo das rubricas do Balanço</t>
+  </si>
+  <si>
+    <t>Teste à conta 219- Clientes - Perdas por Imparidade</t>
+  </si>
+  <si>
+    <t>Teste à conta 229- Fornecedores - Perdas por Imparidade</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por Imparidade</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Aos órgãos sociais</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por imparidade acumuladas - Adiantamentos - Ao pessoal</t>
+  </si>
+  <si>
+    <t>Test nature of the Balance Sheet items balance</t>
+  </si>
+  <si>
+    <t>Test nature of the account balance</t>
+  </si>
+  <si>
+    <t>Test account 219 - Customers - Losses due to Impairment</t>
+  </si>
+  <si>
+    <t>Test account 229- Suppliers - Losses due to Impairment</t>
+  </si>
+  <si>
+    <t>Test account 239- Personnel - Losses due to Impairment</t>
+  </si>
+  <si>
+    <t>Test account 239- Personnel - Accumulated impairment losses - Advances - To corporate bodies</t>
+  </si>
+  <si>
+    <t>Test account 239- Personnel - Accumulated impairment losses - Advances - To personnel</t>
   </si>
 </sst>
 </file>
@@ -3414,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7366,14 +7366,14 @@
         <v>962</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>956</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>963</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -7393,7 +7393,7 @@
         <v>957</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>971</v>
@@ -7408,7 +7408,7 @@
         <v>958</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>972</v>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepacheco/cldware_work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="985">
   <si>
     <t>key</t>
   </si>
@@ -3013,6 +3013,33 @@
   </si>
   <si>
     <t>Test account 239- Personnel - Accumulated impairment losses - Advances - To personnel</t>
+  </si>
+  <si>
+    <t>transaction_finalized</t>
+  </si>
+  <si>
+    <t>Finalized</t>
+  </si>
+  <si>
+    <t>transaction_draft</t>
+  </si>
+  <si>
+    <t>Preparação</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>transaction_deleted</t>
+  </si>
+  <si>
+    <t>Eliminado</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Deleted</t>
   </si>
 </sst>
 </file>
@@ -3134,8 +3161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G422" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G422"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G425" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G425"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3412,10 +3439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G422"/>
+  <dimension ref="A1:G425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7463,6 +7490,39 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>976</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>978</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>981</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepacheco/cldware_work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="988">
   <si>
     <t>key</t>
   </si>
@@ -3041,6 +3041,15 @@
   <si>
     <t>Deleted</t>
   </si>
+  <si>
+    <t>fiscal_year_title</t>
+  </si>
+  <si>
+    <t>{0} - Taxonomia {1}</t>
+  </si>
+  <si>
+    <t>{0} - Taxonomy {1}</t>
+  </si>
 </sst>
 </file>
 
@@ -3071,19 +3080,49 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3099,7 +3138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3109,6 +3148,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3161,8 +3206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G425" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G425"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G426" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G426"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3439,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+      <selection activeCell="A426" sqref="A426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7491,35 +7536,50 @@
       <c r="G422" s="4"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>976</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>977</v>
-      </c>
+      <c r="A423" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="D423" s="4"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="4"/>
+      <c r="G423" s="4"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
+        <v>978</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
         <v>981</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="B426" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C425" s="1" t="s">
+      <c r="C426" s="1" t="s">
         <v>984</v>
       </c>
     </row>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krypton/Projects/cloudware/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5080" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="7220" yWindow="-27280" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="997">
   <si>
     <t>key</t>
   </si>
@@ -3049,6 +3049,33 @@
   </si>
   <si>
     <t>{0} - Taxonomy {1}</t>
+  </si>
+  <si>
+    <t>svat_info</t>
+  </si>
+  <si>
+    <t>svat_error</t>
+  </si>
+  <si>
+    <t>svat_warn</t>
+  </si>
+  <si>
+    <t>Testes realizados com sucesso</t>
+  </si>
+  <si>
+    <t>Erros detetados</t>
+  </si>
+  <si>
+    <t>Avisos detetados</t>
+  </si>
+  <si>
+    <t>Success tests</t>
+  </si>
+  <si>
+    <t>Detected errors</t>
+  </si>
+  <si>
+    <t>Detected warnings</t>
   </si>
 </sst>
 </file>
@@ -3206,8 +3233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G426" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G426"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G429" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G429"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3484,10 +3511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G426"/>
+  <dimension ref="A1:G429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="C430" sqref="C430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7583,6 +7610,51 @@
         <v>984</v>
       </c>
     </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D427" s="4"/>
+      <c r="E427" s="4"/>
+      <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D428" s="4"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D429" s="4"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="-27280" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2063,9 +2063,6 @@
     <t>payed_without_retention</t>
   </si>
   <si>
-    <t>Received on {0} the amount of {1} ({2}) for the settlement of the document {3} of {4}.</t>
-  </si>
-  <si>
     <t>document_type_FP</t>
   </si>
   <si>
@@ -2589,9 +2586,6 @@
   </si>
   <si>
     <t>Received on this date the amount of {0} for the settlement of the document {1} of {2}. The value received is already net of withholding tax at the rate {3} in the amount of {4}.</t>
-  </si>
-  <si>
-    <t>Recebemos nesta data {0}  a quantia de {1} ({2}) para a liquidação do documento {3} de {4}. {5}</t>
   </si>
   <si>
     <t>Desperdícios resíduos e refugos</t>
@@ -2661,12 +2655,6 @@
     <t>payed_without_retention_n_documents</t>
   </si>
   <si>
-    <t>Recebemos nesta data {0}  a quantia de {1} ({2}) para a liquidação dos seguintes documentos:</t>
-  </si>
-  <si>
-    <t>Received on {0} the amount of {1} ({2}) for the settlement of the following documents:</t>
-  </si>
-  <si>
     <t>payment_mechanism_print_PCO</t>
   </si>
   <si>
@@ -3076,6 +3064,18 @@
   </si>
   <si>
     <t>Detected warnings</t>
+  </si>
+  <si>
+    <t>Recebemos em {4} {0} a quantia de {1} ({2}) para a liquidação dos seguintes documentos:</t>
+  </si>
+  <si>
+    <t>Received on {4} {0} the amount of {1} ({2}) for the settlement of the following documents:</t>
+  </si>
+  <si>
+    <t>Recebemos em {4} {0}  a quantia de {1} ({2}) para a liquidação do documento {3}. {5}</t>
+  </si>
+  <si>
+    <t>Received on {4} {0} the amount of {1} ({2}) for the settlement of the document {3}.</t>
   </si>
 </sst>
 </file>
@@ -3513,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="C430" sqref="C430"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5619,7 +5619,7 @@
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -6295,43 +6295,43 @@
         <v>674</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -6339,10 +6339,10 @@
         <v>675</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -6350,10 +6350,10 @@
         <v>676</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -6361,664 +6361,664 @@
         <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>854</v>
+        <v>995</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>678</v>
+        <v>996</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>858</v>
+        <v>993</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>859</v>
+        <v>994</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="C337" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="C346" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="C355" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>755</v>
-      </c>
       <c r="C356" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C358" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="C362" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="C374" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="C375" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="C376" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="C380" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="C382" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="C384" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>622</v>
@@ -7029,51 +7029,51 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="C386" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="C388" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>658</v>
@@ -7088,24 +7088,24 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -7114,13 +7114,13 @@
     </row>
     <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -7129,13 +7129,13 @@
     </row>
     <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -7144,13 +7144,13 @@
     </row>
     <row r="395" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -7159,13 +7159,13 @@
     </row>
     <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -7174,13 +7174,13 @@
     </row>
     <row r="397" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -7189,13 +7189,13 @@
     </row>
     <row r="398" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -7204,13 +7204,13 @@
     </row>
     <row r="399" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -7219,13 +7219,13 @@
     </row>
     <row r="400" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -7234,13 +7234,13 @@
     </row>
     <row r="401" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -7249,13 +7249,13 @@
     </row>
     <row r="402" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -7264,13 +7264,13 @@
     </row>
     <row r="403" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -7279,13 +7279,13 @@
     </row>
     <row r="404" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -7294,13 +7294,13 @@
     </row>
     <row r="405" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="C405" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -7309,13 +7309,13 @@
     </row>
     <row r="406" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -7324,13 +7324,13 @@
     </row>
     <row r="407" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -7339,13 +7339,13 @@
     </row>
     <row r="408" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -7354,13 +7354,13 @@
     </row>
     <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B409" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="C409" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -7369,13 +7369,13 @@
     </row>
     <row r="410" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -7384,13 +7384,13 @@
     </row>
     <row r="411" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -7399,13 +7399,13 @@
     </row>
     <row r="412" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -7414,13 +7414,13 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -7429,13 +7429,13 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -7444,13 +7444,13 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -7459,13 +7459,13 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -7474,13 +7474,13 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -7489,13 +7489,13 @@
     </row>
     <row r="418" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -7504,13 +7504,13 @@
     </row>
     <row r="419" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -7519,13 +7519,13 @@
     </row>
     <row r="420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -7534,13 +7534,13 @@
     </row>
     <row r="421" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -7549,13 +7549,13 @@
     </row>
     <row r="422" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -7564,13 +7564,13 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -7579,46 +7579,46 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -7627,13 +7627,13 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -7642,13 +7642,13 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krypton/Projects/cloudware/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="1069">
   <si>
     <t>key</t>
   </si>
@@ -3077,12 +3077,228 @@
   <si>
     <t>Received on {4} {0} the amount of {1} ({2}) for the settlement of the document {3}.</t>
   </si>
+  <si>
+    <t>account_241</t>
+  </si>
+  <si>
+    <t>Teste ao desdobramento da conta 241- Imposto sobre o rendimento</t>
+  </si>
+  <si>
+    <t>Test account 241</t>
+  </si>
+  <si>
+    <t>account_241_ok</t>
+  </si>
+  <si>
+    <t>Recomenda-se a criação de sub-contas apropriadas de forma a que se possa controlar adquadamente os diversos movimentos: Pagamentos por conta; pagamentos especiais por conta; pagamentos adicionais por contas; retenções efetuadas por terceiros  (nacionais e internacionais) respeitantes a a rendimentos de capitais, prediais ou outros; imposto estimado e o imposto a pagar ou a recuperar. Foi possível verificar que existem subcontas dentro da conta 241.</t>
+  </si>
+  <si>
+    <t>Test account 241 OK</t>
+  </si>
+  <si>
+    <t>account_241_nok</t>
+  </si>
+  <si>
+    <t>Recomenda-se a criação de sub-contas apropriadas de forma a que se possa controlar adquadamente os diversos movimentos: Pagamentos por conta; pagamentos especiais por conta; pagamentos adicionais por contas; retenções efetuadas por terceiros  (nacionais e internacionais) respeitantes a a rendimentos de capitais, prediais ou outros; imposto estimado e o imposto a pagar ou a recuperar. Verificamos  que não existem subcontas dentro da conta 241, pelo que recomendamos a sua criação para uma correta desagregação.</t>
+  </si>
+  <si>
+    <t>Test account 241 NOK</t>
+  </si>
+  <si>
+    <t>account_241_debit</t>
+  </si>
+  <si>
+    <t>Representação dos impostos correntes no Ativo e no Passivo</t>
+  </si>
+  <si>
+    <t>Test account 241 subaccounts</t>
+  </si>
+  <si>
+    <t>account_241_debit_ok</t>
+  </si>
+  <si>
+    <t>Verificamos que apenas tem saldo numa sub-conta da conta 241, o que sugere que terá efetuado o apuramento do imposto a pagar e refletido o mesmo em apenas uma conta. Verifique se essa compensação de saldos é adequada tendo em conta os parágrafos 65 a 67 da NCRF 25.</t>
+  </si>
+  <si>
+    <t>Test account 241 subaccounts OK</t>
+  </si>
+  <si>
+    <t>account_241_debit_nok</t>
+  </si>
+  <si>
+    <t>Verificamos que tem saldos em várias sub-contas da conta 241. Verifique se não deverá efetuar compensação de saldos de acordo com os parágrafos 65 a 67 da NCRF 25.</t>
+  </si>
+  <si>
+    <t>Test account 241 subaccounts NOK</t>
+  </si>
+  <si>
+    <t>account_242</t>
+  </si>
+  <si>
+    <t>Teste ao desdobramento da conta  242 - Retenção de impostos sobre rendimentos</t>
+  </si>
+  <si>
+    <t>Test account 242</t>
+  </si>
+  <si>
+    <t>account_242_ok</t>
+  </si>
+  <si>
+    <t>Recomenda-se a criação de sub-contas apropriadas de forma a que se possa controlar adquadamente as diversas retenções de impostos sobre rendimentos: trabalho dependente; trabalho independente; capitais; prediais e outros rendimentos. Foi possível verificar que existem subcontas dentro da conta 242.</t>
+  </si>
+  <si>
+    <t>Test account 242 OK</t>
+  </si>
+  <si>
+    <t>account_242_nok</t>
+  </si>
+  <si>
+    <t>Recomenda-se a criação de sub-contas apropriadas de forma a que se possa controlar adquadamente as diversas retenções de impostos sobre rendimentos: trabalho dependente; trabalho independente; capitais; prediais e outros rendimentos. erificamos  que não existem subcontas dentro da conta 242, pelo que recomendamos a sua criação para uma correta desagregação.</t>
+  </si>
+  <si>
+    <t>Test account 242 NOK</t>
+  </si>
+  <si>
+    <t>account_243x</t>
+  </si>
+  <si>
+    <t>Teste aos saldos das contas 2432, 2433, 2434 e 2435</t>
+  </si>
+  <si>
+    <t>Test account 243x</t>
+  </si>
+  <si>
+    <t>account_243x_ok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste ao saldo das contas 2432, 2433, 2434 e 2435 que normalmente apresentam-se saldadas antes e após o apuramento dos resultados. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Test account 243x OK</t>
+  </si>
+  <si>
+    <t>account_243x_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste ao saldo das contas 2432, 2433, 2434 e 2435 que normalmente apresentam-se saldadas antes e após o apuramento dos resultados e verificamos que as seguintes contas apresentam saldo.</t>
+  </si>
+  <si>
+    <t>Test account 243x NOK</t>
+  </si>
+  <si>
+    <t>taxonomy_67</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por imparidade acumuladas - Outras operações - Aos órgãos sociais (CORRENTE)</t>
+  </si>
+  <si>
+    <t>Test taxonomy 67</t>
+  </si>
+  <si>
+    <t>taxonomy_67_ok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Aos órgãos sociais - (CORRENTE)" (taxonomia 67) e verificado que esta conta, apresenta um saldo inferior ao saldo da conta 2381- "Pessoal - Outras operações - Com os órgãos sociais - (CORRENTE)" (taxonomia 61). Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 67 OK</t>
+  </si>
+  <si>
+    <t>taxonomy_67_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Aos órgãos sociais - (CORRENTE)" (taxonomia 67) e verificado que esta conta, apresenta um saldo superior ao saldo da conta 2381- "Pessoal - Outras operações - Com os órgãos sociais - (CORRENTE)" (taxonomia 61). Esta situação deve ser regularizada para uma correta subissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 67 NOK</t>
+  </si>
+  <si>
+    <t>taxonomy_68</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por imparidade acumuladas - Outras operações - Aos órgãos sociais (NÃO CORRENTE)</t>
+  </si>
+  <si>
+    <t>Test taxonomy 68</t>
+  </si>
+  <si>
+    <t>taxonomy_68_ok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Aos órgãos sociais - (NÃO CORRENTE)" (taxonomia 68) e verificado que esta conta, apresenta um saldo inferior ao saldo da conta 2381- "Pessoal - Outras operações - Com os órgãos sociais - (NÃO CORRENTE)" (taxonomia 62). Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 68 OK</t>
+  </si>
+  <si>
+    <t>taxonomy_68_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Aos órgãos sociais - (NÃO CORRENTE)" (taxonomia 68) e verificado que esta conta, apresenta um saldo superior ao saldo da conta 2381- "Pessoal - Outras operações - Com os órgãos sociais - (NÃO CORRENTE)" (taxonomia 62). Esta situação deve ser regularizada para uma correta subissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 68 NOK</t>
+  </si>
+  <si>
+    <t>taxonomy_69</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por imparidade acumuladas - Outras operações - Ao pessoal (CORRENTE)</t>
+  </si>
+  <si>
+    <t>Test taxonomy 69</t>
+  </si>
+  <si>
+    <t>taxonomy_69_ok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Ao pessoal (CORRENTE)" (taxonomia 69) e verificado que esta conta, apresenta um saldo inferior ao saldo da conta 2381- "Pessoal - Outras operações - Com o pessoal - (CORRENTE)" (taxonomia 63). Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 69 OK</t>
+  </si>
+  <si>
+    <t>taxonomy_69_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Ao pessoal (CORRENTE)" (taxonomia 69) e verificado que esta conta, apresenta um saldo superior ao saldo da conta 2381- "Pessoal - Outras operações - Com o pessoal - (CORRENTE)" (taxonomia 63). Esta situação deve ser regularizada para uma correta subissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 69 NOK</t>
+  </si>
+  <si>
+    <t>taxonomy_70</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por imparidade acumuladas - Outras operações - Ao pessoal (NÃO CORRENTE)</t>
+  </si>
+  <si>
+    <t>Test taxonomy 70</t>
+  </si>
+  <si>
+    <t>taxonomy_70_ok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Ao pessoal (NÃO CORRENTE)" (taxonomia 70) e verificado que esta conta, apresenta um saldo inferior ao saldo da conta 2381- "Pessoal - Outras operações - Com o pessoal - (NÃO CORRENTE)" (taxonomia 64). Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 70 OK</t>
+  </si>
+  <si>
+    <t>taxonomy_70_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "Pessoal - Perdas por imparidade acumuladas - Outras operações - Ao pessoal (NÃO CORRENTE)" (taxonomia 70) e verificado que esta conta, apresenta um saldo superior ao saldo da conta 2381- "Pessoal - Outras operações - Com o pessoal - (NÃO CORRENTE)" (taxonomia 64). Esta situação deve ser regularizada para uma correta subissão do ficheiro SAF-T.</t>
+  </si>
+  <si>
+    <t>Test taxonomy 70 NOK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3106,8 +3322,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3120,8 +3342,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3153,6 +3381,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3165,7 +3408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3181,6 +3424,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3233,8 +3479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G429" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G429"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G453" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G453"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3511,10 +3757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7112,45 +7358,45 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>903</v>
+        <v>951</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>882</v>
+        <v>958</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>884</v>
+        <v>966</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>934</v>
+        <v>889</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>935</v>
+        <v>903</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>938</v>
+        <v>882</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>939</v>
+        <v>884</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -7159,88 +7405,88 @@
     </row>
     <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>902</v>
+        <v>934</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>900</v>
+        <v>938</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>901</v>
+        <v>939</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>937</v>
+        <v>902</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>940</v>
+        <v>883</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>941</v>
+        <v>885</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>896</v>
+        <v>952</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>887</v>
+        <v>959</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>892</v>
+        <v>965</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>897</v>
+        <v>936</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>891</v>
+        <v>937</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>890</v>
+        <v>940</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -7249,103 +7495,103 @@
     </row>
     <row r="402" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>924</v>
+        <v>893</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>919</v>
+        <v>890</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>925</v>
+        <v>894</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>907</v>
+        <v>953</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>911</v>
+        <v>960</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>926</v>
+        <v>967</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>921</v>
+        <v>961</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>929</v>
+        <v>968</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -7354,208 +7600,208 @@
     </row>
     <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>915</v>
+        <v>955</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>918</v>
+        <v>962</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>932</v>
+        <v>969</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>946</v>
+        <v>963</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>944</v>
+        <v>913</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>947</v>
+        <v>917</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>958</v>
+        <v>922</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>966</v>
+        <v>931</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>953</v>
+        <v>915</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>960</v>
+        <v>918</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>967</v>
+        <v>932</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>954</v>
+        <v>916</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>961</v>
+        <v>923</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>968</v>
+        <v>933</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -7654,6 +7900,274 @@
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
+    </row>
+    <row r="430" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D430" s="4"/>
+      <c r="E430" s="4"/>
+      <c r="F430" s="4"/>
+      <c r="G430" s="4"/>
+    </row>
+    <row r="431" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>1068</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3021,9 +3021,6 @@
     <t>transaction_deleted</t>
   </si>
   <si>
-    <t>Eliminado</t>
-  </si>
-  <si>
     <t>Finalizado</t>
   </si>
   <si>
@@ -3292,6 +3289,9 @@
   </si>
   <si>
     <t>Test taxonomy 70 NOK</t>
+  </si>
+  <si>
+    <t>Anulado</t>
   </si>
 </sst>
 </file>
@@ -3759,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6640,10 +6640,10 @@
         <v>867</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -6651,10 +6651,10 @@
         <v>868</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -7810,13 +7810,13 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="B423" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="B423" s="5" t="s">
+      <c r="C423" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="C423" s="5" t="s">
-        <v>983</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -7828,7 +7828,7 @@
         <v>972</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>973</v>
@@ -7850,21 +7850,21 @@
         <v>977</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>978</v>
+        <v>1068</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -7873,13 +7873,13 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -7888,13 +7888,13 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -7903,13 +7903,13 @@
     </row>
     <row r="430" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="C430" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -7918,255 +7918,255 @@
     </row>
     <row r="431" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="C431" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="432" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="C432" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="C433" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="C434" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="C435" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="C436" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="C438" s="7" t="s">
         <v>1022</v>
-      </c>
-      <c r="C438" s="7" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="C445" s="7" t="s">
         <v>1043</v>
-      </c>
-      <c r="C445" s="7" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="C446" s="7" t="s">
         <v>1046</v>
-      </c>
-      <c r="C446" s="7" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="C447" s="7" t="s">
         <v>1049</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="C448" s="7" t="s">
         <v>1052</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="C449" s="7" t="s">
         <v>1055</v>
-      </c>
-      <c r="C449" s="7" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="C450" s="7" t="s">
         <v>1058</v>
-      </c>
-      <c r="C450" s="7" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="C451" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="7" t="s">
         <v>1064</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="C453" s="7" t="s">
         <v>1067</v>
-      </c>
-      <c r="C453" s="7" t="s">
-        <v>1068</v>
       </c>
     </row>
   </sheetData>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1096">
   <si>
     <t>key</t>
   </si>
@@ -3292,6 +3292,87 @@
   </si>
   <si>
     <t>Anulado</t>
+  </si>
+  <si>
+    <t>account_219_var</t>
+  </si>
+  <si>
+    <t>account_219_var_ok</t>
+  </si>
+  <si>
+    <t>account_219_var_nok</t>
+  </si>
+  <si>
+    <t>Teste à conta 219- Clientes- Perdas por Imparidade, cliente a cliente</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 219 - "Clientes - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta, cliente a cliente, é igual ou inferior à soma algébrica dos saldos das contas 211 a 217, de cada cliente. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 219 - "Clientes - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta, cliente a cliente, é superior à soma algébrica dos saldos das contas 211 a 217, para os seguintes clientes.</t>
+  </si>
+  <si>
+    <t>Test account 219 by client</t>
+  </si>
+  <si>
+    <t>Test account 219 by client OK</t>
+  </si>
+  <si>
+    <t>Test account 219 by client NOK</t>
+  </si>
+  <si>
+    <t>account_229_var</t>
+  </si>
+  <si>
+    <t>account_229_var_ok</t>
+  </si>
+  <si>
+    <t>account_229_var_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 229 - "Fornecedores - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta é, fornecedor e fornecedor, superior ao registado na conta 228 - "Fornecedores - Adiantamentos a fornecedores" para os seguintes fornecedores.</t>
+  </si>
+  <si>
+    <t>Test account 229 by supplier</t>
+  </si>
+  <si>
+    <t>Test account 229 by supplier OK</t>
+  </si>
+  <si>
+    <t>Test account 229 by supplier NOK</t>
+  </si>
+  <si>
+    <t>Test account 239 by employee</t>
+  </si>
+  <si>
+    <t>Test account 239 by employee OK</t>
+  </si>
+  <si>
+    <t>Test account 239 by employee NOK</t>
+  </si>
+  <si>
+    <t>account_239_var</t>
+  </si>
+  <si>
+    <t>account_239_var_ok</t>
+  </si>
+  <si>
+    <t>account_239_var_nok</t>
+  </si>
+  <si>
+    <t>Teste à conta 229- Fornecedores - Perdas por Imparidade, fornecedor a fornecedor</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 229 - "Fornecedores - Perdas por imparidade acumuladas" e verificado que o saldo credor desta conta é, fornecedor a fornecedor, inferior ou igual ao saldo existente na conta 228 - "Fornecedores - Adiantamentos a fornecedores" de cada fornecedor. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Teste à conta 239- Pessoal - Perdas por Imparidade, colaborador a colaborador</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "essoal - Perdas por Imparidade" e verificado que o saldo credor desta conta, colaborador a colaborador, é igual ou inferior à soma algébrica dos saldos das contas 232, 233, 234, 235, 236 e 238, de cada colaborador. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 239 - "essoal - Perdas por Imparidade" e verificado que o saldo credor desta conta, colaborador a colaborador, é igual ou superior à soma algébrica dos saldos das contas 232, 233, 234, 235, 236 e 238 para os seguintes colaboradores.</t>
   </si>
 </sst>
 </file>
@@ -3479,8 +3560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G453" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G453"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G462" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G462"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3757,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G453"/>
+  <dimension ref="A1:G462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="A413" sqref="A413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7585,13 +7666,13 @@
     </row>
     <row r="408" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>954</v>
+        <v>1069</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>961</v>
+        <v>1072</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>968</v>
+        <v>1075</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -7600,28 +7681,28 @@
     </row>
     <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>907</v>
+        <v>1070</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>911</v>
+        <v>1073</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>926</v>
+        <v>1076</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>908</v>
+        <v>1071</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>920</v>
+        <v>1074</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>927</v>
+        <v>1077</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -7630,43 +7711,43 @@
     </row>
     <row r="411" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -7675,43 +7756,43 @@
     </row>
     <row r="414" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>956</v>
+        <v>1078</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>963</v>
+        <v>1091</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>970</v>
+        <v>1082</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>913</v>
+        <v>1079</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>917</v>
+        <v>1092</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>930</v>
+        <v>1083</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>914</v>
+        <v>1080</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>922</v>
+        <v>1081</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>931</v>
+        <v>1084</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -7720,166 +7801,178 @@
     </row>
     <row r="417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>942</v>
+        <v>1088</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>945</v>
+        <v>1093</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>943</v>
+        <v>1089</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>946</v>
+        <v>1094</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>949</v>
+        <v>1086</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>944</v>
+        <v>1090</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>947</v>
+        <v>1095</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>950</v>
+        <v>1087</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A423" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="C423" s="5" t="s">
-        <v>982</v>
+    <row r="423" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>972</v>
+    <row r="424" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>913</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>978</v>
+        <v>917</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>974</v>
+        <v>930</v>
+      </c>
+      <c r="D424" s="4"/>
+      <c r="E424" s="4"/>
+      <c r="F424" s="4"/>
+      <c r="G424" s="4"/>
+    </row>
+    <row r="425" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>975</v>
+        <v>922</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>977</v>
+        <v>931</v>
+      </c>
+      <c r="D425" s="4"/>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
+      <c r="G425" s="4"/>
+    </row>
+    <row r="426" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>957</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1068</v>
+        <v>964</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
+    </row>
+    <row r="427" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>983</v>
+        <v>915</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>986</v>
+        <v>918</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>989</v>
+        <v>932</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>984</v>
+        <v>916</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>987</v>
+        <v>923</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>990</v>
+        <v>933</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -7888,284 +7981,407 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>985</v>
+        <v>942</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>988</v>
+        <v>945</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>991</v>
+        <v>948</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>997</v>
+        <v>946</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>998</v>
+        <v>949</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D431" s="4"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A432" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="D432" s="4"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
+      <c r="G432" s="4"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>972</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>974</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>977</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D436" s="4"/>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
+      <c r="G436" s="4"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D437" s="4"/>
+      <c r="E437" s="4"/>
+      <c r="F437" s="4"/>
+      <c r="G437" s="4"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D438" s="4"/>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
+    </row>
+    <row r="439" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D439" s="4"/>
+      <c r="E439" s="4"/>
+      <c r="F439" s="4"/>
+      <c r="G439" s="4"/>
+    </row>
+    <row r="440" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="176" x14ac:dyDescent="0.2">
-      <c r="A432" s="1" t="s">
+    <row r="441" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C432" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A433" s="1" t="s">
+    <row r="442" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C433" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A434" s="1" t="s">
+    <row r="443" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A435" s="1" t="s">
+    <row r="444" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A436" s="1" t="s">
+    <row r="445" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A437" s="1" t="s">
+    <row r="446" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A438" s="1" t="s">
+    <row r="447" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C438" s="7" t="s">
+      <c r="C447" s="7" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="1" t="s">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C439" s="1" t="s">
+      <c r="C448" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A440" s="1" t="s">
+    <row r="449" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="C449" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A441" s="1" t="s">
+    <row r="450" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="C450" s="1" t="s">
         <v>1031</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A442" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A443" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A444" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A445" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C445" s="7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A446" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C446" s="7" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A448" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A449" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C449" s="7" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C450" s="7" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>1059</v>
+        <v>1032</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>1061</v>
+        <v>1033</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>1062</v>
+        <v>1035</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>1064</v>
+        <v>1036</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C453" s="7" t="s">
+      <c r="C462" s="7" t="s">
         <v>1067</v>
       </c>
     </row>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1132">
   <si>
     <t>key</t>
   </si>
@@ -3373,6 +3373,114 @@
   </si>
   <si>
     <t>Foi efetuado um teste sobre a conta 239 - "essoal - Perdas por Imparidade" e verificado que o saldo credor desta conta, colaborador a colaborador, é igual ou superior à soma algébrica dos saldos das contas 232, 233, 234, 235, 236 e 238 para os seguintes colaboradores.</t>
+  </si>
+  <si>
+    <t>Month_01</t>
+  </si>
+  <si>
+    <t>Month_02</t>
+  </si>
+  <si>
+    <t>Month_03</t>
+  </si>
+  <si>
+    <t>Month_04</t>
+  </si>
+  <si>
+    <t>Month_05</t>
+  </si>
+  <si>
+    <t>Month_06</t>
+  </si>
+  <si>
+    <t>Month_07</t>
+  </si>
+  <si>
+    <t>Month_08</t>
+  </si>
+  <si>
+    <t>Month_09</t>
+  </si>
+  <si>
+    <t>Month_10</t>
+  </si>
+  <si>
+    <t>Month_11</t>
+  </si>
+  <si>
+    <t>Month_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Janeiro de </t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Fevereiro de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Março de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Abril de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Maio de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Junho de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Julho de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Agosto de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Setembro de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Outubro de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Novembro de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Dezembro de </t>
   </si>
 </sst>
 </file>
@@ -3489,7 +3597,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3508,6 +3616,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3560,8 +3671,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G462" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G462"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G474" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G474"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3838,10 +3949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G462"/>
+  <dimension ref="A1:G474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A413" sqref="A413"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="A466" sqref="A466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8385,6 +8496,138 @@
         <v>1067</v>
       </c>
     </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C464" s="8" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>1120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1141">
   <si>
     <t>key</t>
   </si>
@@ -3481,6 +3481,33 @@
   </si>
   <si>
     <t xml:space="preserve">de Dezembro de </t>
+  </si>
+  <si>
+    <t>has_taxonomy</t>
+  </si>
+  <si>
+    <t>has_taxonomy_ok</t>
+  </si>
+  <si>
+    <t>has_taxonomy_nok</t>
+  </si>
+  <si>
+    <t>Teste de taxonomia nas contas</t>
+  </si>
+  <si>
+    <t>Test taxonomy accounts</t>
+  </si>
+  <si>
+    <t>Test ok</t>
+  </si>
+  <si>
+    <t>Test nok</t>
+  </si>
+  <si>
+    <t>Foi verificada a configuração de taxonomia em todas as contas com movimentos. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Foi verificada a configuração de taxonomia em todas as contas com movimentos. Deve configurar as seguintes contas:</t>
   </si>
 </sst>
 </file>
@@ -3671,8 +3698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G474" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G474"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G477" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G477"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3949,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G474"/>
+  <dimension ref="A1:G477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="A466" sqref="A466"/>
+    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="C486" sqref="C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8628,6 +8655,39 @@
         <v>1120</v>
       </c>
     </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>1138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
@@ -16,11 +11,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2069,9 +2064,6 @@
     <t>Fatura pró-forma</t>
   </si>
   <si>
-    <t>Invoice Quote</t>
-  </si>
-  <si>
     <t>document_type_FS</t>
   </si>
   <si>
@@ -2241,9 +2233,6 @@
   </si>
   <si>
     <t>Fatura pró-forma de fornecedor</t>
-  </si>
-  <si>
-    <t>Supplier invoice quote</t>
   </si>
   <si>
     <t>document_type_FC</t>
@@ -3508,6 +3497,12 @@
   </si>
   <si>
     <t>Foi verificada a configuração de taxonomia em todas as contas com movimentos. Deve configurar as seguintes contas:</t>
+  </si>
+  <si>
+    <t>Supplier Proforma Invoice</t>
+  </si>
+  <si>
+    <t>Proforma Invoice</t>
   </si>
 </sst>
 </file>
@@ -3968,7 +3963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3978,18 +3973,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="C486" sqref="C486"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +4015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4028,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4044,7 +4039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4052,7 +4047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4060,7 +4055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4068,7 +4063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4076,7 +4071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4084,7 +4079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4092,7 +4087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4100,7 +4095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4108,7 +4103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4116,7 +4111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4124,7 +4119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4132,7 +4127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4140,7 +4135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4148,7 +4143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -4156,7 +4151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4164,7 +4159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4172,7 +4167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,7 +4183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4204,7 +4199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4212,7 +4207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -4220,7 +4215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -4228,7 +4223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4236,7 +4231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -4244,7 +4239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -4252,7 +4247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4260,7 +4255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4268,7 +4263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4276,7 +4271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4284,7 +4279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -4292,7 +4287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4300,7 +4295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4308,7 +4303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4316,7 +4311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4332,7 +4327,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4340,7 +4335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -4348,7 +4343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4356,7 +4351,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -4364,7 +4359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -4372,7 +4367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -4380,7 +4375,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -4388,7 +4383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -4396,7 +4391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -4404,7 +4399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -4412,7 +4407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -4420,7 +4415,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -4428,7 +4423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -4436,7 +4431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -4444,7 +4439,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -4452,7 +4447,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -4460,7 +4455,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -4476,7 +4471,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -4484,7 +4479,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -4492,7 +4487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -4500,7 +4495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -4508,7 +4503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -4516,7 +4511,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -4524,7 +4519,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -4532,7 +4527,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -4548,7 +4543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -4556,7 +4551,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -4564,7 +4559,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -4572,7 +4567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -4580,7 +4575,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -4588,7 +4583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -4596,7 +4591,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -4604,7 +4599,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -4612,7 +4607,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -4620,7 +4615,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -4628,7 +4623,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -4636,7 +4631,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -4652,7 +4647,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -4660,7 +4655,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -4668,7 +4663,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -4676,7 +4671,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -4684,7 +4679,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -4692,7 +4687,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -4700,7 +4695,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -4708,7 +4703,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -4716,7 +4711,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -4724,7 +4719,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -4740,7 +4735,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -4748,7 +4743,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -4756,7 +4751,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -4764,7 +4759,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -4772,7 +4767,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -4780,7 +4775,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -4788,7 +4783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -4796,7 +4791,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -4812,7 +4807,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -4820,7 +4815,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -4828,7 +4823,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -4836,7 +4831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -4844,7 +4839,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -4852,7 +4847,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -4860,7 +4855,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -4868,7 +4863,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -4876,7 +4871,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -4884,7 +4879,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -4892,7 +4887,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -4900,7 +4895,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -4908,7 +4903,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -4916,7 +4911,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -4924,7 +4919,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -4932,7 +4927,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -4940,7 +4935,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -4948,7 +4943,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -4956,7 +4951,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -4972,7 +4967,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -4980,7 +4975,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -4988,7 +4983,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -4996,7 +4991,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5004,7 +4999,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5012,7 +5007,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -5020,7 +5015,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -5028,7 +5023,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -5036,7 +5031,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -5044,7 +5039,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -5052,7 +5047,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -5060,7 +5055,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -5068,7 +5063,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5076,7 +5071,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -5084,7 +5079,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -5092,7 +5087,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -5100,7 +5095,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -5108,7 +5103,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5116,7 +5111,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -5124,7 +5119,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -5132,7 +5127,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -5148,7 +5143,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -5156,7 +5151,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -5164,7 +5159,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -5172,7 +5167,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -5180,7 +5175,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -5188,7 +5183,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -5196,7 +5191,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -5204,7 +5199,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -5212,7 +5207,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -5220,7 +5215,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -5228,7 +5223,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5236,7 +5231,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -5244,7 +5239,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -5252,7 +5247,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -5260,7 +5255,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -5268,7 +5263,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -5276,7 +5271,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -5284,7 +5279,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -5292,7 +5287,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -5300,7 +5295,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -5308,7 +5303,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -5316,7 +5311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -5324,7 +5319,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -5332,7 +5327,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -5340,7 +5335,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -5348,7 +5343,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -5356,7 +5351,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -5364,7 +5359,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -5372,7 +5367,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -5380,7 +5375,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -5388,7 +5383,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -5396,7 +5391,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -5404,7 +5399,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -5412,7 +5407,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -5420,7 +5415,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -5428,7 +5423,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -5436,7 +5431,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -5444,7 +5439,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -5452,7 +5447,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -5460,7 +5455,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -5468,7 +5463,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -5476,7 +5471,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -5484,7 +5479,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -5492,7 +5487,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -5500,7 +5495,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -5516,7 +5511,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -5524,7 +5519,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -5532,7 +5527,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -5548,7 +5543,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -5556,7 +5551,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -5564,7 +5559,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -5572,7 +5567,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -5580,7 +5575,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -5588,7 +5583,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -5596,7 +5591,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -5604,7 +5599,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -5612,7 +5607,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -5620,7 +5615,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -5628,7 +5623,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -5644,7 +5639,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -5652,7 +5647,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -5660,7 +5655,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -5668,7 +5663,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -5676,7 +5671,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -5692,7 +5687,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -5700,7 +5695,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -5708,7 +5703,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -5716,7 +5711,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -5724,7 +5719,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -5732,7 +5727,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -5740,7 +5735,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -5748,7 +5743,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -5756,7 +5751,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -5764,7 +5759,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -5772,7 +5767,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -5780,7 +5775,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -5788,7 +5783,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -5796,7 +5791,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -5804,7 +5799,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -5812,7 +5807,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -5820,7 +5815,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -5828,7 +5823,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -5836,7 +5831,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -5844,7 +5839,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -5852,7 +5847,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -5860,7 +5855,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -5868,7 +5863,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -5876,7 +5871,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -5884,7 +5879,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -5892,7 +5887,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -5900,7 +5895,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -5908,7 +5903,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -5924,7 +5919,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -5932,7 +5927,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -5940,7 +5935,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -5948,7 +5943,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -5956,7 +5951,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -5964,7 +5959,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -5972,7 +5967,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -5980,7 +5975,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -5991,7 +5986,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -6002,7 +5997,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -6013,7 +6008,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -6024,7 +6019,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -6035,7 +6030,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -6046,7 +6041,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -6057,7 +6052,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -6068,7 +6063,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="32">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6079,15 +6074,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="409">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>522</v>
       </c>
@@ -6098,7 +6093,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>526</v>
       </c>
@@ -6117,7 +6112,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>529</v>
       </c>
@@ -6128,7 +6123,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>532</v>
       </c>
@@ -6139,7 +6134,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>535</v>
       </c>
@@ -6150,7 +6145,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>538</v>
       </c>
@@ -6161,7 +6156,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>541</v>
       </c>
@@ -6172,7 +6167,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>544</v>
       </c>
@@ -6183,7 +6178,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>547</v>
       </c>
@@ -6194,7 +6189,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>550</v>
       </c>
@@ -6205,7 +6200,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>553</v>
       </c>
@@ -6216,7 +6211,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>556</v>
       </c>
@@ -6227,7 +6222,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>559</v>
       </c>
@@ -6238,7 +6233,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>562</v>
       </c>
@@ -6249,7 +6244,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>565</v>
       </c>
@@ -6260,7 +6255,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -6271,7 +6266,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>571</v>
       </c>
@@ -6282,7 +6277,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>574</v>
       </c>
@@ -6293,7 +6288,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>577</v>
       </c>
@@ -6304,7 +6299,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>580</v>
       </c>
@@ -6315,7 +6310,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>583</v>
       </c>
@@ -6326,7 +6321,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>586</v>
       </c>
@@ -6337,7 +6332,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>589</v>
       </c>
@@ -6348,7 +6343,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>592</v>
       </c>
@@ -6359,7 +6354,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -6370,7 +6365,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="48">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -6381,7 +6376,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>601</v>
       </c>
@@ -6392,7 +6387,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="32">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -6403,7 +6398,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="32">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -6414,7 +6409,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>610</v>
       </c>
@@ -6425,7 +6420,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>612</v>
       </c>
@@ -6436,7 +6431,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>615</v>
       </c>
@@ -6447,7 +6442,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>618</v>
       </c>
@@ -6458,7 +6453,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>621</v>
       </c>
@@ -6469,7 +6464,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>624</v>
       </c>
@@ -6480,7 +6475,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>627</v>
       </c>
@@ -6491,7 +6486,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>630</v>
       </c>
@@ -6502,7 +6497,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>633</v>
       </c>
@@ -6513,7 +6508,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>636</v>
       </c>
@@ -6524,7 +6519,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>639</v>
       </c>
@@ -6535,7 +6530,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>642</v>
       </c>
@@ -6546,7 +6541,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>645</v>
       </c>
@@ -6557,7 +6552,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>648</v>
       </c>
@@ -6568,7 +6563,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>651</v>
       </c>
@@ -6579,7 +6574,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -6590,7 +6585,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>657</v>
       </c>
@@ -6601,7 +6596,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>660</v>
       </c>
@@ -6612,7 +6607,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>661</v>
       </c>
@@ -6623,7 +6618,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -6634,7 +6629,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>663</v>
       </c>
@@ -6645,7 +6640,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>664</v>
       </c>
@@ -6656,7 +6651,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>665</v>
       </c>
@@ -6667,7 +6662,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>666</v>
       </c>
@@ -6678,7 +6673,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>667</v>
       </c>
@@ -6689,7 +6684,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>668</v>
       </c>
@@ -6700,7 +6695,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>669</v>
       </c>
@@ -6711,7 +6706,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>670</v>
       </c>
@@ -6722,7 +6717,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>671</v>
       </c>
@@ -6733,7 +6728,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>672</v>
       </c>
@@ -6744,7 +6739,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>673</v>
       </c>
@@ -6755,128 +6750,128 @@
         <v>567</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C321" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C320" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:3" ht="48">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="64">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="32">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="32">
+      <c r="A326" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="64">
       <c r="A327" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="32">
+      <c r="A328" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="32">
+      <c r="A329" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A328" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A329" s="1" t="s">
-        <v>868</v>
-      </c>
       <c r="B329" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>678</v>
       </c>
@@ -6884,606 +6879,606 @@
         <v>679</v>
       </c>
       <c r="C330" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C331" s="1" t="s">
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C332" s="1" t="s">
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C333" s="1" t="s">
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C334" s="1" t="s">
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="1" t="s">
+      <c r="B335" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C335" s="1" t="s">
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C336" s="1" t="s">
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="1" t="s">
+      <c r="B337" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C338" s="1" t="s">
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C339" s="1" t="s">
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C340" s="1" t="s">
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C341" s="1" t="s">
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C342" s="1" t="s">
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C343" s="1" t="s">
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C344" s="1" t="s">
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C345" s="1" t="s">
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C346" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C347" s="1" t="s">
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C348" s="1" t="s">
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="1" t="s">
+      <c r="B349" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C349" s="1" t="s">
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B351" s="1" t="s">
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="1" t="s">
+      <c r="C352" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B352" s="1" t="s">
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B353" s="1" t="s">
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="1" t="s">
+      <c r="C354" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B354" s="1" t="s">
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
+      <c r="C355" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="1" t="s">
+      <c r="C356" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B357" s="1" t="s">
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="1" t="s">
+      <c r="C358" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B358" s="1" t="s">
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="B359" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="1" t="s">
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C359" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B360" s="1" t="s">
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B361" s="1" t="s">
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="1" t="s">
+      <c r="C362" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B362" s="1" t="s">
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B363" s="1" t="s">
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="B364" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B364" s="1" t="s">
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B365" s="1" t="s">
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B366" s="1" t="s">
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B367" s="1" t="s">
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="B368" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B368" s="1" t="s">
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="B369" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B369" s="1" t="s">
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="1" t="s">
+      <c r="C370" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B370" s="1" t="s">
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B371" s="1" t="s">
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B372" s="1" t="s">
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B373" s="1" t="s">
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="B374" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="1" t="s">
+      <c r="C374" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B374" s="1" t="s">
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="1" t="s">
+      <c r="C375" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B375" s="1" t="s">
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="B376" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="1" t="s">
+      <c r="C376" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B376" s="1" t="s">
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="B377" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="1" t="s">
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="C377" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B378" s="1" t="s">
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="B379" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B379" s="1" t="s">
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="B380" s="1" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="1" t="s">
+      <c r="C380" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B380" s="1" t="s">
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B381" s="1" t="s">
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="B382" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
+      <c r="C382" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C382" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B383" s="1" t="s">
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="B384" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="1" t="s">
+      <c r="C384" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B384" s="1" t="s">
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>622</v>
@@ -7492,53 +7487,53 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B386" s="1" t="s">
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="B388" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388" s="1" t="s">
+      <c r="C388" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B388" s="1" t="s">
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="B389" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A389" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>658</v>
@@ -7551,1141 +7546,1141 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="C391" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="32">
       <c r="A394" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="48">
       <c r="A395" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="48">
       <c r="A396" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="96">
       <c r="A397" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="48">
       <c r="A398" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B398" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="64">
       <c r="A400" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="96">
       <c r="A401" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="32">
       <c r="A402" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="32">
       <c r="A403" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="64">
       <c r="A404" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="32">
       <c r="A405" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="80">
       <c r="A406" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="96">
       <c r="A407" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="32">
       <c r="A408" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="96">
       <c r="A409" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="80">
       <c r="A410" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="32">
       <c r="A411" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="96">
       <c r="A412" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="112">
       <c r="A413" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="32">
       <c r="A414" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="112">
       <c r="A415" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="96">
       <c r="A416" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="32">
       <c r="A417" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="80">
       <c r="A418" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>912</v>
-      </c>
       <c r="C418" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="96">
       <c r="A419" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="32">
       <c r="A420" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="96">
       <c r="A421" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="96">
       <c r="A422" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="32">
       <c r="A423" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="96">
       <c r="A424" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="128">
       <c r="A425" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="32">
       <c r="A426" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="96">
       <c r="A427" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="112">
       <c r="A428" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7">
       <c r="A429" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7">
       <c r="A430" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7">
       <c r="A431" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7">
       <c r="A432" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C432" s="5" t="s">
         <v>980</v>
-      </c>
-      <c r="B432" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
+        <v>970</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" t="s">
         <v>972</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="C433" s="1" t="s">
+      <c r="B434" s="1" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
+      <c r="C434" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B434" s="1" t="s">
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" t="s">
         <v>975</v>
       </c>
-      <c r="C434" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
+      <c r="B435" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7">
       <c r="A437" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7">
       <c r="A438" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="32">
       <c r="A439" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="160">
       <c r="A440" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B440" s="1" t="s">
+    </row>
+    <row r="441" spans="1:7" ht="176">
+      <c r="A441" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" ht="176" x14ac:dyDescent="0.2">
-      <c r="A441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B441" s="1" t="s">
+    </row>
+    <row r="442" spans="1:7" ht="32">
+      <c r="A442" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A442" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B442" s="1" t="s">
+    </row>
+    <row r="443" spans="1:7" ht="96">
+      <c r="A443" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C442" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A443" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B443" s="1" t="s">
+    </row>
+    <row r="444" spans="1:7" ht="64">
+      <c r="A444" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A444" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B444" s="1" t="s">
+    </row>
+    <row r="445" spans="1:7" ht="32">
+      <c r="A445" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C444" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A445" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B445" s="1" t="s">
+    </row>
+    <row r="446" spans="1:7" ht="96">
+      <c r="A446" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A446" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B446" s="1" t="s">
+    </row>
+    <row r="447" spans="1:7" ht="128">
+      <c r="A447" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" ht="128" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
+      <c r="C447" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="B447" s="1" t="s">
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C447" s="7" t="s">
+      <c r="B448" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A448" s="1" t="s">
+      <c r="C448" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B448" s="1" t="s">
+    </row>
+    <row r="449" spans="1:3" ht="64">
+      <c r="A449" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C448" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A449" s="1" t="s">
+      <c r="C449" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B449" s="1" t="s">
+    </row>
+    <row r="450" spans="1:3" ht="80">
+      <c r="A450" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C449" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
+      <c r="C450" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B450" s="1" t="s">
+    </row>
+    <row r="451" spans="1:3" ht="48">
+      <c r="A451" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A451" s="1" t="s">
+      <c r="C451" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B451" s="1" t="s">
+    </row>
+    <row r="452" spans="1:3" ht="128">
+      <c r="A452" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A452" s="1" t="s">
+      <c r="C452" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B452" s="1" t="s">
+    </row>
+    <row r="453" spans="1:3" ht="144">
+      <c r="A453" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A453" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B453" s="1" t="s">
+    </row>
+    <row r="454" spans="1:3" ht="48">
+      <c r="A454" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A454" s="1" t="s">
+      <c r="C454" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="B454" s="1" t="s">
+    </row>
+    <row r="455" spans="1:3" ht="128">
+      <c r="A455" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="B455" s="1" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A455" s="1" t="s">
+      <c r="C455" s="7" t="s">
         <v>1044</v>
       </c>
-      <c r="B455" s="1" t="s">
+    </row>
+    <row r="456" spans="1:3" ht="144">
+      <c r="A456" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="B456" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A456" s="1" t="s">
+      <c r="C456" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="B456" s="1" t="s">
+    </row>
+    <row r="457" spans="1:3" ht="48">
+      <c r="A457" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C456" s="7" t="s">
+      <c r="B457" s="1" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A457" s="1" t="s">
+      <c r="C457" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="B457" s="1" t="s">
+    </row>
+    <row r="458" spans="1:3" ht="112">
+      <c r="A458" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="B458" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A458" s="1" t="s">
+      <c r="C458" s="7" t="s">
         <v>1053</v>
       </c>
-      <c r="B458" s="1" t="s">
+    </row>
+    <row r="459" spans="1:3" ht="128">
+      <c r="A459" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C458" s="7" t="s">
+      <c r="B459" s="1" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A459" s="1" t="s">
+      <c r="C459" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="B459" s="1" t="s">
+    </row>
+    <row r="460" spans="1:3" ht="48">
+      <c r="A460" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C459" s="7" t="s">
+      <c r="B460" s="1" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A460" s="1" t="s">
+      <c r="C460" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="B460" s="1" t="s">
+    </row>
+    <row r="461" spans="1:3" ht="128">
+      <c r="A461" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C460" s="7" t="s">
+      <c r="B461" s="1" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A461" s="1" t="s">
+      <c r="C461" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="B461" s="1" t="s">
+    </row>
+    <row r="462" spans="1:3" ht="144">
+      <c r="A462" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C461" s="7" t="s">
+      <c r="B462" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A462" s="1" t="s">
+      <c r="C462" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C462" s="7" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C464" s="8" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C463" s="8" t="s">
+      <c r="B465" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C465" s="8" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" s="1" t="s">
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="B466" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="C464" s="8" t="s">
+      <c r="C466" s="8" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="1" t="s">
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="B467" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C465" s="8" t="s">
+      <c r="C467" s="8" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="1" t="s">
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="B468" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C466" s="8" t="s">
+      <c r="C468" s="8" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" s="1" t="s">
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B469" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C467" s="8" t="s">
+      <c r="C469" s="8" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="1" t="s">
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="B470" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="C468" s="8" t="s">
+      <c r="C470" s="8" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" s="1" t="s">
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B471" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C469" s="8" t="s">
+      <c r="C471" s="8" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" s="1" t="s">
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B472" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C470" s="8" t="s">
+      <c r="C472" s="8" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="1" t="s">
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B473" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="C471" s="8" t="s">
+      <c r="C473" s="8" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" s="1" t="s">
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B474" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C472" s="8" t="s">
+      <c r="C474" s="8" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B473" s="1" t="s">
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C473" s="8" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B474" s="1" t="s">
+      <c r="B475" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="48">
+      <c r="A476" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="C474" s="8" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="1" t="s">
+      <c r="B476" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="48">
+      <c r="A477" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C475" s="1" t="s">
+      <c r="B477" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C477" s="8" t="s">
         <v>1136</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A476" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C476" s="8" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A477" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C477" s="8" t="s">
-        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -8694,5 +8689,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="3420" yWindow="700" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1144">
   <si>
     <t>key</t>
   </si>
@@ -2088,18 +2088,12 @@
     <t>Fatura-recibo</t>
   </si>
   <si>
-    <t>Invoice-Receipt</t>
-  </si>
-  <si>
     <t>document_type_GC</t>
   </si>
   <si>
     <t>Guia de consignação</t>
   </si>
   <si>
-    <t xml:space="preserve">Consignment movement of goods </t>
-  </si>
-  <si>
     <t>document_type_GD</t>
   </si>
   <si>
@@ -2130,9 +2124,6 @@
     <t>Guia de movimentação de ativos próprios</t>
   </si>
   <si>
-    <t>Movement of fixed assets</t>
-  </si>
-  <si>
     <t>document_type_NC</t>
   </si>
   <si>
@@ -2166,25 +2157,16 @@
     <t>Saldos iniciais</t>
   </si>
   <si>
-    <t>Initial balance</t>
-  </si>
-  <si>
     <t>document_type_NLC</t>
   </si>
   <si>
     <t>Nota de lançamento a crédito</t>
   </si>
   <si>
-    <t>Current account credit ajustment</t>
-  </si>
-  <si>
     <t>document_type_NLD</t>
   </si>
   <si>
     <t>Nota de lançamento a débito</t>
-  </si>
-  <si>
-    <t>Current account debit ajustment</t>
   </si>
   <si>
     <t>document_type_VCF</t>
@@ -3503,6 +3485,33 @@
   </si>
   <si>
     <t>Proforma Invoice</t>
+  </si>
+  <si>
+    <t>Receipt-Invoice</t>
+  </si>
+  <si>
+    <t>Consignment Shipments</t>
+  </si>
+  <si>
+    <t>Devolution Guide</t>
+  </si>
+  <si>
+    <t>Delivery note</t>
+  </si>
+  <si>
+    <t>Transport Guide</t>
+  </si>
+  <si>
+    <t>Guide movement of own assets</t>
+  </si>
+  <si>
+    <t>Initial balances</t>
+  </si>
+  <si>
+    <t>Credit release note</t>
+  </si>
+  <si>
+    <t>Debit release note</t>
   </si>
 </sst>
 </file>
@@ -3963,7 +3972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3973,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6063,7 +6072,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="32">
+    <row r="256" spans="1:3" ht="30">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6079,7 +6088,7 @@
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6354,7 +6363,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" ht="30">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="48">
+    <row r="284" spans="1:3" ht="45">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="32">
+    <row r="286" spans="1:3" ht="30">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -6398,7 +6407,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="32">
+    <row r="287" spans="1:3" ht="30">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -6755,120 +6764,120 @@
         <v>674</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="48">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="45">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="64">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="60">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="32">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="30">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="32">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="30">
       <c r="A326" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="64">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="60">
       <c r="A327" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="32">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="30">
       <c r="A328" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="32">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="30">
       <c r="A329" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6879,7 +6888,7 @@
         <v>679</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6912,147 +6921,147 @@
         <v>687</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>688</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="C334" s="1" t="s">
-        <v>691</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>694</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>697</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>697</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>702</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>714</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>717</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>720</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>685</v>
@@ -7060,425 +7069,425 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>622</v>
@@ -7489,51 +7498,51 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>658</v>
@@ -7548,24 +7557,24 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -7574,88 +7583,88 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="32">
+    <row r="394" spans="1:7" ht="30">
       <c r="A394" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="48">
+    <row r="395" spans="1:7" ht="45">
       <c r="A395" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="48">
+    <row r="396" spans="1:7" ht="45">
       <c r="A396" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="96">
+    <row r="397" spans="1:7" ht="105">
       <c r="A397" s="1" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="48">
+    <row r="398" spans="1:7" ht="45">
       <c r="A398" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -7664,448 +7673,448 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B399" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="64">
+    <row r="400" spans="1:7" ht="60">
       <c r="A400" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="96">
+    <row r="401" spans="1:7" ht="90">
       <c r="A401" s="1" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="32">
+    <row r="402" spans="1:7" ht="30">
       <c r="A402" s="1" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="32">
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="1" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="64">
+    <row r="404" spans="1:7" ht="60">
       <c r="A404" s="1" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="32">
+    <row r="405" spans="1:7" ht="30">
       <c r="A405" s="1" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="80">
+    <row r="406" spans="1:7" ht="75">
       <c r="A406" s="1" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="96">
+    <row r="407" spans="1:7" ht="90">
       <c r="A407" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>923</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="32">
+    <row r="408" spans="1:7" ht="30">
       <c r="A408" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="96">
+    <row r="409" spans="1:7" ht="90">
       <c r="A409" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="80">
+    <row r="410" spans="1:7" ht="75">
       <c r="A410" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="32">
+    <row r="411" spans="1:7" ht="30">
       <c r="A411" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="96">
+    <row r="412" spans="1:7" ht="90">
       <c r="A412" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="112">
+    <row r="413" spans="1:7" ht="105">
       <c r="A413" s="1" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="32">
+    <row r="414" spans="1:7" ht="30">
       <c r="A414" s="1" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="112">
+    <row r="415" spans="1:7" ht="105">
       <c r="A415" s="1" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="96">
+    <row r="416" spans="1:7" ht="90">
       <c r="A416" s="1" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="32">
+    <row r="417" spans="1:7" ht="30">
       <c r="A417" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="80">
+    <row r="418" spans="1:7" ht="75">
       <c r="A418" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="96">
+    <row r="419" spans="1:7" ht="90">
       <c r="A419" s="1" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="32">
+    <row r="420" spans="1:7" ht="30">
       <c r="A420" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="96">
+    <row r="421" spans="1:7" ht="90">
       <c r="A421" s="1" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="96">
+    <row r="422" spans="1:7" ht="90">
       <c r="A422" s="1" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="32">
+    <row r="423" spans="1:7" ht="30">
       <c r="A423" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="96">
+    <row r="424" spans="1:7" ht="90">
       <c r="A424" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="128">
+    <row r="425" spans="1:7" ht="120">
       <c r="A425" s="1" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="32">
+    <row r="426" spans="1:7" ht="30">
       <c r="A426" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="96">
+    <row r="427" spans="1:7" ht="90">
       <c r="A427" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="112">
+    <row r="428" spans="1:7" ht="105">
       <c r="A428" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -8114,13 +8123,13 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -8129,13 +8138,13 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -8144,13 +8153,13 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -8159,13 +8168,13 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="6" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -8174,46 +8183,46 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433" t="s">
+        <v>964</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>976</v>
-      </c>
       <c r="C433" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="435" spans="1:7">
       <c r="A435" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -8222,13 +8231,13 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -8237,450 +8246,450 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="32">
+    <row r="439" spans="1:7" ht="30">
       <c r="A439" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" ht="160">
+    <row r="440" spans="1:7" ht="150">
       <c r="A440" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="165">
+      <c r="A441" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="30">
+      <c r="A442" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="176">
-      <c r="A441" s="1" t="s">
+    <row r="443" spans="1:7" ht="90">
+      <c r="A443" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="32">
-      <c r="A442" s="1" t="s">
+    <row r="444" spans="1:7" ht="60">
+      <c r="A444" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C442" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="96">
-      <c r="A443" s="1" t="s">
+    <row r="445" spans="1:7" ht="30">
+      <c r="A445" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="64">
-      <c r="A444" s="1" t="s">
+    <row r="446" spans="1:7" ht="90">
+      <c r="A446" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C444" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="32">
-      <c r="A445" s="1" t="s">
+    <row r="447" spans="1:7" ht="120">
+      <c r="A447" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="C447" s="7" t="s">
         <v>1014</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" ht="96">
-      <c r="A446" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" ht="128">
-      <c r="A447" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="60">
+      <c r="A449" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="75">
+      <c r="A450" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C448" s="1" t="s">
+      <c r="C450" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="64">
-      <c r="A449" s="1" t="s">
+    <row r="451" spans="1:3" ht="45">
+      <c r="A451" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C449" s="1" t="s">
+      <c r="C451" s="1" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="80">
-      <c r="A450" s="1" t="s">
+    <row r="452" spans="1:3" ht="120">
+      <c r="A452" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="C452" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="48">
-      <c r="A451" s="1" t="s">
+    <row r="453" spans="1:3" ht="135">
+      <c r="A453" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="128">
-      <c r="A452" s="1" t="s">
+    <row r="454" spans="1:3" ht="45">
+      <c r="A454" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="C454" s="7" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="144">
-      <c r="A453" s="1" t="s">
+    <row r="455" spans="1:3" ht="120">
+      <c r="A455" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="C455" s="7" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="48">
-      <c r="A454" s="1" t="s">
+    <row r="456" spans="1:3" ht="135">
+      <c r="A456" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="C456" s="7" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="128">
-      <c r="A455" s="1" t="s">
+    <row r="457" spans="1:3" ht="45">
+      <c r="A457" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C457" s="7" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="144">
-      <c r="A456" s="1" t="s">
+    <row r="458" spans="1:3" ht="105">
+      <c r="A458" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C456" s="7" t="s">
+      <c r="C458" s="7" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="48">
-      <c r="A457" s="1" t="s">
+    <row r="459" spans="1:3" ht="120">
+      <c r="A459" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="C459" s="7" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="112">
-      <c r="A458" s="1" t="s">
+    <row r="460" spans="1:3" ht="45">
+      <c r="A460" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B460" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C458" s="7" t="s">
+      <c r="C460" s="7" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="128">
-      <c r="A459" s="1" t="s">
+    <row r="461" spans="1:3" ht="120">
+      <c r="A461" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="B461" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C459" s="7" t="s">
+      <c r="C461" s="7" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="48">
-      <c r="A460" s="1" t="s">
+    <row r="462" spans="1:3" ht="135">
+      <c r="A462" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C460" s="7" t="s">
+      <c r="C462" s="7" t="s">
         <v>1059</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="128">
-      <c r="A461" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="144">
-      <c r="A462" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C462" s="7" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="45">
+      <c r="A476" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="45">
+      <c r="A477" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C477" s="8" t="s">
         <v>1130</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="48">
-      <c r="A476" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C476" s="8" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="48">
-      <c r="A477" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C477" s="8" t="s">
-        <v>1136</v>
       </c>
     </row>
   </sheetData>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="700" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-1360" yWindow="-18900" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1196">
   <si>
     <t>key</t>
   </si>
@@ -3512,6 +3517,162 @@
   </si>
   <si>
     <t>Debit release note</t>
+  </si>
+  <si>
+    <t>svat_t21</t>
+  </si>
+  <si>
+    <t>svat_t21_ok</t>
+  </si>
+  <si>
+    <t>svat_t21_nok</t>
+  </si>
+  <si>
+    <t>svat_t22_ok</t>
+  </si>
+  <si>
+    <t>svat_t23_ok</t>
+  </si>
+  <si>
+    <t>svat_t24_ok</t>
+  </si>
+  <si>
+    <t>svat_t25_ok</t>
+  </si>
+  <si>
+    <t>svat_t26_ok</t>
+  </si>
+  <si>
+    <t>svat_t22_nok</t>
+  </si>
+  <si>
+    <t>svat_t23_nok</t>
+  </si>
+  <si>
+    <t>svat_t24_nok</t>
+  </si>
+  <si>
+    <t>svat_t25_nok</t>
+  </si>
+  <si>
+    <t>svat_t26_nok</t>
+  </si>
+  <si>
+    <t>svat_t27_ok</t>
+  </si>
+  <si>
+    <t>svat_t27_nok</t>
+  </si>
+  <si>
+    <t>svat_t28_ok</t>
+  </si>
+  <si>
+    <t>svat_t29_ok</t>
+  </si>
+  <si>
+    <t>svat_t29_nok</t>
+  </si>
+  <si>
+    <t>O movimento de apuramento de resultado antes de impostos  deve ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>svat_t22</t>
+  </si>
+  <si>
+    <t>svat_t23</t>
+  </si>
+  <si>
+    <t>svat_t24</t>
+  </si>
+  <si>
+    <t>svat_t25</t>
+  </si>
+  <si>
+    <t>svat_t26</t>
+  </si>
+  <si>
+    <t>svat_t27</t>
+  </si>
+  <si>
+    <t>svat_t28</t>
+  </si>
+  <si>
+    <t>svat_t29</t>
+  </si>
+  <si>
+    <t>Teste ao lançamento de apuramento de resultado antes de impostos</t>
+  </si>
+  <si>
+    <t>O movimento de apuramento de resultado antes de impostos tem de ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Verificamos que os seguintes lançamentos estão registados em diário tipificado como apuramento e movimentam contas não expectáveis:</t>
+  </si>
+  <si>
+    <t>Verificamos que não existe nenhum movimento de apuramento de resultado antes de impostos, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo no diário correto de apuramento de resultados. Alertamos para a FAQ 15-2887, que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor "0,00" (zero)</t>
+  </si>
+  <si>
+    <t>Teste ao lançamento de apuramento de resultado líquido</t>
+  </si>
+  <si>
+    <t>Os movimentos de apuramento de resultado líquido  devem ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Verificamos que não existe nenhum movimento de apuramento de resultado líquido, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo no diário correto de apuramento de resultados. Alertamos para a FAQ 15-2887, que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor "0,00" (zero)</t>
+  </si>
+  <si>
+    <t>Verificamos que não existe nenhum movimento de aplicação de resultados. Confirme por favor se não deverá efetuar esse movimento. Alertamos para a FAQ 14-2886, que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor "0,00" (zero)</t>
+  </si>
+  <si>
+    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior maracdo como principal. Sem exceções</t>
+  </si>
+  <si>
+    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior maracdo como principal e encontramos diferenças ao nível das seguintes contas:</t>
+  </si>
+  <si>
+    <t>Verificamos que existe um movimento de apuramento de resultado antes de impostos:</t>
+  </si>
+  <si>
+    <t>O movimento de apuramento de resultado líquido tem de ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Verificamos que os seguintes lançamentos estão registados em diário tipificado como apuramento e movimentam contas não expectáveis:</t>
+  </si>
+  <si>
+    <t>Verificamos que existem os seguintes movimentos de apuramento de resultado líquido:</t>
+  </si>
+  <si>
+    <t>Teste ao lançamento de aplicação de resultados</t>
+  </si>
+  <si>
+    <t>Verificamos que existe um movimento de aplicação de resultados:</t>
+  </si>
+  <si>
+    <t>Teste ao lançamento de abertura</t>
+  </si>
+  <si>
+    <t>O movimento de abertura tem de ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Verificamos que os seguintes lançamentos estão registados em diário tipificado como abertura e movimenta contas não expectáveis:</t>
+  </si>
+  <si>
+    <t>Teste aos saldos de abertura</t>
+  </si>
+  <si>
+    <t>svat_t28_1_nok</t>
+  </si>
+  <si>
+    <t>svat_t28_2_nok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificamos que existe mais do que um movimento de abertura. Por favor verifique se os seguintes registos estão corretos: </t>
+  </si>
+  <si>
+    <t>Verificamos que não existe nenhum movimento de abertura, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo em outro diário.</t>
+  </si>
+  <si>
+    <t>Verificamos que o movimento de aplicação de resultados foi registado até 31 de Março {0}. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>O movimento de abertura deve ser efetuado em diário apropriado para uma correta identificação no ficheiro SAF-T (PT).Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Verificamos que existe movimento de abertura:</t>
+  </si>
+  <si>
+    <t>Verificamos que o movimento de aplicação de resultados foi registado em {0}. Verifique se não deverá efetuar esse registo até à data de 31 de Março, ou 31 de Maio para contas com MEP.</t>
   </si>
 </sst>
 </file>
@@ -3702,8 +3863,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G477" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G477"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G505" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G505"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -3972,7 +4133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3980,20 +4141,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G477"/>
+  <dimension ref="A1:G505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +4177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4032,7 +4193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4040,7 +4201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4048,7 +4209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4056,7 +4217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4064,7 +4225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4072,7 +4233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4080,7 +4241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4088,7 +4249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4096,7 +4257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4104,7 +4265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4112,7 +4273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4120,7 +4281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4128,7 +4289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4136,7 +4297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4144,7 +4305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4152,7 +4313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -4160,7 +4321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4168,7 +4329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4176,7 +4337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4184,7 +4345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4192,7 +4353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4200,7 +4361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4208,7 +4369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4216,7 +4377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -4224,7 +4385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -4232,7 +4393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4240,7 +4401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -4248,7 +4409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -4256,7 +4417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4264,7 +4425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,7 +4433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4280,7 +4441,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4288,7 +4449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -4296,7 +4457,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4304,7 +4465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4312,7 +4473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4320,7 +4481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4328,7 +4489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4336,7 +4497,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4344,7 +4505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -4352,7 +4513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4360,7 +4521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -4368,7 +4529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -4376,7 +4537,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -4384,7 +4545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -4392,7 +4553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -4400,7 +4561,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -4408,7 +4569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -4416,7 +4577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -4424,7 +4585,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -4432,7 +4593,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -4440,7 +4601,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -4448,7 +4609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -4456,7 +4617,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -4464,7 +4625,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -4472,7 +4633,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -4480,7 +4641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -4488,7 +4649,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -4496,7 +4657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -4504,7 +4665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -4512,7 +4673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -4520,7 +4681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -4528,7 +4689,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -4536,7 +4697,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -4544,7 +4705,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -4552,7 +4713,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -4560,7 +4721,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -4568,7 +4729,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -4576,7 +4737,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -4584,7 +4745,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -4592,7 +4753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -4600,7 +4761,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -4608,7 +4769,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -4616,7 +4777,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -4624,7 +4785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -4632,7 +4793,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -4640,7 +4801,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -4648,7 +4809,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -4656,7 +4817,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -4664,7 +4825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -4672,7 +4833,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -4680,7 +4841,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -4688,7 +4849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -4696,7 +4857,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -4704,7 +4865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -4712,7 +4873,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -4720,7 +4881,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -4728,7 +4889,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -4736,7 +4897,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -4744,7 +4905,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -4752,7 +4913,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -4760,7 +4921,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -4768,7 +4929,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -4776,7 +4937,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -4784,7 +4945,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -4792,7 +4953,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -4800,7 +4961,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -4808,7 +4969,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -4816,7 +4977,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -4824,7 +4985,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -4832,7 +4993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -4840,7 +5001,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -4848,7 +5009,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -4856,7 +5017,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -4864,7 +5025,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -4872,7 +5033,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -4880,7 +5041,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -4888,7 +5049,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -4896,7 +5057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -4904,7 +5065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -4912,7 +5073,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -4920,7 +5081,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -4928,7 +5089,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -4936,7 +5097,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -4944,7 +5105,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -4952,7 +5113,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -4960,7 +5121,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -4968,7 +5129,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -4976,7 +5137,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -4984,7 +5145,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -4992,7 +5153,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -5000,7 +5161,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5008,7 +5169,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5016,7 +5177,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -5024,7 +5185,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -5032,7 +5193,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -5040,7 +5201,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -5048,7 +5209,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -5056,7 +5217,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -5064,7 +5225,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -5072,7 +5233,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5080,7 +5241,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -5088,7 +5249,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -5096,7 +5257,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -5104,7 +5265,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -5112,7 +5273,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5120,7 +5281,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -5128,7 +5289,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -5136,7 +5297,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -5144,7 +5305,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -5152,7 +5313,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -5160,7 +5321,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -5168,7 +5329,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -5176,7 +5337,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -5184,7 +5345,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -5192,7 +5353,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -5200,7 +5361,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -5208,7 +5369,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -5216,7 +5377,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -5224,7 +5385,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -5232,7 +5393,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5240,7 +5401,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -5248,7 +5409,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -5256,7 +5417,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -5264,7 +5425,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -5272,7 +5433,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -5280,7 +5441,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -5288,7 +5449,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -5296,7 +5457,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -5304,7 +5465,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -5312,7 +5473,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -5320,7 +5481,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -5328,7 +5489,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -5336,7 +5497,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -5344,7 +5505,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -5352,7 +5513,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -5360,7 +5521,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -5368,7 +5529,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -5376,7 +5537,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -5384,7 +5545,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -5392,7 +5553,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -5400,7 +5561,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -5408,7 +5569,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -5416,7 +5577,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -5424,7 +5585,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -5432,7 +5593,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -5440,7 +5601,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -5448,7 +5609,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -5456,7 +5617,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -5464,7 +5625,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -5472,7 +5633,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -5480,7 +5641,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -5488,7 +5649,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -5496,7 +5657,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -5504,7 +5665,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -5512,7 +5673,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -5520,7 +5681,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -5528,7 +5689,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -5536,7 +5697,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -5544,7 +5705,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -5552,7 +5713,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -5560,7 +5721,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -5568,7 +5729,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -5576,7 +5737,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -5584,7 +5745,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -5592,7 +5753,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -5600,7 +5761,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -5608,7 +5769,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -5616,7 +5777,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -5624,7 +5785,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -5632,7 +5793,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -5640,7 +5801,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -5648,7 +5809,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -5656,7 +5817,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -5664,7 +5825,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -5672,7 +5833,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -5680,7 +5841,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -5688,7 +5849,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -5696,7 +5857,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -5704,7 +5865,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -5712,7 +5873,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -5720,7 +5881,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -5728,7 +5889,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -5736,7 +5897,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -5744,7 +5905,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -5752,7 +5913,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -5760,7 +5921,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -5768,7 +5929,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -5776,7 +5937,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -5784,7 +5945,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -5792,7 +5953,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -5800,7 +5961,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -5808,7 +5969,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -5816,7 +5977,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -5824,7 +5985,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -5832,7 +5993,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -5840,7 +6001,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -5848,7 +6009,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -5856,7 +6017,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -5864,7 +6025,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -5872,7 +6033,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -5880,7 +6041,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -5888,7 +6049,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -5896,7 +6057,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -5904,7 +6065,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -5912,7 +6073,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -5920,7 +6081,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -5928,7 +6089,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -5936,7 +6097,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -5944,7 +6105,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -5952,7 +6113,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -5960,7 +6121,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -5968,7 +6129,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -5976,7 +6137,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -5984,7 +6145,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -5995,7 +6156,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -6006,7 +6167,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -6017,7 +6178,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -6028,7 +6189,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -6039,7 +6200,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -6050,7 +6211,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -6061,7 +6222,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -6072,7 +6233,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30">
+    <row r="256" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6083,7 +6244,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409">
+    <row r="257" spans="1:3" ht="409" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
@@ -6091,7 +6252,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>522</v>
       </c>
@@ -6102,7 +6263,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
@@ -6110,7 +6271,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>526</v>
       </c>
@@ -6121,7 +6282,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>529</v>
       </c>
@@ -6132,7 +6293,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>532</v>
       </c>
@@ -6143,7 +6304,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>535</v>
       </c>
@@ -6154,7 +6315,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>538</v>
       </c>
@@ -6165,7 +6326,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>541</v>
       </c>
@@ -6176,7 +6337,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>544</v>
       </c>
@@ -6187,7 +6348,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>547</v>
       </c>
@@ -6198,7 +6359,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>550</v>
       </c>
@@ -6209,7 +6370,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>553</v>
       </c>
@@ -6220,7 +6381,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>556</v>
       </c>
@@ -6231,7 +6392,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>559</v>
       </c>
@@ -6242,7 +6403,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>562</v>
       </c>
@@ -6253,7 +6414,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>565</v>
       </c>
@@ -6264,7 +6425,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -6275,7 +6436,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>571</v>
       </c>
@@ -6286,7 +6447,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>574</v>
       </c>
@@ -6297,7 +6458,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>577</v>
       </c>
@@ -6308,7 +6469,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>580</v>
       </c>
@@ -6319,7 +6480,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>583</v>
       </c>
@@ -6330,7 +6491,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>586</v>
       </c>
@@ -6341,7 +6502,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>589</v>
       </c>
@@ -6352,7 +6513,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>592</v>
       </c>
@@ -6363,7 +6524,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="30">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -6374,7 +6535,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="45">
+    <row r="284" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -6385,7 +6546,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>601</v>
       </c>
@@ -6396,7 +6557,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="30">
+    <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -6407,7 +6568,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="30">
+    <row r="287" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -6418,7 +6579,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>610</v>
       </c>
@@ -6429,7 +6590,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>612</v>
       </c>
@@ -6440,7 +6601,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>615</v>
       </c>
@@ -6451,7 +6612,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>618</v>
       </c>
@@ -6462,7 +6623,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>621</v>
       </c>
@@ -6473,7 +6634,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>624</v>
       </c>
@@ -6484,7 +6645,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>627</v>
       </c>
@@ -6495,7 +6656,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>630</v>
       </c>
@@ -6506,7 +6667,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>633</v>
       </c>
@@ -6517,7 +6678,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>636</v>
       </c>
@@ -6528,7 +6689,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>639</v>
       </c>
@@ -6539,7 +6700,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>642</v>
       </c>
@@ -6550,7 +6711,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>645</v>
       </c>
@@ -6561,7 +6722,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>648</v>
       </c>
@@ -6572,7 +6733,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>651</v>
       </c>
@@ -6583,7 +6744,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -6594,7 +6755,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>657</v>
       </c>
@@ -6605,7 +6766,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>660</v>
       </c>
@@ -6616,7 +6777,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>661</v>
       </c>
@@ -6627,7 +6788,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -6638,7 +6799,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>663</v>
       </c>
@@ -6649,7 +6810,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>664</v>
       </c>
@@ -6660,7 +6821,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>665</v>
       </c>
@@ -6671,7 +6832,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>666</v>
       </c>
@@ -6682,7 +6843,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>667</v>
       </c>
@@ -6693,7 +6854,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>668</v>
       </c>
@@ -6704,7 +6865,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>669</v>
       </c>
@@ -6715,7 +6876,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>670</v>
       </c>
@@ -6726,7 +6887,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>671</v>
       </c>
@@ -6737,7 +6898,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>672</v>
       </c>
@@ -6748,7 +6909,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>673</v>
       </c>
@@ -6759,7 +6920,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>674</v>
       </c>
@@ -6770,7 +6931,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>848</v>
       </c>
@@ -6781,7 +6942,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>867</v>
       </c>
@@ -6792,7 +6953,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>855</v>
       </c>
@@ -6803,7 +6964,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="45">
+    <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
@@ -6814,7 +6975,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="60">
+    <row r="324" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
@@ -6825,7 +6986,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="30">
+    <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
@@ -6836,7 +6997,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="30">
+    <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>847</v>
       </c>
@@ -6847,7 +7008,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="60">
+    <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>858</v>
       </c>
@@ -6858,7 +7019,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="30">
+    <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>859</v>
       </c>
@@ -6869,7 +7030,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="30">
+    <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>860</v>
       </c>
@@ -6880,7 +7041,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>678</v>
       </c>
@@ -6891,7 +7052,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>680</v>
       </c>
@@ -6902,7 +7063,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>683</v>
       </c>
@@ -6913,7 +7074,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>686</v>
       </c>
@@ -6924,7 +7085,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>688</v>
       </c>
@@ -6935,7 +7096,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>690</v>
       </c>
@@ -6946,7 +7107,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>693</v>
       </c>
@@ -6957,7 +7118,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>696</v>
       </c>
@@ -6968,7 +7129,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>698</v>
       </c>
@@ -6979,7 +7140,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>700</v>
       </c>
@@ -6990,7 +7151,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>703</v>
       </c>
@@ -7001,7 +7162,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>706</v>
       </c>
@@ -7012,7 +7173,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>709</v>
       </c>
@@ -7023,7 +7184,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>711</v>
       </c>
@@ -7034,7 +7195,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>713</v>
       </c>
@@ -7045,7 +7206,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>715</v>
       </c>
@@ -7056,7 +7217,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>718</v>
       </c>
@@ -7067,7 +7228,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>720</v>
       </c>
@@ -7078,7 +7239,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>723</v>
       </c>
@@ -7089,7 +7250,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>726</v>
       </c>
@@ -7100,7 +7261,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>729</v>
       </c>
@@ -7111,7 +7272,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>731</v>
       </c>
@@ -7122,7 +7283,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>734</v>
       </c>
@@ -7133,7 +7294,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>737</v>
       </c>
@@ -7144,7 +7305,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>740</v>
       </c>
@@ -7155,7 +7316,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>743</v>
       </c>
@@ -7166,7 +7327,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>745</v>
       </c>
@@ -7177,7 +7338,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>747</v>
       </c>
@@ -7188,7 +7349,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>750</v>
       </c>
@@ -7199,7 +7360,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>753</v>
       </c>
@@ -7210,7 +7371,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>755</v>
       </c>
@@ -7221,7 +7382,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>758</v>
       </c>
@@ -7232,7 +7393,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>761</v>
       </c>
@@ -7243,7 +7404,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>764</v>
       </c>
@@ -7254,7 +7415,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>767</v>
       </c>
@@ -7265,7 +7426,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>770</v>
       </c>
@@ -7276,7 +7437,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>773</v>
       </c>
@@ -7287,7 +7448,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>776</v>
       </c>
@@ -7298,7 +7459,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>779</v>
       </c>
@@ -7309,7 +7470,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>782</v>
       </c>
@@ -7320,7 +7481,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>785</v>
       </c>
@@ -7331,7 +7492,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>788</v>
       </c>
@@ -7342,7 +7503,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>791</v>
       </c>
@@ -7353,7 +7514,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>794</v>
       </c>
@@ -7364,7 +7525,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>797</v>
       </c>
@@ -7375,7 +7536,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>800</v>
       </c>
@@ -7386,7 +7547,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>803</v>
       </c>
@@ -7397,7 +7558,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>806</v>
       </c>
@@ -7408,7 +7569,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>808</v>
       </c>
@@ -7419,7 +7580,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>811</v>
       </c>
@@ -7430,7 +7591,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>814</v>
       </c>
@@ -7441,7 +7602,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>817</v>
       </c>
@@ -7452,7 +7613,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>820</v>
       </c>
@@ -7463,7 +7624,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>822</v>
       </c>
@@ -7474,7 +7635,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>825</v>
       </c>
@@ -7485,7 +7646,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>828</v>
       </c>
@@ -7496,7 +7657,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>829</v>
       </c>
@@ -7507,7 +7668,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>832</v>
       </c>
@@ -7518,7 +7679,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>835</v>
       </c>
@@ -7529,7 +7690,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>838</v>
       </c>
@@ -7540,7 +7701,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>869</v>
       </c>
@@ -7555,7 +7716,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>870</v>
       </c>
@@ -7566,7 +7727,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>871</v>
       </c>
@@ -7581,7 +7742,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>943</v>
       </c>
@@ -7596,7 +7757,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="30">
+    <row r="394" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>881</v>
       </c>
@@ -7611,7 +7772,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="45">
+    <row r="395" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>895</v>
       </c>
@@ -7626,7 +7787,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="45">
+    <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>926</v>
       </c>
@@ -7641,7 +7802,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="105">
+    <row r="397" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>927</v>
       </c>
@@ -7656,7 +7817,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="45">
+    <row r="398" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>894</v>
       </c>
@@ -7671,7 +7832,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>944</v>
       </c>
@@ -7686,7 +7847,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="60">
+    <row r="400" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>928</v>
       </c>
@@ -7701,7 +7862,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="90">
+    <row r="401" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>929</v>
       </c>
@@ -7716,7 +7877,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="30">
+    <row r="402" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>888</v>
       </c>
@@ -7731,7 +7892,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="30">
+    <row r="403" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>889</v>
       </c>
@@ -7746,7 +7907,7 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="60">
+    <row r="404" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>883</v>
       </c>
@@ -7761,7 +7922,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="30">
+    <row r="405" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>945</v>
       </c>
@@ -7776,7 +7937,7 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="75">
+    <row r="406" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>897</v>
       </c>
@@ -7791,7 +7952,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="90">
+    <row r="407" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>898</v>
       </c>
@@ -7806,7 +7967,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="30">
+    <row r="408" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>1061</v>
       </c>
@@ -7821,7 +7982,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="90">
+    <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>1062</v>
       </c>
@@ -7836,7 +7997,7 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="75">
+    <row r="410" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>1063</v>
       </c>
@@ -7851,7 +8012,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="30">
+    <row r="411" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>946</v>
       </c>
@@ -7866,7 +8027,7 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="90">
+    <row r="412" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>899</v>
       </c>
@@ -7881,7 +8042,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="105">
+    <row r="413" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>900</v>
       </c>
@@ -7896,7 +8057,7 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="30">
+    <row r="414" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1070</v>
       </c>
@@ -7911,7 +8072,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="105">
+    <row r="415" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>1071</v>
       </c>
@@ -7926,7 +8087,7 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="90">
+    <row r="416" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>1072</v>
       </c>
@@ -7941,7 +8102,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="30">
+    <row r="417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>947</v>
       </c>
@@ -7956,7 +8117,7 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="75">
+    <row r="418" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>902</v>
       </c>
@@ -7971,7 +8132,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="90">
+    <row r="419" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>901</v>
       </c>
@@ -7986,7 +8147,7 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="30">
+    <row r="420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1080</v>
       </c>
@@ -8001,7 +8162,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="90">
+    <row r="421" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>1081</v>
       </c>
@@ -8016,7 +8177,7 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="90">
+    <row r="422" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1082</v>
       </c>
@@ -8031,7 +8192,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="30">
+    <row r="423" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>948</v>
       </c>
@@ -8046,7 +8207,7 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="90">
+    <row r="424" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>905</v>
       </c>
@@ -8061,7 +8222,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="120">
+    <row r="425" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>906</v>
       </c>
@@ -8076,7 +8237,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="30">
+    <row r="426" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>949</v>
       </c>
@@ -8091,7 +8252,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="90">
+    <row r="427" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>907</v>
       </c>
@@ -8106,7 +8267,7 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="105">
+    <row r="428" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>908</v>
       </c>
@@ -8121,7 +8282,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>934</v>
       </c>
@@ -8136,7 +8297,7 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>935</v>
       </c>
@@ -8151,7 +8312,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>936</v>
       </c>
@@ -8166,7 +8327,7 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>972</v>
       </c>
@@ -8181,7 +8342,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>964</v>
       </c>
@@ -8192,7 +8353,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>966</v>
       </c>
@@ -8203,7 +8364,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>969</v>
       </c>
@@ -8214,7 +8375,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>975</v>
       </c>
@@ -8229,7 +8390,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>976</v>
       </c>
@@ -8244,7 +8405,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>977</v>
       </c>
@@ -8259,7 +8420,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="30">
+    <row r="439" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>988</v>
       </c>
@@ -8274,7 +8435,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" ht="150">
+    <row r="440" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>991</v>
       </c>
@@ -8285,7 +8446,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="165">
+    <row r="441" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>994</v>
       </c>
@@ -8296,7 +8457,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="30">
+    <row r="442" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>997</v>
       </c>
@@ -8307,7 +8468,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="90">
+    <row r="443" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>1000</v>
       </c>
@@ -8318,7 +8479,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="60">
+    <row r="444" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1003</v>
       </c>
@@ -8329,7 +8490,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="30">
+    <row r="445" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>1006</v>
       </c>
@@ -8340,7 +8501,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="90">
+    <row r="446" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1009</v>
       </c>
@@ -8351,7 +8512,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="120">
+    <row r="447" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>1012</v>
       </c>
@@ -8362,7 +8523,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1015</v>
       </c>
@@ -8373,7 +8534,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="60">
+    <row r="449" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>1018</v>
       </c>
@@ -8384,7 +8545,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="75">
+    <row r="450" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>1021</v>
       </c>
@@ -8395,7 +8556,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="45">
+    <row r="451" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>1024</v>
       </c>
@@ -8406,7 +8567,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="120">
+    <row r="452" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>1027</v>
       </c>
@@ -8417,7 +8578,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="135">
+    <row r="453" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>1030</v>
       </c>
@@ -8428,7 +8589,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="45">
+    <row r="454" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1033</v>
       </c>
@@ -8439,7 +8600,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="120">
+    <row r="455" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>1036</v>
       </c>
@@ -8450,7 +8611,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="135">
+    <row r="456" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1039</v>
       </c>
@@ -8461,7 +8622,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="45">
+    <row r="457" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>1042</v>
       </c>
@@ -8472,7 +8633,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="105">
+    <row r="458" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>1045</v>
       </c>
@@ -8483,7 +8644,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="120">
+    <row r="459" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>1048</v>
       </c>
@@ -8494,7 +8655,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="45">
+    <row r="460" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1051</v>
       </c>
@@ -8505,7 +8666,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="120">
+    <row r="461" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>1054</v>
       </c>
@@ -8516,7 +8677,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="135">
+    <row r="462" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>1057</v>
       </c>
@@ -8527,7 +8688,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>1088</v>
       </c>
@@ -8538,7 +8699,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>1089</v>
       </c>
@@ -8549,7 +8710,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>1090</v>
       </c>
@@ -8560,7 +8721,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>1091</v>
       </c>
@@ -8571,7 +8732,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>1092</v>
       </c>
@@ -8582,7 +8743,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>1093</v>
       </c>
@@ -8593,7 +8754,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>1094</v>
       </c>
@@ -8604,7 +8765,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>1095</v>
       </c>
@@ -8615,7 +8776,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>1096</v>
       </c>
@@ -8626,7 +8787,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>1097</v>
       </c>
@@ -8637,7 +8798,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>1098</v>
       </c>
@@ -8648,7 +8809,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>1099</v>
       </c>
@@ -8659,7 +8820,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>1124</v>
       </c>
@@ -8670,7 +8831,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="45">
+    <row r="476" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>1125</v>
       </c>
@@ -8681,7 +8842,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="45">
+    <row r="477" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>1126</v>
       </c>
@@ -8691,6 +8852,262 @@
       <c r="C477" s="8" t="s">
         <v>1130</v>
       </c>
+    </row>
+    <row r="478" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C480" s="8" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C494" s="8"/>
+    </row>
+    <row r="495" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C498" s="8"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C499" s="8"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C502" s="8"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C503" s="8"/>
+    </row>
+    <row r="504" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C505" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8698,10 +9115,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1360" yWindow="-18900" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-5080" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1208">
   <si>
     <t>key</t>
   </si>
@@ -3612,9 +3612,6 @@
     <t>Teste ao lançamento de apuramento de resultado líquido</t>
   </si>
   <si>
-    <t>Os movimentos de apuramento de resultado líquido  devem ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Teste realizado com sucesso.</t>
-  </si>
-  <si>
     <t>Verificamos que não existe nenhum movimento de apuramento de resultado líquido, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo no diário correto de apuramento de resultados. Alertamos para a FAQ 15-2887, que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor "0,00" (zero)</t>
   </si>
   <si>
@@ -3627,9 +3624,6 @@
     <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior maracdo como principal e encontramos diferenças ao nível das seguintes contas:</t>
   </si>
   <si>
-    <t>Verificamos que existe um movimento de apuramento de resultado antes de impostos:</t>
-  </si>
-  <si>
     <t>O movimento de apuramento de resultado líquido tem de ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Verificamos que os seguintes lançamentos estão registados em diário tipificado como apuramento e movimentam contas não expectáveis:</t>
   </si>
   <si>
@@ -3673,6 +3667,48 @@
   </si>
   <si>
     <t>Verificamos que o movimento de aplicação de resultados foi registado em {0}. Verifique se não deverá efetuar esse registo até à data de 31 de Março, ou 31 de Maio para contas com MEP.</t>
+  </si>
+  <si>
+    <t>Teste à conta 811- "Resultado antes de imposto"</t>
+  </si>
+  <si>
+    <t>svat_t36</t>
+  </si>
+  <si>
+    <t>svat_t36_ok</t>
+  </si>
+  <si>
+    <t>svat_t36_nok</t>
+  </si>
+  <si>
+    <t>svat_t37</t>
+  </si>
+  <si>
+    <t>svat_t37_ok</t>
+  </si>
+  <si>
+    <t>svat_t37_nok</t>
+  </si>
+  <si>
+    <t>A conta 811- "Resultado antes de imposto" deve ser movimentada apenas em diário apropriado de apuramento de resultados. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>A conta 811- "Resultado antes de imposto" deve ser movimentada apenas em diário apropriado de apuramento de resultados. Verificamos os seguintes lançamentos que movimentam a conta 811 e não estão registados em diário de Apuramento de Resultados:</t>
+  </si>
+  <si>
+    <t>Teste à conta 818- "Resultado líquido"</t>
+  </si>
+  <si>
+    <t>A conta 818 - "Resultado Líquido" deve ser movimentada apenas em diário apropriado de apuramento de resultados. Teste realizado com sucesso</t>
+  </si>
+  <si>
+    <t>A conta 818 - "Resultado Líquido" deve ser movimentada apenas em diário apropriado de apuramento de resultados. Verificamos os seguintes lançamentos que movimentam a conta 818 e não estão registados em diário de Apuramento de Resultados</t>
+  </si>
+  <si>
+    <t>Verificamos que existem os seguintes movimentos de apuramento de resultado antes de impostos: Diario Num Diario e data</t>
+  </si>
+  <si>
+    <t>Os movimentos de apuramento de resultado líquido  devem ser efetuados em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Teste realizado com sucesso.</t>
   </si>
 </sst>
 </file>
@@ -3863,8 +3899,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G505" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G505"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G511" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G511"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -4141,10 +4177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G505"/>
+  <dimension ref="A1:G511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="B495" sqref="B495"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="B511" sqref="B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8893,12 +8929,12 @@
       </c>
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1180</v>
+        <v>1206</v>
       </c>
       <c r="C482" s="8"/>
     </row>
@@ -8925,7 +8961,7 @@
         <v>1148</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1175</v>
+        <v>1207</v>
       </c>
       <c r="C485" s="8"/>
     </row>
@@ -8934,7 +8970,7 @@
         <v>1153</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C486" s="8"/>
     </row>
@@ -8952,7 +8988,7 @@
         <v>1149</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C488" s="8"/>
     </row>
@@ -8961,7 +8997,7 @@
         <v>1154</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C489" s="8"/>
     </row>
@@ -8970,7 +9006,7 @@
         <v>1166</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C490" s="8"/>
     </row>
@@ -8979,7 +9015,7 @@
         <v>1150</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C491" s="8"/>
     </row>
@@ -8988,7 +9024,7 @@
         <v>1155</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C492" s="8"/>
     </row>
@@ -8997,7 +9033,7 @@
         <v>1167</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C493" s="8"/>
     </row>
@@ -9006,7 +9042,7 @@
         <v>1151</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C494" s="8"/>
     </row>
@@ -9015,7 +9051,7 @@
         <v>1156</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C495" s="8"/>
     </row>
@@ -9024,7 +9060,7 @@
         <v>1168</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C496" s="8"/>
     </row>
@@ -9033,7 +9069,7 @@
         <v>1157</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C497" s="8"/>
     </row>
@@ -9042,7 +9078,7 @@
         <v>1158</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C498" s="8"/>
     </row>
@@ -9051,7 +9087,7 @@
         <v>1169</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C499" s="8"/>
     </row>
@@ -9060,25 +9096,25 @@
         <v>1159</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C500" s="8"/>
     </row>
     <row r="501" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1190</v>
       </c>
       <c r="C501" s="8"/>
     </row>
     <row r="502" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B502" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1191</v>
       </c>
       <c r="C502" s="8"/>
     </row>
@@ -9087,7 +9123,7 @@
         <v>1170</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C503" s="8"/>
     </row>
@@ -9096,7 +9132,7 @@
         <v>1160</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C504" s="8"/>
     </row>
@@ -9105,9 +9141,63 @@
         <v>1161</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C511" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5080" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1226">
   <si>
     <t>key</t>
   </si>
@@ -3709,6 +3709,60 @@
   </si>
   <si>
     <t>Os movimentos de apuramento de resultado líquido  devem ser efetuados em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>svat_t38</t>
+  </si>
+  <si>
+    <t>svat_t38_ok</t>
+  </si>
+  <si>
+    <t>svat_t38_nok</t>
+  </si>
+  <si>
+    <t>svat_t39</t>
+  </si>
+  <si>
+    <t>svat_t39_ok</t>
+  </si>
+  <si>
+    <t>svat_t39_nok</t>
+  </si>
+  <si>
+    <t>svat_t40</t>
+  </si>
+  <si>
+    <t>svat_t40_ok</t>
+  </si>
+  <si>
+    <t>svat_t40_nok</t>
+  </si>
+  <si>
+    <t>Teste ao lançamento de apuramento de resultados</t>
+  </si>
+  <si>
+    <t>Após os movimentos de apuramento de resultado antes de impostos todas as contas #31, #38, #6 e #7 deverão estar saldadas. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Após os movimentos de apuramento de resultado antes de impostos todas as contas #31, #38, #6 e #7 deverão estar saldadas. Verificamos que as seguintes contas apresentam saldo:</t>
+  </si>
+  <si>
+    <t>Teste às contas movimentadas</t>
+  </si>
+  <si>
+    <t>Contas razão não podem ter movimentos registados. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Contas razão não podem ter movimentos registados. Foi verificado que nos seguintes lançamentos existem contas razão movimentadas:</t>
+  </si>
+  <si>
+    <t>Teste aos movimentos em aberto</t>
+  </si>
+  <si>
+    <t>Verificamos que todos os movimentos estão no estado finalizado ou anulado. Sem exceções.</t>
+  </si>
+  <si>
+    <t>Verificamos que existem os seguintes movimentos que estão em aberto. Deverá finalizar ou anular os mesmos:</t>
   </si>
 </sst>
 </file>
@@ -3899,8 +3953,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G511" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G511"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G520" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G520"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -4177,10 +4231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="B511" sqref="B511"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="A520" sqref="A520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9199,6 +9253,87 @@
       </c>
       <c r="C511" s="8"/>
     </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C520" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1228">
   <si>
     <t>key</t>
   </si>
@@ -3618,12 +3618,6 @@
     <t>Verificamos que não existe nenhum movimento de aplicação de resultados. Confirme por favor se não deverá efetuar esse movimento. Alertamos para a FAQ 14-2886, que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor "0,00" (zero)</t>
   </si>
   <si>
-    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior maracdo como principal. Sem exceções</t>
-  </si>
-  <si>
-    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior maracdo como principal e encontramos diferenças ao nível das seguintes contas:</t>
-  </si>
-  <si>
     <t>O movimento de apuramento de resultado líquido tem de ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Verificamos que os seguintes lançamentos estão registados em diário tipificado como apuramento e movimentam contas não expectáveis:</t>
   </si>
   <si>
@@ -3763,6 +3757,18 @@
   </si>
   <si>
     <t>Verificamos que existem os seguintes movimentos que estão em aberto. Deverá finalizar ou anular os mesmos:</t>
+  </si>
+  <si>
+    <t>svat_t29_ok_no_py</t>
+  </si>
+  <si>
+    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior marcado como principal. Sem exceções</t>
+  </si>
+  <si>
+    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Não nos foi possível efetuar este teste uma vez que não existe exercício do ano {0} no TOConline.</t>
+  </si>
+  <si>
+    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior marcado como principal "{0}" e encontramos diferenças ao nível das seguintes contas:</t>
   </si>
 </sst>
 </file>
@@ -3953,8 +3959,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G520" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G520"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G521" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G521"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -4231,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G520"/>
+  <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="A520" sqref="A520"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="C502" sqref="C502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8988,7 +8994,7 @@
         <v>1147</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C482" s="8"/>
     </row>
@@ -9015,7 +9021,7 @@
         <v>1148</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C485" s="8"/>
     </row>
@@ -9024,7 +9030,7 @@
         <v>1153</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C486" s="8"/>
     </row>
@@ -9042,7 +9048,7 @@
         <v>1149</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C488" s="8"/>
     </row>
@@ -9060,7 +9066,7 @@
         <v>1166</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C490" s="8"/>
     </row>
@@ -9069,7 +9075,7 @@
         <v>1150</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C491" s="8"/>
     </row>
@@ -9087,7 +9093,7 @@
         <v>1167</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C493" s="8"/>
     </row>
@@ -9096,7 +9102,7 @@
         <v>1151</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C494" s="8"/>
     </row>
@@ -9105,7 +9111,7 @@
         <v>1156</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C495" s="8"/>
     </row>
@@ -9114,7 +9120,7 @@
         <v>1168</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C496" s="8"/>
     </row>
@@ -9123,7 +9129,7 @@
         <v>1157</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C497" s="8"/>
     </row>
@@ -9132,7 +9138,7 @@
         <v>1158</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C498" s="8"/>
     </row>
@@ -9141,7 +9147,7 @@
         <v>1169</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C499" s="8"/>
     </row>
@@ -9150,25 +9156,25 @@
         <v>1159</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C500" s="8"/>
     </row>
     <row r="501" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1188</v>
       </c>
       <c r="C501" s="8"/>
     </row>
     <row r="502" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B502" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1189</v>
       </c>
       <c r="C502" s="8"/>
     </row>
@@ -9177,7 +9183,7 @@
         <v>1170</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C503" s="8"/>
     </row>
@@ -9186,153 +9192,162 @@
         <v>1160</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1177</v>
+        <v>1225</v>
       </c>
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C505" s="8"/>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" s="1" t="s">
+      <c r="B506" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C506" s="8"/>
-    </row>
-    <row r="507" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A507" s="1" t="s">
+      <c r="B509" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B510" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C507" s="8"/>
-    </row>
-    <row r="508" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A508" s="1" t="s">
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B511" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="C508" s="8"/>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" s="1" t="s">
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C509" s="8"/>
-    </row>
-    <row r="510" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A510" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C510" s="8"/>
-    </row>
-    <row r="511" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A511" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C511" s="8"/>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" s="1" t="s">
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C512" s="8"/>
-    </row>
-    <row r="513" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A513" s="1" t="s">
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B516" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="C513" s="8"/>
-    </row>
-    <row r="514" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A514" s="1" t="s">
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B517" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C514" s="8"/>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" s="1" t="s">
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="C515" s="8"/>
-    </row>
-    <row r="516" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A516" s="1" t="s">
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="C516" s="8"/>
-    </row>
-    <row r="517" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A517" s="1" t="s">
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B520" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C517" s="8"/>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C518" s="8"/>
-    </row>
-    <row r="519" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A519" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C519" s="8"/>
-    </row>
-    <row r="520" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A520" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C520" s="8"/>
+      <c r="C521" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1263">
   <si>
     <t>key</t>
   </si>
@@ -3769,6 +3769,111 @@
   </si>
   <si>
     <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior marcado como principal "{0}" e encontramos diferenças ao nível das seguintes contas:</t>
+  </si>
+  <si>
+    <t>svat_t30</t>
+  </si>
+  <si>
+    <t>svat_t30_ok</t>
+  </si>
+  <si>
+    <t>svat_t30_nok</t>
+  </si>
+  <si>
+    <t>svat_t31</t>
+  </si>
+  <si>
+    <t>svat_t31_ok</t>
+  </si>
+  <si>
+    <t>svat_t31_nok</t>
+  </si>
+  <si>
+    <t>svat_t32</t>
+  </si>
+  <si>
+    <t>svat_t32_ok</t>
+  </si>
+  <si>
+    <t>svat_t32_nok</t>
+  </si>
+  <si>
+    <t>svat_t35</t>
+  </si>
+  <si>
+    <t>svat_t35_ok</t>
+  </si>
+  <si>
+    <t>svat_t35_nok</t>
+  </si>
+  <si>
+    <t>Teste à utilização da conta 261- "Acionistas - Acionistas com subscrição"</t>
+  </si>
+  <si>
+    <t>Teste à utilização da conta 262- "Sócios - Quotas não liberadas"</t>
+  </si>
+  <si>
+    <t>A conta 261 deve ser utilizada exclusivamente por sociedades anónimas e comandita por ações. Sem exceções.</t>
+  </si>
+  <si>
+    <t>A conta 261 deve ser utilizada exclusivamente por sociedades anónimas e comandita por ações. Verifique o 'tipo de sociedade' na ficha da empresa ou os movimentos nas seguintes contas:</t>
+  </si>
+  <si>
+    <t>A conta 262 deve ser utilizada exclusivamente por sociedades anónimas e comandita por ações. Sem exceções.</t>
+  </si>
+  <si>
+    <t>A conta 262 deve ser utilizada exclusivamente por sociedades anónimas e comandita por ações. Verifique o 'tipo de sociedade' na ficha da empresa ou os movimentos nas seguintes contas:</t>
+  </si>
+  <si>
+    <t>Teste à utilização da conta 263-"Adiantamentos por conta de lucros"</t>
+  </si>
+  <si>
+    <t>A conta 263 não deve ser utilizada por sociedades anónimas. Sem exceções.</t>
+  </si>
+  <si>
+    <t>A conta 263 não deve ser utilizada por sociedades anónimas. Nas sociedades anónimas, os adiantamentos devem estar representados no saldo devedor da conta 89 - "Dividendos antecipados". Verifique o saldo das contas:</t>
+  </si>
+  <si>
+    <t>Teste à conta 269-  "Acionistas/sócios - Perdas por imparidade acumuladas"</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 269 - "Acionistas/sócios - Perdas por imparidade acumuladas"e verificado que o saldo credor desta conta, entidade a entidade, é igual ou  superior à soma algébrica dos saldos das contas 261;262;263;266;267 e 268, para as seguintes entidades:</t>
+  </si>
+  <si>
+    <t>Representação dos impostos diferidos no Ativo e no Passivo</t>
+  </si>
+  <si>
+    <t>Verificamos que apenas tem saldo numa sub-conta da conta 274- "Impostos Diferidos". Se eventualmente efetuou compensação de saldos entre as contas 2741 e 2742, recomendamos verificar se essa compensação é adequada tendo em conta os parágrafos 68 a 69 da NCRF 25.</t>
+  </si>
+  <si>
+    <t>Verificamos que tem saldos nas contas 2741 -'Ativos por impostos diferidos' e 2742-'Passivos por impostos diferidos'. Sugerimos rever se não deverá efetuar compensação de saldos de acordo com os parágrafos 68 a 69 da NCRF 25.</t>
+  </si>
+  <si>
+    <t>account_269</t>
+  </si>
+  <si>
+    <t>account_269_var</t>
+  </si>
+  <si>
+    <t>account_269_ok</t>
+  </si>
+  <si>
+    <t>account_269_nok</t>
+  </si>
+  <si>
+    <t>account_269_var_ok</t>
+  </si>
+  <si>
+    <t>account_269_var_nok</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 269 - "Acionistas/sócios - Perdas por imparidade acumuladas"e verificado que o saldo credor desta conta é igual ou  inferior à soma algébrica dos saldos das contas 261;262;263;266;267 e 268. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 269 - "Acionistas/sócios - Perdas por imparidade acumuladas"e verificado que o saldo credor desta conta, entidade a entidade, é igual ou  inferior à soma algébrica dos saldos das contas 261;262;263;266;267 e 268. Teste realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>Foi efetuado um teste sobre a conta 269 - "Acionistas/sócios - Perdas por imparidade acumuladas"e verificado que o saldo credor desta conta é igual ou  superior à soma algébrica dos saldos das contas 261;262;263;266;267 e 268. Esta situação deve ser regularizada para uma correta submissão do ficheiro SAF-T.</t>
   </si>
 </sst>
 </file>
@@ -3959,8 +4064,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G521" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G521"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G539" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G539"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -4237,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="C502" sqref="C502"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A520" sqref="A520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9214,140 +9319,302 @@
       </c>
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C524" s="8"/>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C507" s="8"/>
-    </row>
-    <row r="508" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A508" s="1" t="s">
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="C508" s="8"/>
-    </row>
-    <row r="509" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A509" s="1" t="s">
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C509" s="8"/>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" s="1" t="s">
+      <c r="C527" s="8"/>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B510" s="1" t="s">
+      <c r="B528" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C510" s="8"/>
-    </row>
-    <row r="511" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A511" s="1" t="s">
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B529" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="C511" s="8"/>
-    </row>
-    <row r="512" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A512" s="1" t="s">
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C512" s="8"/>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" s="1" t="s">
+      <c r="C530" s="8"/>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="C513" s="8"/>
-    </row>
-    <row r="514" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A514" s="1" t="s">
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="C514" s="8"/>
-    </row>
-    <row r="515" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A515" s="1" t="s">
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C515" s="8"/>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" s="1" t="s">
+      <c r="C533" s="8"/>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="C516" s="8"/>
-    </row>
-    <row r="517" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A517" s="1" t="s">
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B535" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C517" s="8"/>
-    </row>
-    <row r="518" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="C518" s="8"/>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" s="1" t="s">
+      <c r="C536" s="8"/>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="C519" s="8"/>
-    </row>
-    <row r="520" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A520" s="1" t="s">
+      <c r="C537" s="8"/>
+    </row>
+    <row r="538" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B538" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C520" s="8"/>
-    </row>
-    <row r="521" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A521" s="1" t="s">
+      <c r="C538" s="8"/>
+    </row>
+    <row r="539" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C521" s="8"/>
+      <c r="C539" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csantos/work/cw/sp-duh/config/i18n/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
@@ -16,18 +11,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1274">
   <si>
     <t>key</t>
   </si>
@@ -3875,6 +3870,39 @@
   <si>
     <t>Foi efetuado um teste sobre a conta 269 - "Acionistas/sócios - Perdas por imparidade acumuladas"e verificado que o saldo credor desta conta é igual ou  superior à soma algébrica dos saldos das contas 261;262;263;266;267 e 268. Esta situação deve ser regularizada para uma correta submissão do ficheiro SAF-T.</t>
   </si>
+  <si>
+    <t>document_status_0</t>
+  </si>
+  <si>
+    <t>document_status_1</t>
+  </si>
+  <si>
+    <t>document_status_2</t>
+  </si>
+  <si>
+    <t>document_status_3</t>
+  </si>
+  <si>
+    <t>document_status_4</t>
+  </si>
+  <si>
+    <t>Em preparação</t>
+  </si>
+  <si>
+    <t>Parcialmente pago</t>
+  </si>
+  <si>
+    <t>Totalmente pago</t>
+  </si>
+  <si>
+    <t>Partially paid</t>
+  </si>
+  <si>
+    <t>Totally paid</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
 </sst>
 </file>
 
@@ -3886,6 +3914,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3979,8 +4008,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4015,15 +4046,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -4064,8 +4097,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G539" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G539"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G544" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G544"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -4334,7 +4367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4342,20 +4375,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G539"/>
+  <dimension ref="A1:G544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A520" sqref="A520"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="C543" sqref="C543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4378,7 +4411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4386,7 +4419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4394,7 +4427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4410,7 +4443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4418,7 +4451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4426,7 +4459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4434,7 +4467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4442,7 +4475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4450,7 +4483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4458,7 +4491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4466,7 +4499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4474,7 +4507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4482,7 +4515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4490,7 +4523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4498,7 +4531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4506,7 +4539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4514,7 +4547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -4522,7 +4555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4530,7 +4563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4538,7 +4571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4546,7 +4579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4554,7 +4587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4562,7 +4595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4570,7 +4603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4578,7 +4611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -4586,7 +4619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -4594,7 +4627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4602,7 +4635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -4610,7 +4643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -4618,7 +4651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4626,7 +4659,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4634,7 +4667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4642,7 +4675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4650,7 +4683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -4658,7 +4691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4666,7 +4699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4674,7 +4707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4682,7 +4715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4690,7 +4723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4698,7 +4731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4706,7 +4739,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -4714,7 +4747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4722,7 +4755,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -4730,7 +4763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -4738,7 +4771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -4746,7 +4779,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -4754,7 +4787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -4762,7 +4795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -4770,7 +4803,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -4778,7 +4811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -4786,7 +4819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -4794,7 +4827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -4802,7 +4835,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -4810,7 +4843,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -4818,7 +4851,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -4826,7 +4859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -4834,7 +4867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -4842,7 +4875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -4850,7 +4883,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -4858,7 +4891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -4866,7 +4899,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -4874,7 +4907,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -4882,7 +4915,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -4890,7 +4923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -4898,7 +4931,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -4906,7 +4939,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -4914,7 +4947,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -4922,7 +4955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -4930,7 +4963,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -4938,7 +4971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -4946,7 +4979,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -4954,7 +4987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -4962,7 +4995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -4970,7 +5003,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -4978,7 +5011,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -4986,7 +5019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -4994,7 +5027,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -5002,7 +5035,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5010,7 +5043,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -5018,7 +5051,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -5026,7 +5059,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -5034,7 +5067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -5042,7 +5075,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -5050,7 +5083,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -5058,7 +5091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -5066,7 +5099,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -5074,7 +5107,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -5082,7 +5115,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -5090,7 +5123,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -5098,7 +5131,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -5106,7 +5139,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -5114,7 +5147,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -5122,7 +5155,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -5130,7 +5163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -5138,7 +5171,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -5146,7 +5179,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -5154,7 +5187,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -5162,7 +5195,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -5170,7 +5203,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -5178,7 +5211,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -5186,7 +5219,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -5194,7 +5227,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -5202,7 +5235,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -5210,7 +5243,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -5218,7 +5251,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -5226,7 +5259,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -5234,7 +5267,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -5242,7 +5275,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -5250,7 +5283,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -5258,7 +5291,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -5266,7 +5299,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -5274,7 +5307,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -5282,7 +5315,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -5290,7 +5323,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -5298,7 +5331,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -5306,7 +5339,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -5314,7 +5347,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -5322,7 +5355,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -5330,7 +5363,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -5338,7 +5371,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -5346,7 +5379,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -5354,7 +5387,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -5362,7 +5395,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5370,7 +5403,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5378,7 +5411,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -5386,7 +5419,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -5394,7 +5427,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -5402,7 +5435,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -5410,7 +5443,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -5418,7 +5451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -5426,7 +5459,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -5434,7 +5467,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5442,7 +5475,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -5450,7 +5483,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -5458,7 +5491,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -5466,7 +5499,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -5474,7 +5507,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5482,7 +5515,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -5490,7 +5523,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -5498,7 +5531,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -5506,7 +5539,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -5514,7 +5547,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -5522,7 +5555,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -5530,7 +5563,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -5538,7 +5571,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -5546,7 +5579,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -5554,7 +5587,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -5562,7 +5595,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -5570,7 +5603,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -5578,7 +5611,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -5586,7 +5619,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -5594,7 +5627,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5602,7 +5635,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -5610,7 +5643,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -5618,7 +5651,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -5626,7 +5659,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -5634,7 +5667,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -5642,7 +5675,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -5650,7 +5683,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -5658,7 +5691,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -5666,7 +5699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -5674,7 +5707,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -5682,7 +5715,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -5690,7 +5723,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -5698,7 +5731,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -5706,7 +5739,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -5714,7 +5747,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -5722,7 +5755,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -5730,7 +5763,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -5738,7 +5771,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -5746,7 +5779,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -5754,7 +5787,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -5762,7 +5795,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -5770,7 +5803,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -5778,7 +5811,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -5786,7 +5819,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -5794,7 +5827,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -5802,7 +5835,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -5810,7 +5843,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -5818,7 +5851,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -5826,7 +5859,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -5834,7 +5867,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -5842,7 +5875,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -5850,7 +5883,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -5858,7 +5891,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -5866,7 +5899,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -5874,7 +5907,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -5882,7 +5915,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -5890,7 +5923,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -5898,7 +5931,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -5906,7 +5939,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -5914,7 +5947,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -5922,7 +5955,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -5930,7 +5963,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -5938,7 +5971,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -5946,7 +5979,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -5954,7 +5987,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -5962,7 +5995,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -5970,7 +6003,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -5978,7 +6011,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -5986,7 +6019,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -5994,7 +6027,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -6002,7 +6035,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -6010,7 +6043,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -6018,7 +6051,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -6026,7 +6059,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -6034,7 +6067,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -6042,7 +6075,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -6050,7 +6083,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -6058,7 +6091,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -6066,7 +6099,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -6074,7 +6107,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -6082,7 +6115,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -6090,7 +6123,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -6098,7 +6131,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -6106,7 +6139,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -6114,7 +6147,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -6122,7 +6155,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -6130,7 +6163,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -6138,7 +6171,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -6146,7 +6179,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -6154,7 +6187,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -6162,7 +6195,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -6170,7 +6203,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -6178,7 +6211,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -6186,7 +6219,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -6194,7 +6227,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -6202,7 +6235,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -6210,7 +6243,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -6218,7 +6251,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -6226,7 +6259,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -6234,7 +6267,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -6242,7 +6275,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -6250,7 +6283,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -6258,7 +6291,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -6266,7 +6299,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -6274,7 +6307,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -6282,7 +6315,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -6290,7 +6323,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -6298,7 +6331,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -6306,7 +6339,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -6314,7 +6347,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -6322,7 +6355,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -6330,7 +6363,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -6338,7 +6371,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -6346,7 +6379,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -6357,7 +6390,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -6368,7 +6401,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -6379,7 +6412,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -6390,7 +6423,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -6401,7 +6434,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -6412,7 +6445,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -6423,7 +6456,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -6434,7 +6467,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="32">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6445,7 +6478,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="409">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
@@ -6453,7 +6486,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>522</v>
       </c>
@@ -6464,7 +6497,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
@@ -6472,7 +6505,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>526</v>
       </c>
@@ -6483,7 +6516,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>529</v>
       </c>
@@ -6494,7 +6527,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>532</v>
       </c>
@@ -6505,7 +6538,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>535</v>
       </c>
@@ -6516,7 +6549,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>538</v>
       </c>
@@ -6527,7 +6560,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>541</v>
       </c>
@@ -6538,7 +6571,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>544</v>
       </c>
@@ -6549,7 +6582,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>547</v>
       </c>
@@ -6560,7 +6593,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>550</v>
       </c>
@@ -6571,7 +6604,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>553</v>
       </c>
@@ -6582,7 +6615,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>556</v>
       </c>
@@ -6593,7 +6626,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>559</v>
       </c>
@@ -6604,7 +6637,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>562</v>
       </c>
@@ -6615,7 +6648,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>565</v>
       </c>
@@ -6626,7 +6659,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -6637,7 +6670,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>571</v>
       </c>
@@ -6648,7 +6681,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>574</v>
       </c>
@@ -6659,7 +6692,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>577</v>
       </c>
@@ -6670,7 +6703,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>580</v>
       </c>
@@ -6681,7 +6714,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>583</v>
       </c>
@@ -6692,7 +6725,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>586</v>
       </c>
@@ -6703,7 +6736,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>589</v>
       </c>
@@ -6714,7 +6747,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>592</v>
       </c>
@@ -6725,7 +6758,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -6736,7 +6769,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="48">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -6747,7 +6780,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>601</v>
       </c>
@@ -6758,7 +6791,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="32">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -6769,7 +6802,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="32">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -6780,7 +6813,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>610</v>
       </c>
@@ -6791,7 +6824,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>612</v>
       </c>
@@ -6802,7 +6835,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>615</v>
       </c>
@@ -6813,7 +6846,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>618</v>
       </c>
@@ -6824,7 +6857,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>621</v>
       </c>
@@ -6835,7 +6868,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>624</v>
       </c>
@@ -6846,7 +6879,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>627</v>
       </c>
@@ -6857,7 +6890,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>630</v>
       </c>
@@ -6868,7 +6901,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>633</v>
       </c>
@@ -6879,7 +6912,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>636</v>
       </c>
@@ -6890,7 +6923,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>639</v>
       </c>
@@ -6901,7 +6934,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>642</v>
       </c>
@@ -6912,7 +6945,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>645</v>
       </c>
@@ -6923,7 +6956,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>648</v>
       </c>
@@ -6934,7 +6967,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>651</v>
       </c>
@@ -6945,7 +6978,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -6956,7 +6989,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>657</v>
       </c>
@@ -6967,7 +7000,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>660</v>
       </c>
@@ -6978,7 +7011,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>661</v>
       </c>
@@ -6989,7 +7022,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -7000,7 +7033,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>663</v>
       </c>
@@ -7011,7 +7044,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>664</v>
       </c>
@@ -7022,7 +7055,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>665</v>
       </c>
@@ -7033,7 +7066,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>666</v>
       </c>
@@ -7044,7 +7077,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>667</v>
       </c>
@@ -7055,7 +7088,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>668</v>
       </c>
@@ -7066,7 +7099,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>669</v>
       </c>
@@ -7077,7 +7110,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>670</v>
       </c>
@@ -7088,7 +7121,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>671</v>
       </c>
@@ -7099,7 +7132,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>672</v>
       </c>
@@ -7110,7 +7143,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>673</v>
       </c>
@@ -7121,7 +7154,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>674</v>
       </c>
@@ -7132,7 +7165,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
         <v>848</v>
       </c>
@@ -7143,7 +7176,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>867</v>
       </c>
@@ -7154,7 +7187,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>855</v>
       </c>
@@ -7165,7 +7198,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="48">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
@@ -7176,7 +7209,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="64">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
@@ -7187,7 +7220,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="32">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
@@ -7198,7 +7231,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="32">
       <c r="A326" s="1" t="s">
         <v>847</v>
       </c>
@@ -7209,7 +7242,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="64">
       <c r="A327" s="1" t="s">
         <v>858</v>
       </c>
@@ -7220,7 +7253,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="32">
       <c r="A328" s="1" t="s">
         <v>859</v>
       </c>
@@ -7231,7 +7264,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="32">
       <c r="A329" s="1" t="s">
         <v>860</v>
       </c>
@@ -7242,7 +7275,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>678</v>
       </c>
@@ -7253,7 +7286,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>680</v>
       </c>
@@ -7264,7 +7297,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>683</v>
       </c>
@@ -7275,7 +7308,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>686</v>
       </c>
@@ -7286,7 +7319,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>688</v>
       </c>
@@ -7297,7 +7330,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>690</v>
       </c>
@@ -7308,7 +7341,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>693</v>
       </c>
@@ -7319,7 +7352,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>696</v>
       </c>
@@ -7330,7 +7363,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>698</v>
       </c>
@@ -7341,7 +7374,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>700</v>
       </c>
@@ -7352,7 +7385,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>703</v>
       </c>
@@ -7363,7 +7396,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>706</v>
       </c>
@@ -7374,7 +7407,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>709</v>
       </c>
@@ -7385,7 +7418,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>711</v>
       </c>
@@ -7396,7 +7429,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>713</v>
       </c>
@@ -7407,7 +7440,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>715</v>
       </c>
@@ -7418,7 +7451,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>718</v>
       </c>
@@ -7429,7 +7462,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>720</v>
       </c>
@@ -7440,7 +7473,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>723</v>
       </c>
@@ -7451,7 +7484,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>726</v>
       </c>
@@ -7462,7 +7495,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>729</v>
       </c>
@@ -7473,7 +7506,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>731</v>
       </c>
@@ -7484,7 +7517,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>734</v>
       </c>
@@ -7495,7 +7528,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>737</v>
       </c>
@@ -7506,7 +7539,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>740</v>
       </c>
@@ -7517,7 +7550,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>743</v>
       </c>
@@ -7528,7 +7561,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>745</v>
       </c>
@@ -7539,7 +7572,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>747</v>
       </c>
@@ -7550,7 +7583,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>750</v>
       </c>
@@ -7561,7 +7594,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>753</v>
       </c>
@@ -7572,7 +7605,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>755</v>
       </c>
@@ -7583,7 +7616,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>758</v>
       </c>
@@ -7594,7 +7627,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>761</v>
       </c>
@@ -7605,7 +7638,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>764</v>
       </c>
@@ -7616,7 +7649,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>767</v>
       </c>
@@ -7627,7 +7660,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>770</v>
       </c>
@@ -7638,7 +7671,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>773</v>
       </c>
@@ -7649,7 +7682,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>776</v>
       </c>
@@ -7660,7 +7693,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>779</v>
       </c>
@@ -7671,7 +7704,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>782</v>
       </c>
@@ -7682,7 +7715,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>785</v>
       </c>
@@ -7693,7 +7726,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>788</v>
       </c>
@@ -7704,7 +7737,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>791</v>
       </c>
@@ -7715,7 +7748,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>794</v>
       </c>
@@ -7726,7 +7759,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>797</v>
       </c>
@@ -7737,7 +7770,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>800</v>
       </c>
@@ -7748,7 +7781,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>803</v>
       </c>
@@ -7759,7 +7792,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>806</v>
       </c>
@@ -7770,7 +7803,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>808</v>
       </c>
@@ -7781,7 +7814,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>811</v>
       </c>
@@ -7792,7 +7825,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>814</v>
       </c>
@@ -7803,7 +7836,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>817</v>
       </c>
@@ -7814,7 +7847,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>820</v>
       </c>
@@ -7825,7 +7858,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>822</v>
       </c>
@@ -7836,7 +7869,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>825</v>
       </c>
@@ -7847,7 +7880,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
         <v>828</v>
       </c>
@@ -7858,7 +7891,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
         <v>829</v>
       </c>
@@ -7869,7 +7902,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
         <v>832</v>
       </c>
@@ -7880,7 +7913,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
         <v>835</v>
       </c>
@@ -7891,7 +7924,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
         <v>838</v>
       </c>
@@ -7902,7 +7935,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
         <v>869</v>
       </c>
@@ -7917,7 +7950,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
         <v>870</v>
       </c>
@@ -7928,7 +7961,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
         <v>871</v>
       </c>
@@ -7943,7 +7976,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
         <v>943</v>
       </c>
@@ -7958,7 +7991,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="32">
       <c r="A394" s="1" t="s">
         <v>881</v>
       </c>
@@ -7973,7 +8006,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="48">
       <c r="A395" s="1" t="s">
         <v>895</v>
       </c>
@@ -7988,7 +8021,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="48">
       <c r="A396" s="1" t="s">
         <v>926</v>
       </c>
@@ -8003,7 +8036,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="96">
       <c r="A397" s="1" t="s">
         <v>927</v>
       </c>
@@ -8018,7 +8051,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="48">
       <c r="A398" s="1" t="s">
         <v>894</v>
       </c>
@@ -8033,7 +8066,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
         <v>944</v>
       </c>
@@ -8048,7 +8081,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="64">
       <c r="A400" s="1" t="s">
         <v>928</v>
       </c>
@@ -8063,7 +8096,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="96">
       <c r="A401" s="1" t="s">
         <v>929</v>
       </c>
@@ -8078,7 +8111,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="32">
       <c r="A402" s="1" t="s">
         <v>888</v>
       </c>
@@ -8093,7 +8126,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="32">
       <c r="A403" s="1" t="s">
         <v>889</v>
       </c>
@@ -8108,7 +8141,7 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="64">
       <c r="A404" s="1" t="s">
         <v>883</v>
       </c>
@@ -8123,7 +8156,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="32">
       <c r="A405" s="1" t="s">
         <v>945</v>
       </c>
@@ -8138,7 +8171,7 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="80">
       <c r="A406" s="1" t="s">
         <v>897</v>
       </c>
@@ -8153,7 +8186,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="96">
       <c r="A407" s="1" t="s">
         <v>898</v>
       </c>
@@ -8168,7 +8201,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="32">
       <c r="A408" s="1" t="s">
         <v>1061</v>
       </c>
@@ -8183,7 +8216,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="96">
       <c r="A409" s="1" t="s">
         <v>1062</v>
       </c>
@@ -8198,7 +8231,7 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="80">
       <c r="A410" s="1" t="s">
         <v>1063</v>
       </c>
@@ -8213,7 +8246,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="32">
       <c r="A411" s="1" t="s">
         <v>946</v>
       </c>
@@ -8228,7 +8261,7 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="96">
       <c r="A412" s="1" t="s">
         <v>899</v>
       </c>
@@ -8243,7 +8276,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="112">
       <c r="A413" s="1" t="s">
         <v>900</v>
       </c>
@@ -8258,7 +8291,7 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="32">
       <c r="A414" s="1" t="s">
         <v>1070</v>
       </c>
@@ -8273,7 +8306,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="112">
       <c r="A415" s="1" t="s">
         <v>1071</v>
       </c>
@@ -8288,7 +8321,7 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="96">
       <c r="A416" s="1" t="s">
         <v>1072</v>
       </c>
@@ -8303,7 +8336,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="32">
       <c r="A417" s="1" t="s">
         <v>947</v>
       </c>
@@ -8318,7 +8351,7 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="80">
       <c r="A418" s="1" t="s">
         <v>902</v>
       </c>
@@ -8333,7 +8366,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="96">
       <c r="A419" s="1" t="s">
         <v>901</v>
       </c>
@@ -8348,7 +8381,7 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="32">
       <c r="A420" s="1" t="s">
         <v>1080</v>
       </c>
@@ -8363,7 +8396,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="96">
       <c r="A421" s="1" t="s">
         <v>1081</v>
       </c>
@@ -8378,7 +8411,7 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="96">
       <c r="A422" s="1" t="s">
         <v>1082</v>
       </c>
@@ -8393,7 +8426,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="32">
       <c r="A423" s="1" t="s">
         <v>948</v>
       </c>
@@ -8408,7 +8441,7 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="96">
       <c r="A424" s="1" t="s">
         <v>905</v>
       </c>
@@ -8423,7 +8456,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="128">
       <c r="A425" s="1" t="s">
         <v>906</v>
       </c>
@@ -8438,7 +8471,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="32">
       <c r="A426" s="1" t="s">
         <v>949</v>
       </c>
@@ -8453,7 +8486,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="96">
       <c r="A427" s="1" t="s">
         <v>907</v>
       </c>
@@ -8468,7 +8501,7 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="112">
       <c r="A428" s="1" t="s">
         <v>908</v>
       </c>
@@ -8483,7 +8516,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7">
       <c r="A429" s="1" t="s">
         <v>934</v>
       </c>
@@ -8498,7 +8531,7 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7">
       <c r="A430" s="1" t="s">
         <v>935</v>
       </c>
@@ -8513,7 +8546,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7">
       <c r="A431" s="1" t="s">
         <v>936</v>
       </c>
@@ -8528,7 +8561,7 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7">
       <c r="A432" s="6" t="s">
         <v>972</v>
       </c>
@@ -8543,7 +8576,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>964</v>
       </c>
@@ -8554,7 +8587,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>966</v>
       </c>
@@ -8565,7 +8598,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>969</v>
       </c>
@@ -8576,7 +8609,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7">
       <c r="A436" s="1" t="s">
         <v>975</v>
       </c>
@@ -8591,7 +8624,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7">
       <c r="A437" s="1" t="s">
         <v>976</v>
       </c>
@@ -8606,7 +8639,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7">
       <c r="A438" s="1" t="s">
         <v>977</v>
       </c>
@@ -8621,7 +8654,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="32">
       <c r="A439" s="1" t="s">
         <v>988</v>
       </c>
@@ -8636,7 +8669,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="160">
       <c r="A440" s="1" t="s">
         <v>991</v>
       </c>
@@ -8647,7 +8680,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="176">
       <c r="A441" s="1" t="s">
         <v>994</v>
       </c>
@@ -8658,7 +8691,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="32">
       <c r="A442" s="1" t="s">
         <v>997</v>
       </c>
@@ -8669,7 +8702,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="96">
       <c r="A443" s="1" t="s">
         <v>1000</v>
       </c>
@@ -8680,7 +8713,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="64">
       <c r="A444" s="1" t="s">
         <v>1003</v>
       </c>
@@ -8691,7 +8724,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="32">
       <c r="A445" s="1" t="s">
         <v>1006</v>
       </c>
@@ -8702,7 +8735,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="96">
       <c r="A446" s="1" t="s">
         <v>1009</v>
       </c>
@@ -8713,7 +8746,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="128">
       <c r="A447" s="1" t="s">
         <v>1012</v>
       </c>
@@ -8724,7 +8757,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7">
       <c r="A448" s="1" t="s">
         <v>1015</v>
       </c>
@@ -8735,7 +8768,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" ht="64">
       <c r="A449" s="1" t="s">
         <v>1018</v>
       </c>
@@ -8746,7 +8779,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" ht="80">
       <c r="A450" s="1" t="s">
         <v>1021</v>
       </c>
@@ -8757,7 +8790,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" ht="48">
       <c r="A451" s="1" t="s">
         <v>1024</v>
       </c>
@@ -8768,7 +8801,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" ht="128">
       <c r="A452" s="1" t="s">
         <v>1027</v>
       </c>
@@ -8779,7 +8812,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" ht="144">
       <c r="A453" s="1" t="s">
         <v>1030</v>
       </c>
@@ -8790,7 +8823,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" ht="48">
       <c r="A454" s="1" t="s">
         <v>1033</v>
       </c>
@@ -8801,7 +8834,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" ht="128">
       <c r="A455" s="1" t="s">
         <v>1036</v>
       </c>
@@ -8812,7 +8845,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" ht="144">
       <c r="A456" s="1" t="s">
         <v>1039</v>
       </c>
@@ -8823,7 +8856,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" ht="48">
       <c r="A457" s="1" t="s">
         <v>1042</v>
       </c>
@@ -8834,7 +8867,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" ht="112">
       <c r="A458" s="1" t="s">
         <v>1045</v>
       </c>
@@ -8845,7 +8878,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" ht="128">
       <c r="A459" s="1" t="s">
         <v>1048</v>
       </c>
@@ -8856,7 +8889,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" ht="48">
       <c r="A460" s="1" t="s">
         <v>1051</v>
       </c>
@@ -8867,7 +8900,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" ht="128">
       <c r="A461" s="1" t="s">
         <v>1054</v>
       </c>
@@ -8878,7 +8911,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" ht="144">
       <c r="A462" s="1" t="s">
         <v>1057</v>
       </c>
@@ -8889,7 +8922,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>1088</v>
       </c>
@@ -8900,7 +8933,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>1089</v>
       </c>
@@ -8911,7 +8944,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>1090</v>
       </c>
@@ -8922,7 +8955,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>1091</v>
       </c>
@@ -8933,7 +8966,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>1092</v>
       </c>
@@ -8944,7 +8977,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>1093</v>
       </c>
@@ -8955,7 +8988,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
         <v>1094</v>
       </c>
@@ -8966,7 +8999,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>1095</v>
       </c>
@@ -8977,7 +9010,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
         <v>1096</v>
       </c>
@@ -8988,7 +9021,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>1097</v>
       </c>
@@ -8999,7 +9032,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>1098</v>
       </c>
@@ -9010,7 +9043,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
         <v>1099</v>
       </c>
@@ -9021,7 +9054,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>1124</v>
       </c>
@@ -9032,7 +9065,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" ht="48">
       <c r="A476" s="1" t="s">
         <v>1125</v>
       </c>
@@ -9043,7 +9076,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" ht="48">
       <c r="A477" s="1" t="s">
         <v>1126</v>
       </c>
@@ -9054,7 +9087,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" ht="32">
       <c r="A478" s="1" t="s">
         <v>1144</v>
       </c>
@@ -9063,7 +9096,7 @@
       </c>
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" ht="64">
       <c r="A479" s="1" t="s">
         <v>1145</v>
       </c>
@@ -9074,7 +9107,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" ht="96">
       <c r="A480" s="1" t="s">
         <v>1146</v>
       </c>
@@ -9085,7 +9118,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" ht="32">
       <c r="A481" s="1" t="s">
         <v>1163</v>
       </c>
@@ -9094,7 +9127,7 @@
       </c>
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" ht="48">
       <c r="A482" s="1" t="s">
         <v>1147</v>
       </c>
@@ -9103,7 +9136,7 @@
       </c>
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" ht="144">
       <c r="A483" s="1" t="s">
         <v>1152</v>
       </c>
@@ -9112,7 +9145,7 @@
       </c>
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" ht="32">
       <c r="A484" s="1" t="s">
         <v>1164</v>
       </c>
@@ -9121,7 +9154,7 @@
       </c>
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" ht="64">
       <c r="A485" s="1" t="s">
         <v>1148</v>
       </c>
@@ -9130,7 +9163,7 @@
       </c>
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" ht="96">
       <c r="A486" s="1" t="s">
         <v>1153</v>
       </c>
@@ -9139,7 +9172,7 @@
       </c>
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" ht="32">
       <c r="A487" s="1" t="s">
         <v>1165</v>
       </c>
@@ -9148,7 +9181,7 @@
       </c>
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" ht="32">
       <c r="A488" s="1" t="s">
         <v>1149</v>
       </c>
@@ -9157,7 +9190,7 @@
       </c>
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" ht="144">
       <c r="A489" s="1" t="s">
         <v>1154</v>
       </c>
@@ -9166,7 +9199,7 @@
       </c>
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
         <v>1166</v>
       </c>
@@ -9175,7 +9208,7 @@
       </c>
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" ht="32">
       <c r="A491" s="1" t="s">
         <v>1150</v>
       </c>
@@ -9184,7 +9217,7 @@
       </c>
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" ht="96">
       <c r="A492" s="1" t="s">
         <v>1155</v>
       </c>
@@ -9193,7 +9226,7 @@
       </c>
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>1167</v>
       </c>
@@ -9202,7 +9235,7 @@
       </c>
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" ht="48">
       <c r="A494" s="1" t="s">
         <v>1151</v>
       </c>
@@ -9211,7 +9244,7 @@
       </c>
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" ht="64">
       <c r="A495" s="1" t="s">
         <v>1156</v>
       </c>
@@ -9220,7 +9253,7 @@
       </c>
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>1168</v>
       </c>
@@ -9229,7 +9262,7 @@
       </c>
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" ht="48">
       <c r="A497" s="1" t="s">
         <v>1157</v>
       </c>
@@ -9238,7 +9271,7 @@
       </c>
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" ht="80">
       <c r="A498" s="1" t="s">
         <v>1158</v>
       </c>
@@ -9247,7 +9280,7 @@
       </c>
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>1169</v>
       </c>
@@ -9256,7 +9289,7 @@
       </c>
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
         <v>1159</v>
       </c>
@@ -9265,7 +9298,7 @@
       </c>
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" ht="48">
       <c r="A501" s="1" t="s">
         <v>1184</v>
       </c>
@@ -9274,7 +9307,7 @@
       </c>
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" ht="80">
       <c r="A502" s="1" t="s">
         <v>1185</v>
       </c>
@@ -9283,7 +9316,7 @@
       </c>
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>1170</v>
       </c>
@@ -9292,7 +9325,7 @@
       </c>
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" ht="64">
       <c r="A504" s="1" t="s">
         <v>1160</v>
       </c>
@@ -9301,7 +9334,7 @@
       </c>
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" ht="64">
       <c r="A505" s="1" t="s">
         <v>1224</v>
       </c>
@@ -9310,7 +9343,7 @@
       </c>
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" ht="96">
       <c r="A506" s="1" t="s">
         <v>1161</v>
       </c>
@@ -9319,7 +9352,7 @@
       </c>
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" ht="32">
       <c r="A507" s="1" t="s">
         <v>1228</v>
       </c>
@@ -9328,7 +9361,7 @@
       </c>
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" ht="48">
       <c r="A508" s="1" t="s">
         <v>1229</v>
       </c>
@@ -9337,7 +9370,7 @@
       </c>
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" ht="64">
       <c r="A509" s="1" t="s">
         <v>1230</v>
       </c>
@@ -9346,7 +9379,7 @@
       </c>
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" ht="32">
       <c r="A510" s="1" t="s">
         <v>1231</v>
       </c>
@@ -9355,7 +9388,7 @@
       </c>
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" ht="48">
       <c r="A511" s="1" t="s">
         <v>1232</v>
       </c>
@@ -9364,7 +9397,7 @@
       </c>
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" ht="64">
       <c r="A512" s="1" t="s">
         <v>1233</v>
       </c>
@@ -9373,7 +9406,7 @@
       </c>
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" ht="32">
       <c r="A513" s="1" t="s">
         <v>1234</v>
       </c>
@@ -9382,7 +9415,7 @@
       </c>
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" ht="32">
       <c r="A514" s="1" t="s">
         <v>1235</v>
       </c>
@@ -9391,7 +9424,7 @@
       </c>
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" ht="80">
       <c r="A515" s="1" t="s">
         <v>1236</v>
       </c>
@@ -9400,7 +9433,7 @@
       </c>
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" ht="32">
       <c r="A516" s="1" t="s">
         <v>1254</v>
       </c>
@@ -9409,7 +9442,7 @@
       </c>
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" ht="96">
       <c r="A517" s="1" t="s">
         <v>1256</v>
       </c>
@@ -9418,7 +9451,7 @@
       </c>
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" ht="112">
       <c r="A518" s="1" t="s">
         <v>1257</v>
       </c>
@@ -9427,7 +9460,7 @@
       </c>
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" ht="32">
       <c r="A519" s="1" t="s">
         <v>1255</v>
       </c>
@@ -9436,7 +9469,7 @@
       </c>
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" ht="112">
       <c r="A520" s="1" t="s">
         <v>1258</v>
       </c>
@@ -9445,7 +9478,7 @@
       </c>
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" ht="112">
       <c r="A521" s="1" t="s">
         <v>1259</v>
       </c>
@@ -9454,7 +9487,7 @@
       </c>
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" ht="32">
       <c r="A522" s="1" t="s">
         <v>1237</v>
       </c>
@@ -9463,7 +9496,7 @@
       </c>
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" ht="96">
       <c r="A523" s="1" t="s">
         <v>1238</v>
       </c>
@@ -9472,7 +9505,7 @@
       </c>
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" ht="80">
       <c r="A524" s="1" t="s">
         <v>1239</v>
       </c>
@@ -9481,7 +9514,7 @@
       </c>
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
         <v>1193</v>
       </c>
@@ -9490,7 +9523,7 @@
       </c>
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" ht="64">
       <c r="A526" s="1" t="s">
         <v>1194</v>
       </c>
@@ -9499,7 +9532,7 @@
       </c>
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" ht="96">
       <c r="A527" s="1" t="s">
         <v>1195</v>
       </c>
@@ -9508,7 +9541,7 @@
       </c>
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
         <v>1196</v>
       </c>
@@ -9517,7 +9550,7 @@
       </c>
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="64">
       <c r="A529" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9526,7 +9559,7 @@
       </c>
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="96">
       <c r="A530" s="1" t="s">
         <v>1198</v>
       </c>
@@ -9535,7 +9568,7 @@
       </c>
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7">
       <c r="A531" s="1" t="s">
         <v>1206</v>
       </c>
@@ -9544,7 +9577,7 @@
       </c>
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="48">
       <c r="A532" s="1" t="s">
         <v>1207</v>
       </c>
@@ -9553,7 +9586,7 @@
       </c>
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="64">
       <c r="A533" s="1" t="s">
         <v>1208</v>
       </c>
@@ -9562,7 +9595,7 @@
       </c>
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7">
       <c r="A534" s="1" t="s">
         <v>1209</v>
       </c>
@@ -9571,7 +9604,7 @@
       </c>
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="32">
       <c r="A535" s="1" t="s">
         <v>1210</v>
       </c>
@@ -9580,7 +9613,7 @@
       </c>
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="48">
       <c r="A536" s="1" t="s">
         <v>1211</v>
       </c>
@@ -9589,7 +9622,7 @@
       </c>
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7">
       <c r="A537" s="1" t="s">
         <v>1212</v>
       </c>
@@ -9598,7 +9631,7 @@
       </c>
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="32">
       <c r="A538" s="1" t="s">
         <v>1213</v>
       </c>
@@ -9607,7 +9640,7 @@
       </c>
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="48">
       <c r="A539" s="1" t="s">
         <v>1214</v>
       </c>
@@ -9615,6 +9648,65 @@
         <v>1223</v>
       </c>
       <c r="C539" s="8"/>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D544" s="4"/>
+      <c r="E544" s="4"/>
+      <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9622,5 +9714,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -2548,9 +2548,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sobre o valor dos serviços incide retenção na fonte em sede de {0} à taxa de {1} no montante de {2}. O montante do documento a pagar será de {3}. {4} </t>
-  </si>
-  <si>
-    <t>{0} withholding rate will be applied on the billed services in the amount of {1}. The payable amount will be {2}.</t>
   </si>
   <si>
     <t>Recebemos nesta data {0} a quantia de {1} para a liquidação do documento {2} de {3}. O valor do recebido já é líquido de retenção na fonte à taxa de {4} no montante de {5}. {6}</t>
@@ -3903,6 +3900,9 @@
   <si>
     <t>Void</t>
   </si>
+  <si>
+    <t>{1} withholding rate will be applied on the billed services in the amount of {2}. The payable amount will be {3}.</t>
+  </si>
 </sst>
 </file>
 
@@ -3914,7 +3914,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4367,7 +4366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4377,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="C543" sqref="C543"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6467,7 +6466,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="32">
+    <row r="256" spans="1:3" ht="30">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6758,7 +6757,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" ht="30">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="48">
+    <row r="284" spans="1:3" ht="45">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="32">
+    <row r="286" spans="1:3" ht="30">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="32">
+    <row r="287" spans="1:3" ht="30">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -7159,46 +7158,46 @@
         <v>674</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="48">
+    </row>
+    <row r="323" spans="1:3" ht="45">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
@@ -7206,73 +7205,73 @@
         <v>841</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="64">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="60">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="32">
+    </row>
+    <row r="325" spans="1:3" ht="30">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C325" s="1" t="s">
+    </row>
+    <row r="326" spans="1:3" ht="30">
+      <c r="A326" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="32">
-      <c r="A326" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="64">
+    </row>
+    <row r="327" spans="1:3" ht="60">
       <c r="A327" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="30">
+      <c r="A328" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="32">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="30">
+      <c r="A329" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="32">
-      <c r="A329" s="1" t="s">
-        <v>860</v>
-      </c>
       <c r="B329" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -7283,7 +7282,7 @@
         <v>679</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -7316,7 +7315,7 @@
         <v>687</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -7327,7 +7326,7 @@
         <v>689</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -7338,7 +7337,7 @@
         <v>691</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -7349,7 +7348,7 @@
         <v>694</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -7360,7 +7359,7 @@
         <v>697</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -7371,7 +7370,7 @@
         <v>699</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -7415,7 +7414,7 @@
         <v>710</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -7426,7 +7425,7 @@
         <v>712</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -7437,7 +7436,7 @@
         <v>714</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -7503,7 +7502,7 @@
         <v>730</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -7599,7 +7598,7 @@
         <v>753</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>754</v>
@@ -7797,7 +7796,7 @@
         <v>806</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>807</v>
@@ -7937,7 +7936,7 @@
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>658</v>
@@ -7952,24 +7951,24 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -7978,88 +7977,88 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="32">
+    <row r="394" spans="1:7" ht="30">
       <c r="A394" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="48">
+    <row r="395" spans="1:7" ht="45">
       <c r="A395" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="48">
+    <row r="396" spans="1:7" ht="45">
       <c r="A396" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="96">
+    <row r="397" spans="1:7" ht="105">
       <c r="A397" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="48">
+    <row r="398" spans="1:7" ht="45">
       <c r="A398" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -8068,448 +8067,448 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="64">
+    <row r="400" spans="1:7" ht="60">
       <c r="A400" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="96">
+    <row r="401" spans="1:7" ht="90">
       <c r="A401" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="32">
+    <row r="402" spans="1:7" ht="30">
       <c r="A402" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="32">
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="64">
+    <row r="404" spans="1:7" ht="60">
       <c r="A404" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="32">
+    <row r="405" spans="1:7" ht="30">
       <c r="A405" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="80">
+    <row r="406" spans="1:7" ht="75">
       <c r="A406" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="96">
+    <row r="407" spans="1:7" ht="90">
       <c r="A407" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="32">
+    <row r="408" spans="1:7" ht="30">
       <c r="A408" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="96">
+    <row r="409" spans="1:7" ht="90">
       <c r="A409" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="80">
+    <row r="410" spans="1:7" ht="75">
       <c r="A410" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="32">
+    <row r="411" spans="1:7" ht="30">
       <c r="A411" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="96">
+    <row r="412" spans="1:7" ht="90">
       <c r="A412" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="112">
+    <row r="413" spans="1:7" ht="105">
       <c r="A413" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="32">
+    <row r="414" spans="1:7" ht="30">
       <c r="A414" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="112">
+    <row r="415" spans="1:7" ht="105">
       <c r="A415" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="96">
+    <row r="416" spans="1:7" ht="90">
       <c r="A416" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>1073</v>
-      </c>
       <c r="C416" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="32">
+    <row r="417" spans="1:7" ht="30">
       <c r="A417" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="80">
+    <row r="418" spans="1:7" ht="75">
       <c r="A418" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="96">
+    <row r="419" spans="1:7" ht="90">
       <c r="A419" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="32">
+    <row r="420" spans="1:7" ht="30">
       <c r="A420" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="96">
+    <row r="421" spans="1:7" ht="90">
       <c r="A421" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="96">
+    <row r="422" spans="1:7" ht="90">
       <c r="A422" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="32">
+    <row r="423" spans="1:7" ht="30">
       <c r="A423" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="96">
+    <row r="424" spans="1:7" ht="90">
       <c r="A424" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="128">
+    <row r="425" spans="1:7" ht="120">
       <c r="A425" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="32">
+    <row r="426" spans="1:7" ht="30">
       <c r="A426" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="96">
+    <row r="427" spans="1:7" ht="90">
       <c r="A427" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="112">
+    <row r="428" spans="1:7" ht="105">
       <c r="A428" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -8518,13 +8517,13 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -8533,13 +8532,13 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -8548,13 +8547,13 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -8563,13 +8562,13 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B432" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="B432" s="5" t="s">
+      <c r="C432" s="5" t="s">
         <v>973</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>974</v>
       </c>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -8578,46 +8577,46 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433" t="s">
+        <v>963</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" t="s">
+        <v>965</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="C434" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="435" spans="1:7">
       <c r="A435" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -8626,13 +8625,13 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -8641,1067 +8640,1067 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="32">
+    <row r="439" spans="1:7" ht="30">
       <c r="A439" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" ht="160">
+    <row r="440" spans="1:7" ht="150">
       <c r="A440" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C440" s="1" t="s">
+    </row>
+    <row r="441" spans="1:7" ht="165">
+      <c r="A441" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" ht="176">
-      <c r="A441" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C441" s="1" t="s">
+    </row>
+    <row r="442" spans="1:7" ht="30">
+      <c r="A442" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" ht="32">
-      <c r="A442" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C442" s="1" t="s">
+    </row>
+    <row r="443" spans="1:7" ht="90">
+      <c r="A443" s="1" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" ht="96">
-      <c r="A443" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C443" s="1" t="s">
+    </row>
+    <row r="444" spans="1:7" ht="60">
+      <c r="A444" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" ht="64">
-      <c r="A444" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C444" s="1" t="s">
+    </row>
+    <row r="445" spans="1:7" ht="30">
+      <c r="A445" s="1" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" ht="32">
-      <c r="A445" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C445" s="1" t="s">
+    </row>
+    <row r="446" spans="1:7" ht="90">
+      <c r="A446" s="1" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" ht="96">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C446" s="1" t="s">
+    </row>
+    <row r="447" spans="1:7" ht="120">
+      <c r="A447" s="1" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" ht="128">
-      <c r="A447" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="C447" s="7" t="s">
         <v>1013</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="C448" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C448" s="1" t="s">
+    </row>
+    <row r="449" spans="1:3" ht="60">
+      <c r="A449" s="1" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" ht="64">
-      <c r="A449" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="C449" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C449" s="1" t="s">
+    </row>
+    <row r="450" spans="1:3" ht="75">
+      <c r="A450" s="1" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="80">
-      <c r="A450" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="C450" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C450" s="1" t="s">
+    </row>
+    <row r="451" spans="1:3" ht="45">
+      <c r="A451" s="1" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="48">
-      <c r="A451" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="C451" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C451" s="1" t="s">
+    </row>
+    <row r="452" spans="1:3" ht="120">
+      <c r="A452" s="1" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" ht="128">
-      <c r="A452" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C452" s="1" t="s">
+    </row>
+    <row r="453" spans="1:3" ht="135">
+      <c r="A453" s="1" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="144">
-      <c r="A453" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C453" s="1" t="s">
+    </row>
+    <row r="454" spans="1:3" ht="45">
+      <c r="A454" s="1" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="48">
-      <c r="A454" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="C454" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="C454" s="7" t="s">
+    </row>
+    <row r="455" spans="1:3" ht="120">
+      <c r="A455" s="1" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="128">
-      <c r="A455" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="C455" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="C455" s="7" t="s">
+    </row>
+    <row r="456" spans="1:3" ht="135">
+      <c r="A456" s="1" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" ht="144">
-      <c r="A456" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="C456" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="C456" s="7" t="s">
+    </row>
+    <row r="457" spans="1:3" ht="45">
+      <c r="A457" s="1" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" ht="48">
-      <c r="A457" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="C457" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="C457" s="7" t="s">
+    </row>
+    <row r="458" spans="1:3" ht="105">
+      <c r="A458" s="1" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" ht="112">
-      <c r="A458" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="C458" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="C458" s="7" t="s">
+    </row>
+    <row r="459" spans="1:3" ht="120">
+      <c r="A459" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" ht="128">
-      <c r="A459" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="C459" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="C459" s="7" t="s">
+    </row>
+    <row r="460" spans="1:3" ht="45">
+      <c r="A460" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" ht="48">
-      <c r="A460" s="1" t="s">
+      <c r="B460" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="C460" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="C460" s="7" t="s">
+    </row>
+    <row r="461" spans="1:3" ht="120">
+      <c r="A461" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" ht="128">
-      <c r="A461" s="1" t="s">
+      <c r="B461" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="C461" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="C461" s="7" t="s">
+    </row>
+    <row r="462" spans="1:3" ht="135">
+      <c r="A462" s="1" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" ht="144">
-      <c r="A462" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="C462" s="7" t="s">
         <v>1058</v>
-      </c>
-      <c r="C462" s="7" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B463" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C463" s="8" t="s">
         <v>1100</v>
-      </c>
-      <c r="C463" s="8" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="45">
+      <c r="A476" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C475" s="1" t="s">
+      <c r="B476" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C476" s="8" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="48">
-      <c r="A476" s="1" t="s">
+    <row r="477" spans="1:3" ht="45">
+      <c r="A477" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B477" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="C476" s="8" t="s">
+      <c r="C477" s="8" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="48">
-      <c r="A477" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C477" s="8" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="32">
+    <row r="478" spans="1:3" ht="30">
       <c r="A478" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="1:3" ht="60">
+      <c r="A479" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B479" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="90">
+      <c r="A480" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="C478" s="8"/>
-    </row>
-    <row r="479" spans="1:3" ht="64">
-      <c r="A479" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B479" s="1" t="s">
+      <c r="C480" s="8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="30">
+      <c r="A481" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C479" s="8" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="96">
-      <c r="A480" s="1" t="s">
+      <c r="B481" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="1:3" ht="45">
+      <c r="A482" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B482" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" spans="1:3" ht="135">
+      <c r="A483" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C480" s="8" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="32">
-      <c r="A481" s="1" t="s">
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="1:3" ht="30">
+      <c r="A484" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C481" s="8"/>
-    </row>
-    <row r="482" spans="1:3" ht="48">
-      <c r="A482" s="1" t="s">
+      <c r="B484" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="1:3" ht="60">
+      <c r="A485" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C482" s="8"/>
-    </row>
-    <row r="483" spans="1:3" ht="144">
-      <c r="A483" s="1" t="s">
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="1:3" ht="90">
+      <c r="A486" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B486" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="1:3" ht="30">
+      <c r="A487" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C483" s="8"/>
-    </row>
-    <row r="484" spans="1:3" ht="32">
-      <c r="A484" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B484" s="1" t="s">
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="1:3" ht="30">
+      <c r="A488" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="1:3" ht="135">
+      <c r="A489" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="C484" s="8"/>
-    </row>
-    <row r="485" spans="1:3" ht="64">
-      <c r="A485" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C485" s="8"/>
-    </row>
-    <row r="486" spans="1:3" ht="96">
-      <c r="A486" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C486" s="8"/>
-    </row>
-    <row r="487" spans="1:3" ht="32">
-      <c r="A487" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C487" s="8"/>
-    </row>
-    <row r="488" spans="1:3" ht="32">
-      <c r="A488" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C488" s="8"/>
-    </row>
-    <row r="489" spans="1:3" ht="144">
-      <c r="A489" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1175</v>
       </c>
       <c r="C489" s="8"/>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B490" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="1:3" ht="30">
+      <c r="A491" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="C490" s="8"/>
-    </row>
-    <row r="491" spans="1:3" ht="32">
-      <c r="A491" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1180</v>
-      </c>
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="1:3" ht="96">
+    <row r="492" spans="1:3" ht="90">
       <c r="A492" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C492" s="8"/>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="1:3" ht="48">
+    <row r="494" spans="1:3" ht="45">
       <c r="A494" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="1:3" ht="64">
+    <row r="495" spans="1:3" ht="60">
       <c r="A495" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C495" s="8"/>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B496" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" spans="1:3" ht="45">
+      <c r="A497" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="1:3" ht="75">
+      <c r="A498" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="C496" s="8"/>
-    </row>
-    <row r="497" spans="1:3" ht="48">
-      <c r="A497" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C497" s="8"/>
-    </row>
-    <row r="498" spans="1:3" ht="80">
-      <c r="A498" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>1182</v>
       </c>
       <c r="C498" s="8"/>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C499" s="8"/>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="1:3" ht="48">
+    <row r="501" spans="1:3" ht="45">
       <c r="A501" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" spans="1:3" ht="75">
+      <c r="A502" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B502" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="C501" s="8"/>
-    </row>
-    <row r="502" spans="1:3" ht="80">
-      <c r="A502" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1187</v>
       </c>
       <c r="C502" s="8"/>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="1:3" ht="64">
+    <row r="504" spans="1:3" ht="75">
       <c r="A504" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" spans="1:3" ht="60">
+      <c r="A505" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="1:3" ht="90">
+      <c r="A506" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C504" s="8"/>
-    </row>
-    <row r="505" spans="1:3" ht="64">
-      <c r="A505" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B505" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="C505" s="8"/>
-    </row>
-    <row r="506" spans="1:3" ht="96">
-      <c r="A506" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B506" s="1" t="s">
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="1:3" ht="30">
+      <c r="A507" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C506" s="8"/>
-    </row>
-    <row r="507" spans="1:3" ht="32">
-      <c r="A507" s="1" t="s">
+      <c r="B507" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="1:3" ht="45">
+      <c r="A508" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B508" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="1:3" ht="60">
+      <c r="A509" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="1:3" ht="30">
+      <c r="A510" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="C507" s="8"/>
-    </row>
-    <row r="508" spans="1:3" ht="48">
-      <c r="A508" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C508" s="8"/>
-    </row>
-    <row r="509" spans="1:3" ht="64">
-      <c r="A509" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B509" s="1" t="s">
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="1:3" ht="45">
+      <c r="A511" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="C509" s="8"/>
-    </row>
-    <row r="510" spans="1:3" ht="32">
-      <c r="A510" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C510" s="8"/>
-    </row>
-    <row r="511" spans="1:3" ht="48">
-      <c r="A511" s="1" t="s">
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="1:3" ht="60">
+      <c r="A512" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C511" s="8"/>
-    </row>
-    <row r="512" spans="1:3" ht="64">
-      <c r="A512" s="1" t="s">
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="1:3" ht="30">
+      <c r="A513" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B513" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C512" s="8"/>
-    </row>
-    <row r="513" spans="1:3" ht="32">
-      <c r="A513" s="1" t="s">
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="30">
+      <c r="A514" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B514" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C513" s="8"/>
-    </row>
-    <row r="514" spans="1:3" ht="32">
-      <c r="A514" s="1" t="s">
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" ht="75">
+      <c r="A515" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C514" s="8"/>
-    </row>
-    <row r="515" spans="1:3" ht="80">
-      <c r="A515" s="1" t="s">
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="1:3" ht="30">
+      <c r="A516" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="1:3" ht="90">
+      <c r="A517" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="1:3" ht="105">
+      <c r="A518" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="1:3" ht="30">
+      <c r="A519" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="1:3" ht="105">
+      <c r="A520" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="1:3" ht="105">
+      <c r="A521" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" spans="1:3" ht="30">
+      <c r="A522" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B515" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C515" s="8"/>
-    </row>
-    <row r="516" spans="1:3" ht="32">
-      <c r="A516" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C516" s="8"/>
-    </row>
-    <row r="517" spans="1:3" ht="96">
-      <c r="A517" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C517" s="8"/>
-    </row>
-    <row r="518" spans="1:3" ht="112">
-      <c r="A518" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C518" s="8"/>
-    </row>
-    <row r="519" spans="1:3" ht="32">
-      <c r="A519" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C519" s="8"/>
-    </row>
-    <row r="520" spans="1:3" ht="112">
-      <c r="A520" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C520" s="8"/>
-    </row>
-    <row r="521" spans="1:3" ht="112">
-      <c r="A521" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B521" s="1" t="s">
+      <c r="B522" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="C521" s="8"/>
-    </row>
-    <row r="522" spans="1:3" ht="32">
-      <c r="A522" s="1" t="s">
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" spans="1:3" ht="90">
+      <c r="A523" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B523" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C522" s="8"/>
-    </row>
-    <row r="523" spans="1:3" ht="96">
-      <c r="A523" s="1" t="s">
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" spans="1:3" ht="75">
+      <c r="A524" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B524" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="C523" s="8"/>
-    </row>
-    <row r="524" spans="1:3" ht="80">
-      <c r="A524" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>1253</v>
       </c>
       <c r="C524" s="8"/>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" spans="1:3" ht="60">
+      <c r="A526" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C525" s="8"/>
-    </row>
-    <row r="526" spans="1:3" ht="64">
-      <c r="A526" s="1" t="s">
+      <c r="B526" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" spans="1:3" ht="90">
+      <c r="A527" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="C526" s="8"/>
-    </row>
-    <row r="527" spans="1:3" ht="96">
-      <c r="A527" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="C527" s="8"/>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" spans="1:7" ht="60">
+      <c r="A529" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="B529" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C528" s="8"/>
-    </row>
-    <row r="529" spans="1:7" ht="64">
-      <c r="A529" s="1" t="s">
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" spans="1:7" ht="90">
+      <c r="A530" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="C529" s="8"/>
-    </row>
-    <row r="530" spans="1:7" ht="96">
-      <c r="A530" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>1203</v>
       </c>
       <c r="C530" s="8"/>
     </row>
     <row r="531" spans="1:7">
       <c r="A531" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" spans="1:7" ht="45">
+      <c r="A532" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="C531" s="8"/>
-    </row>
-    <row r="532" spans="1:7" ht="48">
-      <c r="A532" s="1" t="s">
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" spans="1:7" ht="60">
+      <c r="A533" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="C532" s="8"/>
-    </row>
-    <row r="533" spans="1:7" ht="64">
-      <c r="A533" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>1217</v>
       </c>
       <c r="C533" s="8"/>
     </row>
     <row r="534" spans="1:7">
       <c r="A534" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" spans="1:7" ht="30">
+      <c r="A535" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B535" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="C534" s="8"/>
-    </row>
-    <row r="535" spans="1:7" ht="32">
-      <c r="A535" s="1" t="s">
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" spans="1:7" ht="45">
+      <c r="A536" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>1219</v>
-      </c>
-      <c r="C535" s="8"/>
-    </row>
-    <row r="536" spans="1:7" ht="48">
-      <c r="A536" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>1220</v>
       </c>
       <c r="C536" s="8"/>
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C537" s="8"/>
+    </row>
+    <row r="538" spans="1:7" ht="30">
+      <c r="A538" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="B538" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="C537" s="8"/>
-    </row>
-    <row r="538" spans="1:7" ht="32">
-      <c r="A538" s="1" t="s">
+      <c r="C538" s="8"/>
+    </row>
+    <row r="539" spans="1:7" ht="45">
+      <c r="A539" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="C538" s="8"/>
-    </row>
-    <row r="539" spans="1:7" ht="48">
-      <c r="A539" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>1223</v>
       </c>
       <c r="C539" s="8"/>
     </row>
     <row r="540" spans="1:7">
       <c r="A540" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="541" spans="1:7">
       <c r="A541" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="542" spans="1:7">
       <c r="A542" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="543" spans="1:7">
       <c r="A543" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="544" spans="1:7">
       <c r="A544" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C795D5F-E98F-3241-9CA1-63224954A1D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1277">
   <si>
     <t>key</t>
   </si>
@@ -3903,12 +3909,21 @@
   <si>
     <t>{1} withholding rate will be applied on the billed services in the amount of {2}. The payable amount will be {3}.</t>
   </si>
+  <si>
+    <t>tax_registration_number</t>
+  </si>
+  <si>
+    <t>NIF</t>
+  </si>
+  <si>
+    <t>VAT number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3936,6 +3951,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4020,7 +4042,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4042,6 +4064,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4091,21 +4116,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G544" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G544"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G545" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G545" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="key"/>
-    <tableColumn id="2" name="pt" dataDxfId="5"/>
-    <tableColumn id="3" name="en" dataDxfId="4"/>
-    <tableColumn id="4" name="es" dataDxfId="3"/>
-    <tableColumn id="5" name="fr" dataDxfId="2"/>
-    <tableColumn id="6" name="de" dataDxfId="1"/>
-    <tableColumn id="7" name="it" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="en" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="es" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="fr" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="de" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="it" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4366,28 +4394,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G544"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="C323" sqref="C323"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="B540" sqref="B540"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4410,7 +4438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4418,7 +4446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4426,7 +4454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4434,7 +4462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4442,7 +4470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4450,7 +4478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4458,7 +4486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4466,7 +4494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4474,7 +4502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4490,7 +4518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4506,7 +4534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4514,7 +4542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4522,7 +4550,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4530,7 +4558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4538,7 +4566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4546,7 +4574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -4554,7 +4582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4562,7 +4590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4570,7 +4598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4578,7 +4606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4586,7 +4614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4594,7 +4622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4602,7 +4630,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4610,7 +4638,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -4618,7 +4646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -4626,7 +4654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4634,7 +4662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,7 +4670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -4650,7 +4678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4658,7 +4686,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,7 +4694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4674,7 +4702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4682,7 +4710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -4690,7 +4718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4698,7 +4726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4706,7 +4734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4714,7 +4742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4722,7 +4750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4730,7 +4758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4738,7 +4766,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -4746,7 +4774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4754,7 +4782,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -4762,7 +4790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -4770,7 +4798,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -4778,7 +4806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -4786,7 +4814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -4794,7 +4822,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -4802,7 +4830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -4810,7 +4838,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -4818,7 +4846,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -4826,7 +4854,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -4834,7 +4862,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -4842,7 +4870,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -4850,7 +4878,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -4858,7 +4886,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -4866,7 +4894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -4874,7 +4902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -4882,7 +4910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -4890,7 +4918,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -4898,7 +4926,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -4906,7 +4934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -4914,7 +4942,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -4922,7 +4950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -4930,7 +4958,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -4938,7 +4966,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -4946,7 +4974,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -4954,7 +4982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -4962,7 +4990,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -4970,7 +4998,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -4978,7 +5006,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -4986,7 +5014,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -4994,7 +5022,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -5002,7 +5030,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -5010,7 +5038,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -5018,7 +5046,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -5026,7 +5054,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -5034,7 +5062,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5042,7 +5070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -5050,7 +5078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -5058,7 +5086,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -5066,7 +5094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -5074,7 +5102,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -5082,7 +5110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -5090,7 +5118,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -5098,7 +5126,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -5106,7 +5134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -5114,7 +5142,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -5122,7 +5150,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -5130,7 +5158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -5138,7 +5166,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -5146,7 +5174,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -5154,7 +5182,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -5162,7 +5190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -5170,7 +5198,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -5178,7 +5206,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -5186,7 +5214,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -5194,7 +5222,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -5202,7 +5230,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -5210,7 +5238,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -5218,7 +5246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -5226,7 +5254,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -5234,7 +5262,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -5242,7 +5270,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -5250,7 +5278,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -5258,7 +5286,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -5266,7 +5294,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -5274,7 +5302,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -5282,7 +5310,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -5290,7 +5318,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -5298,7 +5326,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -5306,7 +5334,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -5314,7 +5342,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -5322,7 +5350,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -5330,7 +5358,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -5338,7 +5366,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -5346,7 +5374,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -5354,7 +5382,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -5362,7 +5390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -5370,7 +5398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -5378,7 +5406,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -5386,7 +5414,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -5394,7 +5422,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5410,7 +5438,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -5418,7 +5446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -5426,7 +5454,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -5434,7 +5462,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -5442,7 +5470,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -5450,7 +5478,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -5458,7 +5486,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -5466,7 +5494,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5474,7 +5502,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -5482,7 +5510,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -5490,7 +5518,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -5498,7 +5526,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -5506,7 +5534,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5514,7 +5542,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -5522,7 +5550,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -5530,7 +5558,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -5538,7 +5566,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -5546,7 +5574,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -5554,7 +5582,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -5562,7 +5590,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -5570,7 +5598,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -5578,7 +5606,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -5586,7 +5614,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -5594,7 +5622,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -5602,7 +5630,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -5610,7 +5638,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -5618,7 +5646,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -5626,7 +5654,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5634,7 +5662,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -5642,7 +5670,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -5650,7 +5678,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -5658,7 +5686,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -5666,7 +5694,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -5674,7 +5702,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -5682,7 +5710,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -5690,7 +5718,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -5698,7 +5726,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -5706,7 +5734,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -5714,7 +5742,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -5722,7 +5750,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -5730,7 +5758,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -5738,7 +5766,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -5746,7 +5774,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -5754,7 +5782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -5762,7 +5790,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -5770,7 +5798,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -5778,7 +5806,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -5786,7 +5814,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -5794,7 +5822,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -5802,7 +5830,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -5810,7 +5838,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -5818,7 +5846,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -5826,7 +5854,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -5834,7 +5862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -5842,7 +5870,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -5850,7 +5878,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -5858,7 +5886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -5866,7 +5894,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -5874,7 +5902,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -5882,7 +5910,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -5890,7 +5918,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -5898,7 +5926,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -5906,7 +5934,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -5914,7 +5942,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -5922,7 +5950,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -5930,7 +5958,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -5938,7 +5966,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -5946,7 +5974,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -5954,7 +5982,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -5962,7 +5990,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -5970,7 +5998,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -5978,7 +6006,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -5986,7 +6014,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -5994,7 +6022,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -6002,7 +6030,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -6010,7 +6038,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -6018,7 +6046,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -6026,7 +6054,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -6034,7 +6062,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -6042,7 +6070,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -6050,7 +6078,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -6058,7 +6086,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -6066,7 +6094,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -6074,7 +6102,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -6082,7 +6110,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -6090,7 +6118,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -6098,7 +6126,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -6106,7 +6134,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -6114,7 +6142,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -6122,7 +6150,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -6130,7 +6158,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -6138,7 +6166,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -6146,7 +6174,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -6154,7 +6182,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -6162,7 +6190,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -6170,7 +6198,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -6178,7 +6206,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -6186,7 +6214,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -6194,7 +6222,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -6202,7 +6230,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -6210,7 +6238,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -6218,7 +6246,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -6226,7 +6254,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -6234,7 +6262,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -6242,7 +6270,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -6250,7 +6278,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -6258,7 +6286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -6266,7 +6294,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -6274,7 +6302,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -6282,7 +6310,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -6290,7 +6318,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -6298,7 +6326,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -6306,7 +6334,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -6314,7 +6342,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -6322,7 +6350,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -6330,7 +6358,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -6338,7 +6366,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -6346,7 +6374,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -6354,7 +6382,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -6362,7 +6390,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -6370,7 +6398,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -6378,7 +6406,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -6389,7 +6417,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -6400,7 +6428,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -6411,7 +6439,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -6422,7 +6450,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -6433,7 +6461,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -6444,7 +6472,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -6455,7 +6483,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -6466,7 +6494,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30">
+    <row r="256" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6477,7 +6505,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409">
+    <row r="257" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
@@ -6485,7 +6513,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>522</v>
       </c>
@@ -6496,7 +6524,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
@@ -6504,7 +6532,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>526</v>
       </c>
@@ -6515,7 +6543,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>529</v>
       </c>
@@ -6526,7 +6554,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>532</v>
       </c>
@@ -6537,7 +6565,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>535</v>
       </c>
@@ -6548,7 +6576,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>538</v>
       </c>
@@ -6559,7 +6587,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>541</v>
       </c>
@@ -6570,7 +6598,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>544</v>
       </c>
@@ -6581,7 +6609,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>547</v>
       </c>
@@ -6592,7 +6620,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>550</v>
       </c>
@@ -6603,7 +6631,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>553</v>
       </c>
@@ -6614,7 +6642,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>556</v>
       </c>
@@ -6625,7 +6653,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>559</v>
       </c>
@@ -6636,7 +6664,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>562</v>
       </c>
@@ -6647,7 +6675,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>565</v>
       </c>
@@ -6658,7 +6686,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -6669,7 +6697,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>571</v>
       </c>
@@ -6680,7 +6708,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>574</v>
       </c>
@@ -6691,7 +6719,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>577</v>
       </c>
@@ -6702,7 +6730,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>580</v>
       </c>
@@ -6713,7 +6741,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>583</v>
       </c>
@@ -6724,7 +6752,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>586</v>
       </c>
@@ -6735,7 +6763,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>589</v>
       </c>
@@ -6746,7 +6774,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>592</v>
       </c>
@@ -6757,7 +6785,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="30">
+    <row r="283" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>595</v>
       </c>
@@ -6768,7 +6796,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="45">
+    <row r="284" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>598</v>
       </c>
@@ -6779,7 +6807,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>601</v>
       </c>
@@ -6790,7 +6818,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="30">
+    <row r="286" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>604</v>
       </c>
@@ -6801,7 +6829,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="30">
+    <row r="287" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -6812,7 +6840,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>610</v>
       </c>
@@ -6823,7 +6851,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>612</v>
       </c>
@@ -6834,7 +6862,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>615</v>
       </c>
@@ -6845,7 +6873,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>618</v>
       </c>
@@ -6856,7 +6884,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>621</v>
       </c>
@@ -6867,7 +6895,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>624</v>
       </c>
@@ -6878,7 +6906,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>627</v>
       </c>
@@ -6889,7 +6917,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>630</v>
       </c>
@@ -6900,7 +6928,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>633</v>
       </c>
@@ -6911,7 +6939,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>636</v>
       </c>
@@ -6922,7 +6950,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>639</v>
       </c>
@@ -6933,7 +6961,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>642</v>
       </c>
@@ -6944,7 +6972,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>645</v>
       </c>
@@ -6955,7 +6983,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>648</v>
       </c>
@@ -6966,7 +6994,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>651</v>
       </c>
@@ -6977,7 +7005,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -6988,7 +7016,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>657</v>
       </c>
@@ -6999,7 +7027,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>660</v>
       </c>
@@ -7010,7 +7038,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>661</v>
       </c>
@@ -7021,7 +7049,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -7032,7 +7060,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>663</v>
       </c>
@@ -7043,7 +7071,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>664</v>
       </c>
@@ -7054,7 +7082,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>665</v>
       </c>
@@ -7065,7 +7093,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>666</v>
       </c>
@@ -7076,7 +7104,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>667</v>
       </c>
@@ -7087,7 +7115,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>668</v>
       </c>
@@ -7098,7 +7126,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>669</v>
       </c>
@@ -7109,7 +7137,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>670</v>
       </c>
@@ -7120,7 +7148,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>671</v>
       </c>
@@ -7131,7 +7159,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>672</v>
       </c>
@@ -7142,7 +7170,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>673</v>
       </c>
@@ -7153,7 +7181,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>674</v>
       </c>
@@ -7164,7 +7192,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>847</v>
       </c>
@@ -7175,7 +7203,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>866</v>
       </c>
@@ -7186,7 +7214,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>854</v>
       </c>
@@ -7197,7 +7225,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="45">
+    <row r="323" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>675</v>
       </c>
@@ -7208,7 +7236,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="60">
+    <row r="324" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>676</v>
       </c>
@@ -7219,7 +7247,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="30">
+    <row r="325" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>677</v>
       </c>
@@ -7230,7 +7258,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="30">
+    <row r="326" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>846</v>
       </c>
@@ -7241,7 +7269,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="60">
+    <row r="327" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>857</v>
       </c>
@@ -7252,7 +7280,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="30">
+    <row r="328" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>858</v>
       </c>
@@ -7263,7 +7291,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="30">
+    <row r="329" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>859</v>
       </c>
@@ -7274,7 +7302,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>678</v>
       </c>
@@ -7285,7 +7313,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>680</v>
       </c>
@@ -7296,7 +7324,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>683</v>
       </c>
@@ -7307,7 +7335,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>686</v>
       </c>
@@ -7318,7 +7346,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>688</v>
       </c>
@@ -7329,7 +7357,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>690</v>
       </c>
@@ -7340,7 +7368,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>693</v>
       </c>
@@ -7351,7 +7379,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>696</v>
       </c>
@@ -7362,7 +7390,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>698</v>
       </c>
@@ -7373,7 +7401,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>700</v>
       </c>
@@ -7384,7 +7412,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>703</v>
       </c>
@@ -7395,7 +7423,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>706</v>
       </c>
@@ -7406,7 +7434,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>709</v>
       </c>
@@ -7417,7 +7445,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>711</v>
       </c>
@@ -7428,7 +7456,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>713</v>
       </c>
@@ -7439,7 +7467,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>715</v>
       </c>
@@ -7450,7 +7478,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>718</v>
       </c>
@@ -7461,7 +7489,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>720</v>
       </c>
@@ -7472,7 +7500,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>723</v>
       </c>
@@ -7483,7 +7511,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>726</v>
       </c>
@@ -7494,7 +7522,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>729</v>
       </c>
@@ -7505,7 +7533,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>731</v>
       </c>
@@ -7516,7 +7544,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>734</v>
       </c>
@@ -7527,7 +7555,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>737</v>
       </c>
@@ -7538,7 +7566,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>740</v>
       </c>
@@ -7549,7 +7577,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>743</v>
       </c>
@@ -7560,7 +7588,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>745</v>
       </c>
@@ -7571,7 +7599,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>747</v>
       </c>
@@ -7582,7 +7610,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>750</v>
       </c>
@@ -7593,7 +7621,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>753</v>
       </c>
@@ -7604,7 +7632,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>755</v>
       </c>
@@ -7615,7 +7643,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>758</v>
       </c>
@@ -7626,7 +7654,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>761</v>
       </c>
@@ -7637,7 +7665,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>764</v>
       </c>
@@ -7648,7 +7676,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>767</v>
       </c>
@@ -7659,7 +7687,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>770</v>
       </c>
@@ -7670,7 +7698,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>773</v>
       </c>
@@ -7681,7 +7709,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>776</v>
       </c>
@@ -7692,7 +7720,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>779</v>
       </c>
@@ -7703,7 +7731,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>782</v>
       </c>
@@ -7714,7 +7742,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>785</v>
       </c>
@@ -7725,7 +7753,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>788</v>
       </c>
@@ -7736,7 +7764,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>791</v>
       </c>
@@ -7747,7 +7775,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>794</v>
       </c>
@@ -7758,7 +7786,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>797</v>
       </c>
@@ -7769,7 +7797,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>800</v>
       </c>
@@ -7780,7 +7808,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>803</v>
       </c>
@@ -7791,7 +7819,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>806</v>
       </c>
@@ -7802,7 +7830,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>808</v>
       </c>
@@ -7813,7 +7841,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>811</v>
       </c>
@@ -7824,7 +7852,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>814</v>
       </c>
@@ -7835,7 +7863,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>817</v>
       </c>
@@ -7846,7 +7874,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>820</v>
       </c>
@@ -7857,7 +7885,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>822</v>
       </c>
@@ -7868,7 +7896,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>825</v>
       </c>
@@ -7879,7 +7907,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>828</v>
       </c>
@@ -7890,7 +7918,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>829</v>
       </c>
@@ -7901,7 +7929,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>832</v>
       </c>
@@ -7912,7 +7940,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>835</v>
       </c>
@@ -7923,7 +7951,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>838</v>
       </c>
@@ -7934,7 +7962,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>868</v>
       </c>
@@ -7949,7 +7977,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>869</v>
       </c>
@@ -7960,7 +7988,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>870</v>
       </c>
@@ -7975,7 +8003,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>942</v>
       </c>
@@ -7990,7 +8018,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="30">
+    <row r="394" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>880</v>
       </c>
@@ -8005,7 +8033,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="45">
+    <row r="395" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>894</v>
       </c>
@@ -8020,7 +8048,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="45">
+    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>925</v>
       </c>
@@ -8035,7 +8063,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="105">
+    <row r="397" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>926</v>
       </c>
@@ -8050,7 +8078,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="45">
+    <row r="398" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>893</v>
       </c>
@@ -8065,7 +8093,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>943</v>
       </c>
@@ -8080,7 +8108,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="60">
+    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>927</v>
       </c>
@@ -8095,7 +8123,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="90">
+    <row r="401" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>928</v>
       </c>
@@ -8110,7 +8138,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="30">
+    <row r="402" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>887</v>
       </c>
@@ -8125,7 +8153,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="30">
+    <row r="403" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>888</v>
       </c>
@@ -8140,7 +8168,7 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="60">
+    <row r="404" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>882</v>
       </c>
@@ -8155,7 +8183,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="30">
+    <row r="405" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>944</v>
       </c>
@@ -8170,7 +8198,7 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="75">
+    <row r="406" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>896</v>
       </c>
@@ -8185,7 +8213,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="90">
+    <row r="407" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>897</v>
       </c>
@@ -8200,7 +8228,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="30">
+    <row r="408" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>1060</v>
       </c>
@@ -8215,7 +8243,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="90">
+    <row r="409" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>1061</v>
       </c>
@@ -8230,7 +8258,7 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="75">
+    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>1062</v>
       </c>
@@ -8245,7 +8273,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="30">
+    <row r="411" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>945</v>
       </c>
@@ -8260,7 +8288,7 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="90">
+    <row r="412" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>898</v>
       </c>
@@ -8275,7 +8303,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="105">
+    <row r="413" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>899</v>
       </c>
@@ -8290,7 +8318,7 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="30">
+    <row r="414" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1069</v>
       </c>
@@ -8305,7 +8333,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="105">
+    <row r="415" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>1070</v>
       </c>
@@ -8320,7 +8348,7 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="90">
+    <row r="416" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>1071</v>
       </c>
@@ -8335,7 +8363,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="30">
+    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>946</v>
       </c>
@@ -8350,7 +8378,7 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="75">
+    <row r="418" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>901</v>
       </c>
@@ -8365,7 +8393,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="90">
+    <row r="419" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>900</v>
       </c>
@@ -8380,7 +8408,7 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="30">
+    <row r="420" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1079</v>
       </c>
@@ -8395,7 +8423,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="90">
+    <row r="421" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>1080</v>
       </c>
@@ -8410,7 +8438,7 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="90">
+    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1081</v>
       </c>
@@ -8425,7 +8453,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="30">
+    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>947</v>
       </c>
@@ -8440,7 +8468,7 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="90">
+    <row r="424" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>904</v>
       </c>
@@ -8455,7 +8483,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="120">
+    <row r="425" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>905</v>
       </c>
@@ -8470,7 +8498,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="30">
+    <row r="426" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>948</v>
       </c>
@@ -8485,7 +8513,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="90">
+    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>906</v>
       </c>
@@ -8500,7 +8528,7 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="105">
+    <row r="428" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>907</v>
       </c>
@@ -8515,7 +8543,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>933</v>
       </c>
@@ -8530,7 +8558,7 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>934</v>
       </c>
@@ -8545,7 +8573,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>935</v>
       </c>
@@ -8560,7 +8588,7 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>971</v>
       </c>
@@ -8575,7 +8603,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>963</v>
       </c>
@@ -8586,7 +8614,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>965</v>
       </c>
@@ -8597,7 +8625,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>968</v>
       </c>
@@ -8608,7 +8636,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>974</v>
       </c>
@@ -8623,7 +8651,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>975</v>
       </c>
@@ -8638,7 +8666,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>976</v>
       </c>
@@ -8653,7 +8681,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="30">
+    <row r="439" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>987</v>
       </c>
@@ -8668,7 +8696,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" ht="150">
+    <row r="440" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>990</v>
       </c>
@@ -8679,7 +8707,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="165">
+    <row r="441" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>993</v>
       </c>
@@ -8690,7 +8718,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="30">
+    <row r="442" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>996</v>
       </c>
@@ -8701,7 +8729,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="90">
+    <row r="443" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>999</v>
       </c>
@@ -8712,7 +8740,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="60">
+    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1002</v>
       </c>
@@ -8723,7 +8751,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="30">
+    <row r="445" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8734,7 +8762,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="90">
+    <row r="446" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1008</v>
       </c>
@@ -8745,7 +8773,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="120">
+    <row r="447" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>1011</v>
       </c>
@@ -8756,7 +8784,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1014</v>
       </c>
@@ -8767,7 +8795,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="60">
+    <row r="449" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>1017</v>
       </c>
@@ -8778,7 +8806,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="75">
+    <row r="450" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>1020</v>
       </c>
@@ -8789,7 +8817,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="45">
+    <row r="451" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>1023</v>
       </c>
@@ -8800,7 +8828,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="120">
+    <row r="452" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>1026</v>
       </c>
@@ -8811,7 +8839,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="135">
+    <row r="453" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>1029</v>
       </c>
@@ -8822,7 +8850,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="45">
+    <row r="454" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1032</v>
       </c>
@@ -8833,7 +8861,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="120">
+    <row r="455" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>1035</v>
       </c>
@@ -8844,7 +8872,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="135">
+    <row r="456" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1038</v>
       </c>
@@ -8855,7 +8883,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="45">
+    <row r="457" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>1041</v>
       </c>
@@ -8866,7 +8894,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="105">
+    <row r="458" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>1044</v>
       </c>
@@ -8877,7 +8905,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="120">
+    <row r="459" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>1047</v>
       </c>
@@ -8888,7 +8916,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="45">
+    <row r="460" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1050</v>
       </c>
@@ -8899,7 +8927,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="120">
+    <row r="461" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8910,7 +8938,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="135">
+    <row r="462" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>1056</v>
       </c>
@@ -8921,7 +8949,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>1087</v>
       </c>
@@ -8932,7 +8960,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>1088</v>
       </c>
@@ -8943,7 +8971,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>1089</v>
       </c>
@@ -8954,7 +8982,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>1090</v>
       </c>
@@ -8965,7 +8993,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>1091</v>
       </c>
@@ -8976,7 +9004,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>1092</v>
       </c>
@@ -8987,7 +9015,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>1093</v>
       </c>
@@ -8998,7 +9026,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>1094</v>
       </c>
@@ -9009,7 +9037,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>1095</v>
       </c>
@@ -9020,7 +9048,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>1096</v>
       </c>
@@ -9031,7 +9059,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>1097</v>
       </c>
@@ -9042,7 +9070,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>1098</v>
       </c>
@@ -9053,7 +9081,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>1123</v>
       </c>
@@ -9064,7 +9092,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="45">
+    <row r="476" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>1124</v>
       </c>
@@ -9075,7 +9103,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="45">
+    <row r="477" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>1125</v>
       </c>
@@ -9086,7 +9114,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="30">
+    <row r="478" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>1143</v>
       </c>
@@ -9095,7 +9123,7 @@
       </c>
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="1:3" ht="60">
+    <row r="479" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>1144</v>
       </c>
@@ -9106,7 +9134,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="90">
+    <row r="480" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>1145</v>
       </c>
@@ -9117,7 +9145,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="30">
+    <row r="481" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>1162</v>
       </c>
@@ -9126,7 +9154,7 @@
       </c>
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="1:3" ht="45">
+    <row r="482" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>1146</v>
       </c>
@@ -9135,7 +9163,7 @@
       </c>
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="1:3" ht="135">
+    <row r="483" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>1151</v>
       </c>
@@ -9144,7 +9172,7 @@
       </c>
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="1:3" ht="30">
+    <row r="484" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>1163</v>
       </c>
@@ -9153,7 +9181,7 @@
       </c>
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="1:3" ht="60">
+    <row r="485" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>1147</v>
       </c>
@@ -9162,7 +9190,7 @@
       </c>
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="1:3" ht="90">
+    <row r="486" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>1152</v>
       </c>
@@ -9171,7 +9199,7 @@
       </c>
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="1:3" ht="30">
+    <row r="487" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>1164</v>
       </c>
@@ -9180,7 +9208,7 @@
       </c>
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="1:3" ht="30">
+    <row r="488" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>1148</v>
       </c>
@@ -9189,7 +9217,7 @@
       </c>
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="1:3" ht="135">
+    <row r="489" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>1153</v>
       </c>
@@ -9198,7 +9226,7 @@
       </c>
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>1165</v>
       </c>
@@ -9207,7 +9235,7 @@
       </c>
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="1:3" ht="30">
+    <row r="491" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>1149</v>
       </c>
@@ -9216,7 +9244,7 @@
       </c>
       <c r="C491" s="8"/>
     </row>
-    <row r="492" spans="1:3" ht="90">
+    <row r="492" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>1154</v>
       </c>
@@ -9225,7 +9253,7 @@
       </c>
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>1166</v>
       </c>
@@ -9234,7 +9262,7 @@
       </c>
       <c r="C493" s="8"/>
     </row>
-    <row r="494" spans="1:3" ht="45">
+    <row r="494" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>1150</v>
       </c>
@@ -9243,7 +9271,7 @@
       </c>
       <c r="C494" s="8"/>
     </row>
-    <row r="495" spans="1:3" ht="60">
+    <row r="495" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>1155</v>
       </c>
@@ -9252,7 +9280,7 @@
       </c>
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>1167</v>
       </c>
@@ -9261,7 +9289,7 @@
       </c>
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="1:3" ht="45">
+    <row r="497" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>1156</v>
       </c>
@@ -9270,7 +9298,7 @@
       </c>
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="1:3" ht="75">
+    <row r="498" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>1157</v>
       </c>
@@ -9279,7 +9307,7 @@
       </c>
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>1168</v>
       </c>
@@ -9288,7 +9316,7 @@
       </c>
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>1158</v>
       </c>
@@ -9297,7 +9325,7 @@
       </c>
       <c r="C500" s="8"/>
     </row>
-    <row r="501" spans="1:3" ht="45">
+    <row r="501" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>1183</v>
       </c>
@@ -9306,7 +9334,7 @@
       </c>
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="1:3" ht="75">
+    <row r="502" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>1184</v>
       </c>
@@ -9315,7 +9343,7 @@
       </c>
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>1169</v>
       </c>
@@ -9324,7 +9352,7 @@
       </c>
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="1:3" ht="75">
+    <row r="504" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>1159</v>
       </c>
@@ -9333,7 +9361,7 @@
       </c>
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="1:3" ht="60">
+    <row r="505" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>1223</v>
       </c>
@@ -9342,7 +9370,7 @@
       </c>
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="1:3" ht="90">
+    <row r="506" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>1160</v>
       </c>
@@ -9351,7 +9379,7 @@
       </c>
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="1:3" ht="30">
+    <row r="507" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>1227</v>
       </c>
@@ -9360,7 +9388,7 @@
       </c>
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="1:3" ht="45">
+    <row r="508" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>1228</v>
       </c>
@@ -9369,7 +9397,7 @@
       </c>
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="1:3" ht="60">
+    <row r="509" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>1229</v>
       </c>
@@ -9378,7 +9406,7 @@
       </c>
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="1:3" ht="30">
+    <row r="510" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>1230</v>
       </c>
@@ -9387,7 +9415,7 @@
       </c>
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="1:3" ht="45">
+    <row r="511" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>1231</v>
       </c>
@@ -9396,7 +9424,7 @@
       </c>
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="1:3" ht="60">
+    <row r="512" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>1232</v>
       </c>
@@ -9405,7 +9433,7 @@
       </c>
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="1:3" ht="30">
+    <row r="513" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>1233</v>
       </c>
@@ -9414,7 +9442,7 @@
       </c>
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="1:3" ht="30">
+    <row r="514" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1234</v>
       </c>
@@ -9423,7 +9451,7 @@
       </c>
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="1:3" ht="75">
+    <row r="515" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>1235</v>
       </c>
@@ -9432,7 +9460,7 @@
       </c>
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="1:3" ht="30">
+    <row r="516" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>1253</v>
       </c>
@@ -9441,7 +9469,7 @@
       </c>
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="1:3" ht="90">
+    <row r="517" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>1255</v>
       </c>
@@ -9450,7 +9478,7 @@
       </c>
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="1:3" ht="105">
+    <row r="518" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>1256</v>
       </c>
@@ -9459,7 +9487,7 @@
       </c>
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="1:3" ht="30">
+    <row r="519" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>1254</v>
       </c>
@@ -9468,7 +9496,7 @@
       </c>
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="1:3" ht="105">
+    <row r="520" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>1257</v>
       </c>
@@ -9477,7 +9505,7 @@
       </c>
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="1:3" ht="105">
+    <row r="521" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>1258</v>
       </c>
@@ -9486,7 +9514,7 @@
       </c>
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="1:3" ht="30">
+    <row r="522" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>1236</v>
       </c>
@@ -9495,7 +9523,7 @@
       </c>
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="1:3" ht="90">
+    <row r="523" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>1237</v>
       </c>
@@ -9504,7 +9532,7 @@
       </c>
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="1:3" ht="75">
+    <row r="524" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>1238</v>
       </c>
@@ -9513,7 +9541,7 @@
       </c>
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>1192</v>
       </c>
@@ -9522,7 +9550,7 @@
       </c>
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="1:3" ht="60">
+    <row r="526" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>1193</v>
       </c>
@@ -9531,7 +9559,7 @@
       </c>
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="1:3" ht="90">
+    <row r="527" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>1194</v>
       </c>
@@ -9540,7 +9568,7 @@
       </c>
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>1195</v>
       </c>
@@ -9549,7 +9577,7 @@
       </c>
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="1:7" ht="60">
+    <row r="529" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>1196</v>
       </c>
@@ -9558,7 +9586,7 @@
       </c>
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="1:7" ht="90">
+    <row r="530" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9567,7 +9595,7 @@
       </c>
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>1205</v>
       </c>
@@ -9576,7 +9604,7 @@
       </c>
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="1:7" ht="45">
+    <row r="532" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>1206</v>
       </c>
@@ -9585,7 +9613,7 @@
       </c>
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="1:7" ht="60">
+    <row r="533" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>1207</v>
       </c>
@@ -9594,7 +9622,7 @@
       </c>
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>1208</v>
       </c>
@@ -9603,7 +9631,7 @@
       </c>
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="1:7" ht="30">
+    <row r="535" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>1209</v>
       </c>
@@ -9612,7 +9640,7 @@
       </c>
       <c r="C535" s="8"/>
     </row>
-    <row r="536" spans="1:7" ht="45">
+    <row r="536" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>1210</v>
       </c>
@@ -9621,7 +9649,7 @@
       </c>
       <c r="C536" s="8"/>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>1211</v>
       </c>
@@ -9630,7 +9658,7 @@
       </c>
       <c r="C537" s="8"/>
     </row>
-    <row r="538" spans="1:7" ht="30">
+    <row r="538" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>1212</v>
       </c>
@@ -9639,7 +9667,7 @@
       </c>
       <c r="C538" s="8"/>
     </row>
-    <row r="539" spans="1:7" ht="45">
+    <row r="539" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>1213</v>
       </c>
@@ -9648,64 +9676,75 @@
       </c>
       <c r="C539" s="8"/>
     </row>
-    <row r="540" spans="1:7">
-      <c r="A540" t="s">
+    <row r="540" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C540" s="9" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
         <v>1262</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B541" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="C540" s="1" t="s">
+      <c r="C541" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
-      <c r="A541" t="s">
+    <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
         <v>1263</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B542" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C541" s="1" t="s">
+      <c r="C542" s="1" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
-      <c r="A542" t="s">
+    <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
         <v>1264</v>
       </c>
-      <c r="B542" s="1" t="s">
+      <c r="B543" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="C542" s="1" t="s">
+      <c r="C543" s="1" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
-      <c r="A543" t="s">
+    <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
         <v>1265</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="B544" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C543" s="1" t="s">
+      <c r="C544" s="1" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
-      <c r="A544" t="s">
+    <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
         <v>1266</v>
       </c>
-      <c r="B544" s="4" t="s">
+      <c r="B545" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="C544" s="4" t="s">
+      <c r="C545" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="D544" s="4"/>
-      <c r="E544" s="4"/>
-      <c r="F544" s="4"/>
-      <c r="G544" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="4"/>
+      <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepacheco/cldware_work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C795D5F-E98F-3241-9CA1-63224954A1D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3D948-D5A4-6F49-A147-BD557C22D9C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1280">
   <si>
     <t>key</t>
   </si>
@@ -3917,6 +3917,15 @@
   </si>
   <si>
     <t>VAT number</t>
+  </si>
+  <si>
+    <t>business_name</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -4124,8 +4133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G545" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G545" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G546" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G546" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
@@ -4402,10 +4411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G545"/>
+  <dimension ref="A1:G546"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="B540" sqref="B540"/>
+      <selection activeCell="D541" sqref="D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9688,63 +9697,74 @@
       </c>
     </row>
     <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
-        <v>1262</v>
+      <c r="A541" s="1" t="s">
+        <v>1277</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>967</v>
+        <v>1278</v>
+      </c>
+      <c r="C541" s="9" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>969</v>
+        <v>1267</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1268</v>
+        <v>969</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1270</v>
+        <v>964</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
         <v>1266</v>
       </c>
-      <c r="B545" s="4" t="s">
+      <c r="B546" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="C545" s="4" t="s">
+      <c r="C546" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="D545" s="4"/>
-      <c r="E545" s="4"/>
-      <c r="F545" s="4"/>
-      <c r="G545" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="4"/>
+      <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepacheco/cldware_work/sp-duh/config/i18n/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3D948-D5A4-6F49-A147-BD557C22D9C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1306">
   <si>
     <t>key</t>
   </si>
@@ -1596,9 +1590,6 @@
     <t>pence</t>
   </si>
   <si>
-    <t>certified_software_notice</t>
-  </si>
-  <si>
     <t>Emitido por TOConline - https://www.toconline.pt</t>
   </si>
   <si>
@@ -1840,27 +1831,6 @@
   </si>
   <si>
     <t>Final costumer</t>
-  </si>
-  <si>
-    <t>document_certified_notice</t>
-  </si>
-  <si>
-    <t>Processado por programa certificado nº 1662/AT - TOConline</t>
-  </si>
-  <si>
-    <t>Processed by certified program nr. 1662/AT - TOConline</t>
-  </si>
-  <si>
-    <t>document_certified_notice_non_hashed</t>
-  </si>
-  <si>
-    <t>Emitido por programa certificado nº 1662/AT - TOConline</t>
-  </si>
-  <si>
-    <t>Issued by certified program nr. 1662/AT - TOConline</t>
-  </si>
-  <si>
-    <t>document_certified_notice_short</t>
   </si>
   <si>
     <t>Processed by TOConline - https://www.toconline.pt</t>
@@ -3763,9 +3733,6 @@
     <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior marcado como principal. Sem exceções</t>
   </si>
   <si>
-    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Não nos foi possível efetuar este teste uma vez que não existe exercício do ano {0} no TOConline.</t>
-  </si>
-  <si>
     <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Comparamos os saldos de abertura do exercício com o exercício do ano anterior marcado como principal "{0}" e encontramos diferenças ao nível das seguintes contas:</t>
   </si>
   <si>
@@ -3926,18 +3893,124 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>certified_software_notice_toconline_toconline</t>
+  </si>
+  <si>
+    <t>certified_software_notice_business_business</t>
+  </si>
+  <si>
+    <t>Emitido por Cloudware.business - https://cloudware.pt/cloudwarebiz/</t>
+  </si>
+  <si>
+    <t>certified_software_notice_business_mbcp</t>
+  </si>
+  <si>
+    <t>Emitido por M Fatura (Powered by Cloudware.business - https://cloudware.pt/cloudwarebiz/)</t>
+  </si>
+  <si>
+    <t>Created by M Fatura (Powered by Cloudware.business - https://cloudware.pt/cloudwarebiz/)</t>
+  </si>
+  <si>
+    <t>Created by Cloudware.business - https://cloudware.pt/cloudwarebiz/</t>
+  </si>
+  <si>
+    <t>document_certified_notice_toconline_toconline</t>
+  </si>
+  <si>
+    <t>document_certified_notice_non_hashed_toconline_toconline</t>
+  </si>
+  <si>
+    <t>document_certified_notice_short_toconline_toconline</t>
+  </si>
+  <si>
+    <t>document_certificate_number_toconline</t>
+  </si>
+  <si>
+    <t>document_certificate_number_business</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>6969</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº {0}/AT - TOConline</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. {0}/AT - TOConline</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº {0}/AT - TOConline</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. {0}/AT - TOConline</t>
+  </si>
+  <si>
+    <t>document_certified_notice_business_business</t>
+  </si>
+  <si>
+    <t>document_certified_notice_non_hashed_business_business</t>
+  </si>
+  <si>
+    <t>document_certified_notice_short_business_business</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº {0}/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. {0}/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº {0}/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. {0}/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Processed by Cloudware.business - https://cloudware.pt/cloudwarebiz/</t>
+  </si>
+  <si>
+    <t>document_certified_notice_business_mbcp</t>
+  </si>
+  <si>
+    <t>document_certified_notice_non_hashed_business_mbcp</t>
+  </si>
+  <si>
+    <t>document_certified_notice_short_business_mbcp</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº {0}/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. {0}/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº {0}/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. {0}/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Processed by M Fatura (Powered by Cloudware.business - https://cloudware.pt/cloudwarebiz/)</t>
+  </si>
+  <si>
+    <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Não nos foi possível efetuar este teste uma vez que não existe exercício do ano {0}.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3970,7 +4043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3989,8 +4062,14 @@
         <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4037,8 +4116,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4050,8 +4155,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4078,18 +4211,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -4133,16 +4313,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G546" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G546" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G556" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G556"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="en" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="es" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="fr" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="de" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="it" dataDxfId="0"/>
+    <tableColumn id="1" name="key"/>
+    <tableColumn id="2" name="pt" dataDxfId="5"/>
+    <tableColumn id="3" name="en" dataDxfId="4"/>
+    <tableColumn id="4" name="es" dataDxfId="3"/>
+    <tableColumn id="5" name="fr" dataDxfId="2"/>
+    <tableColumn id="6" name="de" dataDxfId="1"/>
+    <tableColumn id="7" name="it" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4403,28 +4583,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G546"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="D541" sqref="D541"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4447,7 +4627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4455,7 +4635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4463,7 +4643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +4651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4479,7 +4659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4487,7 +4667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4495,7 +4675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4503,7 +4683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4511,7 +4691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4519,7 +4699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4527,7 +4707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4535,7 +4715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4543,7 +4723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4551,7 +4731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4559,7 +4739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4567,7 +4747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4575,7 +4755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4583,7 +4763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -4591,7 +4771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4599,7 +4779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4607,7 +4787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4615,7 +4795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="17">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4623,7 +4803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4631,7 +4811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="17">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4639,7 +4819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="17">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4647,7 +4827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="17">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -4655,7 +4835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -4663,7 +4843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="17">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4671,7 +4851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -4679,7 +4859,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -4687,7 +4867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="17">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4695,7 +4875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4703,7 +4883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="17">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4711,7 +4891,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="17">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4719,7 +4899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="17">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -4727,7 +4907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="17">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4735,7 +4915,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="17">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4743,7 +4923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="17">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4751,7 +4931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="17">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4759,7 +4939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4767,7 +4947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4775,7 +4955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="17">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -4783,7 +4963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="17">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4791,7 +4971,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="17">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -4799,7 +4979,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="17">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -4807,7 +4987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="17">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -4815,7 +4995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="17">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -4823,7 +5003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="17">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -4831,7 +5011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="17">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -4839,7 +5019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="17">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -4847,7 +5027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="17">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -4855,7 +5035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="17">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -4863,7 +5043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="17">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -4871,7 +5051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="17">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -4879,7 +5059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="17">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -4887,7 +5067,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="17">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -4895,7 +5075,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="17">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -4903,7 +5083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -4911,7 +5091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="17">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -4919,7 +5099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="17">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -4927,7 +5107,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="17">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -4935,7 +5115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="17">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -4943,7 +5123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="17">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -4951,7 +5131,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="17">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -4959,7 +5139,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="17">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -4967,7 +5147,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="17">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -4975,7 +5155,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="17">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -4983,7 +5163,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="17">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -4991,7 +5171,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="17">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -4999,7 +5179,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="17">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -5007,7 +5187,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="17">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -5015,7 +5195,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="17">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -5023,7 +5203,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="17">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -5031,7 +5211,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="17">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -5039,7 +5219,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="17">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -5047,7 +5227,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="17">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -5055,7 +5235,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="17">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -5063,7 +5243,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="17">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -5071,7 +5251,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="17">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5079,7 +5259,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="17">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -5087,7 +5267,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="17">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -5095,7 +5275,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="17">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -5103,7 +5283,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="17">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -5111,7 +5291,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="17">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -5119,7 +5299,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="17">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -5127,7 +5307,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="17">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -5135,7 +5315,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="17">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -5143,7 +5323,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="17">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -5151,7 +5331,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="17">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -5159,7 +5339,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="17">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -5167,7 +5347,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="17">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -5175,7 +5355,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="17">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -5183,7 +5363,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="17">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -5191,7 +5371,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="17">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -5199,7 +5379,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="17">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -5207,7 +5387,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="17">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -5215,7 +5395,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="17">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -5223,7 +5403,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="17">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -5231,7 +5411,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="17">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -5239,7 +5419,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="17">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -5247,7 +5427,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="17">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -5255,7 +5435,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="17">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -5263,7 +5443,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="17">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -5271,7 +5451,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="17">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -5279,7 +5459,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="17">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -5287,7 +5467,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="17">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -5295,7 +5475,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="17">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -5303,7 +5483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="17">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -5311,7 +5491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="17">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -5319,7 +5499,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="17">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -5327,7 +5507,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="17">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -5335,7 +5515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="17">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -5343,7 +5523,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="17">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -5351,7 +5531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="17">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -5359,7 +5539,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="17">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -5367,7 +5547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="17">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -5375,7 +5555,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="17">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -5383,7 +5563,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="17">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -5391,7 +5571,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="17">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -5399,7 +5579,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="17">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -5407,7 +5587,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="17">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -5415,7 +5595,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="17">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -5423,7 +5603,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="17">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -5431,7 +5611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="17">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5439,7 +5619,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="17">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5447,7 +5627,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="17">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -5455,7 +5635,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="17">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -5463,7 +5643,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="17">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -5471,7 +5651,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="17">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -5479,7 +5659,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="17">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -5487,7 +5667,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="17">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -5495,7 +5675,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="17">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -5503,7 +5683,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="17">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5511,7 +5691,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="17">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -5519,7 +5699,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="17">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -5527,7 +5707,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="17">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -5535,7 +5715,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="17">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -5543,7 +5723,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="17">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5551,7 +5731,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="17">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -5559,7 +5739,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="17">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -5567,7 +5747,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="17">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -5575,7 +5755,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="17">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -5583,7 +5763,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="17">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -5591,7 +5771,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="17">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -5599,7 +5779,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="17">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -5607,7 +5787,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="17">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -5615,7 +5795,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="17">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -5623,7 +5803,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="17">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -5631,7 +5811,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="17">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -5639,7 +5819,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="17">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -5647,7 +5827,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="17">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -5655,7 +5835,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="17">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -5663,7 +5843,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="17">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5671,7 +5851,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="17">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -5679,7 +5859,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="17">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -5687,7 +5867,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="17">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -5695,7 +5875,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="17">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -5703,7 +5883,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="17">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -5711,7 +5891,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="17">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -5719,7 +5899,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="17">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -5727,7 +5907,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="17">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -5735,7 +5915,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="17">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -5743,7 +5923,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="17">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -5751,7 +5931,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="17">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -5759,7 +5939,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="17">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -5767,7 +5947,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="17">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -5775,7 +5955,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="17">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -5783,7 +5963,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="17">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -5791,7 +5971,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="17">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -5799,7 +5979,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="17">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -5807,7 +5987,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="17">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -5815,7 +5995,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="17">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -5823,7 +6003,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="17">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -5831,7 +6011,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="17">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -5839,7 +6019,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="17">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -5847,7 +6027,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="17">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -5855,7 +6035,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="17">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -5863,7 +6043,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="17">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -5871,7 +6051,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="17">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -5879,7 +6059,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="17">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -5887,7 +6067,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="17">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -5895,7 +6075,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="17">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -5903,7 +6083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="17">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -5911,7 +6091,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="17">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -5919,7 +6099,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="17">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -5927,7 +6107,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="17">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -5935,7 +6115,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="17">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -5943,7 +6123,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="17">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -5951,7 +6131,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="17">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -5959,7 +6139,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="17">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -5967,7 +6147,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="17">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -5975,7 +6155,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="17">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -5983,7 +6163,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="17">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -5991,7 +6171,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="17">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -5999,7 +6179,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="17">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -6007,7 +6187,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="17">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -6015,7 +6195,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="17">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -6023,7 +6203,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="17">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -6031,7 +6211,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="17">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -6039,7 +6219,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="17">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -6047,7 +6227,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="17">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -6055,7 +6235,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="17">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -6063,7 +6243,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="17">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -6071,7 +6251,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="17">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -6079,7 +6259,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="17">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -6087,7 +6267,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="17">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -6095,7 +6275,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="17">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -6103,7 +6283,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="17">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -6111,7 +6291,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="17">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -6119,7 +6299,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="17">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -6127,7 +6307,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="17">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -6135,7 +6315,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="17">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -6143,7 +6323,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="17">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -6151,7 +6331,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="17">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -6159,7 +6339,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="17">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -6167,7 +6347,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="17">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -6175,7 +6355,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="17">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -6183,7 +6363,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="17">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -6191,7 +6371,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="17">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -6199,7 +6379,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="17">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -6207,7 +6387,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="17">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -6215,7 +6395,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="17">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -6223,7 +6403,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="17">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -6231,7 +6411,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="17">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -6239,7 +6419,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="17">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -6247,7 +6427,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="17">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -6255,7 +6435,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="17">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -6263,7 +6443,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="17">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -6271,7 +6451,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="17">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -6279,7 +6459,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="17">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -6287,7 +6467,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="17">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -6295,7 +6475,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="17">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -6303,7 +6483,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="17">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -6311,7 +6491,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="17">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -6319,7 +6499,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="17">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -6327,7 +6507,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="17">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -6335,7 +6515,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="17">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -6343,7 +6523,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="17">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -6351,7 +6531,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="17">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -6359,7 +6539,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="17">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -6367,7 +6547,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="17">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -6375,7 +6555,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="17">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -6383,7 +6563,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="17">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -6391,7 +6571,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="17">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -6399,7 +6579,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="17">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -6407,7 +6587,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="17">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -6415,7 +6595,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="17">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -6426,7 +6606,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="17">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -6437,7 +6617,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="17">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -6448,7 +6628,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="17">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -6459,7 +6639,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="17">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -6470,7 +6650,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="17">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -6481,7 +6661,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="17">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -6492,7 +6672,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="17">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -6503,7 +6683,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="34">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6514,3257 +6694,3392 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="409.5">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17">
       <c r="A258" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C258" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B258" s="1">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="17">
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B259" s="1">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="17">
       <c r="A260" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="17">
+      <c r="A261" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="17">
+      <c r="A262" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="17">
+      <c r="A263" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="17">
+      <c r="A264" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="17">
+      <c r="A265" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="17">
+      <c r="A266" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="17">
+      <c r="A267" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="17">
+      <c r="A268" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="17">
+      <c r="A269" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="17">
+      <c r="A270" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="17">
+      <c r="A271" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="17">
+      <c r="A272" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="17">
+      <c r="A273" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="17">
+      <c r="A274" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="17">
+      <c r="A275" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="17">
+      <c r="A276" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="17">
+      <c r="A277" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="17">
+      <c r="A278" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="17">
+      <c r="A279" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="17">
+      <c r="A280" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="17">
+      <c r="A281" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="34">
+      <c r="A282" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="51">
+      <c r="A283" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="17">
+      <c r="A284" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="17">
+      <c r="A285" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="17">
+      <c r="A286" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="17">
+      <c r="A287" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="17">
+      <c r="A288" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="17">
+      <c r="A289" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="17">
+      <c r="A290" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="17">
+      <c r="A291" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="17">
+      <c r="A292" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="17">
+      <c r="A293" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="17">
+      <c r="A294" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="17">
+      <c r="A295" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="17">
+      <c r="A296" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="17">
+      <c r="A297" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="17">
+      <c r="A298" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="17">
+      <c r="A299" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="17">
+      <c r="A300" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="17">
+      <c r="A301" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+    </row>
+    <row r="302" spans="1:3" ht="17">
+      <c r="A302" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:3" ht="17">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="17">
+      <c r="A304" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="B304" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="17">
+      <c r="A305" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
+      <c r="B305" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="17">
+      <c r="A306" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B306" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="17">
+      <c r="A307" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="B307" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="17">
+      <c r="A308" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A305" s="1" t="s">
+      <c r="B308" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="17">
+      <c r="A309" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A306" s="1" t="s">
+      <c r="B309" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="17">
+      <c r="A310" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A307" s="1" t="s">
+      <c r="B310" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="17">
+      <c r="A311" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
+      <c r="B311" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="17">
+      <c r="A312" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
+      <c r="B312" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="17">
+      <c r="A313" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
+      <c r="B313" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="17">
+      <c r="A314" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A311" s="1" t="s">
+      <c r="B314" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="17">
+      <c r="A315" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A312" s="1" t="s">
+      <c r="B315" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="17">
+      <c r="A316" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="17">
+      <c r="A317" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="17">
+      <c r="A318" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="51">
+      <c r="A319" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A313" s="1" t="s">
+      <c r="B319" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="68">
+      <c r="A320" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A314" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A315" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A319" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="C319" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>852</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="34">
       <c r="A321" s="1" t="s">
-        <v>866</v>
+        <v>669</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="34">
+      <c r="A322" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="68">
+      <c r="A323" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="34">
+      <c r="A324" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="B324" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="34">
+      <c r="A325" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
+      <c r="B325" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="17">
+      <c r="A326" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="17">
+      <c r="A327" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="17">
+      <c r="A328" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="17">
+      <c r="A329" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="17">
+      <c r="A330" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="17">
+      <c r="A331" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="17">
+      <c r="A332" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="17">
+      <c r="A333" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="17">
+      <c r="A334" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="17">
+      <c r="A335" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="17">
+      <c r="A336" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="17">
+      <c r="A337" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="17">
+      <c r="A338" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="17">
+      <c r="A339" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="17">
+      <c r="A340" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="17">
+      <c r="A341" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="17">
+      <c r="A342" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="17">
+      <c r="A343" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="17">
+      <c r="A344" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="17">
+      <c r="A345" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="17">
+      <c r="A346" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="17">
+      <c r="A347" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="17">
+      <c r="A348" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="17">
+      <c r="A349" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="17">
+      <c r="A350" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="17">
+      <c r="A351" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="17">
+      <c r="A352" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="17">
+      <c r="A353" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="17">
+      <c r="A354" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="17">
+      <c r="A355" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="17">
+      <c r="A356" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="17">
+      <c r="A357" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="17">
+      <c r="A358" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="17">
+      <c r="A359" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="17">
+      <c r="A360" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="17">
+      <c r="A361" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="17">
+      <c r="A362" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="17">
+      <c r="A363" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="17">
+      <c r="A364" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="17">
+      <c r="A365" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="17">
+      <c r="A366" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="17">
+      <c r="A367" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="17">
+      <c r="A368" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="17">
+      <c r="A369" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="17">
+      <c r="A370" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="17">
+      <c r="A371" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="17">
+      <c r="A372" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="17">
+      <c r="A373" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="17">
+      <c r="A374" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="17">
+      <c r="A375" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="17">
+      <c r="A376" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="17">
+      <c r="A377" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="17">
+      <c r="A378" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="17">
+      <c r="A379" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="17">
+      <c r="A380" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="17">
+      <c r="A381" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="17">
+      <c r="A382" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="17">
+      <c r="A383" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="17">
+      <c r="A384" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="17">
+      <c r="A385" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="17">
+      <c r="A386" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="B386" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="4"/>
+      <c r="G386" s="4"/>
+    </row>
+    <row r="387" spans="1:7" ht="17">
+      <c r="A387" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B325" s="1" t="s">
+      <c r="B387" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="17">
+      <c r="A388" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B326" s="1" t="s">
+      <c r="B388" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A327" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A328" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A329" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A330" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A331" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A332" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A333" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A334" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A335" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A337" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A343" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A345" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A348" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A349" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A350" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A351" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A352" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A353" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A354" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A356" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A357" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A358" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A359" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A360" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A361" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A362" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A364" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A367" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A368" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A369" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A370" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A371" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A372" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A373" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A374" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A375" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A376" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A377" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A378" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A379" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A380" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A381" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A384" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A386" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A387" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A388" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D388" s="4"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="4"/>
+      <c r="G388" s="4"/>
+    </row>
+    <row r="389" spans="1:7" ht="17">
       <c r="A389" s="1" t="s">
-        <v>838</v>
+        <v>934</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+      <c r="D389" s="4"/>
+      <c r="E389" s="4"/>
+      <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
+    </row>
+    <row r="390" spans="1:7" ht="34">
       <c r="A390" s="1" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>658</v>
+        <v>871</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>659</v>
+        <v>878</v>
       </c>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51">
       <c r="A391" s="1" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>867</v>
+      </c>
+      <c r="D391" s="4"/>
+      <c r="E391" s="4"/>
+      <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
+    </row>
+    <row r="392" spans="1:7" ht="68">
       <c r="A392" s="1" t="s">
-        <v>870</v>
+        <v>917</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>821</v>
+        <v>881</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="119">
       <c r="A393" s="1" t="s">
-        <v>942</v>
+        <v>918</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>949</v>
+        <v>921</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>957</v>
+        <v>922</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51">
       <c r="A394" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="17">
       <c r="A395" s="1" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>873</v>
+        <v>942</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>875</v>
+        <v>948</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68">
       <c r="A396" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="119">
       <c r="A397" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="34">
       <c r="A398" s="1" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="34">
       <c r="A399" s="1" t="s">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>950</v>
+        <v>869</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>956</v>
+        <v>876</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68">
       <c r="A400" s="1" t="s">
-        <v>927</v>
+        <v>874</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="34">
       <c r="A401" s="1" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="85">
       <c r="A402" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>878</v>
-      </c>
       <c r="C402" s="1" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="102">
       <c r="A403" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="34">
       <c r="A404" s="1" t="s">
-        <v>882</v>
+        <v>1052</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>881</v>
+        <v>1055</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>885</v>
+        <v>1058</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="102">
       <c r="A405" s="1" t="s">
-        <v>944</v>
+        <v>1053</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>951</v>
+        <v>1056</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>958</v>
+        <v>1059</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="85">
       <c r="A406" s="1" t="s">
-        <v>896</v>
+        <v>1054</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>895</v>
+        <v>1057</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>915</v>
+        <v>1060</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="34">
       <c r="A407" s="1" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>916</v>
+        <v>951</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="102">
       <c r="A408" s="1" t="s">
-        <v>1060</v>
+        <v>890</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1063</v>
+        <v>894</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1066</v>
+        <v>909</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="119">
       <c r="A409" s="1" t="s">
-        <v>1061</v>
+        <v>891</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1064</v>
+        <v>903</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1067</v>
+        <v>910</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="34">
       <c r="A410" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="119">
       <c r="A411" s="1" t="s">
-        <v>945</v>
+        <v>1062</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>952</v>
+        <v>1075</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>959</v>
+        <v>1066</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="119">
       <c r="A412" s="1" t="s">
-        <v>898</v>
+        <v>1063</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>902</v>
+        <v>1064</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>917</v>
+        <v>1067</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="34">
       <c r="A413" s="1" t="s">
-        <v>899</v>
+        <v>938</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="85">
       <c r="A414" s="1" t="s">
-        <v>1069</v>
+        <v>893</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1082</v>
+        <v>895</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1073</v>
+        <v>911</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="102">
       <c r="A415" s="1" t="s">
-        <v>1070</v>
+        <v>892</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1083</v>
+        <v>904</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1074</v>
+        <v>912</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="34">
       <c r="A416" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="102">
       <c r="A417" s="1" t="s">
-        <v>946</v>
+        <v>1072</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>953</v>
+        <v>1077</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>960</v>
+        <v>1069</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="102">
       <c r="A418" s="1" t="s">
-        <v>901</v>
+        <v>1073</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>903</v>
+        <v>1078</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>919</v>
+        <v>1070</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="51">
       <c r="A419" s="1" t="s">
-        <v>900</v>
+        <v>939</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="119">
       <c r="A420" s="1" t="s">
-        <v>1079</v>
+        <v>896</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1084</v>
+        <v>900</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1076</v>
+        <v>913</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="136">
       <c r="A421" s="1" t="s">
-        <v>1080</v>
+        <v>897</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1085</v>
+        <v>905</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1077</v>
+        <v>914</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="34">
       <c r="A422" s="1" t="s">
-        <v>1081</v>
+        <v>940</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1086</v>
+        <v>947</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1078</v>
+        <v>954</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="102">
       <c r="A423" s="1" t="s">
-        <v>947</v>
+        <v>898</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>954</v>
+        <v>901</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>961</v>
+        <v>915</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="136">
       <c r="A424" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="17">
       <c r="A425" s="1" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="17">
       <c r="A426" s="1" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>955</v>
+        <v>929</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="17">
       <c r="A427" s="1" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A428" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>924</v>
+    <row r="428" spans="1:7" ht="17">
+      <c r="A428" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>965</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
-        <v>933</v>
+    <row r="429" spans="1:7" ht="17">
+      <c r="A429" t="s">
+        <v>955</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
-      <c r="F429" s="4"/>
-      <c r="G429" s="4"/>
-    </row>
-    <row r="430" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
-        <v>934</v>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="17">
+      <c r="A430" t="s">
+        <v>957</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>937</v>
+        <v>958</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D430" s="4"/>
-      <c r="E430" s="4"/>
-      <c r="F430" s="4"/>
-      <c r="G430" s="4"/>
-    </row>
-    <row r="431" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="17">
+      <c r="A431" t="s">
+        <v>960</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>938</v>
+        <v>1051</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D431" s="4"/>
-      <c r="E431" s="4"/>
-      <c r="F431" s="4"/>
-      <c r="G431" s="4"/>
-    </row>
-    <row r="432" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A432" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="B432" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="17">
+      <c r="A432" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>973</v>
       </c>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>963</v>
+    <row r="433" spans="1:7" ht="17">
+      <c r="A433" s="1" t="s">
+        <v>967</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>965</v>
+        <v>973</v>
+      </c>
+      <c r="D433" s="4"/>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
+      <c r="G433" s="4"/>
+    </row>
+    <row r="434" spans="1:7" ht="17">
+      <c r="A434" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>968</v>
+        <v>974</v>
+      </c>
+      <c r="D434" s="4"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
+      <c r="G434" s="4"/>
+    </row>
+    <row r="435" spans="1:7" ht="34">
+      <c r="A435" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1059</v>
+        <v>980</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+      <c r="D435" s="4"/>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
+    </row>
+    <row r="436" spans="1:7" ht="170">
       <c r="A436" s="1" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D436" s="4"/>
-      <c r="E436" s="4"/>
-      <c r="F436" s="4"/>
-      <c r="G436" s="4"/>
-    </row>
-    <row r="437" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="187">
       <c r="A437" s="1" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D437" s="4"/>
-      <c r="E437" s="4"/>
-      <c r="F437" s="4"/>
-      <c r="G437" s="4"/>
-    </row>
-    <row r="438" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="34">
       <c r="A438" s="1" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D438" s="4"/>
-      <c r="E438" s="4"/>
-      <c r="F438" s="4"/>
-      <c r="G438" s="4"/>
-    </row>
-    <row r="439" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="102">
       <c r="A439" s="1" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D439" s="4"/>
-      <c r="E439" s="4"/>
-      <c r="F439" s="4"/>
-      <c r="G439" s="4"/>
-    </row>
-    <row r="440" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="68">
       <c r="A440" s="1" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="34">
       <c r="A441" s="1" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="119">
       <c r="A442" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="153">
       <c r="A443" s="1" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="34">
       <c r="A444" s="1" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="68">
       <c r="A445" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="85">
       <c r="A446" s="1" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="51">
       <c r="A447" s="1" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>1016</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="136">
       <c r="A448" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="153">
       <c r="A449" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="51">
       <c r="A450" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>1025</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="136">
       <c r="A451" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>1028</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="153">
       <c r="A452" s="1" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="51">
       <c r="A453" s="1" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>1034</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="119">
       <c r="A454" s="1" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="153">
       <c r="A455" s="1" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="51">
       <c r="A456" s="1" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="136">
       <c r="A457" s="1" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="153">
       <c r="A458" s="1" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="17">
       <c r="A459" s="1" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C459" s="7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>1091</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="17">
       <c r="A460" s="1" t="s">
-        <v>1050</v>
+        <v>1080</v>
       </c>
       <c r="B460" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="17">
+      <c r="A461" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="17">
+      <c r="A462" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C462" s="8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="17">
+      <c r="A463" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="17">
+      <c r="A464" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C464" s="8" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="17">
+      <c r="A465" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="17">
+      <c r="A466" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="17">
+      <c r="A467" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="17">
+      <c r="A468" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="17">
+      <c r="A469" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="17">
+      <c r="A470" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="17">
+      <c r="A471" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="51">
+      <c r="A472" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="51">
+      <c r="A473" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="34">
+      <c r="A474" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C474" s="8"/>
+    </row>
+    <row r="475" spans="1:3" ht="68">
+      <c r="A475" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="119">
+      <c r="A476" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="34">
+      <c r="A477" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C477" s="8"/>
+    </row>
+    <row r="478" spans="1:3" ht="51">
+      <c r="A478" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="1:3" ht="153">
+      <c r="A479" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C479" s="8"/>
+    </row>
+    <row r="480" spans="1:3" ht="34">
+      <c r="A480" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C480" s="8"/>
+    </row>
+    <row r="481" spans="1:3" ht="68">
+      <c r="A481" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="1:3" ht="102">
+      <c r="A482" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" spans="1:3" ht="34">
+      <c r="A483" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="1:3" ht="34">
+      <c r="A484" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="1:3" ht="153">
+      <c r="A485" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="1:3" ht="17">
+      <c r="A486" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="1:3" ht="34">
+      <c r="A487" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="1:3" ht="102">
+      <c r="A488" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="1:3" ht="17">
+      <c r="A489" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="1:3" ht="51">
+      <c r="A490" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="1:3" ht="68">
+      <c r="A491" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="1:3" ht="17">
+      <c r="A492" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" spans="1:3" ht="51">
+      <c r="A493" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" spans="1:3" ht="102">
+      <c r="A494" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C494" s="8"/>
+    </row>
+    <row r="495" spans="1:3" ht="17">
+      <c r="A495" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" spans="1:3" ht="17">
+      <c r="A496" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" spans="1:3" ht="51">
+      <c r="A497" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="1:3" ht="85">
+      <c r="A498" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C498" s="8"/>
+    </row>
+    <row r="499" spans="1:3" ht="17">
+      <c r="A499" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C499" s="8"/>
+    </row>
+    <row r="500" spans="1:3" ht="85">
+      <c r="A500" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" spans="1:3" ht="60">
+      <c r="A501" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" spans="1:3" ht="102">
+      <c r="A502" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C502" s="8"/>
+    </row>
+    <row r="503" spans="1:3" ht="34">
+      <c r="A503" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C503" s="8"/>
+    </row>
+    <row r="504" spans="1:3" ht="51">
+      <c r="A504" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" spans="1:3" ht="68">
+      <c r="A505" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="1:3" ht="34">
+      <c r="A506" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="1:3" ht="51">
+      <c r="A507" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="1:3" ht="68">
+      <c r="A508" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="1:3" ht="34">
+      <c r="A509" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="1:3" ht="34">
+      <c r="A510" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="1:3" ht="85">
+      <c r="A511" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="1:3" ht="34">
+      <c r="A512" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="1:3" ht="102">
+      <c r="A513" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="119">
+      <c r="A514" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" ht="34">
+      <c r="A515" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="1:3" ht="119">
+      <c r="A516" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="1:3" ht="119">
+      <c r="A517" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="1:3" ht="34">
+      <c r="A518" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="1:3" ht="102">
+      <c r="A519" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="1:3" ht="85">
+      <c r="A520" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="1:3" ht="17">
+      <c r="A521" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" spans="1:3" ht="68">
+      <c r="A522" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" spans="1:3" ht="102">
+      <c r="A523" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" spans="1:3" ht="17">
+      <c r="A524" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C524" s="8"/>
+    </row>
+    <row r="525" spans="1:3" ht="68">
+      <c r="A525" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" spans="1:3" ht="102">
+      <c r="A526" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" spans="1:3" ht="17">
+      <c r="A527" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C527" s="8"/>
+    </row>
+    <row r="528" spans="1:3" ht="68">
+      <c r="A528" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" spans="1:7" ht="68">
+      <c r="A529" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" spans="1:7" ht="17">
+      <c r="A530" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C530" s="8"/>
+    </row>
+    <row r="531" spans="1:7" ht="34">
+      <c r="A531" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" spans="1:7" ht="51">
+      <c r="A532" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" spans="1:7" ht="17">
+      <c r="A533" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C533" s="8"/>
+    </row>
+    <row r="534" spans="1:7" ht="34">
+      <c r="A534" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" spans="1:7" ht="51">
+      <c r="A535" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" spans="1:7" ht="17">
+      <c r="A536" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C536" s="9" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="17">
+      <c r="A537" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="17">
+      <c r="A538" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="17">
+      <c r="A539" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="17">
+      <c r="A540" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="17">
+      <c r="A541" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="17">
+      <c r="A542" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B542" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="C460" s="7" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A461" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A462" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C462" s="7" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A463" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C463" s="8" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A464" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C464" s="8" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A465" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C465" s="8" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A466" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C466" s="8" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A467" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C467" s="8" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A468" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C468" s="8" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A469" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C469" s="8" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A470" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C470" s="8" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A471" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C471" s="8" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A472" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C472" s="8" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A473" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C473" s="8" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A474" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C474" s="8" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A475" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A476" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C476" s="8" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A477" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C477" s="8" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A478" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C478" s="8"/>
-    </row>
-    <row r="479" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A479" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C479" s="8" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A480" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C480" s="8" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A481" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C481" s="8"/>
-    </row>
-    <row r="482" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A482" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C482" s="8"/>
-    </row>
-    <row r="483" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A483" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C483" s="8"/>
-    </row>
-    <row r="484" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A484" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C484" s="8"/>
-    </row>
-    <row r="485" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A485" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C485" s="8"/>
-    </row>
-    <row r="486" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A486" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C486" s="8"/>
-    </row>
-    <row r="487" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A487" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C487" s="8"/>
-    </row>
-    <row r="488" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A488" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C488" s="8"/>
-    </row>
-    <row r="489" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A489" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C489" s="8"/>
-    </row>
-    <row r="490" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A490" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C490" s="8"/>
-    </row>
-    <row r="491" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A491" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C491" s="8"/>
-    </row>
-    <row r="492" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A492" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C492" s="8"/>
-    </row>
-    <row r="493" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A493" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C493" s="8"/>
-    </row>
-    <row r="494" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A494" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C494" s="8"/>
-    </row>
-    <row r="495" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A495" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C495" s="8"/>
-    </row>
-    <row r="496" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A496" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C496" s="8"/>
-    </row>
-    <row r="497" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A497" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C497" s="8"/>
-    </row>
-    <row r="498" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A498" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C498" s="8"/>
-    </row>
-    <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A499" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C499" s="8"/>
-    </row>
-    <row r="500" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A500" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C500" s="8"/>
-    </row>
-    <row r="501" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A501" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C501" s="8"/>
-    </row>
-    <row r="502" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A502" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C502" s="8"/>
-    </row>
-    <row r="503" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A503" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C503" s="8"/>
-    </row>
-    <row r="504" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A504" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C504" s="8"/>
-    </row>
-    <row r="505" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A505" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C505" s="8"/>
-    </row>
-    <row r="506" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A506" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C506" s="8"/>
-    </row>
-    <row r="507" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A507" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C507" s="8"/>
-    </row>
-    <row r="508" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A508" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C508" s="8"/>
-    </row>
-    <row r="509" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A509" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C509" s="8"/>
-    </row>
-    <row r="510" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A510" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C510" s="8"/>
-    </row>
-    <row r="511" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A511" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C511" s="8"/>
-    </row>
-    <row r="512" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A512" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C512" s="8"/>
-    </row>
-    <row r="513" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A513" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C513" s="8"/>
-    </row>
-    <row r="514" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A514" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C514" s="8"/>
-    </row>
-    <row r="515" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A515" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C515" s="8"/>
-    </row>
-    <row r="516" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A516" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C516" s="8"/>
-    </row>
-    <row r="517" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A517" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C517" s="8"/>
-    </row>
-    <row r="518" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C518" s="8"/>
-    </row>
-    <row r="519" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A519" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C519" s="8"/>
-    </row>
-    <row r="520" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A520" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C520" s="8"/>
-    </row>
-    <row r="521" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A521" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C521" s="8"/>
-    </row>
-    <row r="522" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A522" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C522" s="8"/>
-    </row>
-    <row r="523" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A523" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C523" s="8"/>
-    </row>
-    <row r="524" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A524" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C524" s="8"/>
-    </row>
-    <row r="525" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A525" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C525" s="8"/>
-    </row>
-    <row r="526" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A526" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C526" s="8"/>
-    </row>
-    <row r="527" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A527" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C527" s="8"/>
-    </row>
-    <row r="528" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A528" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C528" s="8"/>
-    </row>
-    <row r="529" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A529" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C529" s="8"/>
-    </row>
-    <row r="530" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A530" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C530" s="8"/>
-    </row>
-    <row r="531" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A531" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C531" s="8"/>
-    </row>
-    <row r="532" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A532" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C532" s="8"/>
-    </row>
-    <row r="533" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A533" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C533" s="8"/>
-    </row>
-    <row r="534" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A534" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C534" s="8"/>
-    </row>
-    <row r="535" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A535" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C535" s="8"/>
-    </row>
-    <row r="536" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A536" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C536" s="8"/>
-    </row>
-    <row r="537" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A537" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C537" s="8"/>
-    </row>
-    <row r="538" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A538" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C538" s="8"/>
-    </row>
-    <row r="539" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A539" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C539" s="8"/>
-    </row>
-    <row r="540" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A540" s="1" t="s">
+      <c r="C542" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D542" s="4"/>
+      <c r="E542" s="4"/>
+      <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="30">
+      <c r="A544" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="45">
+      <c r="A545" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B545" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C540" s="9" t="s">
+      <c r="C545" s="1" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A541" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B541" s="1" t="s">
+    <row r="546" spans="1:7" ht="30">
+      <c r="A546" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="C541" s="9" t="s">
+      <c r="B546" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C546" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D546" s="7"/>
+      <c r="E546" s="7"/>
+      <c r="F546" s="7"/>
+      <c r="G546" s="12"/>
+    </row>
+    <row r="547" spans="1:7" ht="30">
+      <c r="A547" s="13" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A542" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A545" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A546" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B546" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D546" s="4"/>
-      <c r="E546" s="4"/>
-      <c r="F546" s="4"/>
-      <c r="G546" s="4"/>
+      <c r="B547" s="14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C547" s="14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D547" s="14"/>
+      <c r="E547" s="14"/>
+      <c r="F547" s="14"/>
+      <c r="G547" s="15"/>
+    </row>
+    <row r="548" spans="1:7" ht="30">
+      <c r="A548" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D548" s="7"/>
+      <c r="E548" s="7"/>
+      <c r="F548" s="7"/>
+      <c r="G548" s="12"/>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B549" s="16" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C549" s="16" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B550" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C550" s="16" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="30">
+      <c r="A551" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D551" s="4"/>
+      <c r="E551" s="4"/>
+      <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
+    </row>
+    <row r="552" spans="1:7" ht="30">
+      <c r="A552" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B552" s="14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C552" s="14" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="30">
+      <c r="A553" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="30">
+      <c r="A554" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="30">
+      <c r="A555" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B555" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C555" s="14" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="45">
+      <c r="A556" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="A562" s="10"/>
+      <c r="B562" s="4"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+      <c r="E562" s="4"/>
+      <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1305">
   <si>
     <t>key</t>
   </si>
@@ -1594,9 +1594,6 @@
   </si>
   <si>
     <t>Created by TOConline - https://www.toconline.pt</t>
-  </si>
-  <si>
-    <t>document_certified_number</t>
   </si>
   <si>
     <t>payment_mechanism_print_MO:</t>
@@ -3925,30 +3922,12 @@
     <t>document_certified_notice_short_toconline_toconline</t>
   </si>
   <si>
-    <t>document_certificate_number_toconline</t>
-  </si>
-  <si>
-    <t>document_certificate_number_business</t>
-  </si>
-  <si>
     <t>1662</t>
   </si>
   <si>
     <t>6969</t>
   </si>
   <si>
-    <t>Processado por programa certificado nº {0}/AT - TOConline</t>
-  </si>
-  <si>
-    <t>Processed by certified program nr. {0}/AT - TOConline</t>
-  </si>
-  <si>
-    <t>Emitido por programa certificado nº {0}/AT - TOConline</t>
-  </si>
-  <si>
-    <t>Issued by certified program nr. {0}/AT - TOConline</t>
-  </si>
-  <si>
     <t>document_certified_notice_business_business</t>
   </si>
   <si>
@@ -3958,18 +3937,6 @@
     <t>document_certified_notice_short_business_business</t>
   </si>
   <si>
-    <t>Processado por programa certificado nº {0}/AT - Cloudware.business</t>
-  </si>
-  <si>
-    <t>Processed by certified program nr. {0}/AT - Cloudware.business</t>
-  </si>
-  <si>
-    <t>Emitido por programa certificado nº {0}/AT - Cloudware.business</t>
-  </si>
-  <si>
-    <t>Issued by certified program nr. {0}/AT - Cloudware.business</t>
-  </si>
-  <si>
     <t>Processed by Cloudware.business - https://cloudware.pt/cloudwarebiz/</t>
   </si>
   <si>
@@ -3982,22 +3949,52 @@
     <t>document_certified_notice_short_business_mbcp</t>
   </si>
   <si>
-    <t>Processado por programa certificado nº {0}/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
-    <t>Processed by certified program nr. {0}/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
-    <t>Emitido por programa certificado nº {0}/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
-    <t>Issued by certified program nr. {0}/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
     <t>Processed by M Fatura (Powered by Cloudware.business - https://cloudware.pt/cloudwarebiz/)</t>
   </si>
   <si>
     <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Não nos foi possível efetuar este teste uma vez que não existe exercício do ano {0}.</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº 1662/AT - TOConline</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº 1662/AT - TOConline</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. 1662/AT - TOConline</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. 1662/AT - TOConline</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº 6969/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. 6969/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº 6969/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. 6969/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº 6969/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. 6969/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº 6969/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. 6969/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>document_certified_number_toconline</t>
+  </si>
+  <si>
+    <t>document_certified_number_business</t>
   </si>
 </sst>
 </file>
@@ -4143,8 +4140,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4231,7 +4230,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4251,6 +4250,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4270,6 +4270,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -4313,8 +4314,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G556" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G556"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G555" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G555"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -4583,7 +4584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4591,10 +4592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G562"/>
+  <dimension ref="A1:G561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="I548" sqref="I548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4604,7 +4605,7 @@
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="17">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="17">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="17">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="17">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="17">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="17">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="17">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="17">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="17">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="17">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="17">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="17">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="17">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="17">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="17">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="17">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="17">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="17">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -5787,7 +5788,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="17">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="17">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="17">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="17">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="17">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="17">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="17">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="17">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -5875,7 +5876,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="17">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="17">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="17">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="17">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="17">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="17">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="17">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="17">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="17">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="17">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="17">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="17">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="17">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="17">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="17">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="17">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -6011,7 +6012,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="17">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="17">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="17">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="17">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="17">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="17">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="17">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="17">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="17">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="17">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="17">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="17">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="17">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="17">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="17">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="17">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="17">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="17">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="17">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="17">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -6203,7 +6204,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="17">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="17">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="17">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="17">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="17">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="17">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="17">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="17">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="17">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="17">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="17">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="17">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="17">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="17">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="17">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="17">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="17">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="17">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="17">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="17">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="17">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="17">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="17">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="17">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="17">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="17">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="17">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="17">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="17">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="17">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="17">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="17">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="17">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="17">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="17">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="17">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="17">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="17">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="17">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="17">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="17">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="17">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="17">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="17">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="17">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="17">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="17">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="17">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="17">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="17">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="17">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="17">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="34">
+    <row r="256" spans="1:3" ht="30">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6694,641 +6695,644 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409.5">
+    <row r="257" spans="1:3" ht="409">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="17">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B258" s="1">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="17">
+      <c r="B258" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="30">
+      <c r="A281" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="45">
+      <c r="A282" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="17">
-      <c r="A260" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="17">
-      <c r="A261" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="17">
-      <c r="A262" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="17">
-      <c r="A263" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="17">
-      <c r="A264" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="17">
-      <c r="A265" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="17">
-      <c r="A266" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="17">
-      <c r="A267" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="17">
-      <c r="A268" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="17">
-      <c r="A269" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="17">
-      <c r="A270" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="17">
-      <c r="A271" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="17">
-      <c r="A272" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="17">
-      <c r="A273" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="17">
-      <c r="A274" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="17">
-      <c r="A275" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="17">
-      <c r="A276" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="17">
-      <c r="A277" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="17">
-      <c r="A278" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="17">
-      <c r="A279" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="17">
-      <c r="A280" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="17">
-      <c r="A281" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="34">
-      <c r="A282" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="51">
-      <c r="A283" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="17">
-      <c r="A284" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="17">
-      <c r="A285" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="17">
-      <c r="A286" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="17">
-      <c r="A287" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="17">
-      <c r="A288" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="17">
-      <c r="A289" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="17">
-      <c r="A290" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="17">
-      <c r="A291" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="17">
-      <c r="A292" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="17">
-      <c r="A293" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="17">
-      <c r="A294" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="17">
-      <c r="A295" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="17">
-      <c r="A296" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="17">
-      <c r="A297" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="17">
-      <c r="A298" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="17">
-      <c r="A299" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="17">
-      <c r="A300" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="17">
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="17">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="17">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="17">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>655</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="17">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="17">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>657</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="17">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="17">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="17">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="17">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="17">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="17">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>663</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="17">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="17">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>565</v>
+        <v>839</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="17">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>666</v>
+        <v>838</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>840</v>
@@ -7337,958 +7341,962 @@
         <v>844</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="17">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C316" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="17">
-      <c r="A317" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="B317" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="17">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="45">
       <c r="A318" s="1" t="s">
-        <v>846</v>
+        <v>666</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="51">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="60">
       <c r="A319" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="68">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="30">
       <c r="A320" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="34">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30">
       <c r="A321" s="1" t="s">
-        <v>669</v>
+        <v>837</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="34">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="60">
       <c r="A322" s="1" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="68">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="30">
       <c r="A323" s="1" t="s">
         <v>849</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>834</v>
+        <v>976</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="34">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="30">
       <c r="A324" s="1" t="s">
         <v>850</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="34">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>851</v>
+        <v>669</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>975</v>
+        <v>670</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="17">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C326" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="17">
-      <c r="A327" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="17">
-      <c r="A328" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="17">
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="17">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="17">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="17">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="17">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="17">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C334" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="17">
-      <c r="A335" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="17">
-      <c r="A336" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="17">
-      <c r="A337" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="17">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="17">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="17">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="17">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="17">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="17">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="17">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="17">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="17">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="17">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="17">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="17">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="17">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="17">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="17">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="17">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="17">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>743</v>
+        <v>858</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="17">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>859</v>
+        <v>747</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="17">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="17">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="17">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="17">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="17">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="17">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="17">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="17">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="17">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="17">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="17">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="17">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="17">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="17">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="17">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="17">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="17">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="17">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="17">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="17">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C377" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="17">
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="17">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="17">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>818</v>
+        <v>613</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="17">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>820</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>614</v>
+        <v>821</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="17">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="17">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="17">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" ht="17">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>830</v>
+        <v>859</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>831</v>
+        <v>649</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="17">
+        <v>650</v>
+      </c>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="4"/>
+      <c r="G385" s="4"/>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>650</v>
+        <v>862</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D386" s="4"/>
-      <c r="E386" s="4"/>
-      <c r="F386" s="4"/>
-      <c r="G386" s="4"/>
-    </row>
-    <row r="387" spans="1:7" ht="17">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" ht="17">
+      <c r="D387" s="4"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4"/>
+      <c r="G387" s="4"/>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>862</v>
+        <v>933</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>813</v>
+        <v>940</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>864</v>
+        <v>948</v>
       </c>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="1:7" ht="17">
+    <row r="389" spans="1:7" ht="30">
       <c r="A389" s="1" t="s">
-        <v>934</v>
+        <v>871</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>941</v>
+        <v>870</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>949</v>
+        <v>877</v>
       </c>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:7" ht="34">
+    <row r="390" spans="1:7" ht="45">
       <c r="A390" s="1" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" ht="51">
+    <row r="391" spans="1:7" ht="45">
       <c r="A391" s="1" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:7" ht="68">
+    <row r="392" spans="1:7" ht="105">
       <c r="A392" s="1" t="s">
         <v>917</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" ht="119">
+    <row r="393" spans="1:7" ht="45">
       <c r="A393" s="1" t="s">
-        <v>918</v>
+        <v>884</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>921</v>
+        <v>865</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="51">
+    <row r="394" spans="1:7">
       <c r="A394" s="1" t="s">
-        <v>885</v>
+        <v>934</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>866</v>
+        <v>941</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>868</v>
+        <v>947</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="17">
+    <row r="395" spans="1:7" ht="60">
       <c r="A395" s="1" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>942</v>
+        <v>882</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>948</v>
+        <v>883</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="68">
+    <row r="396" spans="1:7" ht="90">
       <c r="A396" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>883</v>
+        <v>922</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>884</v>
+        <v>923</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="119">
+    <row r="397" spans="1:7" ht="30">
       <c r="A397" s="1" t="s">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>923</v>
+        <v>869</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>924</v>
+        <v>874</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="34">
+    <row r="398" spans="1:7" ht="30">
       <c r="A398" s="1" t="s">
         <v>879</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>875</v>
@@ -8298,12 +8306,12 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" ht="34">
+    <row r="399" spans="1:7" ht="60">
       <c r="A399" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>876</v>
@@ -8313,42 +8321,42 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="68">
+    <row r="400" spans="1:7" ht="30">
       <c r="A400" s="1" t="s">
-        <v>874</v>
+        <v>935</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>873</v>
+        <v>942</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>877</v>
+        <v>949</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="34">
+    <row r="401" spans="1:7" ht="75">
       <c r="A401" s="1" t="s">
-        <v>936</v>
+        <v>887</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>943</v>
+        <v>886</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>950</v>
+        <v>906</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="85">
+    <row r="402" spans="1:7" ht="90">
       <c r="A402" s="1" t="s">
         <v>888</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>907</v>
@@ -8358,22 +8366,22 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="102">
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="1" t="s">
-        <v>889</v>
+        <v>1051</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>902</v>
+        <v>1054</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>908</v>
+        <v>1057</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="34">
+    <row r="404" spans="1:7" ht="90">
       <c r="A404" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8388,7 +8396,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="102">
+    <row r="405" spans="1:7" ht="75">
       <c r="A405" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8403,42 +8411,42 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="85">
+    <row r="406" spans="1:7" ht="30">
       <c r="A406" s="1" t="s">
-        <v>1054</v>
+        <v>936</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1057</v>
+        <v>943</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1060</v>
+        <v>950</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="34">
+    <row r="407" spans="1:7" ht="90">
       <c r="A407" s="1" t="s">
-        <v>937</v>
+        <v>889</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>944</v>
+        <v>893</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>951</v>
+        <v>908</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="102">
+    <row r="408" spans="1:7" ht="105">
       <c r="A408" s="1" t="s">
         <v>890</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>909</v>
@@ -8448,22 +8456,22 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="119">
+    <row r="409" spans="1:7" ht="30">
       <c r="A409" s="1" t="s">
-        <v>891</v>
+        <v>1060</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>903</v>
+        <v>1073</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>910</v>
+        <v>1064</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="34">
+    <row r="410" spans="1:7" ht="105">
       <c r="A410" s="1" t="s">
         <v>1061</v>
       </c>
@@ -8478,12 +8486,12 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="119">
+    <row r="411" spans="1:7" ht="90">
       <c r="A411" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1066</v>
@@ -8493,42 +8501,42 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="119">
+    <row r="412" spans="1:7" ht="30">
       <c r="A412" s="1" t="s">
-        <v>1063</v>
+        <v>937</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1064</v>
+        <v>944</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1067</v>
+        <v>951</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="34">
+    <row r="413" spans="1:7" ht="75">
       <c r="A413" s="1" t="s">
-        <v>938</v>
+        <v>892</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>945</v>
+        <v>894</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>952</v>
+        <v>910</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="85">
+    <row r="414" spans="1:7" ht="90">
       <c r="A414" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>911</v>
@@ -8538,22 +8546,22 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="102">
+    <row r="415" spans="1:7" ht="30">
       <c r="A415" s="1" t="s">
-        <v>892</v>
+        <v>1070</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>904</v>
+        <v>1075</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>912</v>
+        <v>1067</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="34">
+    <row r="416" spans="1:7" ht="90">
       <c r="A416" s="1" t="s">
         <v>1071</v>
       </c>
@@ -8568,7 +8576,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="102">
+    <row r="417" spans="1:7" ht="90">
       <c r="A417" s="1" t="s">
         <v>1072</v>
       </c>
@@ -8583,42 +8591,42 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="102">
+    <row r="418" spans="1:7" ht="30">
       <c r="A418" s="1" t="s">
-        <v>1073</v>
+        <v>938</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1078</v>
+        <v>945</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1070</v>
+        <v>952</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="51">
+    <row r="419" spans="1:7" ht="90">
       <c r="A419" s="1" t="s">
-        <v>939</v>
+        <v>895</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>946</v>
+        <v>899</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>953</v>
+        <v>912</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="119">
+    <row r="420" spans="1:7" ht="120">
       <c r="A420" s="1" t="s">
         <v>896</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>913</v>
@@ -8628,42 +8636,42 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="136">
+    <row r="421" spans="1:7" ht="30">
       <c r="A421" s="1" t="s">
-        <v>897</v>
+        <v>939</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>905</v>
+        <v>946</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>914</v>
+        <v>953</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="34">
+    <row r="422" spans="1:7" ht="90">
       <c r="A422" s="1" t="s">
-        <v>940</v>
+        <v>897</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>947</v>
+        <v>900</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>954</v>
+        <v>914</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="102">
+    <row r="423" spans="1:7" ht="105">
       <c r="A423" s="1" t="s">
         <v>898</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>915</v>
@@ -8673,22 +8681,22 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="136">
+    <row r="424" spans="1:7">
       <c r="A424" s="1" t="s">
-        <v>899</v>
+        <v>924</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="17">
+    <row r="425" spans="1:7">
       <c r="A425" s="1" t="s">
         <v>925</v>
       </c>
@@ -8703,7 +8711,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="17">
+    <row r="426" spans="1:7">
       <c r="A426" s="1" t="s">
         <v>926</v>
       </c>
@@ -8718,70 +8726,70 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="17">
-      <c r="A427" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>933</v>
+    <row r="427" spans="1:7">
+      <c r="A427" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>964</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="17">
-      <c r="A428" s="6" t="s">
-        <v>963</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="C428" s="5" t="s">
+    <row r="428" spans="1:7">
+      <c r="A428" t="s">
+        <v>954</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" t="s">
+        <v>956</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" t="s">
+        <v>959</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D428" s="4"/>
-      <c r="E428" s="4"/>
-      <c r="F428" s="4"/>
-      <c r="G428" s="4"/>
-    </row>
-    <row r="429" spans="1:7" ht="17">
-      <c r="A429" t="s">
-        <v>955</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" ht="17">
-      <c r="A430" t="s">
-        <v>957</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" ht="17">
-      <c r="A431" t="s">
-        <v>960</v>
-      </c>
       <c r="B431" s="1" t="s">
-        <v>1051</v>
+        <v>968</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" ht="17">
+        <v>971</v>
+      </c>
+      <c r="D431" s="4"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" s="1" t="s">
         <v>966</v>
       </c>
@@ -8796,7 +8804,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7" ht="17">
+    <row r="433" spans="1:7">
       <c r="A433" s="1" t="s">
         <v>967</v>
       </c>
@@ -8811,301 +8819,297 @@
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="1:7" ht="17">
+    <row r="434" spans="1:7" ht="30">
       <c r="A434" s="1" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="1:7" ht="34">
+    <row r="435" spans="1:7" ht="150">
       <c r="A435" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D435" s="4"/>
-      <c r="E435" s="4"/>
-      <c r="F435" s="4"/>
-      <c r="G435" s="4"/>
-    </row>
-    <row r="436" spans="1:7" ht="170">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="165">
       <c r="A436" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" ht="187">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="30">
       <c r="A437" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" ht="34">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="90">
       <c r="A438" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" ht="102">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="60">
       <c r="A439" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" ht="68">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="30">
       <c r="A440" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" ht="34">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="90">
       <c r="A441" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" ht="119">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="120">
       <c r="A442" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" ht="153">
+        <v>1003</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
       <c r="A443" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C443" s="7" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" ht="34">
+        <v>1006</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="60">
       <c r="A444" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" ht="68">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="75">
       <c r="A445" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" ht="85">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="45">
       <c r="A446" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" ht="51">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="120">
       <c r="A447" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" ht="136">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="135">
       <c r="A448" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="153">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="45">
       <c r="A449" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="51">
+        <v>1024</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="120">
       <c r="A450" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="136">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="135">
       <c r="A451" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="153">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="45">
       <c r="A452" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="51">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="105">
       <c r="A453" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="119">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="120">
       <c r="A454" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="153">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="45">
       <c r="A455" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="51">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="120">
       <c r="A456" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="136">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="135">
       <c r="A457" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="153">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>1048</v>
+        <v>1078</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C458" s="7" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="17">
+        <v>1090</v>
+      </c>
+      <c r="C458" s="8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="17">
+    <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
         <v>1080</v>
       </c>
@@ -9116,7 +9120,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="17">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>1081</v>
       </c>
@@ -9127,7 +9131,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="17">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>1082</v>
       </c>
@@ -9138,7 +9142,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="17">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>1083</v>
       </c>
@@ -9149,7 +9153,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="17">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9160,7 +9164,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="17">
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>1085</v>
       </c>
@@ -9171,7 +9175,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="17">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>1086</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="17">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>1087</v>
       </c>
@@ -9193,7 +9197,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="17">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>1088</v>
       </c>
@@ -9204,7 +9208,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="17">
+    <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
         <v>1089</v>
       </c>
@@ -9215,29 +9219,29 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="17">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>1090</v>
+        <v>1114</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C470" s="8" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="17">
+        <v>1117</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="45">
       <c r="A471" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C471" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C471" s="8" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="51">
+    <row r="472" spans="1:3" ht="45">
       <c r="A472" s="1" t="s">
         <v>1116</v>
       </c>
@@ -9248,229 +9252,227 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="51">
+    <row r="473" spans="1:3" ht="30">
       <c r="A473" s="1" t="s">
-        <v>1117</v>
+        <v>1134</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C473" s="8" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="34">
+        <v>1161</v>
+      </c>
+      <c r="C473" s="8"/>
+    </row>
+    <row r="474" spans="1:3" ht="60">
       <c r="A474" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C474" s="8"/>
-    </row>
-    <row r="475" spans="1:3" ht="68">
+        <v>1152</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="90">
       <c r="A475" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1153</v>
+        <v>1162</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="119">
+    <row r="476" spans="1:3" ht="30">
       <c r="A476" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C476" s="8"/>
+    </row>
+    <row r="477" spans="1:3" ht="45">
+      <c r="A477" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B477" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C477" s="8"/>
+    </row>
+    <row r="478" spans="1:3" ht="135">
+      <c r="A478" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="C476" s="8" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="34">
-      <c r="A477" s="1" t="s">
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="1:3" ht="30">
+      <c r="A479" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C477" s="8"/>
-    </row>
-    <row r="478" spans="1:3" ht="51">
-      <c r="A478" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C478" s="8"/>
-    </row>
-    <row r="479" spans="1:3" ht="153">
-      <c r="A479" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="1:3" ht="34">
+    <row r="480" spans="1:3" ht="60">
       <c r="A480" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C480" s="8"/>
+    </row>
+    <row r="481" spans="1:3" ht="90">
+      <c r="A481" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="1:3" ht="30">
+      <c r="A482" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B482" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" spans="1:3" ht="30">
+      <c r="A483" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="1:3" ht="135">
+      <c r="A484" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C480" s="8"/>
-    </row>
-    <row r="481" spans="1:3" ht="68">
-      <c r="A481" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C481" s="8"/>
-    </row>
-    <row r="482" spans="1:3" ht="102">
-      <c r="A482" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C482" s="8"/>
-    </row>
-    <row r="483" spans="1:3" ht="34">
-      <c r="A483" s="1" t="s">
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C483" s="8"/>
-    </row>
-    <row r="484" spans="1:3" ht="34">
-      <c r="A484" s="1" t="s">
+      <c r="B485" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="1:3" ht="30">
+      <c r="A486" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C484" s="8"/>
-    </row>
-    <row r="485" spans="1:3" ht="153">
-      <c r="A485" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C485" s="8"/>
-    </row>
-    <row r="486" spans="1:3" ht="17">
-      <c r="A486" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="1:3" ht="34">
+    <row r="487" spans="1:3" ht="90">
       <c r="A487" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="1:3" ht="45">
+      <c r="A489" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B489" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="1:3" ht="60">
+      <c r="A490" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="C487" s="8"/>
-    </row>
-    <row r="488" spans="1:3" ht="102">
-      <c r="A488" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C488" s="8"/>
-    </row>
-    <row r="489" spans="1:3" ht="17">
-      <c r="A489" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C489" s="8"/>
-    </row>
-    <row r="490" spans="1:3" ht="51">
-      <c r="A490" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B490" s="1" t="s">
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="1:3" ht="45">
+      <c r="A492" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="C490" s="8"/>
-    </row>
-    <row r="491" spans="1:3" ht="68">
-      <c r="A491" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C491" s="8"/>
-    </row>
-    <row r="492" spans="1:3" ht="17">
-      <c r="A492" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>1172</v>
-      </c>
       <c r="C492" s="8"/>
     </row>
-    <row r="493" spans="1:3" ht="51">
+    <row r="493" spans="1:3" ht="75">
       <c r="A493" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="B493" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C494" s="8"/>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="C493" s="8"/>
-    </row>
-    <row r="494" spans="1:3" ht="102">
-      <c r="A494" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C494" s="8"/>
-    </row>
-    <row r="495" spans="1:3" ht="17">
-      <c r="A495" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>1172</v>
-      </c>
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="1:3" ht="17">
+    <row r="496" spans="1:3" ht="45">
       <c r="A496" s="1" t="s">
-        <v>1150</v>
+        <v>1174</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="1:3" ht="51">
+    <row r="497" spans="1:3" ht="75">
       <c r="A497" s="1" t="s">
         <v>1175</v>
       </c>
@@ -9479,61 +9481,61 @@
       </c>
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="1:3" ht="85">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="1:3" ht="17">
+    <row r="499" spans="1:3" ht="75">
       <c r="A499" s="1" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1174</v>
+        <v>1215</v>
       </c>
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="1:3" ht="85">
+    <row r="500" spans="1:3" ht="60">
       <c r="A500" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" spans="1:3" ht="90">
+      <c r="A501" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="B501" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="C500" s="8"/>
-    </row>
-    <row r="501" spans="1:3" ht="60">
-      <c r="A501" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1305</v>
-      </c>
       <c r="C501" s="8"/>
     </row>
-    <row r="502" spans="1:3" ht="102">
+    <row r="502" spans="1:3" ht="30">
       <c r="A502" s="1" t="s">
-        <v>1152</v>
+        <v>1217</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="1:3" ht="34">
+    <row r="503" spans="1:3" ht="45">
       <c r="A503" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C503" s="8"/>
     </row>
-    <row r="504" spans="1:3" ht="51">
+    <row r="504" spans="1:3" ht="60">
       <c r="A504" s="1" t="s">
         <v>1219</v>
       </c>
@@ -9542,25 +9544,25 @@
       </c>
       <c r="C504" s="8"/>
     </row>
-    <row r="505" spans="1:3" ht="68">
+    <row r="505" spans="1:3" ht="30">
       <c r="A505" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C505" s="8"/>
     </row>
-    <row r="506" spans="1:3" ht="34">
+    <row r="506" spans="1:3" ht="45">
       <c r="A506" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C506" s="8"/>
     </row>
-    <row r="507" spans="1:3" ht="51">
+    <row r="507" spans="1:3" ht="60">
       <c r="A507" s="1" t="s">
         <v>1222</v>
       </c>
@@ -9569,7 +9571,7 @@
       </c>
       <c r="C507" s="8"/>
     </row>
-    <row r="508" spans="1:3" ht="68">
+    <row r="508" spans="1:3" ht="30">
       <c r="A508" s="1" t="s">
         <v>1223</v>
       </c>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="C508" s="8"/>
     </row>
-    <row r="509" spans="1:3" ht="34">
+    <row r="509" spans="1:3" ht="30">
       <c r="A509" s="1" t="s">
         <v>1224</v>
       </c>
@@ -9587,7 +9589,7 @@
       </c>
       <c r="C509" s="8"/>
     </row>
-    <row r="510" spans="1:3" ht="34">
+    <row r="510" spans="1:3" ht="75">
       <c r="A510" s="1" t="s">
         <v>1225</v>
       </c>
@@ -9596,70 +9598,70 @@
       </c>
       <c r="C510" s="8"/>
     </row>
-    <row r="511" spans="1:3" ht="85">
+    <row r="511" spans="1:3" ht="30">
       <c r="A511" s="1" t="s">
-        <v>1226</v>
+        <v>1243</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="C511" s="8"/>
     </row>
-    <row r="512" spans="1:3" ht="34">
+    <row r="512" spans="1:3" ht="90">
       <c r="A512" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="C512" s="8"/>
     </row>
-    <row r="513" spans="1:3" ht="102">
+    <row r="513" spans="1:3" ht="105">
       <c r="A513" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="B513" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="30">
+      <c r="A514" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" ht="105">
+      <c r="A515" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B515" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="C513" s="8"/>
-    </row>
-    <row r="514" spans="1:3" ht="119">
-      <c r="A514" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C514" s="8"/>
-    </row>
-    <row r="515" spans="1:3" ht="34">
-      <c r="A515" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>1239</v>
-      </c>
       <c r="C515" s="8"/>
     </row>
-    <row r="516" spans="1:3" ht="119">
+    <row r="516" spans="1:3" ht="105">
       <c r="A516" s="1" t="s">
         <v>1248</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="C516" s="8"/>
     </row>
-    <row r="517" spans="1:3" ht="119">
+    <row r="517" spans="1:3" ht="30">
       <c r="A517" s="1" t="s">
-        <v>1249</v>
+        <v>1226</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="C517" s="8"/>
     </row>
-    <row r="518" spans="1:3" ht="34">
+    <row r="518" spans="1:3" ht="90">
       <c r="A518" s="1" t="s">
         <v>1227</v>
       </c>
@@ -9668,7 +9670,7 @@
       </c>
       <c r="C518" s="8"/>
     </row>
-    <row r="519" spans="1:3" ht="102">
+    <row r="519" spans="1:3" ht="75">
       <c r="A519" s="1" t="s">
         <v>1228</v>
       </c>
@@ -9677,25 +9679,25 @@
       </c>
       <c r="C519" s="8"/>
     </row>
-    <row r="520" spans="1:3" ht="85">
+    <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>1229</v>
+        <v>1183</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1243</v>
+        <v>1182</v>
       </c>
       <c r="C520" s="8"/>
     </row>
-    <row r="521" spans="1:3" ht="17">
+    <row r="521" spans="1:3" ht="60">
       <c r="A521" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="1:3" ht="68">
+    <row r="522" spans="1:3" ht="90">
       <c r="A522" s="1" t="s">
         <v>1185</v>
       </c>
@@ -9704,7 +9706,7 @@
       </c>
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="1:3" ht="102">
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
         <v>1186</v>
       </c>
@@ -9713,7 +9715,7 @@
       </c>
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="1:3" ht="17">
+    <row r="524" spans="1:3" ht="60">
       <c r="A524" s="1" t="s">
         <v>1187</v>
       </c>
@@ -9722,7 +9724,7 @@
       </c>
       <c r="C524" s="8"/>
     </row>
-    <row r="525" spans="1:3" ht="68">
+    <row r="525" spans="1:3" ht="90">
       <c r="A525" s="1" t="s">
         <v>1188</v>
       </c>
@@ -9731,16 +9733,16 @@
       </c>
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="1:3" ht="102">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="1:3" ht="17">
+    <row r="527" spans="1:3" ht="45">
       <c r="A527" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9749,7 +9751,7 @@
       </c>
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="1:3" ht="68">
+    <row r="528" spans="1:3" ht="60">
       <c r="A528" s="1" t="s">
         <v>1198</v>
       </c>
@@ -9758,7 +9760,7 @@
       </c>
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="1:7" ht="68">
+    <row r="529" spans="1:7">
       <c r="A529" s="1" t="s">
         <v>1199</v>
       </c>
@@ -9767,7 +9769,7 @@
       </c>
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="1:7" ht="17">
+    <row r="530" spans="1:7" ht="30">
       <c r="A530" s="1" t="s">
         <v>1200</v>
       </c>
@@ -9776,7 +9778,7 @@
       </c>
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="1:7" ht="34">
+    <row r="531" spans="1:7" ht="45">
       <c r="A531" s="1" t="s">
         <v>1201</v>
       </c>
@@ -9785,7 +9787,7 @@
       </c>
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="1:7" ht="51">
+    <row r="532" spans="1:7">
       <c r="A532" s="1" t="s">
         <v>1202</v>
       </c>
@@ -9794,7 +9796,7 @@
       </c>
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="1:7" ht="17">
+    <row r="533" spans="1:7" ht="30">
       <c r="A533" s="1" t="s">
         <v>1203</v>
       </c>
@@ -9803,7 +9805,7 @@
       </c>
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="1:7" ht="34">
+    <row r="534" spans="1:7" ht="45">
       <c r="A534" s="1" t="s">
         <v>1204</v>
       </c>
@@ -9812,60 +9814,62 @@
       </c>
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="1:7" ht="51">
+    <row r="535" spans="1:7">
       <c r="A535" s="1" t="s">
-        <v>1205</v>
+        <v>1264</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C535" s="8"/>
-    </row>
-    <row r="536" spans="1:7" ht="17">
+        <v>1265</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
       <c r="A536" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C536" s="9" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" ht="17">
-      <c r="A537" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" t="s">
+        <v>1252</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C537" s="9" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7" ht="17">
+        <v>1257</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
       <c r="A538" t="s">
         <v>1253</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1258</v>
+        <v>960</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7" ht="17">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
       <c r="A539" t="s">
         <v>1254</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>961</v>
+        <v>1258</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7" ht="17">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
       <c r="A540" t="s">
         <v>1255</v>
       </c>
@@ -9876,210 +9880,199 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="17">
+    <row r="541" spans="1:7">
       <c r="A541" t="s">
         <v>1256</v>
       </c>
-      <c r="B541" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C541" s="1" t="s">
+      <c r="B541" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C541" s="4" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" ht="17">
-      <c r="A542" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B542" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D542" s="4"/>
-      <c r="E542" s="4"/>
-      <c r="F542" s="4"/>
-      <c r="G542" s="4"/>
-    </row>
-    <row r="543" spans="1:7">
+      <c r="D541" s="4"/>
+      <c r="E541" s="4"/>
+      <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="30">
       <c r="A543" s="1" t="s">
         <v>1271</v>
       </c>
       <c r="B543" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="45">
+      <c r="A544" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="30">
+      <c r="A545" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D545" s="7"/>
+      <c r="E545" s="7"/>
+      <c r="F545" s="7"/>
+      <c r="G545" s="12"/>
+    </row>
+    <row r="546" spans="1:7" ht="30">
+      <c r="A546" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B546" s="14" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C546" s="14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D546" s="14"/>
+      <c r="E546" s="14"/>
+      <c r="F546" s="14"/>
+      <c r="G546" s="15"/>
+    </row>
+    <row r="547" spans="1:7" ht="30">
+      <c r="A547" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B547" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C543" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" ht="30">
-      <c r="A544" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" ht="45">
-      <c r="A545" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" ht="30">
-      <c r="A546" s="11" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B546" s="7" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C546" s="7" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D546" s="7"/>
-      <c r="E546" s="7"/>
-      <c r="F546" s="7"/>
-      <c r="G546" s="12"/>
-    </row>
-    <row r="547" spans="1:7" ht="30">
-      <c r="A547" s="13" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B547" s="14" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C547" s="14" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D547" s="14"/>
-      <c r="E547" s="14"/>
-      <c r="F547" s="14"/>
-      <c r="G547" s="15"/>
-    </row>
-    <row r="548" spans="1:7" ht="30">
-      <c r="A548" s="11" t="s">
+      <c r="C547" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D547" s="7"/>
+      <c r="E547" s="7"/>
+      <c r="F547" s="7"/>
+      <c r="G547" s="12"/>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B548" s="16" t="s">
         <v>1280</v>
       </c>
-      <c r="B548" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C548" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="D548" s="7"/>
-      <c r="E548" s="7"/>
-      <c r="F548" s="7"/>
-      <c r="G548" s="12"/>
+      <c r="C548" s="16" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="549" spans="1:7">
       <c r="A549" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B549" s="16" t="s">
         <v>1281</v>
       </c>
-      <c r="B549" s="16" t="s">
+      <c r="C549" s="16" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="30">
+      <c r="A550" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C550" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D550" s="4"/>
+      <c r="E550" s="4"/>
+      <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
+    </row>
+    <row r="551" spans="1:7" ht="30">
+      <c r="A551" s="13" t="s">
         <v>1283</v>
       </c>
-      <c r="C549" s="16" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7">
-      <c r="A550" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B550" s="16" t="s">
+      <c r="B551" s="14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C551" s="14" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="30">
+      <c r="A552" s="11" t="s">
         <v>1284</v>
       </c>
-      <c r="C550" s="16" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" ht="30">
-      <c r="A551" s="11" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B551" s="7" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C551" s="7" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D551" s="4"/>
-      <c r="E551" s="4"/>
-      <c r="F551" s="4"/>
-      <c r="G551" s="4"/>
-    </row>
-    <row r="552" spans="1:7" ht="30">
-      <c r="A552" s="13" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B552" s="14" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C552" s="14" t="s">
-        <v>1295</v>
+      <c r="B552" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="30">
       <c r="A553" s="11" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>1296</v>
+        <v>1286</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="554" spans="1:7" ht="30">
-      <c r="A554" s="11" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B554" s="7" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C554" s="7" t="s">
+      <c r="A554" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B554" s="14" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" ht="30">
-      <c r="A555" s="13" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B555" s="14" t="s">
+      <c r="C554" s="14" t="s">
         <v>1302</v>
       </c>
-      <c r="C555" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" ht="45">
-      <c r="A556" s="11" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7">
-      <c r="A562" s="10"/>
-      <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
-      <c r="E562" s="4"/>
-      <c r="F562" s="4"/>
-      <c r="G562" s="4"/>
+    </row>
+    <row r="555" spans="1:7" ht="45">
+      <c r="A555" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="A561" s="10"/>
+      <c r="B561" s="4"/>
+      <c r="C561" s="4"/>
+      <c r="D561" s="4"/>
+      <c r="E561" s="4"/>
+      <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -3925,9 +3925,6 @@
     <t>1662</t>
   </si>
   <si>
-    <t>6969</t>
-  </si>
-  <si>
     <t>document_certified_notice_business_business</t>
   </si>
   <si>
@@ -3967,34 +3964,37 @@
     <t>Issued by certified program nr. 1662/AT - TOConline</t>
   </si>
   <si>
-    <t>Processado por programa certificado nº 6969/AT - Cloudware.business</t>
-  </si>
-  <si>
-    <t>Processed by certified program nr. 6969/AT - Cloudware.business</t>
-  </si>
-  <si>
-    <t>Emitido por programa certificado nº 6969/AT - Cloudware.business</t>
-  </si>
-  <si>
-    <t>Issued by certified program nr. 6969/AT - Cloudware.business</t>
-  </si>
-  <si>
-    <t>Processado por programa certificado nº 6969/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
-    <t>Processed by certified program nr. 6969/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
-    <t>Emitido por programa certificado nº 6969/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
-    <t>Issued by certified program nr. 6969/AT - M Fatura (Powered by Cloudware.business)</t>
-  </si>
-  <si>
     <t>document_certified_number_toconline</t>
   </si>
   <si>
     <t>document_certified_number_business</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº 2397/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº 2397/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Processado por programa certificado nº 2397/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Emitido por programa certificado nº 2397/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. 2397/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. 2397/AT - M Fatura (Powered by Cloudware.business)</t>
+  </si>
+  <si>
+    <t>Issued by certified program nr. 2397/AT - Cloudware.business</t>
+  </si>
+  <si>
+    <t>Processed by certified program nr. 2397/AT - Cloudware.business</t>
   </si>
 </sst>
 </file>
@@ -4584,7 +4584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4594,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="I548" sqref="I548"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9504,7 +9504,7 @@
         <v>1214</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C500" s="8"/>
     </row>
@@ -9933,10 +9933,10 @@
         <v>1277</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D545" s="7"/>
       <c r="E545" s="7"/>
@@ -9948,10 +9948,10 @@
         <v>1278</v>
       </c>
       <c r="B546" s="14" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C546" s="14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D546" s="14"/>
       <c r="E546" s="14"/>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="B548" s="16" t="s">
         <v>1280</v>
@@ -9986,24 +9986,24 @@
     </row>
     <row r="549" spans="1:7">
       <c r="A549" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="B549" s="16" t="s">
-        <v>1281</v>
+        <v>1296</v>
       </c>
       <c r="C549" s="16" t="s">
-        <v>1281</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="550" spans="1:7" ht="30">
       <c r="A550" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -10012,57 +10012,57 @@
     </row>
     <row r="551" spans="1:7" ht="30">
       <c r="A551" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B551" s="14" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C551" s="14" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="552" spans="1:7" ht="30">
       <c r="A552" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="30">
       <c r="A553" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B553" s="7" t="s">
         <v>1299</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="554" spans="1:7" ht="30">
       <c r="A554" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B554" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C554" s="14" t="s">
         <v>1301</v>
-      </c>
-      <c r="C554" s="14" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="555" spans="1:7" ht="45">
       <c r="A555" s="11" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1274</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="561" spans="1:7">

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1310">
   <si>
     <t>key</t>
   </si>
@@ -3996,6 +3996,21 @@
   <si>
     <t>Processed by certified program nr. 2397/AT - Cloudware.business</t>
   </si>
+  <si>
+    <t>certified_software_notice</t>
+  </si>
+  <si>
+    <t>document_certified_number</t>
+  </si>
+  <si>
+    <t>document_certified_notice</t>
+  </si>
+  <si>
+    <t>document_certified_notice_non_hashed</t>
+  </si>
+  <si>
+    <t>document_certified_notice_short</t>
+  </si>
 </sst>
 </file>
 
@@ -4007,7 +4022,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4314,8 +4328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G555" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G555"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G560" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G560"/>
   <tableColumns count="7">
     <tableColumn id="1" name="key"/>
     <tableColumn id="2" name="pt" dataDxfId="5"/>
@@ -4584,7 +4598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4594,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G561"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="A559" sqref="A559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10063,6 +10077,58 @@
       </c>
       <c r="C555" s="1" t="s">
         <v>1288</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B557" s="1">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="30">
+      <c r="A558" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="30">
+      <c r="A559" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="561" spans="1:7">

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepacheco/cldware_work/sp-duh/config/i18n/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91189D1A-90F1-0247-B3DA-42B9093C71D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -2521,12 +2527,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sobre o valor dos serviços incide retenção na fonte em sede de {0} à taxa de {1} no montante de {2}. O montante do documento a pagar será de {3}. {4} </t>
-  </si>
-  <si>
-    <t>Recebemos nesta data {0} a quantia de {1} para a liquidação do documento {2} de {3}. O valor do recebido já é líquido de retenção na fonte à taxa de {4} no montante de {5}. {6}</t>
-  </si>
-  <si>
-    <t>Received on this date the amount of {0} for the settlement of the document {1} of {2}. The value received is already net of withholding tax at the rate {3} in the amount of {4}.</t>
   </si>
   <si>
     <t>Desperdícios resíduos e refugos</t>
@@ -3010,12 +3010,6 @@
     <t>Received on {4} {0} the amount of {1} ({2}) for the settlement of the following documents:</t>
   </si>
   <si>
-    <t>Recebemos em {4} {0}  a quantia de {1} ({2}) para a liquidação do documento {3}. {5}</t>
-  </si>
-  <si>
-    <t>Received on {4} {0} the amount of {1} ({2}) for the settlement of the document {3}.</t>
-  </si>
-  <si>
     <t>account_241</t>
   </si>
   <si>
@@ -4010,12 +4004,24 @@
   </si>
   <si>
     <t>document_certified_notice_short</t>
+  </si>
+  <si>
+    <t>Received till this date the amount of {0} for the settlement of the document {1} of {2}. The value received is already net of withholding tax at the rate {3} in the amount of {4}.</t>
+  </si>
+  <si>
+    <t>Recebemos até esta data {0} a quantia de {1} para a liquidação do documento {2} de {3}. O valor do recebido já é líquido de retenção na fonte à taxa de {4} no montante de {5}. {6}</t>
+  </si>
+  <si>
+    <t>Received till this date {4} {0} the amount of {1} ({2}) for the settlement of the document {3}.</t>
+  </si>
+  <si>
+    <t>Recebemos até esta data {4} {0}  a quantia de {1} ({2}) para a liquidação do documento {3}. {5}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4328,16 +4334,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="i18n" displayName="i18n" ref="A1:G560" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G560"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G560" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G560" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="key"/>
-    <tableColumn id="2" name="pt" dataDxfId="5"/>
-    <tableColumn id="3" name="en" dataDxfId="4"/>
-    <tableColumn id="4" name="es" dataDxfId="3"/>
-    <tableColumn id="5" name="fr" dataDxfId="2"/>
-    <tableColumn id="6" name="de" dataDxfId="1"/>
-    <tableColumn id="7" name="it" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="en" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="es" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="fr" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="de" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="it" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4598,28 +4604,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="A559" sqref="A559"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4642,7 +4648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4658,7 +4664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4690,7 +4696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4698,7 +4704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4722,7 +4728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4754,7 +4760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4762,7 +4768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4770,7 +4776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4818,7 +4824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4898,7 +4904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -4922,7 +4928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4962,7 +4968,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4970,7 +4976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -5106,7 +5112,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -5114,7 +5120,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -5138,7 +5144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -5154,7 +5160,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -5170,7 +5176,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -5226,7 +5232,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -5258,7 +5264,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -5282,7 +5288,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
@@ -5290,7 +5296,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -5338,7 +5344,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -5418,7 +5424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>217</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>221</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -5522,7 +5528,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>243</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>269</v>
       </c>
@@ -5698,7 +5704,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5706,7 +5712,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -5730,7 +5736,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>283</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>293</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>295</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>299</v>
       </c>
@@ -5818,7 +5824,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>301</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>303</v>
       </c>
@@ -5834,7 +5840,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>305</v>
       </c>
@@ -5842,7 +5848,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>309</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>315</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>317</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>319</v>
       </c>
@@ -5898,7 +5904,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>321</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>325</v>
       </c>
@@ -5922,7 +5928,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>327</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>331</v>
       </c>
@@ -5946,7 +5952,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>333</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>335</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>337</v>
       </c>
@@ -5970,7 +5976,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>339</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -5986,7 +5992,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -6002,7 +6008,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>347</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>349</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -6034,7 +6040,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -6042,7 +6048,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -6050,7 +6056,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -6058,7 +6064,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>361</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -6074,7 +6080,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -6082,7 +6088,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>367</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>369</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>375</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
@@ -6138,7 +6144,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>381</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -6154,7 +6160,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>385</v>
       </c>
@@ -6162,7 +6168,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>387</v>
       </c>
@@ -6170,7 +6176,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>389</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>391</v>
       </c>
@@ -6186,7 +6192,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>393</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>399</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>401</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>403</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>407</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>409</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>413</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -6314,7 +6320,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -6322,7 +6328,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>427</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
@@ -6338,7 +6344,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>431</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>437</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>439</v>
       </c>
@@ -6378,7 +6384,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>441</v>
       </c>
@@ -6386,7 +6392,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>443</v>
       </c>
@@ -6394,7 +6400,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -6402,7 +6408,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>447</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>449</v>
       </c>
@@ -6418,7 +6424,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>451</v>
       </c>
@@ -6426,7 +6432,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>453</v>
       </c>
@@ -6434,7 +6440,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>455</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>457</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>459</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>461</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>463</v>
       </c>
@@ -6474,7 +6480,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>465</v>
       </c>
@@ -6482,7 +6488,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
@@ -6490,7 +6496,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>468</v>
       </c>
@@ -6498,7 +6504,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>470</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>472</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>474</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>476</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>478</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>480</v>
       </c>
@@ -6546,7 +6552,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>482</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>484</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>486</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>488</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>490</v>
       </c>
@@ -6586,7 +6592,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>494</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>496</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>505</v>
       </c>
@@ -6632,7 +6638,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>508</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
@@ -6654,7 +6660,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>516</v>
       </c>
@@ -6687,7 +6693,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>519</v>
       </c>
@@ -6698,7 +6704,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30">
+    <row r="256" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>498</v>
       </c>
@@ -6709,15 +6715,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="409">
+    <row r="257" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>524</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>527</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>530</v>
       </c>
@@ -6750,7 +6756,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>533</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>536</v>
       </c>
@@ -6772,7 +6778,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>539</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>542</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>545</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>548</v>
       </c>
@@ -6816,7 +6822,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>551</v>
       </c>
@@ -6827,7 +6833,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>554</v>
       </c>
@@ -6838,7 +6844,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>557</v>
       </c>
@@ -6849,7 +6855,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>560</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>563</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>566</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>569</v>
       </c>
@@ -6893,7 +6899,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>572</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>575</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>578</v>
       </c>
@@ -6926,7 +6932,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>581</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>584</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>587</v>
       </c>
@@ -6959,7 +6965,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>590</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="30">
+    <row r="281" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>593</v>
       </c>
@@ -6981,7 +6987,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="45">
+    <row r="282" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>596</v>
       </c>
@@ -6992,7 +6998,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>599</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>603</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>606</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>609</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>612</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>615</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>618</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>621</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>624</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>627</v>
       </c>
@@ -7102,7 +7108,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>630</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>633</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>636</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>639</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>642</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>645</v>
       </c>
@@ -7168,7 +7174,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>648</v>
       </c>
@@ -7179,7 +7185,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>651</v>
       </c>
@@ -7190,7 +7196,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>652</v>
       </c>
@@ -7201,7 +7207,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>653</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>654</v>
       </c>
@@ -7223,7 +7229,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>655</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>656</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>657</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>658</v>
       </c>
@@ -7267,7 +7273,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>659</v>
       </c>
@@ -7278,7 +7284,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>660</v>
       </c>
@@ -7289,7 +7295,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>661</v>
       </c>
@@ -7300,7 +7306,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>662</v>
       </c>
@@ -7311,7 +7317,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>663</v>
       </c>
@@ -7322,7 +7328,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>664</v>
       </c>
@@ -7333,51 +7339,51 @@
         <v>565</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C316" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C315" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="45">
+    </row>
+    <row r="318" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>666</v>
       </c>
@@ -7385,76 +7391,76 @@
         <v>832</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="60">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="30">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C321" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="30">
-      <c r="A321" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="60">
+    <row r="322" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="30">
-      <c r="A323" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="30">
-      <c r="A324" s="1" t="s">
-        <v>850</v>
-      </c>
       <c r="B324" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>669</v>
       </c>
@@ -7462,10 +7468,10 @@
         <v>670</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>671</v>
       </c>
@@ -7476,7 +7482,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>674</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>677</v>
       </c>
@@ -7495,10 +7501,10 @@
         <v>678</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>679</v>
       </c>
@@ -7506,10 +7512,10 @@
         <v>680</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>681</v>
       </c>
@@ -7517,10 +7523,10 @@
         <v>682</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>684</v>
       </c>
@@ -7528,10 +7534,10 @@
         <v>685</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>687</v>
       </c>
@@ -7539,10 +7545,10 @@
         <v>688</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>689</v>
       </c>
@@ -7550,10 +7556,10 @@
         <v>690</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>691</v>
       </c>
@@ -7564,7 +7570,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>694</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>697</v>
       </c>
@@ -7586,7 +7592,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>700</v>
       </c>
@@ -7594,10 +7600,10 @@
         <v>701</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>702</v>
       </c>
@@ -7605,10 +7611,10 @@
         <v>703</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>704</v>
       </c>
@@ -7616,10 +7622,10 @@
         <v>705</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>706</v>
       </c>
@@ -7630,7 +7636,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>709</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>711</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>714</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>717</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>720</v>
       </c>
@@ -7682,10 +7688,10 @@
         <v>721</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>722</v>
       </c>
@@ -7696,7 +7702,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>725</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>728</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>731</v>
       </c>
@@ -7729,7 +7735,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>734</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>736</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>738</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>741</v>
       </c>
@@ -7773,18 +7779,18 @@
         <v>743</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>746</v>
       </c>
@@ -7795,7 +7801,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>749</v>
       </c>
@@ -7806,7 +7812,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>752</v>
       </c>
@@ -7817,7 +7823,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>755</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>758</v>
       </c>
@@ -7839,7 +7845,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>761</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>764</v>
       </c>
@@ -7861,7 +7867,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>767</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>770</v>
       </c>
@@ -7883,7 +7889,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>773</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>776</v>
       </c>
@@ -7905,7 +7911,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>779</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>782</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>785</v>
       </c>
@@ -7938,7 +7944,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>788</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>791</v>
       </c>
@@ -7960,7 +7966,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>794</v>
       </c>
@@ -7971,18 +7977,18 @@
         <v>796</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>799</v>
       </c>
@@ -7993,7 +7999,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>802</v>
       </c>
@@ -8004,7 +8010,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>805</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>808</v>
       </c>
@@ -8026,7 +8032,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>811</v>
       </c>
@@ -8037,7 +8043,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>813</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>816</v>
       </c>
@@ -8059,7 +8065,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>819</v>
       </c>
@@ -8070,7 +8076,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>820</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>823</v>
       </c>
@@ -8092,7 +8098,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>826</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>829</v>
       </c>
@@ -8114,9 +8120,9 @@
         <v>831</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>649</v>
@@ -8129,1789 +8135,1789 @@
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="C386" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>812</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="1:7" ht="30">
+    <row r="389" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:7" ht="45">
+    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" ht="45">
+    <row r="391" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:7" ht="105">
+    <row r="392" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" ht="45">
+    <row r="393" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="60">
+    <row r="395" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="90">
+    <row r="396" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="30">
+    <row r="397" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="30">
+    <row r="398" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" ht="60">
+    <row r="399" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="30">
+    <row r="400" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="75">
+    <row r="401" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="90">
+    <row r="402" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="30">
+    <row r="403" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="90">
+    <row r="404" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="75">
+    <row r="405" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="30">
+    <row r="406" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="90">
+    <row r="407" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="105">
+    <row r="408" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="30">
+    <row r="409" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="105">
+    <row r="410" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="90">
+    <row r="411" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="30">
+    <row r="412" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="75">
+    <row r="413" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>894</v>
-      </c>
       <c r="C413" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="90">
+    <row r="414" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="30">
+    <row r="415" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="90">
+    <row r="416" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="90">
+    <row r="417" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="30">
+    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="90">
+    <row r="419" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="120">
+    <row r="420" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="30">
+    <row r="421" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="90">
+    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="105">
+    <row r="423" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C427" s="5" t="s">
         <v>962</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="C427" s="5" t="s">
-        <v>964</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
+        <v>952</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
         <v>954</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="C428" s="1" t="s">
+      <c r="B429" s="1" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
-      <c r="A429" t="s">
+      <c r="C429" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B429" s="1" t="s">
+    </row>
+    <row r="430" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
         <v>957</v>
       </c>
-      <c r="C429" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7">
-      <c r="A430" t="s">
+      <c r="B430" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+    </row>
+    <row r="431" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="1:7" ht="30">
+    <row r="434" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="1:7" ht="150">
+    <row r="435" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="C436" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C435" s="1" t="s">
+    </row>
+    <row r="437" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" ht="165">
-      <c r="A436" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C436" s="1" t="s">
+    </row>
+    <row r="438" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" ht="30">
-      <c r="A437" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C438" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C437" s="1" t="s">
+    </row>
+    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" ht="90">
-      <c r="A438" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C438" s="1" t="s">
+    </row>
+    <row r="440" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" ht="60">
-      <c r="A439" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C439" s="1" t="s">
+    </row>
+    <row r="441" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" ht="30">
-      <c r="A440" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C440" s="1" t="s">
+    </row>
+    <row r="442" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" ht="90">
-      <c r="A441" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C442" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="C441" s="1" t="s">
+    </row>
+    <row r="443" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" ht="120">
-      <c r="A442" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C442" s="7" t="s">
+    </row>
+    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
-      <c r="A443" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C443" s="1" t="s">
+    </row>
+    <row r="445" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" ht="60">
-      <c r="A444" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C444" s="1" t="s">
+    </row>
+    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" ht="75">
-      <c r="A445" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C445" s="1" t="s">
+    </row>
+    <row r="447" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" ht="45">
-      <c r="A446" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="C447" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C446" s="1" t="s">
+    </row>
+    <row r="448" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" ht="120">
-      <c r="A447" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="C448" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C447" s="1" t="s">
+    </row>
+    <row r="449" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" ht="135">
-      <c r="A448" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="C449" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="C448" s="1" t="s">
+    </row>
+    <row r="450" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" ht="45">
-      <c r="A449" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="C450" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="C449" s="7" t="s">
+    </row>
+    <row r="451" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="120">
-      <c r="A450" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="C451" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="C450" s="7" t="s">
+    </row>
+    <row r="452" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="135">
-      <c r="A451" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="C452" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="C451" s="7" t="s">
+    </row>
+    <row r="453" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" ht="45">
-      <c r="A452" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C453" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="C452" s="7" t="s">
+    </row>
+    <row r="454" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="105">
-      <c r="A453" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="C454" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="C453" s="7" t="s">
+    </row>
+    <row r="455" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="120">
-      <c r="A454" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="C455" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="C454" s="7" t="s">
+    </row>
+    <row r="456" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="45">
-      <c r="A455" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="C456" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="C455" s="7" t="s">
+    </row>
+    <row r="457" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" ht="120">
-      <c r="A456" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="C457" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="C456" s="7" t="s">
+    </row>
+    <row r="458" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C458" s="8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C462" s="8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C464" s="8" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C473" s="8"/>
+    </row>
+    <row r="474" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C476" s="8"/>
+    </row>
+    <row r="477" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C477" s="8"/>
+    </row>
+    <row r="478" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C479" s="8"/>
+    </row>
+    <row r="480" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C480" s="8"/>
+    </row>
+    <row r="481" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C494" s="8"/>
+    </row>
+    <row r="495" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C498" s="8"/>
+    </row>
+    <row r="499" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C499" s="8"/>
+    </row>
+    <row r="500" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C502" s="8"/>
+    </row>
+    <row r="503" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C503" s="8"/>
+    </row>
+    <row r="504" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C524" s="8"/>
+    </row>
+    <row r="525" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C527" s="8"/>
+    </row>
+    <row r="528" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C530" s="8"/>
+    </row>
+    <row r="531" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C533" s="8"/>
+    </row>
+    <row r="534" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C536" s="9" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B541" s="4" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" ht="135">
-      <c r="A457" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C457" s="7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="A458" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="A459" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C459" s="8" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
-      <c r="A460" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C460" s="8" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
-      <c r="A461" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C461" s="8" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
-      <c r="A462" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C462" s="8" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C463" s="8" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C464" s="8" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C465" s="8" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C466" s="8" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C467" s="8" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C468" s="8" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C469" s="8" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="45">
-      <c r="A471" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C471" s="8" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="45">
-      <c r="A472" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C472" s="8" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="30">
-      <c r="A473" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C473" s="8"/>
-    </row>
-    <row r="474" spans="1:3" ht="60">
-      <c r="A474" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C474" s="8" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="90">
-      <c r="A475" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C475" s="8" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="30">
-      <c r="A476" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C476" s="8"/>
-    </row>
-    <row r="477" spans="1:3" ht="45">
-      <c r="A477" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C477" s="8"/>
-    </row>
-    <row r="478" spans="1:3" ht="135">
-      <c r="A478" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C478" s="8"/>
-    </row>
-    <row r="479" spans="1:3" ht="30">
-      <c r="A479" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C479" s="8"/>
-    </row>
-    <row r="480" spans="1:3" ht="60">
-      <c r="A480" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C480" s="8"/>
-    </row>
-    <row r="481" spans="1:3" ht="90">
-      <c r="A481" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C481" s="8"/>
-    </row>
-    <row r="482" spans="1:3" ht="30">
-      <c r="A482" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C482" s="8"/>
-    </row>
-    <row r="483" spans="1:3" ht="30">
-      <c r="A483" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C483" s="8"/>
-    </row>
-    <row r="484" spans="1:3" ht="135">
-      <c r="A484" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C484" s="8"/>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C485" s="8"/>
-    </row>
-    <row r="486" spans="1:3" ht="30">
-      <c r="A486" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C486" s="8"/>
-    </row>
-    <row r="487" spans="1:3" ht="90">
-      <c r="A487" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C487" s="8"/>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C488" s="8"/>
-    </row>
-    <row r="489" spans="1:3" ht="45">
-      <c r="A489" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C489" s="8"/>
-    </row>
-    <row r="490" spans="1:3" ht="60">
-      <c r="A490" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C490" s="8"/>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C491" s="8"/>
-    </row>
-    <row r="492" spans="1:3" ht="45">
-      <c r="A492" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C492" s="8"/>
-    </row>
-    <row r="493" spans="1:3" ht="75">
-      <c r="A493" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C493" s="8"/>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C494" s="8"/>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="A495" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C495" s="8"/>
-    </row>
-    <row r="496" spans="1:3" ht="45">
-      <c r="A496" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C496" s="8"/>
-    </row>
-    <row r="497" spans="1:3" ht="75">
-      <c r="A497" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C497" s="8"/>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="A498" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C498" s="8"/>
-    </row>
-    <row r="499" spans="1:3" ht="75">
-      <c r="A499" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C499" s="8"/>
-    </row>
-    <row r="500" spans="1:3" ht="60">
-      <c r="A500" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C500" s="8"/>
-    </row>
-    <row r="501" spans="1:3" ht="90">
-      <c r="A501" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C501" s="8"/>
-    </row>
-    <row r="502" spans="1:3" ht="30">
-      <c r="A502" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C502" s="8"/>
-    </row>
-    <row r="503" spans="1:3" ht="45">
-      <c r="A503" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C503" s="8"/>
-    </row>
-    <row r="504" spans="1:3" ht="60">
-      <c r="A504" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C504" s="8"/>
-    </row>
-    <row r="505" spans="1:3" ht="30">
-      <c r="A505" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C505" s="8"/>
-    </row>
-    <row r="506" spans="1:3" ht="45">
-      <c r="A506" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C506" s="8"/>
-    </row>
-    <row r="507" spans="1:3" ht="60">
-      <c r="A507" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C507" s="8"/>
-    </row>
-    <row r="508" spans="1:3" ht="30">
-      <c r="A508" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C508" s="8"/>
-    </row>
-    <row r="509" spans="1:3" ht="30">
-      <c r="A509" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C509" s="8"/>
-    </row>
-    <row r="510" spans="1:3" ht="75">
-      <c r="A510" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C510" s="8"/>
-    </row>
-    <row r="511" spans="1:3" ht="30">
-      <c r="A511" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C511" s="8"/>
-    </row>
-    <row r="512" spans="1:3" ht="90">
-      <c r="A512" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C512" s="8"/>
-    </row>
-    <row r="513" spans="1:3" ht="105">
-      <c r="A513" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C513" s="8"/>
-    </row>
-    <row r="514" spans="1:3" ht="30">
-      <c r="A514" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C514" s="8"/>
-    </row>
-    <row r="515" spans="1:3" ht="105">
-      <c r="A515" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C515" s="8"/>
-    </row>
-    <row r="516" spans="1:3" ht="105">
-      <c r="A516" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C516" s="8"/>
-    </row>
-    <row r="517" spans="1:3" ht="30">
-      <c r="A517" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C517" s="8"/>
-    </row>
-    <row r="518" spans="1:3" ht="90">
-      <c r="A518" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C518" s="8"/>
-    </row>
-    <row r="519" spans="1:3" ht="75">
-      <c r="A519" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C519" s="8"/>
-    </row>
-    <row r="520" spans="1:3">
-      <c r="A520" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C520" s="8"/>
-    </row>
-    <row r="521" spans="1:3" ht="60">
-      <c r="A521" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C521" s="8"/>
-    </row>
-    <row r="522" spans="1:3" ht="90">
-      <c r="A522" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C522" s="8"/>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C523" s="8"/>
-    </row>
-    <row r="524" spans="1:3" ht="60">
-      <c r="A524" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C524" s="8"/>
-    </row>
-    <row r="525" spans="1:3" ht="90">
-      <c r="A525" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C525" s="8"/>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C526" s="8"/>
-    </row>
-    <row r="527" spans="1:3" ht="45">
-      <c r="A527" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C527" s="8"/>
-    </row>
-    <row r="528" spans="1:3" ht="60">
-      <c r="A528" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C528" s="8"/>
-    </row>
-    <row r="529" spans="1:7">
-      <c r="A529" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C529" s="8"/>
-    </row>
-    <row r="530" spans="1:7" ht="30">
-      <c r="A530" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C530" s="8"/>
-    </row>
-    <row r="531" spans="1:7" ht="45">
-      <c r="A531" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C531" s="8"/>
-    </row>
-    <row r="532" spans="1:7">
-      <c r="A532" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C532" s="8"/>
-    </row>
-    <row r="533" spans="1:7" ht="30">
-      <c r="A533" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C533" s="8"/>
-    </row>
-    <row r="534" spans="1:7" ht="45">
-      <c r="A534" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C534" s="8"/>
-    </row>
-    <row r="535" spans="1:7">
-      <c r="A535" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C535" s="9" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7">
-      <c r="A536" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C536" s="9" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7">
-      <c r="A537" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7">
-      <c r="A538" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7">
-      <c r="A539" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B539" s="1" t="s">
+      <c r="C541" s="4" t="s">
         <v>1258</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7">
-      <c r="A540" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7">
-      <c r="A541" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B541" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C541" s="4" t="s">
-        <v>1262</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>522</v>
@@ -9920,61 +9926,61 @@
         <v>523</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="30">
+    <row r="543" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C544" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" ht="45">
-      <c r="A544" s="1" t="s">
+    </row>
+    <row r="545" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A545" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" ht="30">
-      <c r="A545" s="11" t="s">
-        <v>1277</v>
-      </c>
       <c r="B545" s="7" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D545" s="7"/>
       <c r="E545" s="7"/>
       <c r="F545" s="7"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" ht="30">
+    <row r="546" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A546" s="13" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B546" s="14" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C546" s="14" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D546" s="14"/>
       <c r="E546" s="14"/>
       <c r="F546" s="14"/>
       <c r="G546" s="15"/>
     </row>
-    <row r="547" spans="1:7" ht="30">
+    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" s="11" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B547" s="7" t="s">
         <v>522</v>
@@ -9987,101 +9993,101 @@
       <c r="F547" s="7"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B548" s="16" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B549" s="16" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C549" s="16" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" ht="30">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A550" s="11" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
     </row>
-    <row r="551" spans="1:7" ht="30">
+    <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A551" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B551" s="14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C551" s="14" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A552" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A553" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A554" s="13" t="s">
         <v>1282</v>
       </c>
-      <c r="B551" s="14" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C551" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" ht="30">
-      <c r="A552" s="11" t="s">
+      <c r="B554" s="14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C554" s="14" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A555" s="11" t="s">
         <v>1283</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C552" s="1" t="s">
+      <c r="B555" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C555" s="1" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="30">
-      <c r="A553" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B553" s="7" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C553" s="7" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" ht="30">
-      <c r="A554" s="13" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B554" s="14" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C554" s="14" t="s">
+    <row r="556" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
         <v>1301</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" ht="45">
-      <c r="A555" s="11" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7">
-      <c r="A556" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>522</v>
@@ -10090,39 +10096,39 @@
         <v>523</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B557" s="1">
         <v>1662</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="30">
+    <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" ht="30">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>522</v>
@@ -10131,7 +10137,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="10"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepacheco/cldware_work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91189D1A-90F1-0247-B3DA-42B9093C71D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BC1A7-8FDA-2947-9540-DC15192D0DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3892,21 +3892,9 @@
     <t>certified_software_notice_business_business</t>
   </si>
   <si>
-    <t>Emitido por Cloudware.business - https://cloudware.pt/cloudwarebiz/</t>
-  </si>
-  <si>
     <t>certified_software_notice_business_mbcp</t>
   </si>
   <si>
-    <t>Emitido por M Fatura (Powered by Cloudware.business - https://cloudware.pt/cloudwarebiz/)</t>
-  </si>
-  <si>
-    <t>Created by M Fatura (Powered by Cloudware.business - https://cloudware.pt/cloudwarebiz/)</t>
-  </si>
-  <si>
-    <t>Created by Cloudware.business - https://cloudware.pt/cloudwarebiz/</t>
-  </si>
-  <si>
     <t>document_certified_notice_toconline_toconline</t>
   </si>
   <si>
@@ -3928,9 +3916,6 @@
     <t>document_certified_notice_short_business_business</t>
   </si>
   <si>
-    <t>Processed by Cloudware.business - https://cloudware.pt/cloudwarebiz/</t>
-  </si>
-  <si>
     <t>document_certified_notice_business_mbcp</t>
   </si>
   <si>
@@ -3940,9 +3925,6 @@
     <t>document_certified_notice_short_business_mbcp</t>
   </si>
   <si>
-    <t>Processed by M Fatura (Powered by Cloudware.business - https://cloudware.pt/cloudwarebiz/)</t>
-  </si>
-  <si>
     <t>Os saldos de abertura devem ser coincidentes com os saldos finais do exercício anterior. Não nos foi possível efetuar este teste uma vez que não existe exercício do ano {0}.</t>
   </si>
   <si>
@@ -4016,6 +3998,24 @@
   </si>
   <si>
     <t>Recebemos até esta data {4} {0}  a quantia de {1} ({2}) para a liquidação do documento {3}. {5}</t>
+  </si>
+  <si>
+    <t>Emitido por Cloudware.business - https://app.cloudware.pt</t>
+  </si>
+  <si>
+    <t>Created by Cloudware.business - https://app.cloudware.pt</t>
+  </si>
+  <si>
+    <t>Emitido por M Fatura (Powered by Cloudware.business - https://app.cloudware.pt)</t>
+  </si>
+  <si>
+    <t>Created by M Fatura (Powered by Cloudware.business - https://app.cloudware.pt)</t>
+  </si>
+  <si>
+    <t>Processed by Cloudware.business - https://app.cloudware.pt</t>
+  </si>
+  <si>
+    <t>Processed by M Fatura (Powered by Cloudware.business - https://app.cloudware.pt)</t>
   </si>
 </sst>
 </file>
@@ -4335,7 +4335,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G560" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G560" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
@@ -4614,8 +4613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B324" sqref="B324"/>
+    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="C555" sqref="C555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7432,10 +7431,10 @@
         <v>846</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7443,10 +7442,10 @@
         <v>847</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -9524,7 +9523,7 @@
         <v>1210</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="C500" s="8"/>
     </row>
@@ -9931,32 +9930,32 @@
         <v>1267</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1268</v>
+        <v>1304</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1272</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="544" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1270</v>
+        <v>1306</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1271</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A545" s="11" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="D545" s="7"/>
       <c r="E545" s="7"/>
@@ -9965,13 +9964,13 @@
     </row>
     <row r="546" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A546" s="13" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B546" s="14" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C546" s="14" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D546" s="14"/>
       <c r="E546" s="14"/>
@@ -9980,7 +9979,7 @@
     </row>
     <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" s="11" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B547" s="7" t="s">
         <v>522</v>
@@ -9995,35 +9994,35 @@
     </row>
     <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B548" s="16" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="B549" s="16" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="C549" s="16" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="550" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A550" s="11" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -10032,62 +10031,62 @@
     </row>
     <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A551" s="13" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B551" s="14" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="C551" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A552" s="11" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1268</v>
+        <v>1304</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1280</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A553" s="11" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="554" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A554" s="13" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B554" s="14" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="C554" s="14" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="555" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A555" s="11" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1270</v>
+        <v>1306</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1284</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="556" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>522</v>
@@ -10098,7 +10097,7 @@
     </row>
     <row r="557" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B557" s="1">
         <v>1662</v>
@@ -10106,29 +10105,29 @@
     </row>
     <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>522</v>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepacheco/cldware_work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BC1A7-8FDA-2947-9540-DC15192D0DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CACF5C-9E02-0E40-97CE-4E48B462BAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1322">
   <si>
     <t>key</t>
   </si>
@@ -4016,6 +4016,42 @@
   </si>
   <si>
     <t>Processed by M Fatura (Powered by Cloudware.business - https://app.cloudware.pt)</t>
+  </si>
+  <si>
+    <t>Teste à contabilização de documentos emitidos em faturação</t>
+  </si>
+  <si>
+    <t>Teste à contabilização de outros documentos comerciais</t>
+  </si>
+  <si>
+    <t>Verificamos que todos os documentos emitidos em faturação têm movimento finalizado. Sem exceções.</t>
+  </si>
+  <si>
+    <t>Verificamos que faltam movimentos para documentos emitidos em faturação:</t>
+  </si>
+  <si>
+    <t>Verificamos que todos os documentos dos módulos de Vendas e Compras têm movimento finalizado. Sem exceções.</t>
+  </si>
+  <si>
+    <t>Verificamos que faltam movimentos para documentos comerciais:</t>
+  </si>
+  <si>
+    <t>svat_t41</t>
+  </si>
+  <si>
+    <t>svat_t41_ok</t>
+  </si>
+  <si>
+    <t>svat_t41_nok</t>
+  </si>
+  <si>
+    <t>svat_t42</t>
+  </si>
+  <si>
+    <t>svat_t42_ok</t>
+  </si>
+  <si>
+    <t>svat_t42_nok</t>
   </si>
 </sst>
 </file>
@@ -4334,7 +4370,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G560" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G566" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
@@ -4611,10 +4647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G561"/>
+  <dimension ref="A1:G567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="C555" sqref="C555"/>
+    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9779,7 +9815,7 @@
       </c>
       <c r="C528" s="8"/>
     </row>
-    <row r="529" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>1195</v>
       </c>
@@ -9788,7 +9824,7 @@
       </c>
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>1196</v>
       </c>
@@ -9797,7 +9833,7 @@
       </c>
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9806,7 +9842,7 @@
       </c>
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>1198</v>
       </c>
@@ -9815,7 +9851,7 @@
       </c>
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>1199</v>
       </c>
@@ -9824,7 +9860,7 @@
       </c>
       <c r="C533" s="8"/>
     </row>
-    <row r="534" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>1200</v>
       </c>
@@ -9833,317 +9869,371 @@
       </c>
       <c r="C534" s="8"/>
     </row>
-    <row r="535" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C536" s="8"/>
+    </row>
+    <row r="537" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C537" s="8"/>
+    </row>
+    <row r="538" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C538" s="8"/>
+    </row>
+    <row r="539" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C539" s="8"/>
+    </row>
+    <row r="540" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C540" s="8"/>
+    </row>
+    <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B541" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C535" s="9" t="s">
+      <c r="C541" s="9" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A536" s="1" t="s">
+    <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B542" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C536" s="9" t="s">
+      <c r="C542" s="9" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A537" t="s">
+    <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
         <v>1248</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="B543" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C537" s="1" t="s">
+      <c r="C543" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A538" t="s">
+    <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
         <v>1249</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B544" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C538" s="1" t="s">
+      <c r="C544" s="1" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A539" t="s">
+    <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
         <v>1250</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="B545" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C539" s="1" t="s">
+      <c r="C545" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A540" t="s">
+    <row r="546" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
         <v>1251</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B546" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C540" s="1" t="s">
+      <c r="C546" s="1" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
+    <row r="547" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
         <v>1252</v>
       </c>
-      <c r="B541" s="4" t="s">
+      <c r="B547" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="C541" s="4" t="s">
+      <c r="C547" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="D541" s="4"/>
-      <c r="E541" s="4"/>
-      <c r="F541" s="4"/>
-      <c r="G541" s="4"/>
-    </row>
-    <row r="542" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A542" s="1" t="s">
+      <c r="D547" s="4"/>
+      <c r="E547" s="4"/>
+      <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
+    </row>
+    <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B542" s="1" t="s">
+      <c r="B548" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C542" s="1" t="s">
+      <c r="C548" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A543" s="1" t="s">
+    <row r="549" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="B549" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C543" s="1" t="s">
+      <c r="C549" s="1" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A544" s="1" t="s">
+    <row r="550" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C544" s="1" t="s">
+      <c r="C550" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A545" s="11" t="s">
+    <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A551" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="B545" s="7" t="s">
+      <c r="B551" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="C545" s="7" t="s">
+      <c r="C551" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="D545" s="7"/>
-      <c r="E545" s="7"/>
-      <c r="F545" s="7"/>
-      <c r="G545" s="12"/>
-    </row>
-    <row r="546" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A546" s="13" t="s">
+      <c r="D551" s="7"/>
+      <c r="E551" s="7"/>
+      <c r="F551" s="7"/>
+      <c r="G551" s="12"/>
+    </row>
+    <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A552" s="13" t="s">
         <v>1270</v>
       </c>
-      <c r="B546" s="14" t="s">
+      <c r="B552" s="14" t="s">
         <v>1281</v>
       </c>
-      <c r="C546" s="14" t="s">
+      <c r="C552" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="D546" s="14"/>
-      <c r="E546" s="14"/>
-      <c r="F546" s="14"/>
-      <c r="G546" s="15"/>
-    </row>
-    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A547" s="11" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B547" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C547" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="D547" s="7"/>
-      <c r="E547" s="7"/>
-      <c r="F547" s="7"/>
-      <c r="G547" s="12"/>
-    </row>
-    <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B548" s="16" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C548" s="16" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B549" s="16" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C549" s="16" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A550" s="11" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B550" s="7" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C550" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D550" s="4"/>
-      <c r="E550" s="4"/>
-      <c r="F550" s="4"/>
-      <c r="G550" s="4"/>
-    </row>
-    <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A551" s="13" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B551" s="14" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C551" s="14" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A552" s="11" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>1308</v>
-      </c>
+      <c r="D552" s="14"/>
+      <c r="E552" s="14"/>
+      <c r="F552" s="14"/>
+      <c r="G552" s="15"/>
     </row>
     <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A553" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D553" s="7"/>
+      <c r="E553" s="7"/>
+      <c r="F553" s="7"/>
+      <c r="G553" s="12"/>
+    </row>
+    <row r="554" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B554" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C554" s="16" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B555" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C555" s="16" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A556" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C556" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D556" s="4"/>
+      <c r="E556" s="4"/>
+      <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
+    </row>
+    <row r="557" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A557" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B557" s="14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C557" s="14" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A558" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A559" s="11" t="s">
         <v>1276</v>
       </c>
-      <c r="B553" s="7" t="s">
+      <c r="B559" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="C553" s="7" t="s">
+      <c r="C559" s="7" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A554" s="13" t="s">
+    <row r="560" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A560" s="13" t="s">
         <v>1277</v>
       </c>
-      <c r="B554" s="14" t="s">
+      <c r="B560" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="C554" s="14" t="s">
+      <c r="C560" s="14" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A555" s="11" t="s">
+    <row r="561" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A561" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="B555" s="1" t="s">
+      <c r="B561" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C555" s="1" t="s">
+      <c r="C561" s="1" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A556" s="1" t="s">
+    <row r="562" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B556" s="1" t="s">
+      <c r="B562" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C556" s="1" t="s">
+      <c r="C562" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A557" s="1" t="s">
+    <row r="563" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B557" s="1">
+      <c r="B563" s="1">
         <v>1662</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A558" s="1" t="s">
+    <row r="564" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="B564" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="C558" s="1" t="s">
+      <c r="C564" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A559" s="1" t="s">
+    <row r="565" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="B565" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C559" s="1" t="s">
+      <c r="C565" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A560" s="1" t="s">
+    <row r="566" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B560" s="1" t="s">
+      <c r="B566" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C560" s="1" t="s">
+      <c r="C566" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A561" s="10"/>
-      <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
-      <c r="E561" s="4"/>
-      <c r="F561" s="4"/>
-      <c r="G561" s="4"/>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A567" s="10"/>
+      <c r="B567" s="4"/>
+      <c r="C567" s="4"/>
+      <c r="D567" s="4"/>
+      <c r="E567" s="4"/>
+      <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CACF5C-9E02-0E40-97CE-4E48B462BAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C0947-39B2-C14F-81BB-178572CA6D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1325">
   <si>
     <t>key</t>
   </si>
@@ -4052,6 +4052,15 @@
   </si>
   <si>
     <t>svat_t42_nok</t>
+  </si>
+  <si>
+    <t>Sugestão</t>
+  </si>
+  <si>
+    <t>transaction_suggestion</t>
+  </si>
+  <si>
+    <t>Suggestion</t>
   </si>
 </sst>
 </file>
@@ -4370,7 +4379,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G566" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G567" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
@@ -4647,10 +4656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G567"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="C429" sqref="C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8809,50 +8818,46 @@
     </row>
     <row r="429" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>954</v>
+        <v>1323</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>955</v>
+        <v>1322</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>956</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
+        <v>954</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
         <v>957</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="C431" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="D431" s="4"/>
-      <c r="E431" s="4"/>
-      <c r="F431" s="4"/>
-      <c r="G431" s="4"/>
     </row>
     <row r="432" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -8861,1379 +8866,1394 @@
     </row>
     <row r="433" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D435" s="4"/>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
+    </row>
+    <row r="436" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="C436" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A436" s="1" t="s">
+    <row r="437" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A437" s="1" t="s">
+    <row r="438" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="C438" s="1" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A438" s="1" t="s">
+    <row r="439" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A439" s="1" t="s">
+    <row r="440" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C439" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A440" s="1" t="s">
+    <row r="441" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A441" s="1" t="s">
+    <row r="442" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A442" s="1" t="s">
+    <row r="443" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C442" s="7" t="s">
+      <c r="C443" s="7" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A443" s="1" t="s">
+    <row r="444" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A444" s="1" t="s">
+    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C444" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A445" s="1" t="s">
+    <row r="446" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A446" s="1" t="s">
+    <row r="447" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="C447" s="1" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
+    <row r="448" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="C447" s="1" t="s">
+      <c r="C448" s="1" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A448" s="1" t="s">
+    <row r="449" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C448" s="1" t="s">
+      <c r="C449" s="1" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A449" s="1" t="s">
+    <row r="450" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C449" s="7" t="s">
+      <c r="C450" s="7" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
+    <row r="451" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C450" s="7" t="s">
+      <c r="C451" s="7" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A451" s="1" t="s">
+    <row r="452" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C451" s="7" t="s">
+      <c r="C452" s="7" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A452" s="1" t="s">
+    <row r="453" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C452" s="7" t="s">
+      <c r="C453" s="7" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A453" s="1" t="s">
+    <row r="454" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C453" s="7" t="s">
+      <c r="C454" s="7" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A454" s="1" t="s">
+    <row r="455" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="C455" s="7" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A455" s="1" t="s">
+    <row r="456" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C456" s="7" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A456" s="1" t="s">
+    <row r="457" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C456" s="7" t="s">
+      <c r="C457" s="7" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A457" s="1" t="s">
+    <row r="458" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="C458" s="7" t="s">
         <v>1045</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A458" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B471" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C470" s="1" t="s">
+      <c r="C471" s="1" t="s">
         <v>1114</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A471" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C471" s="8" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B473" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C472" s="8" t="s">
+      <c r="C473" s="8" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A473" s="1" t="s">
+    <row r="474" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B474" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C473" s="8"/>
-    </row>
-    <row r="474" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A474" s="1" t="s">
+      <c r="C474" s="8"/>
+    </row>
+    <row r="475" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B475" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C474" s="8" t="s">
+      <c r="C475" s="8" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A475" s="1" t="s">
+    <row r="476" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B476" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="C475" s="8" t="s">
+      <c r="C476" s="8" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A476" s="1" t="s">
+    <row r="477" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B477" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C476" s="8"/>
-    </row>
-    <row r="477" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A477" s="1" t="s">
+      <c r="C477" s="8"/>
+    </row>
+    <row r="478" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B478" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C477" s="8"/>
-    </row>
-    <row r="478" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A478" s="1" t="s">
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B479" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="C478" s="8"/>
-    </row>
-    <row r="479" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A479" s="1" t="s">
+      <c r="C479" s="8"/>
+    </row>
+    <row r="480" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="C479" s="8"/>
-    </row>
-    <row r="480" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A480" s="1" t="s">
+      <c r="C480" s="8"/>
+    </row>
+    <row r="481" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="C480" s="8"/>
-    </row>
-    <row r="481" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A481" s="1" t="s">
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="C481" s="8"/>
-    </row>
-    <row r="482" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A482" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>1160</v>
       </c>
       <c r="C482" s="8"/>
     </row>
     <row r="483" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="C483" s="8"/>
-    </row>
-    <row r="484" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A484" s="1" t="s">
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C484" s="8"/>
-    </row>
-    <row r="485" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A485" s="1" t="s">
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C485" s="8"/>
-    </row>
-    <row r="486" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A486" s="1" t="s">
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B487" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C486" s="8"/>
-    </row>
-    <row r="487" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A487" s="1" t="s">
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B488" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C487" s="8"/>
-    </row>
-    <row r="488" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A488" s="1" t="s">
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B489" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C488" s="8"/>
-    </row>
-    <row r="489" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A489" s="1" t="s">
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B490" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="C489" s="8"/>
-    </row>
-    <row r="490" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A490" s="1" t="s">
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="B491" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C490" s="8"/>
-    </row>
-    <row r="491" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A491" s="1" t="s">
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="B492" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="C491" s="8"/>
-    </row>
-    <row r="492" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A492" s="1" t="s">
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="C492" s="8"/>
-    </row>
-    <row r="493" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A493" s="1" t="s">
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B494" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="C493" s="8"/>
-    </row>
-    <row r="494" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A494" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="C494" s="8"/>
     </row>
     <row r="495" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B496" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="C495" s="8"/>
-    </row>
-    <row r="496" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A496" s="1" t="s">
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="B497" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C496" s="8"/>
-    </row>
-    <row r="497" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A497" s="1" t="s">
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B498" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C497" s="8"/>
-    </row>
-    <row r="498" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A498" s="1" t="s">
+      <c r="C498" s="8"/>
+    </row>
+    <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="B499" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="C498" s="8"/>
-    </row>
-    <row r="499" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A499" s="1" t="s">
+      <c r="C499" s="8"/>
+    </row>
+    <row r="500" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="B500" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="C499" s="8"/>
-    </row>
-    <row r="500" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A500" s="1" t="s">
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="B501" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="C500" s="8"/>
-    </row>
-    <row r="501" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A501" s="1" t="s">
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B502" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="C501" s="8"/>
-    </row>
-    <row r="502" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A502" s="1" t="s">
+      <c r="C502" s="8"/>
+    </row>
+    <row r="503" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="B503" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="C502" s="8"/>
-    </row>
-    <row r="503" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A503" s="1" t="s">
+      <c r="C503" s="8"/>
+    </row>
+    <row r="504" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="B504" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C503" s="8"/>
-    </row>
-    <row r="504" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A504" s="1" t="s">
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="B505" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="C504" s="8"/>
-    </row>
-    <row r="505" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A505" s="1" t="s">
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="C505" s="8"/>
-    </row>
-    <row r="506" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A506" s="1" t="s">
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C506" s="8"/>
-    </row>
-    <row r="507" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A507" s="1" t="s">
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B508" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="C507" s="8"/>
-    </row>
-    <row r="508" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A508" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>1231</v>
       </c>
       <c r="C508" s="8"/>
     </row>
     <row r="509" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="B510" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="C509" s="8"/>
-    </row>
-    <row r="510" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A510" s="1" t="s">
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B510" s="1" t="s">
+      <c r="B511" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="C510" s="8"/>
-    </row>
-    <row r="511" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A511" s="1" t="s">
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="C511" s="8"/>
-    </row>
-    <row r="512" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A512" s="1" t="s">
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B513" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C512" s="8"/>
-    </row>
-    <row r="513" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A513" s="1" t="s">
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B514" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C513" s="8"/>
-    </row>
-    <row r="514" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A514" s="1" t="s">
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C514" s="8"/>
-    </row>
-    <row r="515" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A515" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>1246</v>
       </c>
       <c r="C515" s="8"/>
     </row>
     <row r="516" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B517" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="C516" s="8"/>
-    </row>
-    <row r="517" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A517" s="1" t="s">
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="C517" s="8"/>
-    </row>
-    <row r="518" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C518" s="8"/>
-    </row>
-    <row r="519" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A519" s="1" t="s">
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="B520" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C519" s="8"/>
-    </row>
-    <row r="520" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A520" s="1" t="s">
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="C520" s="8"/>
-    </row>
-    <row r="521" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A521" s="1" t="s">
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="B522" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="C521" s="8"/>
-    </row>
-    <row r="522" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A522" s="1" t="s">
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B523" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C522" s="8"/>
-    </row>
-    <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A523" s="1" t="s">
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B524" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="C523" s="8"/>
-    </row>
-    <row r="524" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A524" s="1" t="s">
+      <c r="C524" s="8"/>
+    </row>
+    <row r="525" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B524" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="C524" s="8"/>
-    </row>
-    <row r="525" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A525" s="1" t="s">
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C525" s="8"/>
-    </row>
-    <row r="526" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A526" s="1" t="s">
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="C526" s="8"/>
-    </row>
-    <row r="527" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A527" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>1202</v>
       </c>
       <c r="C527" s="8"/>
     </row>
     <row r="528" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="B529" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C528" s="8"/>
-    </row>
-    <row r="529" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A529" s="1" t="s">
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C529" s="8"/>
-    </row>
-    <row r="530" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A530" s="1" t="s">
+      <c r="C530" s="8"/>
+    </row>
+    <row r="531" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="C530" s="8"/>
-    </row>
-    <row r="531" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A531" s="1" t="s">
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="C531" s="8"/>
-    </row>
-    <row r="532" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A532" s="1" t="s">
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="C532" s="8"/>
-    </row>
-    <row r="533" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A533" s="1" t="s">
+      <c r="C533" s="8"/>
+    </row>
+    <row r="534" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B533" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="C533" s="8"/>
-    </row>
-    <row r="534" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A534" s="1" t="s">
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B535" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="C534" s="8"/>
-    </row>
-    <row r="535" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A535" s="1" t="s">
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="C535" s="8"/>
-    </row>
-    <row r="536" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A536" s="1" t="s">
+      <c r="C536" s="8"/>
+    </row>
+    <row r="537" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="C536" s="8"/>
-    </row>
-    <row r="537" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A537" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>1313</v>
       </c>
       <c r="C537" s="8"/>
     </row>
     <row r="538" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C538" s="8"/>
+    </row>
+    <row r="539" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="C538" s="8"/>
-    </row>
-    <row r="539" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A539" s="1" t="s">
+      <c r="C539" s="8"/>
+    </row>
+    <row r="540" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="B540" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="C539" s="8"/>
-    </row>
-    <row r="540" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A540" s="1" t="s">
+      <c r="C540" s="8"/>
+    </row>
+    <row r="541" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B541" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C540" s="8"/>
-    </row>
-    <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A541" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C541" s="9" t="s">
-        <v>1262</v>
-      </c>
+      <c r="C541" s="8"/>
     </row>
     <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C542" s="9" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B542" s="1" t="s">
+      <c r="B543" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C542" s="9" t="s">
+      <c r="C543" s="9" t="s">
         <v>1265</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>958</v>
+        <v>1253</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1254</v>
+        <v>958</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1256</v>
+        <v>953</v>
       </c>
     </row>
     <row r="546" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="547" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
         <v>1252</v>
       </c>
-      <c r="B547" s="4" t="s">
+      <c r="B548" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="C547" s="4" t="s">
+      <c r="C548" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="D547" s="4"/>
-      <c r="E547" s="4"/>
-      <c r="F547" s="4"/>
-      <c r="G547" s="4"/>
-    </row>
-    <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A548" s="1" t="s">
+      <c r="D548" s="4"/>
+      <c r="E548" s="4"/>
+      <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
+    </row>
+    <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B548" s="1" t="s">
+      <c r="B549" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C548" s="1" t="s">
+      <c r="C549" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A549" s="1" t="s">
+    <row r="550" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C549" s="1" t="s">
+      <c r="C550" s="1" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A550" s="1" t="s">
+    <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B550" s="1" t="s">
+      <c r="B551" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C550" s="1" t="s">
+      <c r="C551" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A551" s="11" t="s">
+    <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A552" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="B551" s="7" t="s">
+      <c r="B552" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="C551" s="7" t="s">
+      <c r="C552" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="D551" s="7"/>
-      <c r="E551" s="7"/>
-      <c r="F551" s="7"/>
-      <c r="G551" s="12"/>
-    </row>
-    <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A552" s="13" t="s">
+      <c r="D552" s="7"/>
+      <c r="E552" s="7"/>
+      <c r="F552" s="7"/>
+      <c r="G552" s="12"/>
+    </row>
+    <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A553" s="13" t="s">
         <v>1270</v>
       </c>
-      <c r="B552" s="14" t="s">
+      <c r="B553" s="14" t="s">
         <v>1281</v>
       </c>
-      <c r="C552" s="14" t="s">
+      <c r="C553" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="D552" s="14"/>
-      <c r="E552" s="14"/>
-      <c r="F552" s="14"/>
-      <c r="G552" s="15"/>
-    </row>
-    <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A553" s="11" t="s">
+      <c r="D553" s="14"/>
+      <c r="E553" s="14"/>
+      <c r="F553" s="14"/>
+      <c r="G553" s="15"/>
+    </row>
+    <row r="554" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A554" s="11" t="s">
         <v>1271</v>
       </c>
-      <c r="B553" s="7" t="s">
+      <c r="B554" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C553" s="7" t="s">
+      <c r="C554" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D553" s="7"/>
-      <c r="E553" s="7"/>
-      <c r="F553" s="7"/>
-      <c r="G553" s="12"/>
-    </row>
-    <row r="554" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B554" s="16" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C554" s="16" t="s">
-        <v>1272</v>
-      </c>
+      <c r="D554" s="7"/>
+      <c r="E554" s="7"/>
+      <c r="F554" s="7"/>
+      <c r="G554" s="12"/>
     </row>
     <row r="555" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B555" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C555" s="16" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
         <v>1285</v>
       </c>
-      <c r="B555" s="16" t="s">
+      <c r="B556" s="16" t="s">
         <v>1286</v>
       </c>
-      <c r="C555" s="16" t="s">
+      <c r="C556" s="16" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A556" s="11" t="s">
+    <row r="557" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A557" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="B556" s="7" t="s">
+      <c r="B557" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="C556" s="7" t="s">
+      <c r="C557" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="D556" s="4"/>
-      <c r="E556" s="4"/>
-      <c r="F556" s="4"/>
-      <c r="G556" s="4"/>
-    </row>
-    <row r="557" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A557" s="13" t="s">
+      <c r="D557" s="4"/>
+      <c r="E557" s="4"/>
+      <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
+    </row>
+    <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A558" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="B557" s="14" t="s">
+      <c r="B558" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="C557" s="14" t="s">
+      <c r="C558" s="14" t="s">
         <v>1293</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A558" s="11" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A559" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A560" s="11" t="s">
         <v>1276</v>
       </c>
-      <c r="B559" s="7" t="s">
+      <c r="B560" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="C559" s="7" t="s">
+      <c r="C560" s="7" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A560" s="13" t="s">
+    <row r="561" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A561" s="13" t="s">
         <v>1277</v>
       </c>
-      <c r="B560" s="14" t="s">
+      <c r="B561" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="C560" s="14" t="s">
+      <c r="C561" s="14" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A561" s="11" t="s">
+    <row r="562" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A562" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="B561" s="1" t="s">
+      <c r="B562" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C561" s="1" t="s">
+      <c r="C562" s="1" t="s">
         <v>1309</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A562" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B563" s="1">
+      <c r="B564" s="1">
         <v>1662</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A564" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C564" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="565" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B565" s="1" t="s">
+      <c r="B566" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C565" s="1" t="s">
+      <c r="C566" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A566" s="1" t="s">
+    <row r="567" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B566" s="1" t="s">
+      <c r="B567" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C566" s="1" t="s">
+      <c r="C567" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A567" s="10"/>
-      <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
-      <c r="E567" s="4"/>
-      <c r="F567" s="4"/>
-      <c r="G567" s="4"/>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A568" s="10"/>
+      <c r="B568" s="4"/>
+      <c r="C568" s="4"/>
+      <c r="D568" s="4"/>
+      <c r="E568" s="4"/>
+      <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C0947-39B2-C14F-81BB-178572CA6D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06894E5-4D67-7A41-9507-F8B02B33B67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1327">
   <si>
     <t>key</t>
   </si>
@@ -4061,6 +4061,12 @@
   </si>
   <si>
     <t>Suggestion</t>
+  </si>
+  <si>
+    <t>svat_ok_activity_start</t>
+  </si>
+  <si>
+    <t>Não foi efetuado este teste uma vez que a empresa teve o início de atividade em {0}.</t>
   </si>
 </sst>
 </file>
@@ -4379,7 +4385,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G567" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G568" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
@@ -4656,10 +4662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G568"/>
+  <dimension ref="A1:G569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9943,317 +9949,326 @@
       </c>
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1260</v>
+        <v>1325</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C542" s="9" t="s">
-        <v>1262</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="C542" s="8"/>
     </row>
     <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="B544" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C543" s="9" t="s">
+      <c r="C544" s="9" t="s">
         <v>1265</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>958</v>
+        <v>1253</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="546" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1254</v>
+        <v>958</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1256</v>
+        <v>953</v>
       </c>
     </row>
     <row r="547" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
         <v>1252</v>
       </c>
-      <c r="B548" s="4" t="s">
+      <c r="B549" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="C548" s="4" t="s">
+      <c r="C549" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="D548" s="4"/>
-      <c r="E548" s="4"/>
-      <c r="F548" s="4"/>
-      <c r="G548" s="4"/>
-    </row>
-    <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A549" s="1" t="s">
+      <c r="D549" s="4"/>
+      <c r="E549" s="4"/>
+      <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
+    </row>
+    <row r="550" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C549" s="1" t="s">
+      <c r="C550" s="1" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A550" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B552" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C551" s="1" t="s">
+      <c r="C552" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A552" s="11" t="s">
+    <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A553" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="B552" s="7" t="s">
+      <c r="B553" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="C552" s="7" t="s">
+      <c r="C553" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="D552" s="7"/>
-      <c r="E552" s="7"/>
-      <c r="F552" s="7"/>
-      <c r="G552" s="12"/>
-    </row>
-    <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A553" s="13" t="s">
+      <c r="D553" s="7"/>
+      <c r="E553" s="7"/>
+      <c r="F553" s="7"/>
+      <c r="G553" s="12"/>
+    </row>
+    <row r="554" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A554" s="13" t="s">
         <v>1270</v>
       </c>
-      <c r="B553" s="14" t="s">
+      <c r="B554" s="14" t="s">
         <v>1281</v>
       </c>
-      <c r="C553" s="14" t="s">
+      <c r="C554" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="D553" s="14"/>
-      <c r="E553" s="14"/>
-      <c r="F553" s="14"/>
-      <c r="G553" s="15"/>
-    </row>
-    <row r="554" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A554" s="11" t="s">
+      <c r="D554" s="14"/>
+      <c r="E554" s="14"/>
+      <c r="F554" s="14"/>
+      <c r="G554" s="15"/>
+    </row>
+    <row r="555" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A555" s="11" t="s">
         <v>1271</v>
       </c>
-      <c r="B554" s="7" t="s">
+      <c r="B555" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C554" s="7" t="s">
+      <c r="C555" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D554" s="7"/>
-      <c r="E554" s="7"/>
-      <c r="F554" s="7"/>
-      <c r="G554" s="12"/>
-    </row>
-    <row r="555" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B555" s="16" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C555" s="16" t="s">
-        <v>1272</v>
-      </c>
+      <c r="D555" s="7"/>
+      <c r="E555" s="7"/>
+      <c r="F555" s="7"/>
+      <c r="G555" s="12"/>
     </row>
     <row r="556" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B556" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C556" s="16" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
         <v>1285</v>
       </c>
-      <c r="B556" s="16" t="s">
+      <c r="B557" s="16" t="s">
         <v>1286</v>
       </c>
-      <c r="C556" s="16" t="s">
+      <c r="C557" s="16" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A557" s="11" t="s">
+    <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A558" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="B557" s="7" t="s">
+      <c r="B558" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="C557" s="7" t="s">
+      <c r="C558" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="D557" s="4"/>
-      <c r="E557" s="4"/>
-      <c r="F557" s="4"/>
-      <c r="G557" s="4"/>
-    </row>
-    <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A558" s="13" t="s">
+      <c r="D558" s="4"/>
+      <c r="E558" s="4"/>
+      <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
+    </row>
+    <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A559" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="B558" s="14" t="s">
+      <c r="B559" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="C558" s="14" t="s">
+      <c r="C559" s="14" t="s">
         <v>1293</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A559" s="11" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A560" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A561" s="11" t="s">
         <v>1276</v>
       </c>
-      <c r="B560" s="7" t="s">
+      <c r="B561" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="C560" s="7" t="s">
+      <c r="C561" s="7" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A561" s="13" t="s">
+    <row r="562" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A562" s="13" t="s">
         <v>1277</v>
       </c>
-      <c r="B561" s="14" t="s">
+      <c r="B562" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="C561" s="14" t="s">
+      <c r="C562" s="14" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A562" s="11" t="s">
+    <row r="563" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A563" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="B562" s="1" t="s">
+      <c r="B563" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C562" s="1" t="s">
+      <c r="C563" s="1" t="s">
         <v>1309</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A563" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B564" s="1">
+      <c r="B565" s="1">
         <v>1662</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A565" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C565" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="566" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B566" s="1" t="s">
+      <c r="B567" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C566" s="1" t="s">
+      <c r="C567" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A567" s="1" t="s">
+    <row r="568" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="B568" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C567" s="1" t="s">
+      <c r="C568" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A568" s="10"/>
-      <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
-      <c r="E568" s="4"/>
-      <c r="F568" s="4"/>
-      <c r="G568" s="4"/>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A569" s="10"/>
+      <c r="B569" s="4"/>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="E569" s="4"/>
+      <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falves/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06894E5-4D67-7A41-9507-F8B02B33B67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D66D9A-C068-0E48-8244-0831413D8DF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-660" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1355">
   <si>
     <t>key</t>
   </si>
@@ -4067,6 +4067,90 @@
   </si>
   <si>
     <t>Não foi efetuado este teste uma vez que a empresa teve o início de atividade em {0}.</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_manual</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_reverse</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_sales</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_purchases</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_banks</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_payrolls</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_fixedassets</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_stocks</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_opening</t>
+  </si>
+  <si>
+    <t>accounting_suggestion_type_automatic_balance</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Estorno</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Ativos</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Abertura</t>
+  </si>
+  <si>
+    <t>Apuramento e Fecho</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Payrolls</t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>Opening</t>
+  </si>
+  <si>
+    <t>Automatic Balance</t>
   </si>
 </sst>
 </file>
@@ -4385,7 +4469,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G568" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G578" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
@@ -4662,10 +4746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G569"/>
+  <dimension ref="A1:G578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="A579" sqref="A579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10261,14 +10345,119 @@
         <v>602</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A569" s="10"/>
-      <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
+    <row r="569" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A569" s="10" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C569" s="4" t="s">
+        <v>1337</v>
+      </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
+    </row>
+    <row r="570" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1354</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falves/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D66D9A-C068-0E48-8244-0831413D8DF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A870B-0098-0443-9C8B-DC2C7FB64A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-660" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-620" yWindow="-30800" windowWidth="38360" windowHeight="30800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3574,9 +3574,6 @@
     <t>Verificamos que não existe nenhum movimento de apuramento de resultado líquido, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo no diário correto de apuramento de resultados. Alertamos para a FAQ 15-2887, que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor "0,00" (zero)</t>
   </si>
   <si>
-    <t>Verificamos que não existe nenhum movimento de aplicação de resultados. Confirme por favor se não deverá efetuar esse movimento. Alertamos para a FAQ 14-2886, que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor "0,00" (zero)</t>
-  </si>
-  <si>
     <t>O movimento de apuramento de resultado líquido tem de ser efetuado em diário próprio, para uma correta identificação no ficheiro SAF-T (PT). Verificamos que os seguintes lançamentos estão registados em diário tipificado como apuramento e movimentam contas não expectáveis:</t>
   </si>
   <si>
@@ -3607,9 +3604,6 @@
     <t xml:space="preserve">Verificamos que existe mais do que um movimento de abertura. Por favor verifique se os seguintes registos estão corretos: </t>
   </si>
   <si>
-    <t>Verificamos que não existe nenhum movimento de abertura, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo em outro diário.</t>
-  </si>
-  <si>
     <t>Verificamos que o movimento de aplicação de resultados foi registado até 31 de Março {0}. Teste realizado com sucesso.</t>
   </si>
   <si>
@@ -4066,9 +4060,6 @@
     <t>svat_ok_activity_start</t>
   </si>
   <si>
-    <t>Não foi efetuado este teste uma vez que a empresa teve o início de atividade em {0}.</t>
-  </si>
-  <si>
     <t>accounting_suggestion_type_manual</t>
   </si>
   <si>
@@ -4151,6 +4142,15 @@
   </si>
   <si>
     <t>Automatic Balance</t>
+  </si>
+  <si>
+    <t>Não foi efetuado este teste, uma vez que está definido na ficha da empresa que data de início de atividade da entidade é {0}.</t>
+  </si>
+  <si>
+    <t>Verificamos que não existe nenhum movimento de aplicação de resultados. Confirme por favor se não deverá efetuar esse movimento. Alertamos para a FAQ no portal das finanças que refere que em entidades com atividade, este movimento tem sempre de existir, ainda que tenha valor “0,00” (zero). Poderá ainda definir na ficha da empresa informação sobre a data de início de atividade.</t>
+  </si>
+  <si>
+    <t>Verificamos que não existe nenhum movimento de abertura, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo em outro diário. Poderá ainda definir na ficha da empresa informação sobre a data de início de atividade.</t>
   </si>
 </sst>
 </file>
@@ -4748,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
-      <selection activeCell="A579" sqref="A579"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7525,7 +7525,7 @@
         <v>832</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -7566,10 +7566,10 @@
         <v>846</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -7577,10 +7577,10 @@
         <v>847</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -8908,13 +8908,13 @@
     </row>
     <row r="429" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B429" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -9462,7 +9462,7 @@
         <v>1133</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C478" s="8"/>
     </row>
@@ -9489,7 +9489,7 @@
         <v>1134</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C481" s="8"/>
     </row>
@@ -9498,7 +9498,7 @@
         <v>1139</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C482" s="8"/>
     </row>
@@ -9516,7 +9516,7 @@
         <v>1135</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C484" s="8"/>
     </row>
@@ -9534,7 +9534,7 @@
         <v>1152</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C486" s="8"/>
     </row>
@@ -9543,25 +9543,25 @@
         <v>1136</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C488" s="8"/>
+        <v>1353</v>
+      </c>
+      <c r="C488" s="9"/>
     </row>
     <row r="489" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C489" s="8"/>
     </row>
@@ -9570,7 +9570,7 @@
         <v>1137</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C490" s="8"/>
     </row>
@@ -9579,7 +9579,7 @@
         <v>1142</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C491" s="8"/>
     </row>
@@ -9588,7 +9588,7 @@
         <v>1154</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C492" s="8"/>
     </row>
@@ -9597,7 +9597,7 @@
         <v>1143</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C493" s="8"/>
     </row>
@@ -9606,7 +9606,7 @@
         <v>1144</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C494" s="8"/>
     </row>
@@ -9615,7 +9615,7 @@
         <v>1155</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C495" s="8"/>
     </row>
@@ -9624,34 +9624,34 @@
         <v>1145</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C496" s="8"/>
     </row>
     <row r="497" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C497" s="8"/>
-    </row>
-    <row r="498" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A498" s="1" t="s">
-        <v>1171</v>
-      </c>
       <c r="B498" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C498" s="8"/>
+        <v>1354</v>
+      </c>
+      <c r="C498" s="9"/>
     </row>
     <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C499" s="8"/>
     </row>
@@ -9660,16 +9660,16 @@
         <v>1146</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C500" s="8"/>
     </row>
     <row r="501" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C501" s="8"/>
     </row>
@@ -9678,398 +9678,398 @@
         <v>1147</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C502" s="8"/>
     </row>
     <row r="503" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C503" s="8"/>
     </row>
     <row r="504" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C504" s="8"/>
     </row>
     <row r="505" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C505" s="8"/>
     </row>
     <row r="506" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C506" s="8"/>
     </row>
     <row r="507" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C507" s="8"/>
     </row>
     <row r="508" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C508" s="8"/>
     </row>
     <row r="509" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C509" s="8"/>
     </row>
     <row r="510" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C510" s="8"/>
     </row>
     <row r="511" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C511" s="8"/>
     </row>
     <row r="512" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C512" s="8"/>
     </row>
     <row r="513" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C513" s="8"/>
     </row>
     <row r="514" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C514" s="8"/>
     </row>
     <row r="515" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C515" s="8"/>
     </row>
     <row r="516" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C516" s="8"/>
     </row>
     <row r="517" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C517" s="8"/>
     </row>
     <row r="518" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C518" s="8"/>
     </row>
     <row r="519" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C519" s="8"/>
     </row>
     <row r="520" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C520" s="8"/>
     </row>
     <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C521" s="8"/>
     </row>
     <row r="522" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C522" s="8"/>
     </row>
     <row r="523" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C523" s="8"/>
     </row>
     <row r="524" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C524" s="8"/>
     </row>
     <row r="525" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C525" s="8"/>
     </row>
     <row r="526" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C526" s="8"/>
     </row>
     <row r="527" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C527" s="8"/>
     </row>
     <row r="528" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C528" s="8"/>
     </row>
     <row r="529" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C529" s="8"/>
     </row>
     <row r="530" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C530" s="8"/>
     </row>
     <row r="531" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C531" s="8"/>
     </row>
     <row r="532" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C532" s="8"/>
     </row>
     <row r="533" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C533" s="8"/>
     </row>
     <row r="534" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C534" s="8"/>
     </row>
     <row r="535" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C535" s="8"/>
     </row>
     <row r="536" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C536" s="8"/>
     </row>
     <row r="537" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C537" s="8"/>
     </row>
     <row r="538" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C538" s="8"/>
     </row>
     <row r="539" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C539" s="8"/>
     </row>
     <row r="540" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C540" s="8"/>
     </row>
     <row r="541" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C541" s="8"/>
     </row>
-    <row r="542" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1326</v>
+        <v>1352</v>
       </c>
       <c r="C542" s="8"/>
     </row>
     <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C543" s="9" t="s">
         <v>1260</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C543" s="9" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C544" s="9" t="s">
         <v>1263</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C544" s="9" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>956</v>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="546" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>958</v>
@@ -10088,35 +10088,35 @@
     </row>
     <row r="547" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B547" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B548" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C548" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>1046</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -10125,7 +10125,7 @@
     </row>
     <row r="550" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>522</v>
@@ -10136,35 +10136,35 @@
     </row>
     <row r="551" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="552" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A553" s="11" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B553" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C553" s="7" t="s">
         <v>1280</v>
-      </c>
-      <c r="C553" s="7" t="s">
-        <v>1282</v>
       </c>
       <c r="D553" s="7"/>
       <c r="E553" s="7"/>
@@ -10173,13 +10173,13 @@
     </row>
     <row r="554" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A554" s="13" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B554" s="14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C554" s="14" t="s">
         <v>1281</v>
-      </c>
-      <c r="C554" s="14" t="s">
-        <v>1283</v>
       </c>
       <c r="D554" s="14"/>
       <c r="E554" s="14"/>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="555" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A555" s="11" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B555" s="7" t="s">
         <v>522</v>
@@ -10203,35 +10203,35 @@
     </row>
     <row r="556" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B556" s="16" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C556" s="16" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="557" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B557" s="16" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C557" s="16" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="558" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A558" s="11" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -10240,62 +10240,62 @@
     </row>
     <row r="559" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A559" s="13" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B559" s="14" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C559" s="14" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A560" s="11" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="561" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A561" s="11" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="562" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A562" s="13" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B562" s="14" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C562" s="14" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A563" s="11" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>522</v>
@@ -10306,7 +10306,7 @@
     </row>
     <row r="565" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B565" s="1">
         <v>1662</v>
@@ -10314,29 +10314,29 @@
     </row>
     <row r="566" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B566" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C566" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="567" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B567" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C567" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="568" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>522</v>
@@ -10347,13 +10347,13 @@
     </row>
     <row r="569" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A569" s="10" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -10362,101 +10362,101 @@
     </row>
     <row r="570" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="571" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="572" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="573" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="574" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="575" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="576" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
   </sheetData>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagodias/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A870B-0098-0443-9C8B-DC2C7FB64A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B053FA1-2F3E-F54A-ADE3-8F3E33CC2B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-620" yWindow="-30800" windowWidth="38360" windowHeight="30800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1359">
   <si>
     <t>key</t>
   </si>
@@ -4152,6 +4152,18 @@
   <si>
     <t>Verificamos que não existe nenhum movimento de abertura, ou se existir não está registado no diário correto. Por favor verifique se deve fazer este movimento ou se deve registar o mesmo em outro diário. Poderá ainda definir na ficha da empresa informação sobre a data de início de atividade.</t>
   </si>
+  <si>
+    <t>product_name_toconline</t>
+  </si>
+  <si>
+    <t>product_name_business</t>
+  </si>
+  <si>
+    <t>TOConline</t>
+  </si>
+  <si>
+    <t>Cloudware.business</t>
+  </si>
 </sst>
 </file>
 
@@ -4185,6 +4197,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4469,7 +4482,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G578" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="i18n" displayName="i18n" ref="A1:G580" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pt" dataDxfId="5"/>
@@ -4746,10 +4759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G578"/>
+  <dimension ref="A1:G580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="B498" sqref="B498"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="B566" sqref="B566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10457,6 +10470,28 @@
       </c>
       <c r="C578" s="1" t="s">
         <v>1351</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1358</v>
       </c>
     </row>
   </sheetData>

--- a/config/i18n/i18n.xlsx
+++ b/config/i18n/i18n.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagodias/work/sp-duh/config/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/work/sp-duh/config/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B053FA1-2F3E-F54A-ADE3-8F3E33CC2B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF3707-FC8D-844E-919C-D7ABF222650C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1363">
   <si>
     <t>key</t>
   </si>
@@ -4163,6 +4163,18 @@
   </si>
   <si>
     <t>Cloudware.business</t>
+  </si>
+  <si>
+    <t>svat_unbalanced</t>
+  </si>
+  <si>
+    <t>svat_unbalanced_nok</t>
+  </si>
+  <si>
+    <t>Teste a movimentos finalizados em moeda estrangeira</t>
+  </si>
+  <si>
+    <t>Verificamos que alguns movimentos efectuados em moeda estrangeira não estão consistentes, por favor reabra e corrija os seguintes movimentos:</t>
   </si>
 </sst>
 </file>
@@ -4482,7 +4494,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{000